--- a/BackTest/2019-10-29 BackTest TRV.xlsx
+++ b/BackTest/2019-10-29 BackTest TRV.xlsx
@@ -456,97 +456,91 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>56.8</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>35310.5146</v>
+      </c>
+      <c r="G3" t="n">
+        <v>56.79999999999999</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2663.60334904014</v>
+      </c>
+      <c r="G4" t="n">
+        <v>56.77999999999999</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>35310.5146</v>
-      </c>
-      <c r="G3" t="n">
-        <v>56.79999999999999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="E4" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2663.60334904014</v>
-      </c>
-      <c r="G4" t="n">
-        <v>56.77999999999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -582,7 +576,9 @@
       <c r="J5" t="n">
         <v>57.3</v>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>57.4</v>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -615,15 +611,15 @@
         <v>56.74999999999998</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>57.4</v>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -656,15 +652,15 @@
         <v>56.73999999999997</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>57.4</v>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -697,15 +693,15 @@
         <v>56.73499999999998</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>57.4</v>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -738,15 +734,15 @@
         <v>56.74999999999998</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>57.4</v>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -779,15 +775,15 @@
         <v>56.74499999999998</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>57.4</v>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -820,15 +816,15 @@
         <v>56.78999999999998</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>57.4</v>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -861,15 +857,15 @@
         <v>56.85499999999998</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
         <v>57.4</v>
       </c>
-      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -902,15 +898,15 @@
         <v>56.86999999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>57.4</v>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -943,15 +939,15 @@
         <v>56.86</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>57.4</v>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -984,15 +980,15 @@
         <v>56.875</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>57.4</v>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1025,15 +1021,15 @@
         <v>56.90500000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>57.4</v>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1066,15 +1062,15 @@
         <v>56.94500000000001</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>57.4</v>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1107,15 +1103,15 @@
         <v>56.97000000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>57.4</v>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1148,15 +1144,15 @@
         <v>57</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>57</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>57.4</v>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1189,15 +1185,15 @@
         <v>57.02</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>57</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>57.4</v>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1230,15 +1226,15 @@
         <v>57.025</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>57</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>57.4</v>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1277,7 +1273,9 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>57.4</v>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1313,17 +1311,19 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>57.4</v>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0.9880313588850175</v>
       </c>
     </row>
     <row r="24">
@@ -1352,16 +1352,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1456,17 +1454,13 @@
         <v>57.00000000000002</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="K27" t="n">
-        <v>57.7</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
@@ -1501,14 +1495,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1542,14 +1530,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1583,14 +1565,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1624,14 +1600,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1665,14 +1635,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1706,14 +1670,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1747,14 +1705,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1788,14 +1740,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1826,17 +1772,11 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1867,17 +1807,11 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1911,14 +1845,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1949,17 +1877,11 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1993,14 +1915,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2034,14 +1950,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2075,14 +1985,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2116,14 +2020,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2157,14 +2055,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2198,14 +2090,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2239,14 +2125,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2280,14 +2160,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2321,14 +2195,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2362,14 +2230,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2403,14 +2265,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2444,14 +2300,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2485,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2526,14 +2370,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2567,14 +2405,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2608,14 +2440,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2649,14 +2475,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2690,14 +2510,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2731,14 +2545,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2772,14 +2580,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2813,14 +2615,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2854,14 +2650,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2895,14 +2685,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2936,14 +2720,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2977,14 +2755,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3018,14 +2790,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3059,14 +2825,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3100,14 +2860,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3141,14 +2895,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3182,14 +2930,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3223,14 +2965,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3264,14 +3000,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3305,14 +3035,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3346,14 +3070,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3387,14 +3105,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3428,14 +3140,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3469,14 +3175,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3510,14 +3210,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3551,14 +3245,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3592,14 +3280,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3633,14 +3315,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3674,14 +3350,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3715,14 +3385,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3756,14 +3420,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3797,14 +3455,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3838,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3879,14 +3525,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3920,14 +3560,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3961,14 +3595,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4002,14 +3630,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4043,14 +3665,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4084,14 +3700,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4125,14 +3735,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4166,14 +3770,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4207,14 +3805,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4248,14 +3840,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4289,14 +3875,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4330,14 +3910,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4371,14 +3945,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4412,14 +3980,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4453,14 +4015,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4494,14 +4050,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4535,14 +4085,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4576,14 +4120,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4617,14 +4155,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4658,14 +4190,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4699,14 +4225,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4740,14 +4260,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4781,14 +4295,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4822,14 +4330,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4863,14 +4365,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4904,14 +4400,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4945,14 +4435,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4986,14 +4470,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5027,14 +4505,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5068,14 +4540,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5109,14 +4575,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5150,14 +4610,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5191,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5232,14 +4680,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5273,14 +4715,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5314,14 +4750,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5355,14 +4785,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5396,14 +4820,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5437,14 +4855,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5478,14 +4890,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5519,14 +4925,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5560,14 +4960,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5601,14 +4995,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5642,14 +5030,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5683,14 +5065,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5724,14 +5100,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5765,14 +5135,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5806,14 +5170,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5847,14 +5205,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5888,14 +5240,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5929,14 +5275,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5970,14 +5310,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -6011,14 +5345,8 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -6052,14 +5380,8 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6093,14 +5415,8 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6134,14 +5450,8 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6175,14 +5485,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6216,14 +5520,8 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6257,14 +5555,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6298,14 +5590,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6339,14 +5625,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6380,14 +5660,8 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6421,14 +5695,8 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6462,14 +5730,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6503,14 +5765,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6544,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6585,14 +5835,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6626,14 +5870,8 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6667,14 +5905,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6708,14 +5940,8 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6749,14 +5975,8 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6790,14 +6010,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6831,14 +6045,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6872,14 +6080,8 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6913,14 +6115,8 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6954,14 +6150,8 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6995,14 +6185,8 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -7036,14 +6220,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -7077,14 +6255,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -7118,14 +6290,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -7159,14 +6325,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -7200,14 +6360,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7241,14 +6395,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7282,14 +6430,8 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7323,14 +6465,8 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7364,14 +6500,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7405,14 +6535,8 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7446,14 +6570,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7487,14 +6605,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7528,14 +6640,8 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7569,14 +6675,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7610,14 +6710,8 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7651,14 +6745,8 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7692,14 +6780,8 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7733,14 +6815,8 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7774,14 +6850,8 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7815,14 +6885,8 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7856,14 +6920,8 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7897,14 +6955,8 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7938,14 +6990,8 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7979,14 +7025,8 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -8020,14 +7060,8 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -8061,14 +7095,8 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -8102,14 +7130,8 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -8143,14 +7165,8 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -8184,14 +7200,8 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -8225,14 +7235,8 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-29 BackTest TRV.xlsx
+++ b/BackTest/2019-10-29 BackTest TRV.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M192"/>
+  <dimension ref="A1:M193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>56.8</v>
+        <v>56.9</v>
       </c>
       <c r="C2" t="n">
         <v>57.4</v>
@@ -442,16 +442,16 @@
         <v>57.4</v>
       </c>
       <c r="E2" t="n">
-        <v>56.8</v>
+        <v>56.9</v>
       </c>
       <c r="F2" t="n">
-        <v>38665.15849808363</v>
+        <v>204193.3515</v>
       </c>
       <c r="G2" t="n">
-        <v>56.79</v>
+        <v>58.47333333333334</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -468,35 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>57.1</v>
+        <v>56.8</v>
       </c>
       <c r="C3" t="n">
-        <v>57.1</v>
+        <v>57.4</v>
       </c>
       <c r="D3" t="n">
-        <v>57.1</v>
+        <v>57.4</v>
       </c>
       <c r="E3" t="n">
-        <v>57.1</v>
+        <v>56.8</v>
       </c>
       <c r="F3" t="n">
-        <v>35310.5146</v>
+        <v>38665.15849808363</v>
       </c>
       <c r="G3" t="n">
-        <v>56.79999999999999</v>
+        <v>58.40833333333334</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>57.4</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,37 +506,29 @@
         <v>57.1</v>
       </c>
       <c r="C4" t="n">
-        <v>57.3</v>
+        <v>57.1</v>
       </c>
       <c r="D4" t="n">
-        <v>57.3</v>
+        <v>57.1</v>
       </c>
       <c r="E4" t="n">
         <v>57.1</v>
       </c>
       <c r="F4" t="n">
-        <v>2663.60334904014</v>
+        <v>35310.5146</v>
       </c>
       <c r="G4" t="n">
-        <v>56.77999999999999</v>
+        <v>58.33666666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -550,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>57.3</v>
+        <v>57.1</v>
       </c>
       <c r="C5" t="n">
         <v>57.3</v>
@@ -562,28 +550,20 @@
         <v>57.1</v>
       </c>
       <c r="F5" t="n">
-        <v>62545.3669</v>
+        <v>2663.60334904014</v>
       </c>
       <c r="G5" t="n">
-        <v>56.76999999999998</v>
+        <v>58.27</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -602,13 +582,13 @@
         <v>57.3</v>
       </c>
       <c r="E6" t="n">
-        <v>57.3</v>
+        <v>57.1</v>
       </c>
       <c r="F6" t="n">
-        <v>49721.0296</v>
+        <v>62545.3669</v>
       </c>
       <c r="G6" t="n">
-        <v>56.74999999999998</v>
+        <v>58.20500000000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -617,14 +597,8 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -637,19 +611,19 @@
         <v>57.3</v>
       </c>
       <c r="C7" t="n">
-        <v>57.5</v>
+        <v>57.3</v>
       </c>
       <c r="D7" t="n">
-        <v>57.5</v>
+        <v>57.3</v>
       </c>
       <c r="E7" t="n">
         <v>57.3</v>
       </c>
       <c r="F7" t="n">
-        <v>96549.00395095986</v>
+        <v>49721.0296</v>
       </c>
       <c r="G7" t="n">
-        <v>56.73999999999997</v>
+        <v>58.14333333333335</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -658,14 +632,8 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -675,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="C8" t="n">
         <v>57.5</v>
       </c>
-      <c r="C8" t="n">
-        <v>57.7</v>
-      </c>
       <c r="D8" t="n">
-        <v>57.7</v>
+        <v>57.5</v>
       </c>
       <c r="E8" t="n">
-        <v>57.5</v>
+        <v>57.3</v>
       </c>
       <c r="F8" t="n">
-        <v>81194.02100191638</v>
+        <v>96549.00395095986</v>
       </c>
       <c r="G8" t="n">
-        <v>56.73499999999998</v>
+        <v>58.10000000000002</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -699,14 +667,8 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -716,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="C9" t="n">
         <v>57.7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>56.4</v>
       </c>
       <c r="D9" t="n">
         <v>57.7</v>
       </c>
       <c r="E9" t="n">
-        <v>56.4</v>
+        <v>57.5</v>
       </c>
       <c r="F9" t="n">
-        <v>41782.5085354121</v>
+        <v>81194.02100191638</v>
       </c>
       <c r="G9" t="n">
-        <v>56.74999999999998</v>
+        <v>58.05666666666668</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -740,14 +702,8 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -757,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>56.9</v>
+        <v>57.7</v>
       </c>
       <c r="C10" t="n">
-        <v>57.3</v>
+        <v>56.4</v>
       </c>
       <c r="D10" t="n">
-        <v>57.3</v>
+        <v>57.7</v>
       </c>
       <c r="E10" t="n">
-        <v>56.6</v>
+        <v>56.4</v>
       </c>
       <c r="F10" t="n">
-        <v>78669.1645</v>
+        <v>41782.5085354121</v>
       </c>
       <c r="G10" t="n">
-        <v>56.74499999999998</v>
+        <v>57.98666666666668</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -781,14 +737,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -798,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="C11" t="n">
         <v>57.3</v>
       </c>
-      <c r="C11" t="n">
-        <v>57.4</v>
-      </c>
       <c r="D11" t="n">
-        <v>57.5</v>
+        <v>57.3</v>
       </c>
       <c r="E11" t="n">
-        <v>57</v>
+        <v>56.6</v>
       </c>
       <c r="F11" t="n">
-        <v>67304.9644979094</v>
+        <v>78669.1645</v>
       </c>
       <c r="G11" t="n">
-        <v>56.78999999999998</v>
+        <v>57.94166666666668</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -822,14 +772,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -839,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="C12" t="n">
         <v>57.4</v>
       </c>
-      <c r="C12" t="n">
-        <v>56.9</v>
-      </c>
       <c r="D12" t="n">
-        <v>57.4</v>
+        <v>57.5</v>
       </c>
       <c r="E12" t="n">
-        <v>56.9</v>
+        <v>57</v>
       </c>
       <c r="F12" t="n">
-        <v>14998.90930209059</v>
+        <v>67304.9644979094</v>
       </c>
       <c r="G12" t="n">
-        <v>56.85499999999998</v>
+        <v>57.89833333333335</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -863,14 +807,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -880,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="C13" t="n">
         <v>56.9</v>
       </c>
-      <c r="C13" t="n">
-        <v>56.8</v>
-      </c>
       <c r="D13" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="E13" t="n">
         <v>56.9</v>
       </c>
-      <c r="E13" t="n">
-        <v>56.8</v>
-      </c>
       <c r="F13" t="n">
-        <v>26490.2349</v>
+        <v>14998.90930209059</v>
       </c>
       <c r="G13" t="n">
-        <v>56.86999999999999</v>
+        <v>57.84333333333336</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -904,14 +842,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -921,7 +853,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>56.4</v>
+        <v>56.9</v>
       </c>
       <c r="C14" t="n">
         <v>56.8</v>
@@ -930,13 +862,13 @@
         <v>56.9</v>
       </c>
       <c r="E14" t="n">
-        <v>56.4</v>
+        <v>56.8</v>
       </c>
       <c r="F14" t="n">
-        <v>40499.4065</v>
+        <v>26490.2349</v>
       </c>
       <c r="G14" t="n">
-        <v>56.86</v>
+        <v>57.78500000000002</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -945,14 +877,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -962,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>56.5</v>
+        <v>56.4</v>
       </c>
       <c r="C15" t="n">
-        <v>56.7</v>
+        <v>56.8</v>
       </c>
       <c r="D15" t="n">
-        <v>56.8</v>
+        <v>56.9</v>
       </c>
       <c r="E15" t="n">
-        <v>56.5</v>
+        <v>56.4</v>
       </c>
       <c r="F15" t="n">
-        <v>33848.76306619719</v>
+        <v>40499.4065</v>
       </c>
       <c r="G15" t="n">
-        <v>56.875</v>
+        <v>57.72500000000002</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -986,14 +912,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1003,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="C16" t="n">
         <v>56.7</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>56.8</v>
       </c>
-      <c r="D16" t="n">
-        <v>56.9</v>
-      </c>
       <c r="E16" t="n">
-        <v>56.7</v>
+        <v>56.5</v>
       </c>
       <c r="F16" t="n">
-        <v>15857.75063380282</v>
+        <v>33848.76306619719</v>
       </c>
       <c r="G16" t="n">
-        <v>56.90500000000001</v>
+        <v>57.66166666666668</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1027,14 +947,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1044,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="C17" t="n">
         <v>56.8</v>
       </c>
-      <c r="C17" t="n">
-        <v>56.6</v>
-      </c>
       <c r="D17" t="n">
-        <v>56.8</v>
+        <v>56.9</v>
       </c>
       <c r="E17" t="n">
-        <v>56.6</v>
+        <v>56.7</v>
       </c>
       <c r="F17" t="n">
-        <v>27263.39456619718</v>
+        <v>15857.75063380282</v>
       </c>
       <c r="G17" t="n">
-        <v>56.94500000000001</v>
+        <v>57.60000000000002</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1068,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1085,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>56.5</v>
+        <v>56.8</v>
       </c>
       <c r="C18" t="n">
-        <v>57</v>
+        <v>56.6</v>
       </c>
       <c r="D18" t="n">
-        <v>57</v>
+        <v>56.8</v>
       </c>
       <c r="E18" t="n">
-        <v>56.4</v>
+        <v>56.6</v>
       </c>
       <c r="F18" t="n">
-        <v>1051781.210060563</v>
+        <v>27263.39456619718</v>
       </c>
       <c r="G18" t="n">
-        <v>56.97000000000001</v>
+        <v>57.53833333333335</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1109,14 +1017,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1126,7 +1028,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>57</v>
+        <v>56.5</v>
       </c>
       <c r="C19" t="n">
         <v>57</v>
@@ -1135,13 +1037,13 @@
         <v>57</v>
       </c>
       <c r="E19" t="n">
-        <v>56.5</v>
+        <v>56.4</v>
       </c>
       <c r="F19" t="n">
-        <v>71002062.3602</v>
+        <v>1051781.210060563</v>
       </c>
       <c r="G19" t="n">
-        <v>57</v>
+        <v>57.48666666666669</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1150,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1173,16 +1069,16 @@
         <v>57</v>
       </c>
       <c r="D20" t="n">
-        <v>57.1</v>
+        <v>57</v>
       </c>
       <c r="E20" t="n">
-        <v>56.7</v>
+        <v>56.5</v>
       </c>
       <c r="F20" t="n">
-        <v>127050494.0849</v>
+        <v>71002062.3602</v>
       </c>
       <c r="G20" t="n">
-        <v>57.02</v>
+        <v>57.44666666666669</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1191,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1220,10 +1110,10 @@
         <v>56.7</v>
       </c>
       <c r="F21" t="n">
-        <v>136117335.1924093</v>
+        <v>127050494.0849</v>
       </c>
       <c r="G21" t="n">
-        <v>57.025</v>
+        <v>57.40666666666668</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1232,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1255,16 +1139,16 @@
         <v>57</v>
       </c>
       <c r="D22" t="n">
-        <v>57</v>
+        <v>57.1</v>
       </c>
       <c r="E22" t="n">
-        <v>57</v>
+        <v>56.7</v>
       </c>
       <c r="F22" t="n">
-        <v>77357334.207</v>
+        <v>136117335.1924093</v>
       </c>
       <c r="G22" t="n">
-        <v>57.035</v>
+        <v>57.36500000000002</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1273,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1296,34 +1174,28 @@
         <v>57</v>
       </c>
       <c r="D23" t="n">
-        <v>57.1</v>
+        <v>57</v>
       </c>
       <c r="E23" t="n">
         <v>57</v>
       </c>
       <c r="F23" t="n">
-        <v>31027540.44512807</v>
+        <v>77357334.207</v>
       </c>
       <c r="G23" t="n">
-        <v>57.03000000000001</v>
+        <v>57.32500000000002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>0.9880313588850175</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1331,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>56.8</v>
+        <v>57</v>
       </c>
       <c r="C24" t="n">
-        <v>56.9</v>
+        <v>57</v>
       </c>
       <c r="D24" t="n">
-        <v>56.9</v>
+        <v>57.1</v>
       </c>
       <c r="E24" t="n">
-        <v>56.8</v>
+        <v>57</v>
       </c>
       <c r="F24" t="n">
-        <v>14836.3921</v>
+        <v>31027540.44512807</v>
       </c>
       <c r="G24" t="n">
-        <v>57.01500000000001</v>
+        <v>57.28666666666668</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1366,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="C25" t="n">
         <v>56.9</v>
       </c>
-      <c r="C25" t="n">
-        <v>57</v>
-      </c>
       <c r="D25" t="n">
-        <v>57</v>
+        <v>56.9</v>
       </c>
       <c r="E25" t="n">
-        <v>56.9</v>
+        <v>56.8</v>
       </c>
       <c r="F25" t="n">
-        <v>12940.1231</v>
+        <v>14836.3921</v>
       </c>
       <c r="G25" t="n">
-        <v>56.99500000000002</v>
+        <v>57.24833333333335</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1401,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="C26" t="n">
         <v>57</v>
       </c>
-      <c r="C26" t="n">
-        <v>57.8</v>
-      </c>
       <c r="D26" t="n">
-        <v>57.9</v>
+        <v>57</v>
       </c>
       <c r="E26" t="n">
-        <v>57</v>
+        <v>56.9</v>
       </c>
       <c r="F26" t="n">
-        <v>102060.1217671886</v>
+        <v>12940.1231</v>
       </c>
       <c r="G26" t="n">
-        <v>56.98000000000002</v>
+        <v>57.21666666666668</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1436,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>57.7</v>
+        <v>57</v>
       </c>
       <c r="C27" t="n">
-        <v>57.7</v>
+        <v>57.8</v>
       </c>
       <c r="D27" t="n">
-        <v>57.7</v>
+        <v>57.9</v>
       </c>
       <c r="E27" t="n">
-        <v>57.7</v>
+        <v>57</v>
       </c>
       <c r="F27" t="n">
-        <v>4326.6782</v>
+        <v>102060.1217671886</v>
       </c>
       <c r="G27" t="n">
-        <v>57.00000000000002</v>
+        <v>57.20166666666669</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1471,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>57.6</v>
+        <v>57.7</v>
       </c>
       <c r="C28" t="n">
-        <v>57.6</v>
+        <v>57.7</v>
       </c>
       <c r="D28" t="n">
         <v>57.7</v>
       </c>
       <c r="E28" t="n">
-        <v>57.6</v>
+        <v>57.7</v>
       </c>
       <c r="F28" t="n">
-        <v>50944.3488</v>
+        <v>4326.6782</v>
       </c>
       <c r="G28" t="n">
-        <v>57.00500000000002</v>
+        <v>57.18166666666669</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1509,19 +1381,19 @@
         <v>57.6</v>
       </c>
       <c r="C29" t="n">
-        <v>57.4</v>
+        <v>57.6</v>
       </c>
       <c r="D29" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="E29" t="n">
         <v>57.6</v>
       </c>
-      <c r="E29" t="n">
-        <v>57.4</v>
-      </c>
       <c r="F29" t="n">
-        <v>6087.418</v>
+        <v>50944.3488</v>
       </c>
       <c r="G29" t="n">
-        <v>57.00000000000001</v>
+        <v>57.15000000000001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1541,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>57.4</v>
+        <v>57.6</v>
       </c>
       <c r="C30" t="n">
         <v>57.4</v>
       </c>
       <c r="D30" t="n">
-        <v>57.4</v>
+        <v>57.6</v>
       </c>
       <c r="E30" t="n">
         <v>57.4</v>
       </c>
       <c r="F30" t="n">
-        <v>1715.5805</v>
+        <v>6087.418</v>
       </c>
       <c r="G30" t="n">
-        <v>57.02500000000001</v>
+        <v>57.11833333333335</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1588,10 +1460,10 @@
         <v>57.4</v>
       </c>
       <c r="F31" t="n">
-        <v>1717.4446</v>
+        <v>1715.5805</v>
       </c>
       <c r="G31" t="n">
-        <v>57.03000000000002</v>
+        <v>57.08833333333335</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1614,19 +1486,19 @@
         <v>57.4</v>
       </c>
       <c r="C32" t="n">
-        <v>57.7</v>
+        <v>57.4</v>
       </c>
       <c r="D32" t="n">
-        <v>57.7</v>
+        <v>57.4</v>
       </c>
       <c r="E32" t="n">
         <v>57.4</v>
       </c>
       <c r="F32" t="n">
-        <v>18002361.7356</v>
+        <v>1717.4446</v>
       </c>
       <c r="G32" t="n">
-        <v>57.03000000000002</v>
+        <v>57.06333333333335</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1646,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>57.7</v>
+        <v>57.4</v>
       </c>
       <c r="C33" t="n">
         <v>57.7</v>
       </c>
       <c r="D33" t="n">
-        <v>57.8</v>
+        <v>57.7</v>
       </c>
       <c r="E33" t="n">
-        <v>57.7</v>
+        <v>57.4</v>
       </c>
       <c r="F33" t="n">
-        <v>134038003.0213991</v>
+        <v>18002361.7356</v>
       </c>
       <c r="G33" t="n">
-        <v>57.07000000000001</v>
+        <v>57.03666666666668</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1684,19 +1556,19 @@
         <v>57.7</v>
       </c>
       <c r="C34" t="n">
-        <v>58.8</v>
+        <v>57.7</v>
       </c>
       <c r="D34" t="n">
-        <v>58.8</v>
+        <v>57.8</v>
       </c>
       <c r="E34" t="n">
         <v>57.7</v>
       </c>
       <c r="F34" t="n">
-        <v>28013085.02010879</v>
+        <v>134038003.0213991</v>
       </c>
       <c r="G34" t="n">
-        <v>57.13500000000001</v>
+        <v>57.01666666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1716,7 +1588,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>58.5</v>
+        <v>57.7</v>
       </c>
       <c r="C35" t="n">
         <v>58.8</v>
@@ -1725,13 +1597,13 @@
         <v>58.8</v>
       </c>
       <c r="E35" t="n">
-        <v>58.5</v>
+        <v>57.7</v>
       </c>
       <c r="F35" t="n">
-        <v>9639.098599999999</v>
+        <v>28013085.02010879</v>
       </c>
       <c r="G35" t="n">
-        <v>57.23500000000001</v>
+        <v>57.02500000000001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1751,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="C36" t="n">
         <v>58.8</v>
-      </c>
-      <c r="C36" t="n">
-        <v>58.3</v>
       </c>
       <c r="D36" t="n">
         <v>58.8</v>
       </c>
       <c r="E36" t="n">
-        <v>58.3</v>
+        <v>58.5</v>
       </c>
       <c r="F36" t="n">
-        <v>2041913.5914</v>
+        <v>9639.098599999999</v>
       </c>
       <c r="G36" t="n">
-        <v>57.34000000000001</v>
+        <v>57.04166666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1786,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>58.3</v>
+        <v>58.8</v>
       </c>
       <c r="C37" t="n">
         <v>58.3</v>
       </c>
       <c r="D37" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="E37" t="n">
         <v>58.3</v>
       </c>
-      <c r="E37" t="n">
-        <v>58.2</v>
-      </c>
       <c r="F37" t="n">
-        <v>139292804.9656</v>
+        <v>2041913.5914</v>
       </c>
       <c r="G37" t="n">
-        <v>57.41500000000001</v>
+        <v>57.06833333333335</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1824,19 +1696,19 @@
         <v>58.3</v>
       </c>
       <c r="C38" t="n">
-        <v>58.7</v>
+        <v>58.3</v>
       </c>
       <c r="D38" t="n">
-        <v>58.7</v>
+        <v>58.3</v>
       </c>
       <c r="E38" t="n">
-        <v>58.3</v>
+        <v>58.2</v>
       </c>
       <c r="F38" t="n">
-        <v>25886103.0504</v>
+        <v>139292804.9656</v>
       </c>
       <c r="G38" t="n">
-        <v>57.50500000000001</v>
+        <v>57.10666666666668</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1856,28 +1728,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="C39" t="n">
         <v>58.7</v>
       </c>
-      <c r="C39" t="n">
-        <v>58.8</v>
-      </c>
       <c r="D39" t="n">
-        <v>59.2</v>
+        <v>58.7</v>
       </c>
       <c r="E39" t="n">
-        <v>58.7</v>
+        <v>58.3</v>
       </c>
       <c r="F39" t="n">
-        <v>38158.7024945946</v>
+        <v>25886103.0504</v>
       </c>
       <c r="G39" t="n">
-        <v>57.59000000000001</v>
+        <v>57.14166666666668</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1891,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>59.1</v>
+        <v>58.7</v>
       </c>
       <c r="C40" t="n">
-        <v>59.1</v>
+        <v>58.8</v>
       </c>
       <c r="D40" t="n">
         <v>59.2</v>
       </c>
       <c r="E40" t="n">
-        <v>59.1</v>
+        <v>58.7</v>
       </c>
       <c r="F40" t="n">
-        <v>26139.2919</v>
+        <v>38158.7024945946</v>
       </c>
       <c r="G40" t="n">
-        <v>57.69500000000001</v>
+        <v>57.18833333333335</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1926,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>58.9</v>
+        <v>59.1</v>
       </c>
       <c r="C41" t="n">
-        <v>59.3</v>
+        <v>59.1</v>
       </c>
       <c r="D41" t="n">
-        <v>59.4</v>
+        <v>59.2</v>
       </c>
       <c r="E41" t="n">
-        <v>58.9</v>
+        <v>59.1</v>
       </c>
       <c r="F41" t="n">
-        <v>158594.1741054054</v>
+        <v>26139.2919</v>
       </c>
       <c r="G41" t="n">
-        <v>57.79000000000001</v>
+        <v>57.24166666666668</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1961,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>59.5</v>
+        <v>58.9</v>
       </c>
       <c r="C42" t="n">
-        <v>60.1</v>
+        <v>59.3</v>
       </c>
       <c r="D42" t="n">
-        <v>60.1</v>
+        <v>59.4</v>
       </c>
       <c r="E42" t="n">
-        <v>59.5</v>
+        <v>58.9</v>
       </c>
       <c r="F42" t="n">
-        <v>211032.6491282303</v>
+        <v>158594.1741054054</v>
       </c>
       <c r="G42" t="n">
-        <v>57.91500000000001</v>
+        <v>57.28333333333335</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1996,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="C43" t="n">
         <v>60.1</v>
       </c>
-      <c r="C43" t="n">
-        <v>60.2</v>
-      </c>
       <c r="D43" t="n">
-        <v>60.3</v>
+        <v>60.1</v>
       </c>
       <c r="E43" t="n">
-        <v>59.9</v>
+        <v>59.5</v>
       </c>
       <c r="F43" t="n">
-        <v>306391.6086703151</v>
+        <v>211032.6491282303</v>
       </c>
       <c r="G43" t="n">
-        <v>58.07000000000001</v>
+        <v>57.33666666666668</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2031,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="C44" t="n">
         <v>60.2</v>
       </c>
-      <c r="C44" t="n">
-        <v>61.3</v>
-      </c>
       <c r="D44" t="n">
-        <v>61.3</v>
+        <v>60.3</v>
       </c>
       <c r="E44" t="n">
-        <v>60.2</v>
+        <v>59.9</v>
       </c>
       <c r="F44" t="n">
-        <v>685300.04550584</v>
+        <v>306391.6086703151</v>
       </c>
       <c r="G44" t="n">
-        <v>58.24000000000001</v>
+        <v>57.38500000000001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2066,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>61.2</v>
+        <v>60.2</v>
       </c>
       <c r="C45" t="n">
-        <v>61.2</v>
+        <v>61.3</v>
       </c>
       <c r="D45" t="n">
-        <v>61.6</v>
+        <v>61.3</v>
       </c>
       <c r="E45" t="n">
-        <v>61.2</v>
+        <v>60.2</v>
       </c>
       <c r="F45" t="n">
-        <v>317710.3701</v>
+        <v>685300.04550584</v>
       </c>
       <c r="G45" t="n">
-        <v>58.45500000000001</v>
+        <v>57.44833333333334</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2101,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>61</v>
+        <v>61.2</v>
       </c>
       <c r="C46" t="n">
-        <v>60.1</v>
+        <v>61.2</v>
       </c>
       <c r="D46" t="n">
-        <v>61</v>
+        <v>61.6</v>
       </c>
       <c r="E46" t="n">
-        <v>60.1</v>
+        <v>61.2</v>
       </c>
       <c r="F46" t="n">
-        <v>131476.6069</v>
+        <v>317710.3701</v>
       </c>
       <c r="G46" t="n">
-        <v>58.65500000000001</v>
+        <v>57.50666666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2136,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>60.2</v>
+        <v>61</v>
       </c>
       <c r="C47" t="n">
-        <v>60.2</v>
+        <v>60.1</v>
       </c>
       <c r="D47" t="n">
-        <v>60.9</v>
+        <v>61</v>
       </c>
       <c r="E47" t="n">
-        <v>60.2</v>
+        <v>60.1</v>
       </c>
       <c r="F47" t="n">
-        <v>55163.8643</v>
+        <v>131476.6069</v>
       </c>
       <c r="G47" t="n">
-        <v>58.78000000000001</v>
+        <v>57.54166666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2174,19 +2046,19 @@
         <v>60.2</v>
       </c>
       <c r="C48" t="n">
-        <v>60.5</v>
+        <v>60.2</v>
       </c>
       <c r="D48" t="n">
-        <v>60.5</v>
+        <v>60.9</v>
       </c>
       <c r="E48" t="n">
         <v>60.2</v>
       </c>
       <c r="F48" t="n">
-        <v>81173.9762</v>
+        <v>55163.8643</v>
       </c>
       <c r="G48" t="n">
-        <v>58.91000000000001</v>
+        <v>57.58500000000001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2206,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>60.9</v>
+        <v>60.2</v>
       </c>
       <c r="C49" t="n">
-        <v>61</v>
+        <v>60.5</v>
       </c>
       <c r="D49" t="n">
-        <v>61</v>
+        <v>60.5</v>
       </c>
       <c r="E49" t="n">
-        <v>60.5</v>
+        <v>60.2</v>
       </c>
       <c r="F49" t="n">
-        <v>113259.972</v>
+        <v>81173.9762</v>
       </c>
       <c r="G49" t="n">
-        <v>59.07500000000002</v>
+        <v>57.63666666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2244,19 +2116,19 @@
         <v>60.9</v>
       </c>
       <c r="C50" t="n">
-        <v>60.6</v>
+        <v>61</v>
       </c>
       <c r="D50" t="n">
         <v>61</v>
       </c>
       <c r="E50" t="n">
-        <v>60.6</v>
+        <v>60.5</v>
       </c>
       <c r="F50" t="n">
-        <v>68975.50900000001</v>
+        <v>113259.972</v>
       </c>
       <c r="G50" t="n">
-        <v>59.25000000000002</v>
+        <v>57.70000000000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2279,19 +2151,19 @@
         <v>60.9</v>
       </c>
       <c r="C51" t="n">
-        <v>61.1</v>
+        <v>60.6</v>
       </c>
       <c r="D51" t="n">
-        <v>61.1</v>
+        <v>61</v>
       </c>
       <c r="E51" t="n">
-        <v>60.9</v>
+        <v>60.6</v>
       </c>
       <c r="F51" t="n">
-        <v>264527.4579</v>
+        <v>68975.50900000001</v>
       </c>
       <c r="G51" t="n">
-        <v>59.42500000000003</v>
+        <v>57.77</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2311,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>61.2</v>
+        <v>60.9</v>
       </c>
       <c r="C52" t="n">
-        <v>61.2</v>
+        <v>61.1</v>
       </c>
       <c r="D52" t="n">
-        <v>61.2</v>
+        <v>61.1</v>
       </c>
       <c r="E52" t="n">
-        <v>61</v>
+        <v>60.9</v>
       </c>
       <c r="F52" t="n">
-        <v>68331.64030718955</v>
+        <v>264527.4579</v>
       </c>
       <c r="G52" t="n">
-        <v>59.61500000000002</v>
+        <v>57.85333333333334</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2349,19 +2221,19 @@
         <v>61.2</v>
       </c>
       <c r="C53" t="n">
-        <v>61.3</v>
+        <v>61.2</v>
       </c>
       <c r="D53" t="n">
-        <v>61.4</v>
+        <v>61.2</v>
       </c>
       <c r="E53" t="n">
-        <v>61.2</v>
+        <v>61</v>
       </c>
       <c r="F53" t="n">
-        <v>90782.07819281046</v>
+        <v>68331.64030718955</v>
       </c>
       <c r="G53" t="n">
-        <v>59.79000000000002</v>
+        <v>57.93166666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2381,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="C54" t="n">
         <v>61.3</v>
       </c>
-      <c r="C54" t="n">
-        <v>61.7</v>
-      </c>
       <c r="D54" t="n">
-        <v>61.7</v>
+        <v>61.4</v>
       </c>
       <c r="E54" t="n">
-        <v>61</v>
+        <v>61.2</v>
       </c>
       <c r="F54" t="n">
-        <v>306944.7903</v>
+        <v>90782.07819281046</v>
       </c>
       <c r="G54" t="n">
-        <v>59.97000000000001</v>
+        <v>58.01166666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2416,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>61.8</v>
+        <v>61.3</v>
       </c>
       <c r="C55" t="n">
-        <v>61.8</v>
+        <v>61.7</v>
       </c>
       <c r="D55" t="n">
-        <v>62.4</v>
+        <v>61.7</v>
       </c>
       <c r="E55" t="n">
-        <v>61.8</v>
+        <v>61</v>
       </c>
       <c r="F55" t="n">
-        <v>533645.6855100961</v>
+        <v>306944.7903</v>
       </c>
       <c r="G55" t="n">
-        <v>60.13500000000001</v>
+        <v>58.09833333333334</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2451,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>62.1</v>
+        <v>61.8</v>
       </c>
       <c r="C56" t="n">
-        <v>61.7</v>
+        <v>61.8</v>
       </c>
       <c r="D56" t="n">
-        <v>62.1</v>
+        <v>62.4</v>
       </c>
       <c r="E56" t="n">
-        <v>61.2</v>
+        <v>61.8</v>
       </c>
       <c r="F56" t="n">
-        <v>262414.0553</v>
+        <v>533645.6855100961</v>
       </c>
       <c r="G56" t="n">
-        <v>60.30000000000001</v>
+        <v>58.19333333333334</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2486,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>61.7</v>
+        <v>62.1</v>
       </c>
       <c r="C57" t="n">
         <v>61.7</v>
       </c>
       <c r="D57" t="n">
-        <v>61.8</v>
+        <v>62.1</v>
       </c>
       <c r="E57" t="n">
-        <v>61.3</v>
+        <v>61.2</v>
       </c>
       <c r="F57" t="n">
-        <v>28493.5016</v>
+        <v>262414.0553</v>
       </c>
       <c r="G57" t="n">
-        <v>60.47000000000001</v>
+        <v>58.28833333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2521,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>61.4</v>
+        <v>61.7</v>
       </c>
       <c r="C58" t="n">
-        <v>61.6</v>
+        <v>61.7</v>
       </c>
       <c r="D58" t="n">
-        <v>61.7</v>
+        <v>61.8</v>
       </c>
       <c r="E58" t="n">
         <v>61.3</v>
       </c>
       <c r="F58" t="n">
-        <v>73003.6982</v>
+        <v>28493.5016</v>
       </c>
       <c r="G58" t="n">
-        <v>60.62500000000002</v>
+        <v>58.38333333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2556,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>61.5</v>
+        <v>61.4</v>
       </c>
       <c r="C59" t="n">
-        <v>61.5</v>
+        <v>61.6</v>
       </c>
       <c r="D59" t="n">
-        <v>61.6</v>
+        <v>61.7</v>
       </c>
       <c r="E59" t="n">
-        <v>61.1</v>
+        <v>61.3</v>
       </c>
       <c r="F59" t="n">
-        <v>139481.100200813</v>
+        <v>73003.6982</v>
       </c>
       <c r="G59" t="n">
-        <v>60.76500000000002</v>
+        <v>58.47</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2591,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>61.4</v>
+        <v>61.5</v>
       </c>
       <c r="C60" t="n">
-        <v>61.4</v>
+        <v>61.5</v>
       </c>
       <c r="D60" t="n">
-        <v>61.4</v>
+        <v>61.6</v>
       </c>
       <c r="E60" t="n">
-        <v>61.3</v>
+        <v>61.1</v>
       </c>
       <c r="F60" t="n">
-        <v>75264.49980000001</v>
+        <v>139481.100200813</v>
       </c>
       <c r="G60" t="n">
-        <v>60.88000000000003</v>
+        <v>58.55166666666666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2626,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>61.6</v>
+        <v>61.4</v>
       </c>
       <c r="C61" t="n">
-        <v>61.9</v>
+        <v>61.4</v>
       </c>
       <c r="D61" t="n">
-        <v>62</v>
+        <v>61.4</v>
       </c>
       <c r="E61" t="n">
-        <v>61.4</v>
+        <v>61.3</v>
       </c>
       <c r="F61" t="n">
-        <v>91790.3904</v>
+        <v>75264.49980000001</v>
       </c>
       <c r="G61" t="n">
-        <v>61.01500000000002</v>
+        <v>58.62666666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2661,7 +2533,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>61.9</v>
+        <v>61.6</v>
       </c>
       <c r="C62" t="n">
         <v>61.9</v>
@@ -2670,13 +2542,13 @@
         <v>62</v>
       </c>
       <c r="E62" t="n">
-        <v>61.5</v>
+        <v>61.4</v>
       </c>
       <c r="F62" t="n">
-        <v>250318.2907887097</v>
+        <v>91790.3904</v>
       </c>
       <c r="G62" t="n">
-        <v>61.13500000000003</v>
+        <v>58.70166666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2696,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>61.8</v>
+        <v>61.9</v>
       </c>
       <c r="C63" t="n">
-        <v>62</v>
+        <v>61.9</v>
       </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="n">
-        <v>61.8</v>
+        <v>61.5</v>
       </c>
       <c r="F63" t="n">
-        <v>27991.04361129032</v>
+        <v>250318.2907887097</v>
       </c>
       <c r="G63" t="n">
-        <v>61.22000000000003</v>
+        <v>58.77666666666666</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2731,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="C64" t="n">
         <v>62</v>
       </c>
-      <c r="C64" t="n">
-        <v>61.9</v>
-      </c>
       <c r="D64" t="n">
-        <v>62.2</v>
+        <v>62</v>
       </c>
       <c r="E64" t="n">
-        <v>61.9</v>
+        <v>61.8</v>
       </c>
       <c r="F64" t="n">
-        <v>126089.8463</v>
+        <v>27991.04361129032</v>
       </c>
       <c r="G64" t="n">
-        <v>61.31000000000002</v>
+        <v>58.85833333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2766,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>62</v>
+      </c>
+      <c r="C65" t="n">
         <v>61.9</v>
-      </c>
-      <c r="C65" t="n">
-        <v>61.8</v>
       </c>
       <c r="D65" t="n">
         <v>62.2</v>
       </c>
       <c r="E65" t="n">
-        <v>61.6</v>
+        <v>61.9</v>
       </c>
       <c r="F65" t="n">
-        <v>151879.5547665595</v>
+        <v>126089.8463</v>
       </c>
       <c r="G65" t="n">
-        <v>61.34500000000003</v>
+        <v>58.935</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2801,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="C66" t="n">
         <v>61.8</v>
       </c>
-      <c r="C66" t="n">
-        <v>61.5</v>
-      </c>
       <c r="D66" t="n">
-        <v>62.3</v>
+        <v>62.2</v>
       </c>
       <c r="E66" t="n">
-        <v>61.4</v>
+        <v>61.6</v>
       </c>
       <c r="F66" t="n">
-        <v>215185.6092110754</v>
+        <v>151879.5547665595</v>
       </c>
       <c r="G66" t="n">
-        <v>61.38500000000003</v>
+        <v>59.01</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2836,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="C67" t="n">
         <v>61.5</v>
       </c>
-      <c r="C67" t="n">
-        <v>61</v>
-      </c>
       <c r="D67" t="n">
-        <v>61.5</v>
+        <v>62.3</v>
       </c>
       <c r="E67" t="n">
-        <v>61</v>
+        <v>61.4</v>
       </c>
       <c r="F67" t="n">
-        <v>202131.6068959283</v>
+        <v>215185.6092110754</v>
       </c>
       <c r="G67" t="n">
-        <v>61.45000000000002</v>
+        <v>59.08</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2871,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="C68" t="n">
         <v>61</v>
       </c>
-      <c r="C68" t="n">
-        <v>60.5</v>
-      </c>
       <c r="D68" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="E68" t="n">
         <v>61</v>
       </c>
-      <c r="E68" t="n">
-        <v>60.5</v>
-      </c>
       <c r="F68" t="n">
-        <v>50671.4001</v>
+        <v>202131.6068959283</v>
       </c>
       <c r="G68" t="n">
-        <v>61.49000000000002</v>
+        <v>59.13833333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2906,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>60.6</v>
+        <v>61</v>
       </c>
       <c r="C69" t="n">
-        <v>60.8</v>
+        <v>60.5</v>
       </c>
       <c r="D69" t="n">
-        <v>61.2</v>
+        <v>61</v>
       </c>
       <c r="E69" t="n">
         <v>60.5</v>
       </c>
       <c r="F69" t="n">
-        <v>78564.1185</v>
+        <v>50671.4001</v>
       </c>
       <c r="G69" t="n">
-        <v>61.47500000000001</v>
+        <v>59.185</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2941,10 +2813,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>61.1</v>
+        <v>60.6</v>
       </c>
       <c r="C70" t="n">
-        <v>60.5</v>
+        <v>60.8</v>
       </c>
       <c r="D70" t="n">
         <v>61.2</v>
@@ -2953,10 +2825,10 @@
         <v>60.5</v>
       </c>
       <c r="F70" t="n">
-        <v>116139.4281</v>
+        <v>78564.1185</v>
       </c>
       <c r="G70" t="n">
-        <v>61.485</v>
+        <v>59.25833333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2976,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>60.6</v>
+        <v>61.1</v>
       </c>
       <c r="C71" t="n">
         <v>60.5</v>
       </c>
       <c r="D71" t="n">
-        <v>60.6</v>
+        <v>61.2</v>
       </c>
       <c r="E71" t="n">
-        <v>60.2</v>
+        <v>60.5</v>
       </c>
       <c r="F71" t="n">
-        <v>89447.45590718955</v>
+        <v>116139.4281</v>
       </c>
       <c r="G71" t="n">
-        <v>61.46999999999999</v>
+        <v>59.31166666666666</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3011,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="C72" t="n">
         <v>60.5</v>
       </c>
-      <c r="C72" t="n">
-        <v>60.3</v>
-      </c>
       <c r="D72" t="n">
-        <v>61.1</v>
+        <v>60.6</v>
       </c>
       <c r="E72" t="n">
         <v>60.2</v>
       </c>
       <c r="F72" t="n">
-        <v>54673.07648330605</v>
+        <v>89447.45590718955</v>
       </c>
       <c r="G72" t="n">
-        <v>61.43499999999999</v>
+        <v>59.36333333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3046,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="C73" t="n">
         <v>60.3</v>
       </c>
-      <c r="C73" t="n">
-        <v>60.8</v>
-      </c>
       <c r="D73" t="n">
-        <v>60.9</v>
+        <v>61.1</v>
       </c>
       <c r="E73" t="n">
-        <v>60</v>
+        <v>60.2</v>
       </c>
       <c r="F73" t="n">
-        <v>104233.1754</v>
+        <v>54673.07648330605</v>
       </c>
       <c r="G73" t="n">
-        <v>61.38999999999999</v>
+        <v>59.41999999999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3081,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>60.1</v>
+        <v>60.3</v>
       </c>
       <c r="C74" t="n">
-        <v>59.9</v>
+        <v>60.8</v>
       </c>
       <c r="D74" t="n">
-        <v>60.1</v>
+        <v>60.9</v>
       </c>
       <c r="E74" t="n">
-        <v>59.1</v>
+        <v>60</v>
       </c>
       <c r="F74" t="n">
-        <v>93689.6326</v>
+        <v>104233.1754</v>
       </c>
       <c r="G74" t="n">
-        <v>61.32999999999998</v>
+        <v>59.48666666666666</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3116,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="C75" t="n">
         <v>59.9</v>
       </c>
-      <c r="C75" t="n">
-        <v>59.6</v>
-      </c>
       <c r="D75" t="n">
-        <v>59.9</v>
+        <v>60.1</v>
       </c>
       <c r="E75" t="n">
-        <v>59.3</v>
+        <v>59.1</v>
       </c>
       <c r="F75" t="n">
-        <v>128052.9376</v>
+        <v>93689.6326</v>
       </c>
       <c r="G75" t="n">
-        <v>61.23499999999999</v>
+        <v>59.53833333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3151,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="C76" t="n">
         <v>59.6</v>
-      </c>
-      <c r="C76" t="n">
-        <v>59</v>
       </c>
       <c r="D76" t="n">
         <v>59.9</v>
       </c>
       <c r="E76" t="n">
-        <v>58.8</v>
+        <v>59.3</v>
       </c>
       <c r="F76" t="n">
-        <v>227863.3954</v>
+        <v>128052.9376</v>
       </c>
       <c r="G76" t="n">
-        <v>61.10999999999999</v>
+        <v>59.58666666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3186,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="C77" t="n">
         <v>59</v>
       </c>
-      <c r="C77" t="n">
-        <v>58.3</v>
-      </c>
       <c r="D77" t="n">
-        <v>59</v>
+        <v>59.9</v>
       </c>
       <c r="E77" t="n">
-        <v>58.2</v>
+        <v>58.8</v>
       </c>
       <c r="F77" t="n">
-        <v>233605.6099</v>
+        <v>227863.3954</v>
       </c>
       <c r="G77" t="n">
-        <v>60.97499999999999</v>
+        <v>59.62333333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3221,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>58.1</v>
+        <v>59</v>
       </c>
       <c r="C78" t="n">
-        <v>57.5</v>
+        <v>58.3</v>
       </c>
       <c r="D78" t="n">
-        <v>58.1</v>
+        <v>59</v>
       </c>
       <c r="E78" t="n">
-        <v>57.5</v>
+        <v>58.2</v>
       </c>
       <c r="F78" t="n">
-        <v>74836.10060000001</v>
+        <v>233605.6099</v>
       </c>
       <c r="G78" t="n">
-        <v>60.80999999999998</v>
+        <v>59.65166666666666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3256,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>57.4</v>
+        <v>58.1</v>
       </c>
       <c r="C79" t="n">
-        <v>57.8</v>
+        <v>57.5</v>
       </c>
       <c r="D79" t="n">
-        <v>57.8</v>
+        <v>58.1</v>
       </c>
       <c r="E79" t="n">
-        <v>57</v>
+        <v>57.5</v>
       </c>
       <c r="F79" t="n">
-        <v>410988.2761</v>
+        <v>74836.10060000001</v>
       </c>
       <c r="G79" t="n">
-        <v>60.60499999999998</v>
+        <v>59.66</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3291,32 +3163,38 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>57.7</v>
+        <v>57.4</v>
       </c>
       <c r="C80" t="n">
-        <v>58.3</v>
+        <v>57.8</v>
       </c>
       <c r="D80" t="n">
-        <v>58.5</v>
+        <v>57.8</v>
       </c>
       <c r="E80" t="n">
+        <v>57</v>
+      </c>
+      <c r="F80" t="n">
+        <v>410988.2761</v>
+      </c>
+      <c r="G80" t="n">
+        <v>59.67333333333333</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
         <v>57.5</v>
       </c>
-      <c r="F80" t="n">
-        <v>128482.5190752137</v>
-      </c>
-      <c r="G80" t="n">
-        <v>60.41999999999998</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3326,32 +3204,38 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>58.2</v>
+        <v>57.7</v>
       </c>
       <c r="C81" t="n">
-        <v>58.9</v>
+        <v>58.3</v>
       </c>
       <c r="D81" t="n">
-        <v>59.1</v>
+        <v>58.5</v>
       </c>
       <c r="E81" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="F81" t="n">
+        <v>128482.5190752137</v>
+      </c>
+      <c r="G81" t="n">
+        <v>59.69500000000001</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
         <v>57.8</v>
       </c>
-      <c r="F81" t="n">
-        <v>86465.8149</v>
-      </c>
-      <c r="G81" t="n">
-        <v>60.24999999999999</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3361,32 +3245,38 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>58.8</v>
+        <v>58.2</v>
       </c>
       <c r="C82" t="n">
-        <v>58.8</v>
+        <v>58.9</v>
       </c>
       <c r="D82" t="n">
-        <v>58.8</v>
+        <v>59.1</v>
       </c>
       <c r="E82" t="n">
-        <v>58.8</v>
+        <v>57.8</v>
       </c>
       <c r="F82" t="n">
-        <v>8779.681</v>
+        <v>86465.8149</v>
       </c>
       <c r="G82" t="n">
-        <v>60.09499999999998</v>
+        <v>59.72666666666667</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>58.3</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3399,19 +3289,19 @@
         <v>58.8</v>
       </c>
       <c r="C83" t="n">
-        <v>58.5</v>
+        <v>58.8</v>
       </c>
       <c r="D83" t="n">
         <v>58.8</v>
       </c>
       <c r="E83" t="n">
-        <v>58.3</v>
+        <v>58.8</v>
       </c>
       <c r="F83" t="n">
-        <v>41955.12093129252</v>
+        <v>8779.681</v>
       </c>
       <c r="G83" t="n">
-        <v>59.94499999999998</v>
+        <v>59.75666666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3421,7 +3311,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3431,22 +3325,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>58.4</v>
+        <v>58.8</v>
       </c>
       <c r="C84" t="n">
         <v>58.5</v>
       </c>
       <c r="D84" t="n">
-        <v>58.9</v>
+        <v>58.8</v>
       </c>
       <c r="E84" t="n">
-        <v>57.9</v>
+        <v>58.3</v>
       </c>
       <c r="F84" t="n">
-        <v>96036.55662658662</v>
+        <v>41955.12093129252</v>
       </c>
       <c r="G84" t="n">
-        <v>59.76499999999999</v>
+        <v>59.78166666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3456,7 +3350,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3466,22 +3364,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>58.4</v>
+      </c>
+      <c r="C85" t="n">
         <v>58.5</v>
       </c>
-      <c r="C85" t="n">
-        <v>57.8</v>
-      </c>
       <c r="D85" t="n">
-        <v>58.5</v>
+        <v>58.9</v>
       </c>
       <c r="E85" t="n">
-        <v>57.8</v>
+        <v>57.9</v>
       </c>
       <c r="F85" t="n">
-        <v>55078.1228034188</v>
+        <v>96036.55662658662</v>
       </c>
       <c r="G85" t="n">
-        <v>59.59499999999998</v>
+        <v>59.80833333333334</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3491,7 +3389,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3501,22 +3403,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>58.2</v>
+        <v>58.5</v>
       </c>
       <c r="C86" t="n">
-        <v>58.3</v>
+        <v>57.8</v>
       </c>
       <c r="D86" t="n">
-        <v>58.3</v>
+        <v>58.5</v>
       </c>
       <c r="E86" t="n">
-        <v>58.1</v>
+        <v>57.8</v>
       </c>
       <c r="F86" t="n">
-        <v>5112.5979</v>
+        <v>55078.1228034188</v>
       </c>
       <c r="G86" t="n">
-        <v>59.41499999999998</v>
+        <v>59.82166666666668</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3526,7 +3428,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3536,22 +3442,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>58.4</v>
+        <v>58.2</v>
       </c>
       <c r="C87" t="n">
-        <v>58.9</v>
+        <v>58.3</v>
       </c>
       <c r="D87" t="n">
-        <v>58.9</v>
+        <v>58.3</v>
       </c>
       <c r="E87" t="n">
-        <v>58.3</v>
+        <v>58.1</v>
       </c>
       <c r="F87" t="n">
-        <v>44352.6073</v>
+        <v>5112.5979</v>
       </c>
       <c r="G87" t="n">
-        <v>59.25999999999999</v>
+        <v>59.83000000000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3561,7 +3467,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3571,22 +3481,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>58.8</v>
+        <v>58.4</v>
       </c>
       <c r="C88" t="n">
-        <v>58.1</v>
+        <v>58.9</v>
       </c>
       <c r="D88" t="n">
-        <v>58.8</v>
+        <v>58.9</v>
       </c>
       <c r="E88" t="n">
-        <v>58.1</v>
+        <v>58.3</v>
       </c>
       <c r="F88" t="n">
-        <v>127342.7377</v>
+        <v>44352.6073</v>
       </c>
       <c r="G88" t="n">
-        <v>59.14999999999999</v>
+        <v>59.85000000000002</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3596,7 +3506,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3606,22 +3520,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>58.4</v>
+        <v>58.8</v>
       </c>
       <c r="C89" t="n">
-        <v>58.3</v>
+        <v>58.1</v>
       </c>
       <c r="D89" t="n">
-        <v>58.4</v>
+        <v>58.8</v>
       </c>
       <c r="E89" t="n">
-        <v>58.3</v>
+        <v>58.1</v>
       </c>
       <c r="F89" t="n">
-        <v>3585.5017</v>
+        <v>127342.7377</v>
       </c>
       <c r="G89" t="n">
-        <v>59.04</v>
+        <v>59.85833333333335</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3631,7 +3545,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3644,29 +3562,35 @@
         <v>58.4</v>
       </c>
       <c r="C90" t="n">
-        <v>58.6</v>
+        <v>58.3</v>
       </c>
       <c r="D90" t="n">
-        <v>58.7</v>
+        <v>58.4</v>
       </c>
       <c r="E90" t="n">
-        <v>58.4</v>
+        <v>58.3</v>
       </c>
       <c r="F90" t="n">
-        <v>59207.8775</v>
+        <v>3585.5017</v>
       </c>
       <c r="G90" t="n">
-        <v>58.90500000000001</v>
+        <v>59.87333333333335</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>58.1</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3676,32 +3600,38 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>58.5</v>
+        <v>58.4</v>
       </c>
       <c r="C91" t="n">
-        <v>58.7</v>
+        <v>58.6</v>
       </c>
       <c r="D91" t="n">
         <v>58.7</v>
       </c>
       <c r="E91" t="n">
-        <v>58.5</v>
+        <v>58.4</v>
       </c>
       <c r="F91" t="n">
-        <v>20171.93201260647</v>
+        <v>59207.8775</v>
       </c>
       <c r="G91" t="n">
-        <v>58.80000000000001</v>
+        <v>59.89333333333335</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>58.3</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3711,22 +3641,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="C92" t="n">
         <v>58.7</v>
       </c>
-      <c r="C92" t="n">
-        <v>59.2</v>
-      </c>
       <c r="D92" t="n">
-        <v>59.2</v>
+        <v>58.7</v>
       </c>
       <c r="E92" t="n">
-        <v>58.7</v>
+        <v>58.5</v>
       </c>
       <c r="F92" t="n">
-        <v>42362.8567</v>
+        <v>20171.93201260647</v>
       </c>
       <c r="G92" t="n">
-        <v>58.71000000000002</v>
+        <v>59.91500000000001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3736,7 +3666,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3746,22 +3680,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>59</v>
+        <v>58.7</v>
       </c>
       <c r="C93" t="n">
-        <v>59.1</v>
+        <v>59.2</v>
       </c>
       <c r="D93" t="n">
-        <v>59.1</v>
+        <v>59.2</v>
       </c>
       <c r="E93" t="n">
-        <v>59</v>
+        <v>58.7</v>
       </c>
       <c r="F93" t="n">
-        <v>6565.1743</v>
+        <v>42362.8567</v>
       </c>
       <c r="G93" t="n">
-        <v>58.64500000000002</v>
+        <v>59.94000000000001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3771,7 +3705,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3781,22 +3719,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
+        <v>59</v>
+      </c>
+      <c r="C94" t="n">
         <v>59.1</v>
-      </c>
-      <c r="C94" t="n">
-        <v>58.9</v>
       </c>
       <c r="D94" t="n">
         <v>59.1</v>
       </c>
       <c r="E94" t="n">
-        <v>58.9</v>
+        <v>59</v>
       </c>
       <c r="F94" t="n">
-        <v>57381.2367</v>
+        <v>6565.1743</v>
       </c>
       <c r="G94" t="n">
-        <v>58.59500000000001</v>
+        <v>59.96333333333335</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3806,7 +3744,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3816,22 +3758,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="C95" t="n">
         <v>58.9</v>
       </c>
-      <c r="C95" t="n">
-        <v>58.3</v>
-      </c>
       <c r="D95" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="E95" t="n">
         <v>58.9</v>
       </c>
-      <c r="E95" t="n">
-        <v>58.3</v>
-      </c>
       <c r="F95" t="n">
-        <v>87363.1765</v>
+        <v>57381.2367</v>
       </c>
       <c r="G95" t="n">
-        <v>58.54500000000002</v>
+        <v>59.96500000000001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3841,7 +3783,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3851,22 +3797,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>58.4</v>
+        <v>58.9</v>
       </c>
       <c r="C96" t="n">
-        <v>58.1</v>
+        <v>58.3</v>
       </c>
       <c r="D96" t="n">
-        <v>58.4</v>
+        <v>58.9</v>
       </c>
       <c r="E96" t="n">
-        <v>58.1</v>
+        <v>58.3</v>
       </c>
       <c r="F96" t="n">
-        <v>1789.5405</v>
+        <v>87363.1765</v>
       </c>
       <c r="G96" t="n">
-        <v>58.48500000000003</v>
+        <v>59.95666666666668</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3876,7 +3822,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3886,22 +3836,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>58.8</v>
+        <v>58.4</v>
       </c>
       <c r="C97" t="n">
-        <v>58.8</v>
+        <v>58.1</v>
       </c>
       <c r="D97" t="n">
-        <v>58.8</v>
+        <v>58.4</v>
       </c>
       <c r="E97" t="n">
-        <v>58.2</v>
+        <v>58.1</v>
       </c>
       <c r="F97" t="n">
-        <v>1550.612344897959</v>
+        <v>1789.5405</v>
       </c>
       <c r="G97" t="n">
-        <v>58.47500000000002</v>
+        <v>59.95333333333334</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3911,7 +3861,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3921,32 +3875,38 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>58.3</v>
+        <v>58.8</v>
       </c>
       <c r="C98" t="n">
-        <v>58.3</v>
+        <v>58.8</v>
       </c>
       <c r="D98" t="n">
-        <v>58.3</v>
+        <v>58.8</v>
       </c>
       <c r="E98" t="n">
         <v>58.2</v>
       </c>
       <c r="F98" t="n">
-        <v>63.4189</v>
+        <v>1550.612344897959</v>
       </c>
       <c r="G98" t="n">
-        <v>58.48500000000003</v>
+        <v>59.96166666666667</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>58.1</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3959,19 +3919,19 @@
         <v>58.3</v>
       </c>
       <c r="C99" t="n">
-        <v>58.9</v>
+        <v>58.3</v>
       </c>
       <c r="D99" t="n">
-        <v>58.9</v>
+        <v>58.3</v>
       </c>
       <c r="E99" t="n">
-        <v>58.3</v>
+        <v>58.2</v>
       </c>
       <c r="F99" t="n">
-        <v>31579.04921952462</v>
+        <v>63.4189</v>
       </c>
       <c r="G99" t="n">
-        <v>58.53000000000002</v>
+        <v>59.95500000000001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3981,7 +3941,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3991,22 +3955,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>58.8</v>
+        <v>58.3</v>
       </c>
       <c r="C100" t="n">
-        <v>58.7</v>
+        <v>58.9</v>
       </c>
       <c r="D100" t="n">
-        <v>58.8</v>
+        <v>58.9</v>
       </c>
       <c r="E100" t="n">
-        <v>58.7</v>
+        <v>58.3</v>
       </c>
       <c r="F100" t="n">
-        <v>50</v>
+        <v>31579.04921952462</v>
       </c>
       <c r="G100" t="n">
-        <v>58.58500000000002</v>
+        <v>59.95666666666668</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4016,7 +3980,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4026,32 +3994,38 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>58.7</v>
+        <v>58.8</v>
       </c>
       <c r="C101" t="n">
         <v>58.7</v>
       </c>
       <c r="D101" t="n">
-        <v>58.7</v>
+        <v>58.8</v>
       </c>
       <c r="E101" t="n">
         <v>58.7</v>
       </c>
       <c r="F101" t="n">
-        <v>771.908</v>
+        <v>50</v>
       </c>
       <c r="G101" t="n">
-        <v>58.61000000000001</v>
+        <v>59.95000000000001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>58.9</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4061,22 +4035,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>58.5</v>
+        <v>58.7</v>
       </c>
       <c r="C102" t="n">
-        <v>58.5</v>
+        <v>58.7</v>
       </c>
       <c r="D102" t="n">
-        <v>58.5</v>
+        <v>58.7</v>
       </c>
       <c r="E102" t="n">
-        <v>58.3</v>
+        <v>58.7</v>
       </c>
       <c r="F102" t="n">
-        <v>16892.0843</v>
+        <v>771.908</v>
       </c>
       <c r="G102" t="n">
-        <v>58.59500000000001</v>
+        <v>59.94</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4086,7 +4060,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4096,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>58.7</v>
+        <v>58.5</v>
       </c>
       <c r="C103" t="n">
         <v>58.5</v>
       </c>
       <c r="D103" t="n">
-        <v>58.7</v>
+        <v>58.5</v>
       </c>
       <c r="E103" t="n">
-        <v>58.5</v>
+        <v>58.3</v>
       </c>
       <c r="F103" t="n">
-        <v>7857.6867</v>
+        <v>16892.0843</v>
       </c>
       <c r="G103" t="n">
-        <v>58.59000000000002</v>
+        <v>59.91333333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4121,7 +4099,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4131,22 +4113,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>58.6</v>
+        <v>58.7</v>
       </c>
       <c r="C104" t="n">
-        <v>59</v>
+        <v>58.5</v>
       </c>
       <c r="D104" t="n">
-        <v>59</v>
+        <v>58.7</v>
       </c>
       <c r="E104" t="n">
         <v>58.5</v>
       </c>
       <c r="F104" t="n">
-        <v>42359.3764</v>
+        <v>7857.6867</v>
       </c>
       <c r="G104" t="n">
-        <v>58.60000000000001</v>
+        <v>59.88500000000001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4156,7 +4138,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4166,22 +4152,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="C105" t="n">
         <v>59</v>
       </c>
-      <c r="C105" t="n">
-        <v>59.3</v>
-      </c>
       <c r="D105" t="n">
-        <v>59.3</v>
+        <v>59</v>
       </c>
       <c r="E105" t="n">
-        <v>59</v>
+        <v>58.5</v>
       </c>
       <c r="F105" t="n">
-        <v>45092.8559</v>
+        <v>42359.3764</v>
       </c>
       <c r="G105" t="n">
-        <v>58.62500000000001</v>
+        <v>59.84666666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4191,7 +4177,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4201,22 +4191,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>59.4</v>
+        <v>59</v>
       </c>
       <c r="C106" t="n">
-        <v>60.1</v>
+        <v>59.3</v>
       </c>
       <c r="D106" t="n">
-        <v>60.1</v>
+        <v>59.3</v>
       </c>
       <c r="E106" t="n">
-        <v>59.4</v>
+        <v>59</v>
       </c>
       <c r="F106" t="n">
-        <v>76144.6759</v>
+        <v>45092.8559</v>
       </c>
       <c r="G106" t="n">
-        <v>58.68500000000002</v>
+        <v>59.81500000000001</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4226,7 +4216,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4236,7 +4230,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>60.1</v>
+        <v>59.4</v>
       </c>
       <c r="C107" t="n">
         <v>60.1</v>
@@ -4245,13 +4239,13 @@
         <v>60.1</v>
       </c>
       <c r="E107" t="n">
-        <v>59.8</v>
+        <v>59.4</v>
       </c>
       <c r="F107" t="n">
-        <v>86497.166</v>
+        <v>76144.6759</v>
       </c>
       <c r="G107" t="n">
-        <v>58.77</v>
+        <v>59.81500000000001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4261,7 +4255,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4274,19 +4272,19 @@
         <v>60.1</v>
       </c>
       <c r="C108" t="n">
-        <v>60.3</v>
+        <v>60.1</v>
       </c>
       <c r="D108" t="n">
-        <v>60.3</v>
+        <v>60.1</v>
       </c>
       <c r="E108" t="n">
         <v>59.8</v>
       </c>
       <c r="F108" t="n">
-        <v>112851.9075</v>
+        <v>86497.166</v>
       </c>
       <c r="G108" t="n">
-        <v>58.835</v>
+        <v>59.81333333333335</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4296,7 +4294,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4306,22 +4308,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="C109" t="n">
         <v>60.3</v>
       </c>
-      <c r="C109" t="n">
-        <v>61</v>
-      </c>
       <c r="D109" t="n">
-        <v>61</v>
+        <v>60.3</v>
       </c>
       <c r="E109" t="n">
-        <v>60.3</v>
+        <v>59.8</v>
       </c>
       <c r="F109" t="n">
-        <v>166866.9453465574</v>
+        <v>112851.9075</v>
       </c>
       <c r="G109" t="n">
-        <v>58.92999999999999</v>
+        <v>59.81000000000002</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4331,7 +4333,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4341,22 +4347,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>60.9</v>
+        <v>60.3</v>
       </c>
       <c r="C110" t="n">
-        <v>60.9</v>
+        <v>61</v>
       </c>
       <c r="D110" t="n">
-        <v>60.9</v>
+        <v>61</v>
       </c>
       <c r="E110" t="n">
-        <v>60.6</v>
+        <v>60.3</v>
       </c>
       <c r="F110" t="n">
-        <v>17690.6378</v>
+        <v>166866.9453465574</v>
       </c>
       <c r="G110" t="n">
-        <v>59.05499999999999</v>
+        <v>59.81000000000002</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4366,7 +4372,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4376,22 +4386,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>60.7</v>
+        <v>60.9</v>
       </c>
       <c r="C111" t="n">
-        <v>60.3</v>
+        <v>60.9</v>
       </c>
       <c r="D111" t="n">
-        <v>60.7</v>
+        <v>60.9</v>
       </c>
       <c r="E111" t="n">
-        <v>60.3</v>
+        <v>60.6</v>
       </c>
       <c r="F111" t="n">
-        <v>45291.3193</v>
+        <v>17690.6378</v>
       </c>
       <c r="G111" t="n">
-        <v>59.165</v>
+        <v>59.81500000000002</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4401,7 +4411,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4411,22 +4425,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>60.2</v>
+        <v>60.7</v>
       </c>
       <c r="C112" t="n">
-        <v>59</v>
+        <v>60.3</v>
       </c>
       <c r="D112" t="n">
-        <v>60.2</v>
+        <v>60.7</v>
       </c>
       <c r="E112" t="n">
-        <v>59</v>
+        <v>60.3</v>
       </c>
       <c r="F112" t="n">
-        <v>127450.5766</v>
+        <v>45291.3193</v>
       </c>
       <c r="G112" t="n">
-        <v>59.23999999999999</v>
+        <v>59.80166666666669</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4436,7 +4450,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4446,22 +4464,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="C113" t="n">
         <v>59</v>
       </c>
-      <c r="C113" t="n">
-        <v>59.8</v>
-      </c>
       <c r="D113" t="n">
-        <v>59.8</v>
+        <v>60.2</v>
       </c>
       <c r="E113" t="n">
         <v>59</v>
       </c>
       <c r="F113" t="n">
-        <v>122245.8598</v>
+        <v>127450.5766</v>
       </c>
       <c r="G113" t="n">
-        <v>59.23999999999999</v>
+        <v>59.76500000000002</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4471,7 +4489,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4481,22 +4503,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
+        <v>59</v>
+      </c>
+      <c r="C114" t="n">
         <v>59.8</v>
-      </c>
-      <c r="C114" t="n">
-        <v>59.7</v>
       </c>
       <c r="D114" t="n">
         <v>59.8</v>
       </c>
       <c r="E114" t="n">
-        <v>59.5</v>
+        <v>59</v>
       </c>
       <c r="F114" t="n">
-        <v>63740.0684</v>
+        <v>122245.8598</v>
       </c>
       <c r="G114" t="n">
-        <v>59.275</v>
+        <v>59.74000000000002</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4506,7 +4528,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4516,22 +4542,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>59.7</v>
+        <v>59.8</v>
       </c>
       <c r="C115" t="n">
         <v>59.7</v>
       </c>
       <c r="D115" t="n">
-        <v>59.7</v>
+        <v>59.8</v>
       </c>
       <c r="E115" t="n">
-        <v>59.3</v>
+        <v>59.5</v>
       </c>
       <c r="F115" t="n">
-        <v>75741.3897</v>
+        <v>63740.0684</v>
       </c>
       <c r="G115" t="n">
-        <v>59.315</v>
+        <v>59.70666666666669</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4541,7 +4567,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4551,22 +4581,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="C116" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="D116" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="E116" t="n">
         <v>59.3</v>
       </c>
-      <c r="C116" t="n">
-        <v>59.1</v>
-      </c>
-      <c r="D116" t="n">
-        <v>59.3</v>
-      </c>
-      <c r="E116" t="n">
-        <v>58.9</v>
-      </c>
       <c r="F116" t="n">
-        <v>84596.1491</v>
+        <v>75741.3897</v>
       </c>
       <c r="G116" t="n">
-        <v>59.35999999999999</v>
+        <v>59.67166666666669</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4576,7 +4606,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4586,22 +4620,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>59</v>
+        <v>59.3</v>
       </c>
       <c r="C117" t="n">
-        <v>59</v>
+        <v>59.1</v>
       </c>
       <c r="D117" t="n">
-        <v>59</v>
+        <v>59.3</v>
       </c>
       <c r="E117" t="n">
-        <v>58.7</v>
+        <v>58.9</v>
       </c>
       <c r="F117" t="n">
-        <v>54131.5986</v>
+        <v>84596.1491</v>
       </c>
       <c r="G117" t="n">
-        <v>59.36999999999999</v>
+        <v>59.62833333333335</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4611,7 +4645,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4624,19 +4662,19 @@
         <v>59</v>
       </c>
       <c r="C118" t="n">
-        <v>59.2</v>
+        <v>59</v>
       </c>
       <c r="D118" t="n">
-        <v>59.2</v>
+        <v>59</v>
       </c>
       <c r="E118" t="n">
-        <v>58.8</v>
+        <v>58.7</v>
       </c>
       <c r="F118" t="n">
-        <v>62048.0638</v>
+        <v>54131.5986</v>
       </c>
       <c r="G118" t="n">
-        <v>59.40499999999999</v>
+        <v>59.58333333333336</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4646,7 +4684,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4656,22 +4698,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>59.3</v>
+        <v>59</v>
       </c>
       <c r="C119" t="n">
-        <v>59.5</v>
+        <v>59.2</v>
       </c>
       <c r="D119" t="n">
-        <v>59.5</v>
+        <v>59.2</v>
       </c>
       <c r="E119" t="n">
-        <v>59.3</v>
+        <v>58.8</v>
       </c>
       <c r="F119" t="n">
-        <v>7213.8847</v>
+        <v>62048.0638</v>
       </c>
       <c r="G119" t="n">
-        <v>59.455</v>
+        <v>59.54333333333336</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4681,7 +4723,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4691,22 +4737,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="C120" t="n">
         <v>59.5</v>
       </c>
-      <c r="C120" t="n">
-        <v>59.7</v>
-      </c>
       <c r="D120" t="n">
-        <v>59.7</v>
+        <v>59.5</v>
       </c>
       <c r="E120" t="n">
-        <v>59.5</v>
+        <v>59.3</v>
       </c>
       <c r="F120" t="n">
-        <v>35996.5358</v>
+        <v>7213.8847</v>
       </c>
       <c r="G120" t="n">
-        <v>59.48999999999999</v>
+        <v>59.51000000000002</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4716,7 +4762,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4726,22 +4776,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="C121" t="n">
         <v>59.7</v>
       </c>
-      <c r="C121" t="n">
-        <v>59.4</v>
-      </c>
       <c r="D121" t="n">
-        <v>59.8</v>
+        <v>59.7</v>
       </c>
       <c r="E121" t="n">
-        <v>59.4</v>
+        <v>59.5</v>
       </c>
       <c r="F121" t="n">
-        <v>30282.8016</v>
+        <v>35996.5358</v>
       </c>
       <c r="G121" t="n">
-        <v>59.54</v>
+        <v>59.48166666666668</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4751,7 +4801,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4761,10 +4815,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="C122" t="n">
         <v>59.4</v>
-      </c>
-      <c r="C122" t="n">
-        <v>59.7</v>
       </c>
       <c r="D122" t="n">
         <v>59.8</v>
@@ -4773,10 +4827,10 @@
         <v>59.4</v>
       </c>
       <c r="F122" t="n">
-        <v>34232.4331</v>
+        <v>30282.8016</v>
       </c>
       <c r="G122" t="n">
-        <v>59.585</v>
+        <v>59.44000000000002</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4786,7 +4840,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4796,22 +4854,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>59.7</v>
+        <v>59.4</v>
       </c>
       <c r="C123" t="n">
         <v>59.7</v>
       </c>
       <c r="D123" t="n">
-        <v>59.7</v>
+        <v>59.8</v>
       </c>
       <c r="E123" t="n">
-        <v>59.7</v>
+        <v>59.4</v>
       </c>
       <c r="F123" t="n">
-        <v>10</v>
+        <v>34232.4331</v>
       </c>
       <c r="G123" t="n">
-        <v>59.63500000000001</v>
+        <v>59.40333333333334</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4821,7 +4879,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4831,22 +4893,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>59.6</v>
+        <v>59.7</v>
       </c>
       <c r="C124" t="n">
-        <v>59</v>
+        <v>59.7</v>
       </c>
       <c r="D124" t="n">
-        <v>59.6</v>
+        <v>59.7</v>
       </c>
       <c r="E124" t="n">
-        <v>59</v>
+        <v>59.7</v>
       </c>
       <c r="F124" t="n">
-        <v>76341.0919</v>
+        <v>10</v>
       </c>
       <c r="G124" t="n">
-        <v>59.685</v>
+        <v>59.36500000000001</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4856,7 +4918,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4866,22 +4932,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="C125" t="n">
         <v>59</v>
       </c>
-      <c r="C125" t="n">
-        <v>58.7</v>
-      </c>
       <c r="D125" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="E125" t="n">
         <v>59</v>
       </c>
-      <c r="E125" t="n">
-        <v>58.7</v>
-      </c>
       <c r="F125" t="n">
-        <v>132311.0229</v>
+        <v>76341.0919</v>
       </c>
       <c r="G125" t="n">
-        <v>59.685</v>
+        <v>59.31666666666668</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4891,7 +4957,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4901,22 +4971,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>59.2</v>
+        <v>59</v>
       </c>
       <c r="C126" t="n">
-        <v>59.3</v>
+        <v>58.7</v>
       </c>
       <c r="D126" t="n">
-        <v>59.3</v>
+        <v>59</v>
       </c>
       <c r="E126" t="n">
-        <v>59.2</v>
+        <v>58.7</v>
       </c>
       <c r="F126" t="n">
-        <v>505.9192563237774</v>
+        <v>132311.0229</v>
       </c>
       <c r="G126" t="n">
-        <v>59.675</v>
+        <v>59.265</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4926,7 +4996,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4936,10 +5010,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
+        <v>59.2</v>
+      </c>
+      <c r="C127" t="n">
         <v>59.3</v>
-      </c>
-      <c r="C127" t="n">
-        <v>59.2</v>
       </c>
       <c r="D127" t="n">
         <v>59.3</v>
@@ -4948,10 +5022,10 @@
         <v>59.2</v>
       </c>
       <c r="F127" t="n">
-        <v>674.821111161752</v>
+        <v>505.9192563237774</v>
       </c>
       <c r="G127" t="n">
-        <v>59.63500000000001</v>
+        <v>59.22833333333334</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4961,7 +5035,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4974,19 +5052,19 @@
         <v>59.3</v>
       </c>
       <c r="C128" t="n">
-        <v>58.7</v>
+        <v>59.2</v>
       </c>
       <c r="D128" t="n">
         <v>59.3</v>
       </c>
       <c r="E128" t="n">
-        <v>58.7</v>
+        <v>59.2</v>
       </c>
       <c r="F128" t="n">
-        <v>19107.29759224283</v>
+        <v>674.821111161752</v>
       </c>
       <c r="G128" t="n">
-        <v>59.59500000000001</v>
+        <v>59.19833333333334</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4996,7 +5074,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5006,22 +5088,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>59.2</v>
+        <v>59.3</v>
       </c>
       <c r="C129" t="n">
-        <v>58.9</v>
+        <v>58.7</v>
       </c>
       <c r="D129" t="n">
-        <v>59.2</v>
+        <v>59.3</v>
       </c>
       <c r="E129" t="n">
-        <v>58.6</v>
+        <v>58.7</v>
       </c>
       <c r="F129" t="n">
-        <v>20544.0558</v>
+        <v>19107.29759224283</v>
       </c>
       <c r="G129" t="n">
-        <v>59.54000000000001</v>
+        <v>59.16833333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5031,7 +5113,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5041,22 +5127,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>58.9</v>
+        <v>59.2</v>
       </c>
       <c r="C130" t="n">
         <v>58.9</v>
       </c>
       <c r="D130" t="n">
-        <v>58.9</v>
+        <v>59.2</v>
       </c>
       <c r="E130" t="n">
-        <v>58.9</v>
+        <v>58.6</v>
       </c>
       <c r="F130" t="n">
-        <v>2346.3055</v>
+        <v>20544.0558</v>
       </c>
       <c r="G130" t="n">
-        <v>59.44000000000001</v>
+        <v>59.13666666666666</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5066,7 +5152,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5088,10 +5178,10 @@
         <v>58.9</v>
       </c>
       <c r="F131" t="n">
-        <v>174.6010186757215</v>
+        <v>2346.3055</v>
       </c>
       <c r="G131" t="n">
-        <v>59.35000000000001</v>
+        <v>59.11</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5101,7 +5191,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5111,22 +5205,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>58.7</v>
+        <v>58.9</v>
       </c>
       <c r="C132" t="n">
-        <v>58.6</v>
+        <v>58.9</v>
       </c>
       <c r="D132" t="n">
-        <v>58.7</v>
+        <v>58.9</v>
       </c>
       <c r="E132" t="n">
-        <v>58.3</v>
+        <v>58.9</v>
       </c>
       <c r="F132" t="n">
-        <v>66685.89472047781</v>
+        <v>174.6010186757215</v>
       </c>
       <c r="G132" t="n">
-        <v>59.27500000000001</v>
+        <v>59.08333333333334</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5136,7 +5230,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5146,22 +5244,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="C133" t="n">
         <v>58.6</v>
       </c>
-      <c r="C133" t="n">
-        <v>58.4</v>
-      </c>
       <c r="D133" t="n">
-        <v>58.6</v>
+        <v>58.7</v>
       </c>
       <c r="E133" t="n">
-        <v>58.4</v>
+        <v>58.3</v>
       </c>
       <c r="F133" t="n">
-        <v>16057.2763</v>
+        <v>66685.89472047781</v>
       </c>
       <c r="G133" t="n">
-        <v>59.25500000000001</v>
+        <v>59.05499999999999</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5171,7 +5269,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5184,19 +5286,19 @@
         <v>58.6</v>
       </c>
       <c r="C134" t="n">
-        <v>58.6</v>
+        <v>58.4</v>
       </c>
       <c r="D134" t="n">
         <v>58.6</v>
       </c>
       <c r="E134" t="n">
-        <v>58.3</v>
+        <v>58.4</v>
       </c>
       <c r="F134" t="n">
-        <v>2852.7264</v>
+        <v>16057.2763</v>
       </c>
       <c r="G134" t="n">
-        <v>59.19500000000001</v>
+        <v>59.01499999999999</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5206,7 +5308,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5216,22 +5322,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>58.3</v>
+        <v>58.6</v>
       </c>
       <c r="C135" t="n">
-        <v>58.3</v>
+        <v>58.6</v>
       </c>
       <c r="D135" t="n">
-        <v>58.3</v>
+        <v>58.6</v>
       </c>
       <c r="E135" t="n">
         <v>58.3</v>
       </c>
       <c r="F135" t="n">
-        <v>30426.2894</v>
+        <v>2852.7264</v>
       </c>
       <c r="G135" t="n">
-        <v>59.125</v>
+        <v>58.99333333333333</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5241,7 +5347,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5257,16 +5367,16 @@
         <v>58.3</v>
       </c>
       <c r="D136" t="n">
-        <v>58.5</v>
+        <v>58.3</v>
       </c>
       <c r="E136" t="n">
         <v>58.3</v>
       </c>
       <c r="F136" t="n">
-        <v>17700.0992</v>
+        <v>30426.2894</v>
       </c>
       <c r="G136" t="n">
-        <v>59.075</v>
+        <v>58.97166666666666</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5276,7 +5386,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5286,22 +5400,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>58.6</v>
+        <v>58.3</v>
       </c>
       <c r="C137" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="D137" t="n">
         <v>58.5</v>
-      </c>
-      <c r="D137" t="n">
-        <v>58.6</v>
       </c>
       <c r="E137" t="n">
         <v>58.3</v>
       </c>
       <c r="F137" t="n">
-        <v>50032.9146</v>
+        <v>17700.0992</v>
       </c>
       <c r="G137" t="n">
-        <v>59.05499999999999</v>
+        <v>58.96</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5311,7 +5425,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5321,22 +5439,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="C138" t="n">
         <v>58.5</v>
       </c>
-      <c r="C138" t="n">
-        <v>59.2</v>
-      </c>
       <c r="D138" t="n">
-        <v>59.2</v>
+        <v>58.6</v>
       </c>
       <c r="E138" t="n">
-        <v>58.5</v>
+        <v>58.3</v>
       </c>
       <c r="F138" t="n">
-        <v>147592.4317795222</v>
+        <v>50032.9146</v>
       </c>
       <c r="G138" t="n">
-        <v>59.02999999999999</v>
+        <v>58.96333333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5346,7 +5464,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5356,22 +5478,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="C139" t="n">
         <v>59.2</v>
       </c>
-      <c r="C139" t="n">
-        <v>59.4</v>
-      </c>
       <c r="D139" t="n">
-        <v>59.4</v>
+        <v>59.2</v>
       </c>
       <c r="E139" t="n">
-        <v>59.2</v>
+        <v>58.5</v>
       </c>
       <c r="F139" t="n">
-        <v>7143.599137837838</v>
+        <v>147592.4317795222</v>
       </c>
       <c r="G139" t="n">
-        <v>59.025</v>
+        <v>58.99166666666666</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5381,7 +5503,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5391,22 +5517,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>59.4</v>
+        <v>59.2</v>
       </c>
       <c r="C140" t="n">
         <v>59.4</v>
       </c>
       <c r="D140" t="n">
-        <v>59.7</v>
+        <v>59.4</v>
       </c>
       <c r="E140" t="n">
-        <v>59.4</v>
+        <v>59.2</v>
       </c>
       <c r="F140" t="n">
-        <v>22910.1178</v>
+        <v>7143.599137837838</v>
       </c>
       <c r="G140" t="n">
-        <v>59.02</v>
+        <v>59.01833333333332</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5416,7 +5542,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5426,22 +5556,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>58.9</v>
+        <v>59.4</v>
       </c>
       <c r="C141" t="n">
-        <v>59.3</v>
+        <v>59.4</v>
       </c>
       <c r="D141" t="n">
-        <v>59.3</v>
+        <v>59.7</v>
       </c>
       <c r="E141" t="n">
-        <v>58.6</v>
+        <v>59.4</v>
       </c>
       <c r="F141" t="n">
-        <v>12790.9589</v>
+        <v>22910.1178</v>
       </c>
       <c r="G141" t="n">
-        <v>58.98</v>
+        <v>59.03666666666665</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5451,7 +5581,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5461,22 +5595,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="C142" t="n">
         <v>59.3</v>
       </c>
-      <c r="C142" t="n">
-        <v>59.6</v>
-      </c>
       <c r="D142" t="n">
-        <v>59.6</v>
+        <v>59.3</v>
       </c>
       <c r="E142" t="n">
-        <v>59</v>
+        <v>58.6</v>
       </c>
       <c r="F142" t="n">
-        <v>42322.49762372881</v>
+        <v>12790.9589</v>
       </c>
       <c r="G142" t="n">
-        <v>58.975</v>
+        <v>59.04333333333332</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5486,7 +5620,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5496,22 +5634,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>59</v>
+        <v>59.3</v>
       </c>
       <c r="C143" t="n">
-        <v>59</v>
+        <v>59.6</v>
       </c>
       <c r="D143" t="n">
-        <v>59.5</v>
+        <v>59.6</v>
       </c>
       <c r="E143" t="n">
         <v>59</v>
       </c>
       <c r="F143" t="n">
-        <v>140667.37</v>
+        <v>42322.49762372881</v>
       </c>
       <c r="G143" t="n">
-        <v>58.94</v>
+        <v>59.05666666666665</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5521,7 +5659,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5531,22 +5673,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>58.9</v>
+        <v>59</v>
       </c>
       <c r="C144" t="n">
-        <v>58.9</v>
+        <v>59</v>
       </c>
       <c r="D144" t="n">
-        <v>58.9</v>
+        <v>59.5</v>
       </c>
       <c r="E144" t="n">
-        <v>58.9</v>
+        <v>59</v>
       </c>
       <c r="F144" t="n">
-        <v>6071.7912</v>
+        <v>140667.37</v>
       </c>
       <c r="G144" t="n">
-        <v>58.90500000000001</v>
+        <v>59.06499999999998</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5556,7 +5698,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5569,19 +5715,19 @@
         <v>58.9</v>
       </c>
       <c r="C145" t="n">
-        <v>59.2</v>
+        <v>58.9</v>
       </c>
       <c r="D145" t="n">
-        <v>59.2</v>
+        <v>58.9</v>
       </c>
       <c r="E145" t="n">
         <v>58.9</v>
       </c>
       <c r="F145" t="n">
-        <v>10328.7119</v>
+        <v>6071.7912</v>
       </c>
       <c r="G145" t="n">
-        <v>58.90000000000001</v>
+        <v>59.07166666666665</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5591,7 +5737,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5601,10 +5751,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="C146" t="n">
         <v>59.2</v>
-      </c>
-      <c r="C146" t="n">
-        <v>58.9</v>
       </c>
       <c r="D146" t="n">
         <v>59.2</v>
@@ -5613,10 +5763,10 @@
         <v>58.9</v>
       </c>
       <c r="F146" t="n">
-        <v>737.1992</v>
+        <v>10328.7119</v>
       </c>
       <c r="G146" t="n">
-        <v>58.90000000000001</v>
+        <v>59.09499999999998</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5626,7 +5776,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5636,22 +5790,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>58.8</v>
+        <v>59.2</v>
       </c>
       <c r="C147" t="n">
-        <v>58.7</v>
+        <v>58.9</v>
       </c>
       <c r="D147" t="n">
-        <v>59.1</v>
+        <v>59.2</v>
       </c>
       <c r="E147" t="n">
-        <v>58.7</v>
+        <v>58.9</v>
       </c>
       <c r="F147" t="n">
-        <v>15084.6957</v>
+        <v>737.1992</v>
       </c>
       <c r="G147" t="n">
-        <v>58.87500000000001</v>
+        <v>59.10499999999998</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5661,7 +5815,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5671,22 +5829,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="C148" t="n">
         <v>58.7</v>
       </c>
-      <c r="C148" t="n">
-        <v>58.3</v>
-      </c>
       <c r="D148" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="E148" t="n">
         <v>58.7</v>
       </c>
-      <c r="E148" t="n">
-        <v>58.3</v>
-      </c>
       <c r="F148" t="n">
-        <v>41739.6587</v>
+        <v>15084.6957</v>
       </c>
       <c r="G148" t="n">
-        <v>58.84500000000001</v>
+        <v>59.10166666666665</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5696,7 +5854,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5706,22 +5868,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>58.3</v>
+        <v>58.7</v>
       </c>
       <c r="C149" t="n">
         <v>58.3</v>
       </c>
       <c r="D149" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="E149" t="n">
         <v>58.3</v>
       </c>
-      <c r="E149" t="n">
-        <v>58.2</v>
-      </c>
       <c r="F149" t="n">
-        <v>39034.7911</v>
+        <v>41739.6587</v>
       </c>
       <c r="G149" t="n">
-        <v>58.80000000000001</v>
+        <v>59.10499999999998</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5731,7 +5893,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5744,19 +5910,19 @@
         <v>58.3</v>
       </c>
       <c r="C150" t="n">
-        <v>59.3</v>
+        <v>58.3</v>
       </c>
       <c r="D150" t="n">
-        <v>59.3</v>
+        <v>58.3</v>
       </c>
       <c r="E150" t="n">
-        <v>58.3</v>
+        <v>58.2</v>
       </c>
       <c r="F150" t="n">
-        <v>92417.5309</v>
+        <v>39034.7911</v>
       </c>
       <c r="G150" t="n">
-        <v>58.77</v>
+        <v>59.10499999999998</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5766,7 +5932,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5776,22 +5946,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="C151" t="n">
         <v>59.3</v>
       </c>
-      <c r="C151" t="n">
-        <v>59.1</v>
-      </c>
       <c r="D151" t="n">
-        <v>59.4</v>
+        <v>59.3</v>
       </c>
       <c r="E151" t="n">
-        <v>59.1</v>
+        <v>58.3</v>
       </c>
       <c r="F151" t="n">
-        <v>40632.11764080945</v>
+        <v>92417.5309</v>
       </c>
       <c r="G151" t="n">
-        <v>58.79</v>
+        <v>59.11666666666665</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5801,7 +5971,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5811,22 +5985,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>58.6</v>
+        <v>59.3</v>
       </c>
       <c r="C152" t="n">
-        <v>58.9</v>
+        <v>59.1</v>
       </c>
       <c r="D152" t="n">
-        <v>58.9</v>
+        <v>59.4</v>
       </c>
       <c r="E152" t="n">
-        <v>58.6</v>
+        <v>59.1</v>
       </c>
       <c r="F152" t="n">
-        <v>8463.4112</v>
+        <v>40632.11764080945</v>
       </c>
       <c r="G152" t="n">
-        <v>58.78499999999999</v>
+        <v>59.12333333333332</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5836,7 +6010,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5846,22 +6024,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>58.7</v>
+        <v>58.6</v>
       </c>
       <c r="C153" t="n">
-        <v>58.3</v>
+        <v>58.9</v>
       </c>
       <c r="D153" t="n">
         <v>58.9</v>
       </c>
       <c r="E153" t="n">
-        <v>58.3</v>
+        <v>58.6</v>
       </c>
       <c r="F153" t="n">
-        <v>19691.1727</v>
+        <v>8463.4112</v>
       </c>
       <c r="G153" t="n">
-        <v>58.79</v>
+        <v>59.11833333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5871,7 +6049,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5881,22 +6063,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>58.6</v>
+        <v>58.7</v>
       </c>
       <c r="C154" t="n">
-        <v>58.6</v>
+        <v>58.3</v>
       </c>
       <c r="D154" t="n">
-        <v>58.6</v>
+        <v>58.9</v>
       </c>
       <c r="E154" t="n">
-        <v>58.6</v>
+        <v>58.3</v>
       </c>
       <c r="F154" t="n">
-        <v>23752.5895</v>
+        <v>19691.1727</v>
       </c>
       <c r="G154" t="n">
-        <v>58.79</v>
+        <v>59.105</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5906,7 +6088,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5919,19 +6105,19 @@
         <v>58.6</v>
       </c>
       <c r="C155" t="n">
-        <v>58.9</v>
+        <v>58.6</v>
       </c>
       <c r="D155" t="n">
-        <v>58.9</v>
+        <v>58.6</v>
       </c>
       <c r="E155" t="n">
-        <v>58.5</v>
+        <v>58.6</v>
       </c>
       <c r="F155" t="n">
-        <v>20247.5519</v>
+        <v>23752.5895</v>
       </c>
       <c r="G155" t="n">
-        <v>58.80499999999999</v>
+        <v>59.09999999999999</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5941,7 +6127,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5951,7 +6141,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>58.9</v>
+        <v>58.6</v>
       </c>
       <c r="C156" t="n">
         <v>58.9</v>
@@ -5960,13 +6150,13 @@
         <v>58.9</v>
       </c>
       <c r="E156" t="n">
-        <v>58.9</v>
+        <v>58.5</v>
       </c>
       <c r="F156" t="n">
-        <v>48180.9645</v>
+        <v>20247.5519</v>
       </c>
       <c r="G156" t="n">
-        <v>58.835</v>
+        <v>59.10999999999999</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5976,7 +6166,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5986,22 +6180,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>58.8</v>
+        <v>58.9</v>
       </c>
       <c r="C157" t="n">
-        <v>58.7</v>
+        <v>58.9</v>
       </c>
       <c r="D157" t="n">
-        <v>58.8</v>
+        <v>58.9</v>
       </c>
       <c r="E157" t="n">
-        <v>58.7</v>
+        <v>58.9</v>
       </c>
       <c r="F157" t="n">
-        <v>176</v>
+        <v>48180.9645</v>
       </c>
       <c r="G157" t="n">
-        <v>58.84500000000001</v>
+        <v>59.12333333333333</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6011,7 +6205,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6021,22 +6219,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>58.7</v>
+        <v>58.8</v>
       </c>
       <c r="C158" t="n">
         <v>58.7</v>
       </c>
       <c r="D158" t="n">
-        <v>58.7</v>
+        <v>58.8</v>
       </c>
       <c r="E158" t="n">
         <v>58.7</v>
       </c>
       <c r="F158" t="n">
-        <v>29091.0562</v>
+        <v>176</v>
       </c>
       <c r="G158" t="n">
-        <v>58.855</v>
+        <v>59.12166666666666</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6046,7 +6244,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6056,22 +6258,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>58.6</v>
+        <v>58.7</v>
       </c>
       <c r="C159" t="n">
-        <v>58.8</v>
+        <v>58.7</v>
       </c>
       <c r="D159" t="n">
-        <v>58.9</v>
+        <v>58.7</v>
       </c>
       <c r="E159" t="n">
-        <v>58.5</v>
+        <v>58.7</v>
       </c>
       <c r="F159" t="n">
-        <v>9327.6405</v>
+        <v>29091.0562</v>
       </c>
       <c r="G159" t="n">
-        <v>58.825</v>
+        <v>59.12833333333332</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6081,7 +6283,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6094,19 +6300,19 @@
         <v>58.6</v>
       </c>
       <c r="C160" t="n">
-        <v>58.6</v>
+        <v>58.8</v>
       </c>
       <c r="D160" t="n">
-        <v>58.6</v>
+        <v>58.9</v>
       </c>
       <c r="E160" t="n">
-        <v>58.6</v>
+        <v>58.5</v>
       </c>
       <c r="F160" t="n">
-        <v>10</v>
+        <v>9327.6405</v>
       </c>
       <c r="G160" t="n">
-        <v>58.78499999999999</v>
+        <v>59.12666666666665</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6116,7 +6322,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6126,22 +6336,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>58.7</v>
+        <v>58.6</v>
       </c>
       <c r="C161" t="n">
-        <v>58.7</v>
+        <v>58.6</v>
       </c>
       <c r="D161" t="n">
-        <v>58.8</v>
+        <v>58.6</v>
       </c>
       <c r="E161" t="n">
-        <v>58.5</v>
+        <v>58.6</v>
       </c>
       <c r="F161" t="n">
-        <v>33115.3603</v>
+        <v>10</v>
       </c>
       <c r="G161" t="n">
-        <v>58.77499999999999</v>
+        <v>59.12499999999999</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6151,7 +6361,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6164,19 +6378,19 @@
         <v>58.7</v>
       </c>
       <c r="C162" t="n">
-        <v>58.8</v>
+        <v>58.7</v>
       </c>
       <c r="D162" t="n">
         <v>58.8</v>
       </c>
       <c r="E162" t="n">
-        <v>58.7</v>
+        <v>58.5</v>
       </c>
       <c r="F162" t="n">
-        <v>28925.5952</v>
+        <v>33115.3603</v>
       </c>
       <c r="G162" t="n">
-        <v>58.74499999999999</v>
+        <v>59.12499999999999</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6186,7 +6400,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6196,22 +6414,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>58.6</v>
+        <v>58.7</v>
       </c>
       <c r="C163" t="n">
-        <v>59.1</v>
+        <v>58.8</v>
       </c>
       <c r="D163" t="n">
-        <v>59.3</v>
+        <v>58.8</v>
       </c>
       <c r="E163" t="n">
-        <v>58.3</v>
+        <v>58.7</v>
       </c>
       <c r="F163" t="n">
-        <v>16031.316</v>
+        <v>28925.5952</v>
       </c>
       <c r="G163" t="n">
-        <v>58.72499999999999</v>
+        <v>59.12999999999999</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6221,7 +6439,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6231,22 +6453,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="C164" t="n">
         <v>59.1</v>
-      </c>
-      <c r="C164" t="n">
-        <v>59</v>
       </c>
       <c r="D164" t="n">
         <v>59.3</v>
       </c>
       <c r="E164" t="n">
-        <v>59</v>
+        <v>58.3</v>
       </c>
       <c r="F164" t="n">
-        <v>6031.9491</v>
+        <v>16031.316</v>
       </c>
       <c r="G164" t="n">
-        <v>58.73499999999998</v>
+        <v>59.13999999999999</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6256,7 +6478,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6266,22 +6492,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>58.9</v>
+        <v>59.1</v>
       </c>
       <c r="C165" t="n">
-        <v>58.9</v>
+        <v>59</v>
       </c>
       <c r="D165" t="n">
-        <v>58.9</v>
+        <v>59.3</v>
       </c>
       <c r="E165" t="n">
-        <v>58.9</v>
+        <v>59</v>
       </c>
       <c r="F165" t="n">
-        <v>10</v>
+        <v>6031.9491</v>
       </c>
       <c r="G165" t="n">
-        <v>58.73499999999998</v>
+        <v>59.13999999999999</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6291,7 +6517,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6301,22 +6531,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>58.8</v>
+        <v>58.9</v>
       </c>
       <c r="C166" t="n">
-        <v>58.7</v>
+        <v>58.9</v>
       </c>
       <c r="D166" t="n">
-        <v>58.8</v>
+        <v>58.9</v>
       </c>
       <c r="E166" t="n">
-        <v>58.5</v>
+        <v>58.9</v>
       </c>
       <c r="F166" t="n">
-        <v>5719.2115</v>
+        <v>10</v>
       </c>
       <c r="G166" t="n">
-        <v>58.71499999999997</v>
+        <v>59.13333333333332</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6326,7 +6556,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6336,22 +6570,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>58.7</v>
+        <v>58.8</v>
       </c>
       <c r="C167" t="n">
         <v>58.7</v>
       </c>
       <c r="D167" t="n">
-        <v>58.7</v>
+        <v>58.8</v>
       </c>
       <c r="E167" t="n">
         <v>58.5</v>
       </c>
       <c r="F167" t="n">
-        <v>680.1357</v>
+        <v>5719.2115</v>
       </c>
       <c r="G167" t="n">
-        <v>58.70999999999998</v>
+        <v>59.10999999999999</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6361,7 +6595,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6371,22 +6609,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="C168" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="D168" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="E168" t="n">
         <v>58.5</v>
       </c>
-      <c r="C168" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="D168" t="n">
-        <v>58.5</v>
-      </c>
-      <c r="E168" t="n">
-        <v>58.3</v>
-      </c>
       <c r="F168" t="n">
-        <v>32930.7963</v>
+        <v>680.1357</v>
       </c>
       <c r="G168" t="n">
-        <v>58.69999999999997</v>
+        <v>59.08666666666665</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6396,7 +6634,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6406,22 +6648,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>58.2</v>
+        <v>58.5</v>
       </c>
       <c r="C169" t="n">
-        <v>58.6</v>
+        <v>58.3</v>
       </c>
       <c r="D169" t="n">
-        <v>58.7</v>
+        <v>58.5</v>
       </c>
       <c r="E169" t="n">
-        <v>58.2</v>
+        <v>58.3</v>
       </c>
       <c r="F169" t="n">
-        <v>52164.8108</v>
+        <v>32930.7963</v>
       </c>
       <c r="G169" t="n">
-        <v>58.69499999999998</v>
+        <v>59.05333333333331</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6431,7 +6673,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6441,22 +6687,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>58.3</v>
+        <v>58.2</v>
       </c>
       <c r="C170" t="n">
-        <v>58.7</v>
+        <v>58.6</v>
       </c>
       <c r="D170" t="n">
         <v>58.7</v>
       </c>
       <c r="E170" t="n">
-        <v>58.3</v>
+        <v>58.2</v>
       </c>
       <c r="F170" t="n">
-        <v>17725.6853</v>
+        <v>52164.8108</v>
       </c>
       <c r="G170" t="n">
-        <v>58.69499999999998</v>
+        <v>59.01333333333331</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6466,7 +6712,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6476,22 +6726,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>58.5</v>
+        <v>58.3</v>
       </c>
       <c r="C171" t="n">
-        <v>58.6</v>
+        <v>58.7</v>
       </c>
       <c r="D171" t="n">
-        <v>58.6</v>
+        <v>58.7</v>
       </c>
       <c r="E171" t="n">
-        <v>57.9</v>
+        <v>58.3</v>
       </c>
       <c r="F171" t="n">
-        <v>162202.4161</v>
+        <v>17725.6853</v>
       </c>
       <c r="G171" t="n">
-        <v>58.65499999999999</v>
+        <v>58.97666666666665</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6501,7 +6751,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6514,19 +6768,19 @@
         <v>58.5</v>
       </c>
       <c r="C172" t="n">
-        <v>58.1</v>
+        <v>58.6</v>
       </c>
       <c r="D172" t="n">
-        <v>58.5</v>
+        <v>58.6</v>
       </c>
       <c r="E172" t="n">
-        <v>58.1</v>
+        <v>57.9</v>
       </c>
       <c r="F172" t="n">
-        <v>49034.5936</v>
+        <v>162202.4161</v>
       </c>
       <c r="G172" t="n">
-        <v>58.64999999999999</v>
+        <v>58.9483333333333</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6536,7 +6790,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6549,7 +6807,7 @@
         <v>58.5</v>
       </c>
       <c r="C173" t="n">
-        <v>58.3</v>
+        <v>58.1</v>
       </c>
       <c r="D173" t="n">
         <v>58.5</v>
@@ -6558,10 +6816,10 @@
         <v>58.1</v>
       </c>
       <c r="F173" t="n">
-        <v>124252.0975</v>
+        <v>49034.5936</v>
       </c>
       <c r="G173" t="n">
-        <v>58.63999999999999</v>
+        <v>58.9333333333333</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6571,7 +6829,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6581,22 +6843,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="C174" t="n">
         <v>58.3</v>
-      </c>
-      <c r="C174" t="n">
-        <v>58.4</v>
       </c>
       <c r="D174" t="n">
         <v>58.5</v>
       </c>
       <c r="E174" t="n">
-        <v>58.3</v>
+        <v>58.1</v>
       </c>
       <c r="F174" t="n">
-        <v>9930</v>
+        <v>124252.0975</v>
       </c>
       <c r="G174" t="n">
-        <v>58.62499999999999</v>
+        <v>58.9083333333333</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6606,7 +6868,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6616,22 +6882,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>58.2</v>
+        <v>58.3</v>
       </c>
       <c r="C175" t="n">
+        <v>58.4</v>
+      </c>
+      <c r="D175" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="E175" t="n">
         <v>58.3</v>
       </c>
-      <c r="D175" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="E175" t="n">
-        <v>58.1</v>
-      </c>
       <c r="F175" t="n">
-        <v>28491.4051</v>
+        <v>9930</v>
       </c>
       <c r="G175" t="n">
-        <v>58.605</v>
+        <v>58.88666666666664</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6641,7 +6907,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6651,22 +6921,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="C176" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="D176" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="E176" t="n">
         <v>58.1</v>
       </c>
-      <c r="C176" t="n">
-        <v>58</v>
-      </c>
-      <c r="D176" t="n">
-        <v>58.1</v>
-      </c>
-      <c r="E176" t="n">
-        <v>57.7</v>
-      </c>
       <c r="F176" t="n">
-        <v>174569.7526</v>
+        <v>28491.4051</v>
       </c>
       <c r="G176" t="n">
-        <v>58.56499999999998</v>
+        <v>58.86333333333332</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6676,7 +6946,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6686,22 +6960,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="C177" t="n">
+        <v>58</v>
+      </c>
+      <c r="D177" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="E177" t="n">
         <v>57.7</v>
       </c>
-      <c r="C177" t="n">
-        <v>57.6</v>
-      </c>
-      <c r="D177" t="n">
-        <v>58</v>
-      </c>
-      <c r="E177" t="n">
-        <v>57.6</v>
-      </c>
       <c r="F177" t="n">
-        <v>47770.4521</v>
+        <v>174569.7526</v>
       </c>
       <c r="G177" t="n">
-        <v>58.50999999999999</v>
+        <v>58.84499999999998</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6711,7 +6985,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6721,22 +6999,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>57.8</v>
+        <v>57.7</v>
       </c>
       <c r="C178" t="n">
-        <v>57.9</v>
+        <v>57.6</v>
       </c>
       <c r="D178" t="n">
-        <v>57.9</v>
+        <v>58</v>
       </c>
       <c r="E178" t="n">
         <v>57.6</v>
       </c>
       <c r="F178" t="n">
-        <v>48743.4991</v>
+        <v>47770.4521</v>
       </c>
       <c r="G178" t="n">
-        <v>58.46499999999999</v>
+        <v>58.82166666666664</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6746,7 +7024,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6756,22 +7038,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="C179" t="n">
         <v>57.9</v>
       </c>
-      <c r="C179" t="n">
-        <v>58</v>
-      </c>
       <c r="D179" t="n">
-        <v>58</v>
+        <v>57.9</v>
       </c>
       <c r="E179" t="n">
-        <v>57.7</v>
+        <v>57.6</v>
       </c>
       <c r="F179" t="n">
-        <v>63188.3149</v>
+        <v>48743.4991</v>
       </c>
       <c r="G179" t="n">
-        <v>58.42999999999999</v>
+        <v>58.79999999999998</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6781,7 +7063,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6791,22 +7077,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="C180" t="n">
         <v>58</v>
       </c>
-      <c r="C180" t="n">
-        <v>58.3</v>
-      </c>
       <c r="D180" t="n">
-        <v>58.3</v>
+        <v>58</v>
       </c>
       <c r="E180" t="n">
-        <v>57.8</v>
+        <v>57.7</v>
       </c>
       <c r="F180" t="n">
-        <v>48238.2601</v>
+        <v>63188.3149</v>
       </c>
       <c r="G180" t="n">
-        <v>58.4</v>
+        <v>58.77499999999998</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6816,7 +7102,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6826,22 +7116,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>58.2</v>
+        <v>58</v>
       </c>
       <c r="C181" t="n">
-        <v>58.2</v>
+        <v>58.3</v>
       </c>
       <c r="D181" t="n">
-        <v>58.2</v>
+        <v>58.3</v>
       </c>
       <c r="E181" t="n">
-        <v>57.9</v>
+        <v>57.8</v>
       </c>
       <c r="F181" t="n">
-        <v>70972</v>
+        <v>48238.2601</v>
       </c>
       <c r="G181" t="n">
-        <v>58.375</v>
+        <v>58.75166666666666</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6851,7 +7141,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6870,13 +7164,13 @@
         <v>58.2</v>
       </c>
       <c r="E182" t="n">
-        <v>58.2</v>
+        <v>57.9</v>
       </c>
       <c r="F182" t="n">
-        <v>44787.1855</v>
+        <v>70972</v>
       </c>
       <c r="G182" t="n">
-        <v>58.35</v>
+        <v>58.73166666666665</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6886,7 +7180,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6902,16 +7200,16 @@
         <v>58.2</v>
       </c>
       <c r="D183" t="n">
-        <v>58.3</v>
+        <v>58.2</v>
       </c>
       <c r="E183" t="n">
         <v>58.2</v>
       </c>
       <c r="F183" t="n">
-        <v>45836.1674</v>
+        <v>44787.1855</v>
       </c>
       <c r="G183" t="n">
-        <v>58.33000000000001</v>
+        <v>58.70666666666666</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6921,7 +7219,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6931,22 +7233,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>58.1</v>
+        <v>58.2</v>
       </c>
       <c r="C184" t="n">
-        <v>57.8</v>
+        <v>58.2</v>
       </c>
       <c r="D184" t="n">
         <v>58.3</v>
       </c>
       <c r="E184" t="n">
-        <v>57.5</v>
+        <v>58.2</v>
       </c>
       <c r="F184" t="n">
-        <v>97868.3855</v>
+        <v>45836.1674</v>
       </c>
       <c r="G184" t="n">
-        <v>58.28000000000001</v>
+        <v>58.68166666666665</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6956,7 +7258,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6966,22 +7272,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="C185" t="n">
         <v>57.8</v>
       </c>
-      <c r="C185" t="n">
-        <v>58.1</v>
-      </c>
       <c r="D185" t="n">
-        <v>58.2</v>
+        <v>58.3</v>
       </c>
       <c r="E185" t="n">
-        <v>57.8</v>
+        <v>57.5</v>
       </c>
       <c r="F185" t="n">
-        <v>38043.0902</v>
+        <v>97868.3855</v>
       </c>
       <c r="G185" t="n">
-        <v>58.225</v>
+        <v>58.66166666666665</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6991,7 +7297,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7001,22 +7311,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="C186" t="n">
         <v>58.1</v>
       </c>
-      <c r="C186" t="n">
-        <v>58</v>
-      </c>
       <c r="D186" t="n">
-        <v>58.1</v>
+        <v>58.2</v>
       </c>
       <c r="E186" t="n">
-        <v>57.2</v>
+        <v>57.8</v>
       </c>
       <c r="F186" t="n">
-        <v>32722.653</v>
+        <v>38043.0902</v>
       </c>
       <c r="G186" t="n">
-        <v>58.19</v>
+        <v>58.65166666666666</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7026,7 +7336,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7036,22 +7350,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>57.5</v>
+        <v>58.1</v>
       </c>
       <c r="C187" t="n">
         <v>58</v>
       </c>
       <c r="D187" t="n">
-        <v>58</v>
+        <v>58.1</v>
       </c>
       <c r="E187" t="n">
-        <v>57.4</v>
+        <v>57.2</v>
       </c>
       <c r="F187" t="n">
-        <v>572.9535</v>
+        <v>32722.653</v>
       </c>
       <c r="G187" t="n">
-        <v>58.13</v>
+        <v>58.62999999999999</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7061,7 +7375,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7071,7 +7389,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>57.9</v>
+        <v>57.5</v>
       </c>
       <c r="C188" t="n">
         <v>58</v>
@@ -7080,13 +7398,13 @@
         <v>58</v>
       </c>
       <c r="E188" t="n">
-        <v>57.9</v>
+        <v>57.4</v>
       </c>
       <c r="F188" t="n">
-        <v>1080</v>
+        <v>572.9535</v>
       </c>
       <c r="G188" t="n">
-        <v>58.1</v>
+        <v>58.60999999999999</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7096,7 +7414,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7106,22 +7428,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>57.6</v>
+        <v>57.9</v>
       </c>
       <c r="C189" t="n">
-        <v>57.7</v>
+        <v>58</v>
       </c>
       <c r="D189" t="n">
-        <v>57.7</v>
+        <v>58</v>
       </c>
       <c r="E189" t="n">
-        <v>57.4</v>
+        <v>57.9</v>
       </c>
       <c r="F189" t="n">
-        <v>10620.688</v>
+        <v>1080</v>
       </c>
       <c r="G189" t="n">
-        <v>58.06999999999999</v>
+        <v>58.59833333333333</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7131,7 +7453,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7141,22 +7467,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="C190" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="D190" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="E190" t="n">
         <v>57.4</v>
       </c>
-      <c r="C190" t="n">
-        <v>57</v>
-      </c>
-      <c r="D190" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="E190" t="n">
-        <v>57</v>
-      </c>
       <c r="F190" t="n">
-        <v>121435.8214</v>
+        <v>10620.688</v>
       </c>
       <c r="G190" t="n">
-        <v>58.025</v>
+        <v>58.57833333333333</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7166,7 +7492,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7176,22 +7506,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="C191" t="n">
         <v>57</v>
       </c>
-      <c r="C191" t="n">
-        <v>57.8</v>
-      </c>
       <c r="D191" t="n">
-        <v>57.8</v>
+        <v>57.4</v>
       </c>
       <c r="E191" t="n">
         <v>57</v>
       </c>
       <c r="F191" t="n">
-        <v>20170</v>
+        <v>121435.8214</v>
       </c>
       <c r="G191" t="n">
-        <v>57.95</v>
+        <v>58.54666666666665</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7201,7 +7531,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7211,33 +7545,80 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>57.5</v>
+        <v>57</v>
       </c>
       <c r="C192" t="n">
-        <v>57</v>
+        <v>57.8</v>
       </c>
       <c r="D192" t="n">
-        <v>57.5</v>
+        <v>57.8</v>
       </c>
       <c r="E192" t="n">
         <v>57</v>
       </c>
       <c r="F192" t="n">
+        <v>20170</v>
+      </c>
+      <c r="G192" t="n">
+        <v>58.52833333333332</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>57</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="C193" t="n">
+        <v>57</v>
+      </c>
+      <c r="D193" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="E193" t="n">
+        <v>57</v>
+      </c>
+      <c r="F193" t="n">
         <v>46603.59226020942</v>
       </c>
-      <c r="G192" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="G193" t="n">
+        <v>58.50166666666666</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-29 BackTest TRV.xlsx
+++ b/BackTest/2019-10-29 BackTest TRV.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M193"/>
+  <dimension ref="A1:N203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>204193.3515</v>
       </c>
       <c r="G2" t="n">
+        <v>56.63999999999999</v>
+      </c>
+      <c r="H2" t="n">
         <v>58.47333333333334</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,27 @@
         <v>38665.15849808363</v>
       </c>
       <c r="G3" t="n">
+        <v>56.62666666666666</v>
+      </c>
+      <c r="H3" t="n">
         <v>58.40833333333334</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>57.4</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +535,27 @@
         <v>35310.5146</v>
       </c>
       <c r="G4" t="n">
+        <v>56.60666666666666</v>
+      </c>
+      <c r="H4" t="n">
         <v>58.33666666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>57.4</v>
+      </c>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,25 @@
         <v>2663.60334904014</v>
       </c>
       <c r="G5" t="n">
+        <v>56.61333333333332</v>
+      </c>
+      <c r="H5" t="n">
         <v>58.27</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +621,25 @@
         <v>62545.3669</v>
       </c>
       <c r="G6" t="n">
+        <v>56.67333333333332</v>
+      </c>
+      <c r="H6" t="n">
         <v>58.20500000000001</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +663,25 @@
         <v>49721.0296</v>
       </c>
       <c r="G7" t="n">
+        <v>56.75333333333332</v>
+      </c>
+      <c r="H7" t="n">
         <v>58.14333333333335</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +705,25 @@
         <v>96549.00395095986</v>
       </c>
       <c r="G8" t="n">
+        <v>56.81999999999998</v>
+      </c>
+      <c r="H8" t="n">
         <v>58.10000000000002</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +747,25 @@
         <v>81194.02100191638</v>
       </c>
       <c r="G9" t="n">
+        <v>56.89999999999998</v>
+      </c>
+      <c r="H9" t="n">
         <v>58.05666666666668</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +789,25 @@
         <v>41782.5085354121</v>
       </c>
       <c r="G10" t="n">
+        <v>56.89333333333332</v>
+      </c>
+      <c r="H10" t="n">
         <v>57.98666666666668</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +831,25 @@
         <v>78669.1645</v>
       </c>
       <c r="G11" t="n">
+        <v>56.97333333333331</v>
+      </c>
+      <c r="H11" t="n">
         <v>57.94166666666668</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +873,25 @@
         <v>67304.9644979094</v>
       </c>
       <c r="G12" t="n">
+        <v>57.06666666666664</v>
+      </c>
+      <c r="H12" t="n">
         <v>57.89833333333335</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +915,25 @@
         <v>14998.90930209059</v>
       </c>
       <c r="G13" t="n">
+        <v>57.12666666666664</v>
+      </c>
+      <c r="H13" t="n">
         <v>57.84333333333336</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +957,25 @@
         <v>26490.2349</v>
       </c>
       <c r="G14" t="n">
+        <v>57.15333333333331</v>
+      </c>
+      <c r="H14" t="n">
         <v>57.78500000000002</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +999,25 @@
         <v>40499.4065</v>
       </c>
       <c r="G15" t="n">
+        <v>57.16666666666664</v>
+      </c>
+      <c r="H15" t="n">
         <v>57.72500000000002</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1041,25 @@
         <v>33848.76306619719</v>
       </c>
       <c r="G16" t="n">
+        <v>57.15333333333331</v>
+      </c>
+      <c r="H16" t="n">
         <v>57.66166666666668</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1083,25 @@
         <v>15857.75063380282</v>
       </c>
       <c r="G17" t="n">
+        <v>57.11333333333331</v>
+      </c>
+      <c r="H17" t="n">
         <v>57.60000000000002</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1125,25 @@
         <v>27263.39456619718</v>
       </c>
       <c r="G18" t="n">
+        <v>57.05999999999997</v>
+      </c>
+      <c r="H18" t="n">
         <v>57.53833333333335</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1167,25 @@
         <v>1051781.210060563</v>
       </c>
       <c r="G19" t="n">
+        <v>57.05333333333331</v>
+      </c>
+      <c r="H19" t="n">
         <v>57.48666666666669</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1209,25 @@
         <v>71002062.3602</v>
       </c>
       <c r="G20" t="n">
+        <v>57.03333333333331</v>
+      </c>
+      <c r="H20" t="n">
         <v>57.44666666666669</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1251,25 @@
         <v>127050494.0849</v>
       </c>
       <c r="G21" t="n">
+        <v>57.01333333333331</v>
+      </c>
+      <c r="H21" t="n">
         <v>57.40666666666668</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1293,25 @@
         <v>136117335.1924093</v>
       </c>
       <c r="G22" t="n">
+        <v>56.99333333333332</v>
+      </c>
+      <c r="H22" t="n">
         <v>57.36500000000002</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1335,25 @@
         <v>77357334.207</v>
       </c>
       <c r="G23" t="n">
+        <v>56.95999999999999</v>
+      </c>
+      <c r="H23" t="n">
         <v>57.32500000000002</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1377,25 @@
         <v>31027540.44512807</v>
       </c>
       <c r="G24" t="n">
+        <v>56.91333333333331</v>
+      </c>
+      <c r="H24" t="n">
         <v>57.28666666666668</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1419,25 @@
         <v>14836.3921</v>
       </c>
       <c r="G25" t="n">
+        <v>56.94666666666664</v>
+      </c>
+      <c r="H25" t="n">
         <v>57.24833333333335</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1461,25 @@
         <v>12940.1231</v>
       </c>
       <c r="G26" t="n">
+        <v>56.92666666666665</v>
+      </c>
+      <c r="H26" t="n">
         <v>57.21666666666668</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1503,25 @@
         <v>102060.1217671886</v>
       </c>
       <c r="G27" t="n">
+        <v>56.95333333333331</v>
+      </c>
+      <c r="H27" t="n">
         <v>57.20166666666669</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1545,25 @@
         <v>4326.6782</v>
       </c>
       <c r="G28" t="n">
+        <v>57.00666666666665</v>
+      </c>
+      <c r="H28" t="n">
         <v>57.18166666666669</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1587,25 @@
         <v>50944.3488</v>
       </c>
       <c r="G29" t="n">
+        <v>57.05999999999999</v>
+      </c>
+      <c r="H29" t="n">
         <v>57.15000000000001</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1629,25 @@
         <v>6087.418</v>
       </c>
       <c r="G30" t="n">
+        <v>57.09999999999999</v>
+      </c>
+      <c r="H30" t="n">
         <v>57.11833333333335</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1671,25 @@
         <v>1715.5805</v>
       </c>
       <c r="G31" t="n">
+        <v>57.14666666666665</v>
+      </c>
+      <c r="H31" t="n">
         <v>57.08833333333335</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1713,25 @@
         <v>1717.4446</v>
       </c>
       <c r="G32" t="n">
+        <v>57.18666666666665</v>
+      </c>
+      <c r="H32" t="n">
         <v>57.06333333333335</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1755,25 @@
         <v>18002361.7356</v>
       </c>
       <c r="G33" t="n">
+        <v>57.25999999999999</v>
+      </c>
+      <c r="H33" t="n">
         <v>57.03666666666668</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1797,25 @@
         <v>134038003.0213991</v>
       </c>
       <c r="G34" t="n">
+        <v>57.30666666666666</v>
+      </c>
+      <c r="H34" t="n">
         <v>57.01666666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1839,25 @@
         <v>28013085.02010879</v>
       </c>
       <c r="G35" t="n">
+        <v>57.42666666666666</v>
+      </c>
+      <c r="H35" t="n">
         <v>57.02500000000001</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1881,25 @@
         <v>9639.098599999999</v>
       </c>
       <c r="G36" t="n">
+        <v>57.54666666666665</v>
+      </c>
+      <c r="H36" t="n">
         <v>57.04166666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1923,25 @@
         <v>2041913.5914</v>
       </c>
       <c r="G37" t="n">
+        <v>57.63333333333332</v>
+      </c>
+      <c r="H37" t="n">
         <v>57.06833333333335</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1965,25 @@
         <v>139292804.9656</v>
       </c>
       <c r="G38" t="n">
+        <v>57.71999999999998</v>
+      </c>
+      <c r="H38" t="n">
         <v>57.10666666666668</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2007,25 @@
         <v>25886103.0504</v>
       </c>
       <c r="G39" t="n">
+        <v>57.83333333333332</v>
+      </c>
+      <c r="H39" t="n">
         <v>57.14166666666668</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2049,25 @@
         <v>38158.7024945946</v>
       </c>
       <c r="G40" t="n">
+        <v>57.95999999999999</v>
+      </c>
+      <c r="H40" t="n">
         <v>57.18833333333335</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2091,25 @@
         <v>26139.2919</v>
       </c>
       <c r="G41" t="n">
+        <v>58.09999999999999</v>
+      </c>
+      <c r="H41" t="n">
         <v>57.24166666666668</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2133,25 @@
         <v>158594.1741054054</v>
       </c>
       <c r="G42" t="n">
+        <v>58.19999999999998</v>
+      </c>
+      <c r="H42" t="n">
         <v>57.28333333333335</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2175,25 @@
         <v>211032.6491282303</v>
       </c>
       <c r="G43" t="n">
+        <v>58.35999999999999</v>
+      </c>
+      <c r="H43" t="n">
         <v>57.33666666666668</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2217,25 @@
         <v>306391.6086703151</v>
       </c>
       <c r="G44" t="n">
+        <v>58.53333333333332</v>
+      </c>
+      <c r="H44" t="n">
         <v>57.38500000000001</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2259,25 @@
         <v>685300.04550584</v>
       </c>
       <c r="G45" t="n">
+        <v>58.79333333333332</v>
+      </c>
+      <c r="H45" t="n">
         <v>57.44833333333334</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2301,25 @@
         <v>317710.3701</v>
       </c>
       <c r="G46" t="n">
+        <v>59.04666666666665</v>
+      </c>
+      <c r="H46" t="n">
         <v>57.50666666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2343,25 @@
         <v>131476.6069</v>
       </c>
       <c r="G47" t="n">
+        <v>59.22666666666666</v>
+      </c>
+      <c r="H47" t="n">
         <v>57.54166666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2385,25 @@
         <v>55163.8643</v>
       </c>
       <c r="G48" t="n">
+        <v>59.39333333333332</v>
+      </c>
+      <c r="H48" t="n">
         <v>57.58500000000001</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2427,25 @@
         <v>81173.9762</v>
       </c>
       <c r="G49" t="n">
+        <v>59.57999999999999</v>
+      </c>
+      <c r="H49" t="n">
         <v>57.63666666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2469,25 @@
         <v>113259.972</v>
       </c>
       <c r="G50" t="n">
+        <v>59.72666666666666</v>
+      </c>
+      <c r="H50" t="n">
         <v>57.70000000000001</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2511,25 @@
         <v>68975.50900000001</v>
       </c>
       <c r="G51" t="n">
+        <v>59.84666666666666</v>
+      </c>
+      <c r="H51" t="n">
         <v>57.77</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2553,25 @@
         <v>264527.4579</v>
       </c>
       <c r="G52" t="n">
+        <v>60.03333333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>57.85333333333334</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2595,25 @@
         <v>68331.64030718955</v>
       </c>
       <c r="G53" t="n">
+        <v>60.22666666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>57.93166666666666</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2637,25 @@
         <v>90782.07819281046</v>
       </c>
       <c r="G54" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="H54" t="n">
         <v>58.01166666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2679,25 @@
         <v>306944.7903</v>
       </c>
       <c r="G55" t="n">
+        <v>60.59333333333334</v>
+      </c>
+      <c r="H55" t="n">
         <v>58.09833333333334</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2721,25 @@
         <v>533645.6855100961</v>
       </c>
       <c r="G56" t="n">
+        <v>60.77333333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>58.19333333333334</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,20 +2763,25 @@
         <v>262414.0553</v>
       </c>
       <c r="G57" t="n">
+        <v>60.93333333333334</v>
+      </c>
+      <c r="H57" t="n">
         <v>58.28833333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2408,18 +2803,21 @@
         <v>28493.5016</v>
       </c>
       <c r="G58" t="n">
+        <v>61.04000000000001</v>
+      </c>
+      <c r="H58" t="n">
         <v>58.38333333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2841,21 @@
         <v>73003.6982</v>
       </c>
       <c r="G59" t="n">
+        <v>61.13333333333334</v>
+      </c>
+      <c r="H59" t="n">
         <v>58.47</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2879,21 @@
         <v>139481.100200813</v>
       </c>
       <c r="G60" t="n">
+        <v>61.14666666666668</v>
+      </c>
+      <c r="H60" t="n">
         <v>58.55166666666666</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2917,21 @@
         <v>75264.49980000001</v>
       </c>
       <c r="G61" t="n">
+        <v>61.16</v>
+      </c>
+      <c r="H61" t="n">
         <v>58.62666666666667</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2955,21 @@
         <v>91790.3904</v>
       </c>
       <c r="G62" t="n">
+        <v>61.28</v>
+      </c>
+      <c r="H62" t="n">
         <v>58.70166666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2993,21 @@
         <v>250318.2907887097</v>
       </c>
       <c r="G63" t="n">
+        <v>61.39333333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>58.77666666666666</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +3031,21 @@
         <v>27991.04361129032</v>
       </c>
       <c r="G64" t="n">
+        <v>61.49333333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>58.85833333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +3069,21 @@
         <v>126089.8463</v>
       </c>
       <c r="G65" t="n">
+        <v>61.55333333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>58.935</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3107,21 @@
         <v>151879.5547665595</v>
       </c>
       <c r="G66" t="n">
+        <v>61.63333333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>59.01</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3145,21 @@
         <v>215185.6092110754</v>
       </c>
       <c r="G67" t="n">
+        <v>61.65999999999999</v>
+      </c>
+      <c r="H67" t="n">
         <v>59.08</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3183,21 @@
         <v>202131.6068959283</v>
       </c>
       <c r="G68" t="n">
+        <v>61.64666666666665</v>
+      </c>
+      <c r="H68" t="n">
         <v>59.13833333333333</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3221,21 @@
         <v>50671.4001</v>
       </c>
       <c r="G69" t="n">
+        <v>61.59333333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>59.185</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3259,21 @@
         <v>78564.1185</v>
       </c>
       <c r="G70" t="n">
+        <v>61.53333333333332</v>
+      </c>
+      <c r="H70" t="n">
         <v>59.25833333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3297,21 @@
         <v>116139.4281</v>
       </c>
       <c r="G71" t="n">
+        <v>61.44666666666665</v>
+      </c>
+      <c r="H71" t="n">
         <v>59.31166666666666</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3335,21 @@
         <v>89447.45590718955</v>
       </c>
       <c r="G72" t="n">
+        <v>61.36666666666665</v>
+      </c>
+      <c r="H72" t="n">
         <v>59.36333333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3373,21 @@
         <v>54673.07648330605</v>
       </c>
       <c r="G73" t="n">
+        <v>61.27333333333331</v>
+      </c>
+      <c r="H73" t="n">
         <v>59.41999999999999</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3411,21 @@
         <v>104233.1754</v>
       </c>
       <c r="G74" t="n">
+        <v>61.21999999999998</v>
+      </c>
+      <c r="H74" t="n">
         <v>59.48666666666666</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3449,21 @@
         <v>93689.6326</v>
       </c>
       <c r="G75" t="n">
+        <v>61.11333333333331</v>
+      </c>
+      <c r="H75" t="n">
         <v>59.53833333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3487,21 @@
         <v>128052.9376</v>
       </c>
       <c r="G76" t="n">
+        <v>60.99333333333331</v>
+      </c>
+      <c r="H76" t="n">
         <v>59.58666666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3525,21 @@
         <v>227863.3954</v>
       </c>
       <c r="G77" t="n">
+        <v>60.79999999999998</v>
+      </c>
+      <c r="H77" t="n">
         <v>59.62333333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3563,21 @@
         <v>233605.6099</v>
       </c>
       <c r="G78" t="n">
+        <v>60.55999999999997</v>
+      </c>
+      <c r="H78" t="n">
         <v>59.65166666666666</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3601,21 @@
         <v>74836.10060000001</v>
       </c>
       <c r="G79" t="n">
+        <v>60.25999999999998</v>
+      </c>
+      <c r="H79" t="n">
         <v>59.66</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,24 +3639,21 @@
         <v>410988.2761</v>
       </c>
       <c r="G80" t="n">
+        <v>59.98666666666664</v>
+      </c>
+      <c r="H80" t="n">
         <v>59.67333333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>57.5</v>
+        <v>0</v>
       </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3219,24 +3677,21 @@
         <v>128482.5190752137</v>
       </c>
       <c r="G81" t="n">
+        <v>59.75333333333331</v>
+      </c>
+      <c r="H81" t="n">
         <v>59.69500000000001</v>
       </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>57.8</v>
+        <v>0</v>
       </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3260,24 +3715,21 @@
         <v>86465.8149</v>
       </c>
       <c r="G82" t="n">
+        <v>59.57999999999997</v>
+      </c>
+      <c r="H82" t="n">
         <v>59.72666666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>58.3</v>
+        <v>0</v>
       </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3301,22 +3753,21 @@
         <v>8779.681</v>
       </c>
       <c r="G83" t="n">
+        <v>59.4333333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>59.75666666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3340,22 +3791,21 @@
         <v>41955.12093129252</v>
       </c>
       <c r="G84" t="n">
+        <v>59.29999999999997</v>
+      </c>
+      <c r="H84" t="n">
         <v>59.78166666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3379,22 +3829,21 @@
         <v>96036.55662658662</v>
       </c>
       <c r="G85" t="n">
+        <v>59.14666666666664</v>
+      </c>
+      <c r="H85" t="n">
         <v>59.80833333333334</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3418,22 +3867,21 @@
         <v>55078.1228034188</v>
       </c>
       <c r="G86" t="n">
+        <v>58.96666666666663</v>
+      </c>
+      <c r="H86" t="n">
         <v>59.82166666666668</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,22 +3905,21 @@
         <v>5112.5979</v>
       </c>
       <c r="G87" t="n">
+        <v>58.81999999999996</v>
+      </c>
+      <c r="H87" t="n">
         <v>59.83000000000001</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3496,22 +3943,21 @@
         <v>44352.6073</v>
       </c>
       <c r="G88" t="n">
+        <v>58.72666666666664</v>
+      </c>
+      <c r="H88" t="n">
         <v>59.85000000000002</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3535,22 +3981,21 @@
         <v>127342.7377</v>
       </c>
       <c r="G89" t="n">
+        <v>58.54666666666664</v>
+      </c>
+      <c r="H89" t="n">
         <v>59.85833333333335</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3574,24 +4019,21 @@
         <v>3585.5017</v>
       </c>
       <c r="G90" t="n">
+        <v>58.43999999999997</v>
+      </c>
+      <c r="H90" t="n">
         <v>59.87333333333335</v>
       </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>58.1</v>
+        <v>0</v>
       </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3615,24 +4057,21 @@
         <v>59207.8775</v>
       </c>
       <c r="G91" t="n">
+        <v>58.37333333333331</v>
+      </c>
+      <c r="H91" t="n">
         <v>59.89333333333335</v>
       </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>58.3</v>
+        <v>0</v>
       </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3656,22 +4095,21 @@
         <v>20171.93201260647</v>
       </c>
       <c r="G92" t="n">
+        <v>58.35333333333331</v>
+      </c>
+      <c r="H92" t="n">
         <v>59.91500000000001</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3695,22 +4133,21 @@
         <v>42362.8567</v>
       </c>
       <c r="G93" t="n">
+        <v>58.41333333333331</v>
+      </c>
+      <c r="H93" t="n">
         <v>59.94000000000001</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3734,22 +4171,21 @@
         <v>6565.1743</v>
       </c>
       <c r="G94" t="n">
+        <v>58.51999999999998</v>
+      </c>
+      <c r="H94" t="n">
         <v>59.96333333333335</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,22 +4209,21 @@
         <v>57381.2367</v>
       </c>
       <c r="G95" t="n">
+        <v>58.59333333333332</v>
+      </c>
+      <c r="H95" t="n">
         <v>59.96500000000001</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3812,22 +4247,21 @@
         <v>87363.1765</v>
       </c>
       <c r="G96" t="n">
+        <v>58.59333333333332</v>
+      </c>
+      <c r="H96" t="n">
         <v>59.95666666666668</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3851,22 +4285,21 @@
         <v>1789.5405</v>
       </c>
       <c r="G97" t="n">
+        <v>58.53999999999998</v>
+      </c>
+      <c r="H97" t="n">
         <v>59.95333333333334</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3890,24 +4323,21 @@
         <v>1550.612344897959</v>
       </c>
       <c r="G98" t="n">
+        <v>58.53999999999998</v>
+      </c>
+      <c r="H98" t="n">
         <v>59.96166666666667</v>
       </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>58.1</v>
+        <v>0</v>
       </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3931,22 +4361,21 @@
         <v>63.4189</v>
       </c>
       <c r="G99" t="n">
+        <v>58.52666666666665</v>
+      </c>
+      <c r="H99" t="n">
         <v>59.95500000000001</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3970,22 +4399,21 @@
         <v>31579.04921952462</v>
       </c>
       <c r="G100" t="n">
+        <v>58.55333333333331</v>
+      </c>
+      <c r="H100" t="n">
         <v>59.95666666666668</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4009,24 +4437,21 @@
         <v>50</v>
       </c>
       <c r="G101" t="n">
+        <v>58.61333333333332</v>
+      </c>
+      <c r="H101" t="n">
         <v>59.95000000000001</v>
       </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>58.9</v>
+        <v>0</v>
       </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4050,22 +4475,21 @@
         <v>771.908</v>
       </c>
       <c r="G102" t="n">
+        <v>58.63999999999999</v>
+      </c>
+      <c r="H102" t="n">
         <v>59.94</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4089,22 +4513,21 @@
         <v>16892.0843</v>
       </c>
       <c r="G103" t="n">
+        <v>58.61333333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>59.91333333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4128,22 +4551,21 @@
         <v>7857.6867</v>
       </c>
       <c r="G104" t="n">
+        <v>58.63999999999999</v>
+      </c>
+      <c r="H104" t="n">
         <v>59.88500000000001</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4167,22 +4589,21 @@
         <v>42359.3764</v>
       </c>
       <c r="G105" t="n">
+        <v>58.68666666666666</v>
+      </c>
+      <c r="H105" t="n">
         <v>59.84666666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4206,22 +4627,21 @@
         <v>45092.8559</v>
       </c>
       <c r="G106" t="n">
+        <v>58.73333333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>59.81500000000001</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4245,22 +4665,21 @@
         <v>76144.6759</v>
       </c>
       <c r="G107" t="n">
+        <v>58.82666666666666</v>
+      </c>
+      <c r="H107" t="n">
         <v>59.81500000000001</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4284,22 +4703,21 @@
         <v>86497.166</v>
       </c>
       <c r="G108" t="n">
+        <v>58.88666666666666</v>
+      </c>
+      <c r="H108" t="n">
         <v>59.81333333333335</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4323,22 +4741,21 @@
         <v>112851.9075</v>
       </c>
       <c r="G109" t="n">
+        <v>58.96666666666665</v>
+      </c>
+      <c r="H109" t="n">
         <v>59.81000000000002</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4362,22 +4779,21 @@
         <v>166866.9453465574</v>
       </c>
       <c r="G110" t="n">
+        <v>59.10666666666665</v>
+      </c>
+      <c r="H110" t="n">
         <v>59.81000000000002</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4401,22 +4817,21 @@
         <v>17690.6378</v>
       </c>
       <c r="G111" t="n">
+        <v>59.27999999999999</v>
+      </c>
+      <c r="H111" t="n">
         <v>59.81500000000002</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4440,22 +4855,21 @@
         <v>45291.3193</v>
       </c>
       <c r="G112" t="n">
+        <v>59.42666666666665</v>
+      </c>
+      <c r="H112" t="n">
         <v>59.80166666666669</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4479,22 +4893,21 @@
         <v>127450.5766</v>
       </c>
       <c r="G113" t="n">
+        <v>59.43999999999998</v>
+      </c>
+      <c r="H113" t="n">
         <v>59.76500000000002</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4518,22 +4931,21 @@
         <v>122245.8598</v>
       </c>
       <c r="G114" t="n">
+        <v>59.53999999999998</v>
+      </c>
+      <c r="H114" t="n">
         <v>59.74000000000002</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4557,22 +4969,21 @@
         <v>63740.0684</v>
       </c>
       <c r="G115" t="n">
+        <v>59.59333333333333</v>
+      </c>
+      <c r="H115" t="n">
         <v>59.70666666666669</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4596,22 +5007,21 @@
         <v>75741.3897</v>
       </c>
       <c r="G116" t="n">
+        <v>59.65999999999999</v>
+      </c>
+      <c r="H116" t="n">
         <v>59.67166666666669</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4635,22 +5045,21 @@
         <v>84596.1491</v>
       </c>
       <c r="G117" t="n">
+        <v>59.68666666666665</v>
+      </c>
+      <c r="H117" t="n">
         <v>59.62833333333335</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4674,22 +5083,21 @@
         <v>54131.5986</v>
       </c>
       <c r="G118" t="n">
+        <v>59.71999999999999</v>
+      </c>
+      <c r="H118" t="n">
         <v>59.58333333333336</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4713,22 +5121,21 @@
         <v>62048.0638</v>
       </c>
       <c r="G119" t="n">
+        <v>59.76666666666666</v>
+      </c>
+      <c r="H119" t="n">
         <v>59.54333333333336</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4752,22 +5159,21 @@
         <v>7213.8847</v>
       </c>
       <c r="G120" t="n">
+        <v>59.79999999999999</v>
+      </c>
+      <c r="H120" t="n">
         <v>59.51000000000002</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4791,22 +5197,21 @@
         <v>35996.5358</v>
       </c>
       <c r="G121" t="n">
+        <v>59.82666666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>59.48166666666668</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4830,22 +5235,21 @@
         <v>30282.8016</v>
       </c>
       <c r="G122" t="n">
+        <v>59.77999999999999</v>
+      </c>
+      <c r="H122" t="n">
         <v>59.44000000000002</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4869,22 +5273,21 @@
         <v>34232.4331</v>
       </c>
       <c r="G123" t="n">
+        <v>59.75333333333333</v>
+      </c>
+      <c r="H123" t="n">
         <v>59.40333333333334</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4908,22 +5311,21 @@
         <v>10</v>
       </c>
       <c r="G124" t="n">
+        <v>59.71333333333334</v>
+      </c>
+      <c r="H124" t="n">
         <v>59.36500000000001</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4947,22 +5349,21 @@
         <v>76341.0919</v>
       </c>
       <c r="G125" t="n">
+        <v>59.58000000000001</v>
+      </c>
+      <c r="H125" t="n">
         <v>59.31666666666668</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4986,22 +5387,21 @@
         <v>132311.0229</v>
       </c>
       <c r="G126" t="n">
+        <v>59.43333333333334</v>
+      </c>
+      <c r="H126" t="n">
         <v>59.265</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5025,22 +5425,21 @@
         <v>505.9192563237774</v>
       </c>
       <c r="G127" t="n">
+        <v>59.36666666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>59.22833333333334</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5064,22 +5463,21 @@
         <v>674.821111161752</v>
       </c>
       <c r="G128" t="n">
+        <v>59.38000000000001</v>
+      </c>
+      <c r="H128" t="n">
         <v>59.19833333333334</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,22 +5501,21 @@
         <v>19107.29759224283</v>
       </c>
       <c r="G129" t="n">
+        <v>59.30666666666669</v>
+      </c>
+      <c r="H129" t="n">
         <v>59.16833333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5142,22 +5539,21 @@
         <v>20544.0558</v>
       </c>
       <c r="G130" t="n">
+        <v>59.25333333333334</v>
+      </c>
+      <c r="H130" t="n">
         <v>59.13666666666666</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5181,22 +5577,21 @@
         <v>2346.3055</v>
       </c>
       <c r="G131" t="n">
+        <v>59.20000000000001</v>
+      </c>
+      <c r="H131" t="n">
         <v>59.11</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5220,22 +5615,21 @@
         <v>174.6010186757215</v>
       </c>
       <c r="G132" t="n">
+        <v>59.18666666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>59.08333333333334</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5259,22 +5653,21 @@
         <v>66685.89472047781</v>
       </c>
       <c r="G133" t="n">
+        <v>59.16</v>
+      </c>
+      <c r="H133" t="n">
         <v>59.05499999999999</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5298,22 +5691,21 @@
         <v>16057.2763</v>
       </c>
       <c r="G134" t="n">
+        <v>59.10666666666667</v>
+      </c>
+      <c r="H134" t="n">
         <v>59.01499999999999</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5337,22 +5729,21 @@
         <v>2852.7264</v>
       </c>
       <c r="G135" t="n">
+        <v>59.04666666666667</v>
+      </c>
+      <c r="H135" t="n">
         <v>58.99333333333333</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5376,22 +5767,21 @@
         <v>30426.2894</v>
       </c>
       <c r="G136" t="n">
+        <v>58.95333333333333</v>
+      </c>
+      <c r="H136" t="n">
         <v>58.97166666666666</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5415,22 +5805,21 @@
         <v>17700.0992</v>
       </c>
       <c r="G137" t="n">
+        <v>58.88</v>
+      </c>
+      <c r="H137" t="n">
         <v>58.96</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5454,22 +5843,21 @@
         <v>50032.9146</v>
       </c>
       <c r="G138" t="n">
+        <v>58.79999999999999</v>
+      </c>
+      <c r="H138" t="n">
         <v>58.96333333333333</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5493,22 +5881,21 @@
         <v>147592.4317795222</v>
       </c>
       <c r="G139" t="n">
+        <v>58.76666666666666</v>
+      </c>
+      <c r="H139" t="n">
         <v>58.99166666666666</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5532,22 +5919,21 @@
         <v>7143.599137837838</v>
       </c>
       <c r="G140" t="n">
+        <v>58.79333333333332</v>
+      </c>
+      <c r="H140" t="n">
         <v>59.01833333333332</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5571,22 +5957,21 @@
         <v>22910.1178</v>
       </c>
       <c r="G141" t="n">
+        <v>58.83999999999999</v>
+      </c>
+      <c r="H141" t="n">
         <v>59.03666666666665</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5610,22 +5995,21 @@
         <v>12790.9589</v>
       </c>
       <c r="G142" t="n">
+        <v>58.83999999999999</v>
+      </c>
+      <c r="H142" t="n">
         <v>59.04333333333332</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5649,22 +6033,21 @@
         <v>42322.49762372881</v>
       </c>
       <c r="G143" t="n">
+        <v>58.86666666666665</v>
+      </c>
+      <c r="H143" t="n">
         <v>59.05666666666665</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5688,22 +6071,21 @@
         <v>140667.37</v>
       </c>
       <c r="G144" t="n">
+        <v>58.88666666666665</v>
+      </c>
+      <c r="H144" t="n">
         <v>59.06499999999998</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5727,22 +6109,21 @@
         <v>6071.7912</v>
       </c>
       <c r="G145" t="n">
+        <v>58.88666666666665</v>
+      </c>
+      <c r="H145" t="n">
         <v>59.07166666666665</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5766,22 +6147,21 @@
         <v>10328.7119</v>
       </c>
       <c r="G146" t="n">
+        <v>58.90666666666665</v>
+      </c>
+      <c r="H146" t="n">
         <v>59.09499999999998</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5805,22 +6185,21 @@
         <v>737.1992</v>
       </c>
       <c r="G147" t="n">
+        <v>58.90666666666665</v>
+      </c>
+      <c r="H147" t="n">
         <v>59.10499999999998</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5844,22 +6223,21 @@
         <v>15084.6957</v>
       </c>
       <c r="G148" t="n">
+        <v>58.91333333333332</v>
+      </c>
+      <c r="H148" t="n">
         <v>59.10166666666665</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5883,22 +6261,21 @@
         <v>41739.6587</v>
       </c>
       <c r="G149" t="n">
+        <v>58.90666666666665</v>
+      </c>
+      <c r="H149" t="n">
         <v>59.10499999999998</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5922,22 +6299,21 @@
         <v>39034.7911</v>
       </c>
       <c r="G150" t="n">
+        <v>58.88666666666665</v>
+      </c>
+      <c r="H150" t="n">
         <v>59.10499999999998</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5961,22 +6337,21 @@
         <v>92417.5309</v>
       </c>
       <c r="G151" t="n">
+        <v>58.95333333333331</v>
+      </c>
+      <c r="H151" t="n">
         <v>59.11666666666665</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6000,22 +6375,21 @@
         <v>40632.11764080945</v>
       </c>
       <c r="G152" t="n">
+        <v>59.00666666666665</v>
+      </c>
+      <c r="H152" t="n">
         <v>59.12333333333332</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6039,22 +6413,21 @@
         <v>8463.4112</v>
       </c>
       <c r="G153" t="n">
+        <v>59.03333333333332</v>
+      </c>
+      <c r="H153" t="n">
         <v>59.11833333333333</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6078,22 +6451,21 @@
         <v>19691.1727</v>
       </c>
       <c r="G154" t="n">
+        <v>58.97333333333331</v>
+      </c>
+      <c r="H154" t="n">
         <v>59.105</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6117,22 +6489,21 @@
         <v>23752.5895</v>
       </c>
       <c r="G155" t="n">
+        <v>58.91999999999998</v>
+      </c>
+      <c r="H155" t="n">
         <v>59.09999999999999</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6156,22 +6527,21 @@
         <v>20247.5519</v>
       </c>
       <c r="G156" t="n">
+        <v>58.88666666666665</v>
+      </c>
+      <c r="H156" t="n">
         <v>59.10999999999999</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6195,22 +6565,21 @@
         <v>48180.9645</v>
       </c>
       <c r="G157" t="n">
+        <v>58.85999999999999</v>
+      </c>
+      <c r="H157" t="n">
         <v>59.12333333333333</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6234,22 +6603,21 @@
         <v>176</v>
       </c>
       <c r="G158" t="n">
+        <v>58.79999999999998</v>
+      </c>
+      <c r="H158" t="n">
         <v>59.12166666666666</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6273,22 +6641,21 @@
         <v>29091.0562</v>
       </c>
       <c r="G159" t="n">
+        <v>58.77999999999999</v>
+      </c>
+      <c r="H159" t="n">
         <v>59.12833333333332</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6312,22 +6679,21 @@
         <v>9327.6405</v>
       </c>
       <c r="G160" t="n">
+        <v>58.77333333333332</v>
+      </c>
+      <c r="H160" t="n">
         <v>59.12666666666665</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6351,22 +6717,21 @@
         <v>10</v>
       </c>
       <c r="G161" t="n">
+        <v>58.73333333333332</v>
+      </c>
+      <c r="H161" t="n">
         <v>59.12499999999999</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6390,22 +6755,21 @@
         <v>33115.3603</v>
       </c>
       <c r="G162" t="n">
+        <v>58.71999999999999</v>
+      </c>
+      <c r="H162" t="n">
         <v>59.12499999999999</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6429,22 +6793,21 @@
         <v>28925.5952</v>
       </c>
       <c r="G163" t="n">
+        <v>58.72666666666665</v>
+      </c>
+      <c r="H163" t="n">
         <v>59.12999999999999</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,22 +6831,21 @@
         <v>16031.316</v>
       </c>
       <c r="G164" t="n">
+        <v>58.77999999999999</v>
+      </c>
+      <c r="H164" t="n">
         <v>59.13999999999999</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6507,22 +6869,21 @@
         <v>6031.9491</v>
       </c>
       <c r="G165" t="n">
+        <v>58.82666666666666</v>
+      </c>
+      <c r="H165" t="n">
         <v>59.13999999999999</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6546,22 +6907,21 @@
         <v>10</v>
       </c>
       <c r="G166" t="n">
+        <v>58.79999999999999</v>
+      </c>
+      <c r="H166" t="n">
         <v>59.13333333333332</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6585,22 +6945,21 @@
         <v>5719.2115</v>
       </c>
       <c r="G167" t="n">
+        <v>58.77333333333333</v>
+      </c>
+      <c r="H167" t="n">
         <v>59.10999999999999</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6624,22 +6983,21 @@
         <v>680.1357</v>
       </c>
       <c r="G168" t="n">
+        <v>58.76</v>
+      </c>
+      <c r="H168" t="n">
         <v>59.08666666666665</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6663,22 +7021,21 @@
         <v>32930.7963</v>
       </c>
       <c r="G169" t="n">
+        <v>58.76</v>
+      </c>
+      <c r="H169" t="n">
         <v>59.05333333333331</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6702,22 +7059,21 @@
         <v>52164.8108</v>
       </c>
       <c r="G170" t="n">
+        <v>58.76</v>
+      </c>
+      <c r="H170" t="n">
         <v>59.01333333333331</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6741,22 +7097,27 @@
         <v>17725.6853</v>
       </c>
       <c r="G171" t="n">
+        <v>58.74666666666667</v>
+      </c>
+      <c r="H171" t="n">
         <v>58.97666666666665</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6780,22 +7141,27 @@
         <v>162202.4161</v>
       </c>
       <c r="G172" t="n">
+        <v>58.72666666666667</v>
+      </c>
+      <c r="H172" t="n">
         <v>58.9483333333333</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6819,22 +7185,27 @@
         <v>49034.5936</v>
       </c>
       <c r="G173" t="n">
+        <v>58.68666666666667</v>
+      </c>
+      <c r="H173" t="n">
         <v>58.9333333333333</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6858,22 +7229,25 @@
         <v>124252.0975</v>
       </c>
       <c r="G174" t="n">
+        <v>58.66</v>
+      </c>
+      <c r="H174" t="n">
         <v>58.9083333333333</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6897,22 +7271,25 @@
         <v>9930</v>
       </c>
       <c r="G175" t="n">
+        <v>58.63333333333333</v>
+      </c>
+      <c r="H175" t="n">
         <v>58.88666666666664</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6936,22 +7313,25 @@
         <v>28491.4051</v>
       </c>
       <c r="G176" t="n">
+        <v>58.61333333333333</v>
+      </c>
+      <c r="H176" t="n">
         <v>58.86333333333332</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6975,22 +7355,25 @@
         <v>174569.7526</v>
       </c>
       <c r="G177" t="n">
+        <v>58.56666666666666</v>
+      </c>
+      <c r="H177" t="n">
         <v>58.84499999999998</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7014,22 +7397,27 @@
         <v>47770.4521</v>
       </c>
       <c r="G178" t="n">
+        <v>58.48666666666666</v>
+      </c>
+      <c r="H178" t="n">
         <v>58.82166666666664</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>58</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7053,22 +7441,27 @@
         <v>48743.4991</v>
       </c>
       <c r="G179" t="n">
+        <v>58.40666666666666</v>
+      </c>
+      <c r="H179" t="n">
         <v>58.79999999999998</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7092,22 +7485,27 @@
         <v>63188.3149</v>
       </c>
       <c r="G180" t="n">
+        <v>58.34</v>
+      </c>
+      <c r="H180" t="n">
         <v>58.77499999999998</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7131,22 +7529,27 @@
         <v>48238.2601</v>
       </c>
       <c r="G181" t="n">
+        <v>58.29999999999999</v>
+      </c>
+      <c r="H181" t="n">
         <v>58.75166666666666</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>58</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7170,22 +7573,27 @@
         <v>70972</v>
       </c>
       <c r="G182" t="n">
+        <v>58.26666666666666</v>
+      </c>
+      <c r="H182" t="n">
         <v>58.73166666666665</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7209,22 +7617,27 @@
         <v>44787.1855</v>
       </c>
       <c r="G183" t="n">
+        <v>58.23333333333333</v>
+      </c>
+      <c r="H183" t="n">
         <v>58.70666666666666</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7248,22 +7661,27 @@
         <v>45836.1674</v>
       </c>
       <c r="G184" t="n">
+        <v>58.22666666666667</v>
+      </c>
+      <c r="H184" t="n">
         <v>58.68166666666665</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7287,22 +7705,25 @@
         <v>97868.3855</v>
       </c>
       <c r="G185" t="n">
+        <v>58.17333333333332</v>
+      </c>
+      <c r="H185" t="n">
         <v>58.66166666666665</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7326,22 +7747,25 @@
         <v>38043.0902</v>
       </c>
       <c r="G186" t="n">
+        <v>58.13333333333333</v>
+      </c>
+      <c r="H186" t="n">
         <v>58.65166666666666</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7365,22 +7789,25 @@
         <v>32722.653</v>
       </c>
       <c r="G187" t="n">
+        <v>58.09333333333333</v>
+      </c>
+      <c r="H187" t="n">
         <v>58.62999999999999</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M187" t="n">
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7404,22 +7831,25 @@
         <v>572.9535</v>
       </c>
       <c r="G188" t="n">
+        <v>58.08666666666666</v>
+      </c>
+      <c r="H188" t="n">
         <v>58.60999999999999</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M188" t="n">
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7443,22 +7873,27 @@
         <v>1080</v>
       </c>
       <c r="G189" t="n">
+        <v>58.06666666666666</v>
+      </c>
+      <c r="H189" t="n">
         <v>58.59833333333333</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>58</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M189" t="n">
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7482,22 +7917,25 @@
         <v>10620.688</v>
       </c>
       <c r="G190" t="n">
+        <v>58.02</v>
+      </c>
+      <c r="H190" t="n">
         <v>58.57833333333333</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M190" t="n">
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7521,22 +7959,25 @@
         <v>121435.8214</v>
       </c>
       <c r="G191" t="n">
+        <v>57.93333333333333</v>
+      </c>
+      <c r="H191" t="n">
         <v>58.54666666666665</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M191" t="n">
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7560,24 +8001,25 @@
         <v>20170</v>
       </c>
       <c r="G192" t="n">
+        <v>57.91999999999999</v>
+      </c>
+      <c r="H192" t="n">
         <v>58.52833333333332</v>
       </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
       <c r="J192" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7601,24 +8043,447 @@
         <v>46603.59226020942</v>
       </c>
       <c r="G193" t="n">
+        <v>57.88</v>
+      </c>
+      <c r="H193" t="n">
         <v>58.50166666666666</v>
       </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
       <c r="J193" t="n">
-        <v>57.8</v>
+        <v>0</v>
       </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
+      <c r="N193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="C194" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="D194" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="E194" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="F194" t="n">
+        <v>55</v>
+      </c>
+      <c r="G194" t="n">
+        <v>57.84</v>
+      </c>
+      <c r="H194" t="n">
+        <v>58.48333333333333</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="C195" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="D195" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="E195" t="n">
+        <v>57</v>
+      </c>
+      <c r="F195" t="n">
+        <v>39284.9676</v>
+      </c>
+      <c r="G195" t="n">
+        <v>57.82</v>
+      </c>
+      <c r="H195" t="n">
+        <v>58.46833333333333</v>
+      </c>
+      <c r="I195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="C196" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="D196" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="E196" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="F196" t="n">
+        <v>5155</v>
+      </c>
+      <c r="G196" t="n">
+        <v>57.76666666666667</v>
+      </c>
+      <c r="H196" t="n">
+        <v>58.45499999999999</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="C197" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="D197" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="E197" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="F197" t="n">
+        <v>130</v>
+      </c>
+      <c r="G197" t="n">
+        <v>57.72</v>
+      </c>
+      <c r="H197" t="n">
+        <v>58.44166666666665</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="C198" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="D198" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="E198" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="F198" t="n">
+        <v>17118.90426956522</v>
+      </c>
+      <c r="G198" t="n">
+        <v>57.65999999999999</v>
+      </c>
+      <c r="H198" t="n">
+        <v>58.42166666666665</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="C199" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="D199" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="E199" t="n">
+        <v>57</v>
+      </c>
+      <c r="F199" t="n">
+        <v>37298.3751</v>
+      </c>
+      <c r="G199" t="n">
+        <v>57.61333333333332</v>
+      </c>
+      <c r="H199" t="n">
+        <v>58.39333333333332</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>57</v>
+      </c>
+      <c r="C200" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="D200" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="E200" t="n">
+        <v>57</v>
+      </c>
+      <c r="F200" t="n">
+        <v>3647.7821</v>
+      </c>
+      <c r="G200" t="n">
+        <v>57.58666666666666</v>
+      </c>
+      <c r="H200" t="n">
+        <v>58.35999999999999</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="C201" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="D201" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="E201" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="F201" t="n">
+        <v>620</v>
+      </c>
+      <c r="G201" t="n">
+        <v>57.54666666666665</v>
+      </c>
+      <c r="H201" t="n">
+        <v>58.32833333333333</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="C202" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="D202" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="E202" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F202" t="n">
+        <v>141804.7276</v>
+      </c>
+      <c r="G202" t="n">
+        <v>57.49333333333333</v>
+      </c>
+      <c r="H202" t="n">
+        <v>58.29333333333332</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="C203" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="D203" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="E203" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="F203" t="n">
+        <v>26984.8951</v>
+      </c>
+      <c r="G203" t="n">
+        <v>57.43999999999999</v>
+      </c>
+      <c r="H203" t="n">
+        <v>58.25333333333332</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-29 BackTest TRV.xlsx
+++ b/BackTest/2019-10-29 BackTest TRV.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M232"/>
+  <dimension ref="A1:N190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,31 +427,36 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>58.9</v>
+        <v>56.4</v>
       </c>
       <c r="C2" t="n">
-        <v>59.3</v>
+        <v>56.8</v>
       </c>
       <c r="D2" t="n">
-        <v>59.3</v>
+        <v>56.9</v>
       </c>
       <c r="E2" t="n">
-        <v>58.9</v>
+        <v>56.4</v>
       </c>
       <c r="F2" t="n">
-        <v>99843.05258364249</v>
+        <v>40499.4065</v>
       </c>
       <c r="G2" t="n">
-        <v>-5315769.116931636</v>
+        <v>56.86</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,133 +467,155 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>58.9</v>
+        <v>56.5</v>
       </c>
       <c r="C3" t="n">
-        <v>58.9</v>
+        <v>56.7</v>
       </c>
       <c r="D3" t="n">
-        <v>58.9</v>
+        <v>56.8</v>
       </c>
       <c r="E3" t="n">
-        <v>58.9</v>
+        <v>56.5</v>
       </c>
       <c r="F3" t="n">
-        <v>382.6035</v>
+        <v>33848.76306619719</v>
       </c>
       <c r="G3" t="n">
-        <v>-5316151.720431636</v>
+        <v>56.875</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>56.8</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>58.9</v>
+        <v>56.7</v>
       </c>
       <c r="C4" t="n">
-        <v>58.3</v>
+        <v>56.8</v>
       </c>
       <c r="D4" t="n">
-        <v>58.9</v>
+        <v>56.9</v>
       </c>
       <c r="E4" t="n">
-        <v>56.2</v>
+        <v>56.7</v>
       </c>
       <c r="F4" t="n">
-        <v>447577.4517</v>
+        <v>15857.75063380282</v>
       </c>
       <c r="G4" t="n">
-        <v>-5763729.172131636</v>
+        <v>56.90500000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>56.7</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>58</v>
+        <v>56.8</v>
       </c>
       <c r="C5" t="n">
-        <v>57.8</v>
+        <v>56.6</v>
       </c>
       <c r="D5" t="n">
-        <v>58.3</v>
+        <v>56.8</v>
       </c>
       <c r="E5" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>27263.39456619718</v>
+      </c>
+      <c r="G5" t="n">
+        <v>56.94500000000001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>56.8</v>
       </c>
-      <c r="F5" t="n">
-        <v>353424.8378592242</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-6117154.009990861</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>57.1</v>
+        <v>56.5</v>
       </c>
       <c r="C6" t="n">
-        <v>56.7</v>
+        <v>57</v>
       </c>
       <c r="D6" t="n">
-        <v>57.4</v>
+        <v>57</v>
       </c>
       <c r="E6" t="n">
-        <v>56.7</v>
+        <v>56.4</v>
       </c>
       <c r="F6" t="n">
-        <v>117393.9206</v>
+        <v>1051781.210060563</v>
       </c>
       <c r="G6" t="n">
-        <v>-6234547.930590861</v>
+        <v>56.97000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -597,39 +624,40 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>57.8</v>
+        <v>56.6</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>56.7</v>
+        <v>57</v>
       </c>
       <c r="C7" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" t="n">
-        <v>56.7</v>
+        <v>57</v>
       </c>
       <c r="E7" t="n">
-        <v>55.7</v>
+        <v>56.5</v>
       </c>
       <c r="F7" t="n">
-        <v>566950.1347091873</v>
+        <v>71002062.3602</v>
       </c>
       <c r="G7" t="n">
-        <v>-6801498.065300047</v>
+        <v>57</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -638,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>56.7</v>
+        <v>57</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
@@ -649,28 +677,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" t="n">
-        <v>56.6</v>
+        <v>57</v>
       </c>
       <c r="D8" t="n">
-        <v>57.2</v>
+        <v>57.1</v>
       </c>
       <c r="E8" t="n">
-        <v>56</v>
+        <v>56.7</v>
       </c>
       <c r="F8" t="n">
-        <v>298717.1279</v>
+        <v>127050494.0849</v>
       </c>
       <c r="G8" t="n">
-        <v>-6502780.937400048</v>
+        <v>57.02</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -679,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
@@ -690,38 +719,37 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>56.6</v>
+        <v>57</v>
       </c>
       <c r="C9" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D9" t="n">
-        <v>56.6</v>
+        <v>57.1</v>
       </c>
       <c r="E9" t="n">
-        <v>55.9</v>
+        <v>56.7</v>
       </c>
       <c r="F9" t="n">
-        <v>1474386.7048</v>
+        <v>136117335.1924093</v>
       </c>
       <c r="G9" t="n">
-        <v>-7977167.642200047</v>
+        <v>57.025</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>56.6</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
@@ -731,38 +759,37 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" t="n">
-        <v>55.9</v>
+        <v>57</v>
       </c>
       <c r="D10" t="n">
-        <v>56.1</v>
+        <v>57</v>
       </c>
       <c r="E10" t="n">
-        <v>55.6</v>
+        <v>57</v>
       </c>
       <c r="F10" t="n">
-        <v>77964.42075714286</v>
+        <v>77357334.207</v>
       </c>
       <c r="G10" t="n">
-        <v>-8055132.06295719</v>
+        <v>57.035</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>56</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
@@ -772,38 +799,37 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>55.9</v>
+        <v>57</v>
       </c>
       <c r="C11" t="n">
-        <v>56.8</v>
+        <v>57</v>
       </c>
       <c r="D11" t="n">
-        <v>56.8</v>
+        <v>57.1</v>
       </c>
       <c r="E11" t="n">
-        <v>55.9</v>
+        <v>57</v>
       </c>
       <c r="F11" t="n">
-        <v>63549.36547253521</v>
+        <v>31027540.44512807</v>
       </c>
       <c r="G11" t="n">
-        <v>-7991582.697484654</v>
+        <v>57.03000000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>55.9</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
@@ -813,13 +839,14 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>56.7</v>
+        <v>56.8</v>
       </c>
       <c r="C12" t="n">
         <v>56.9</v>
@@ -828,23 +855,21 @@
         <v>56.9</v>
       </c>
       <c r="E12" t="n">
-        <v>56.2</v>
+        <v>56.8</v>
       </c>
       <c r="F12" t="n">
-        <v>101301.1630890721</v>
+        <v>14836.3921</v>
       </c>
       <c r="G12" t="n">
-        <v>-7890281.534395582</v>
+        <v>57.01500000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>56.8</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
@@ -854,6 +879,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -863,29 +889,27 @@
         <v>56.9</v>
       </c>
       <c r="C13" t="n">
-        <v>57.3</v>
+        <v>57</v>
       </c>
       <c r="D13" t="n">
-        <v>57.9</v>
+        <v>57</v>
       </c>
       <c r="E13" t="n">
         <v>56.9</v>
       </c>
       <c r="F13" t="n">
-        <v>124519.1393521923</v>
+        <v>12940.1231</v>
       </c>
       <c r="G13" t="n">
-        <v>-7765762.39504339</v>
+        <v>56.99500000000002</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>56.9</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
@@ -895,38 +919,37 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>57.5</v>
+        <v>57</v>
       </c>
       <c r="C14" t="n">
-        <v>57.5</v>
+        <v>57.8</v>
       </c>
       <c r="D14" t="n">
-        <v>57.5</v>
+        <v>57.9</v>
       </c>
       <c r="E14" t="n">
-        <v>57.3</v>
+        <v>57</v>
       </c>
       <c r="F14" t="n">
-        <v>142012.4341</v>
+        <v>102060.1217671886</v>
       </c>
       <c r="G14" t="n">
-        <v>-7623749.96094339</v>
+        <v>56.98000000000002</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>57.3</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
@@ -936,13 +959,14 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>57.5</v>
+        <v>57.7</v>
       </c>
       <c r="C15" t="n">
         <v>57.7</v>
@@ -951,13 +975,13 @@
         <v>57.7</v>
       </c>
       <c r="E15" t="n">
-        <v>57.5</v>
+        <v>57.7</v>
       </c>
       <c r="F15" t="n">
-        <v>101970.9242</v>
+        <v>4326.6782</v>
       </c>
       <c r="G15" t="n">
-        <v>-7521779.036743389</v>
+        <v>57.00000000000002</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -975,28 +999,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="D16" t="n">
         <v>57.7</v>
       </c>
-      <c r="C16" t="n">
-        <v>58</v>
-      </c>
-      <c r="D16" t="n">
-        <v>58</v>
-      </c>
       <c r="E16" t="n">
-        <v>57.7</v>
+        <v>57.6</v>
       </c>
       <c r="F16" t="n">
-        <v>7425.6724</v>
+        <v>50944.3488</v>
       </c>
       <c r="G16" t="n">
-        <v>-7514353.36434339</v>
+        <v>57.00500000000002</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1014,28 +1039,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>57.5</v>
+        <v>57.6</v>
       </c>
       <c r="C17" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="D17" t="n">
         <v>57.6</v>
       </c>
-      <c r="D17" t="n">
-        <v>57.9</v>
-      </c>
       <c r="E17" t="n">
-        <v>57</v>
+        <v>57.4</v>
       </c>
       <c r="F17" t="n">
-        <v>50439.922752513</v>
+        <v>6087.418</v>
       </c>
       <c r="G17" t="n">
-        <v>-7564793.287095902</v>
+        <v>57.00000000000001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1053,28 +1079,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>57.6</v>
+        <v>57.4</v>
       </c>
       <c r="C18" t="n">
         <v>57.4</v>
       </c>
       <c r="D18" t="n">
-        <v>57.6</v>
+        <v>57.4</v>
       </c>
       <c r="E18" t="n">
-        <v>56.9</v>
+        <v>57.4</v>
       </c>
       <c r="F18" t="n">
-        <v>51350.1936</v>
+        <v>1715.5805</v>
       </c>
       <c r="G18" t="n">
-        <v>-7616143.480695902</v>
+        <v>57.02500000000001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1092,6 +1119,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1101,19 +1129,19 @@
         <v>57.4</v>
       </c>
       <c r="C19" t="n">
-        <v>57.2</v>
+        <v>57.4</v>
       </c>
       <c r="D19" t="n">
         <v>57.4</v>
       </c>
       <c r="E19" t="n">
-        <v>57</v>
+        <v>57.4</v>
       </c>
       <c r="F19" t="n">
-        <v>53256.6121</v>
+        <v>1717.4446</v>
       </c>
       <c r="G19" t="n">
-        <v>-7669400.092795902</v>
+        <v>57.03000000000002</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1131,28 +1159,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>57</v>
+        <v>57.4</v>
       </c>
       <c r="C20" t="n">
-        <v>56.4</v>
+        <v>57.7</v>
       </c>
       <c r="D20" t="n">
-        <v>57</v>
+        <v>57.7</v>
       </c>
       <c r="E20" t="n">
-        <v>56.4</v>
+        <v>57.4</v>
       </c>
       <c r="F20" t="n">
-        <v>153784.4385132343</v>
+        <v>18002361.7356</v>
       </c>
       <c r="G20" t="n">
-        <v>-7823184.531309136</v>
+        <v>57.03000000000002</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1170,28 +1199,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>56.4</v>
+        <v>57.7</v>
       </c>
       <c r="C21" t="n">
-        <v>56.1</v>
+        <v>57.7</v>
       </c>
       <c r="D21" t="n">
-        <v>56.4</v>
+        <v>57.8</v>
       </c>
       <c r="E21" t="n">
-        <v>56</v>
+        <v>57.7</v>
       </c>
       <c r="F21" t="n">
-        <v>48559.0522</v>
+        <v>134038003.0213991</v>
       </c>
       <c r="G21" t="n">
-        <v>-7871743.583509136</v>
+        <v>57.07000000000001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1209,28 +1239,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>56.1</v>
+        <v>57.7</v>
       </c>
       <c r="C22" t="n">
-        <v>56.5</v>
+        <v>58.8</v>
       </c>
       <c r="D22" t="n">
-        <v>56.6</v>
+        <v>58.8</v>
       </c>
       <c r="E22" t="n">
-        <v>56.1</v>
+        <v>57.7</v>
       </c>
       <c r="F22" t="n">
-        <v>136828.9766784452</v>
+        <v>28013085.02010879</v>
       </c>
       <c r="G22" t="n">
-        <v>-7734914.606830691</v>
+        <v>57.13500000000001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1248,38 +1279,37 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>56.6</v>
+        <v>58.5</v>
       </c>
       <c r="C23" t="n">
-        <v>56.5</v>
+        <v>58.8</v>
       </c>
       <c r="D23" t="n">
-        <v>56.6</v>
+        <v>58.8</v>
       </c>
       <c r="E23" t="n">
-        <v>56.5</v>
+        <v>58.5</v>
       </c>
       <c r="F23" t="n">
-        <v>29599.891</v>
+        <v>9639.098599999999</v>
       </c>
       <c r="G23" t="n">
-        <v>-7734914.606830691</v>
+        <v>57.23500000000001</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>56.5</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
@@ -1289,38 +1319,37 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>56.6</v>
+        <v>58.8</v>
       </c>
       <c r="C24" t="n">
-        <v>56.5</v>
+        <v>58.3</v>
       </c>
       <c r="D24" t="n">
-        <v>56.6</v>
+        <v>58.8</v>
       </c>
       <c r="E24" t="n">
-        <v>56.5</v>
+        <v>58.3</v>
       </c>
       <c r="F24" t="n">
-        <v>24600.4041</v>
+        <v>2041913.5914</v>
       </c>
       <c r="G24" t="n">
-        <v>-7734914.606830691</v>
+        <v>57.34000000000001</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>56.5</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
@@ -1330,38 +1359,37 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>56.2</v>
+        <v>58.3</v>
       </c>
       <c r="C25" t="n">
-        <v>56.1</v>
+        <v>58.3</v>
       </c>
       <c r="D25" t="n">
-        <v>56.2</v>
+        <v>58.3</v>
       </c>
       <c r="E25" t="n">
-        <v>56.1</v>
+        <v>58.2</v>
       </c>
       <c r="F25" t="n">
-        <v>18282.0511</v>
+        <v>139292804.9656</v>
       </c>
       <c r="G25" t="n">
-        <v>-7753196.657930691</v>
+        <v>57.41500000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>56.5</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
@@ -1371,38 +1399,37 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>56.1</v>
+        <v>58.3</v>
       </c>
       <c r="C26" t="n">
-        <v>56</v>
+        <v>58.7</v>
       </c>
       <c r="D26" t="n">
-        <v>56.1</v>
+        <v>58.7</v>
       </c>
       <c r="E26" t="n">
-        <v>56</v>
+        <v>58.3</v>
       </c>
       <c r="F26" t="n">
-        <v>55704.6252</v>
+        <v>25886103.0504</v>
       </c>
       <c r="G26" t="n">
-        <v>-7808901.28313069</v>
+        <v>57.50500000000001</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>56.1</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
@@ -1412,38 +1439,37 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>56</v>
+        <v>58.7</v>
       </c>
       <c r="C27" t="n">
-        <v>56</v>
+        <v>58.8</v>
       </c>
       <c r="D27" t="n">
-        <v>56</v>
+        <v>59.2</v>
       </c>
       <c r="E27" t="n">
-        <v>55.6</v>
+        <v>58.7</v>
       </c>
       <c r="F27" t="n">
-        <v>52066.1977</v>
+        <v>38158.7024945946</v>
       </c>
       <c r="G27" t="n">
-        <v>-7808901.28313069</v>
+        <v>57.59000000000001</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>56</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
@@ -1453,38 +1479,37 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>56</v>
+        <v>59.1</v>
       </c>
       <c r="C28" t="n">
-        <v>56.4</v>
+        <v>59.1</v>
       </c>
       <c r="D28" t="n">
-        <v>56.4</v>
+        <v>59.2</v>
       </c>
       <c r="E28" t="n">
-        <v>55.8</v>
+        <v>59.1</v>
       </c>
       <c r="F28" t="n">
-        <v>52173.896</v>
+        <v>26139.2919</v>
       </c>
       <c r="G28" t="n">
-        <v>-7756727.387130691</v>
+        <v>57.69500000000001</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>56</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
@@ -1494,38 +1519,37 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>56.4</v>
+        <v>58.9</v>
       </c>
       <c r="C29" t="n">
-        <v>56.6</v>
+        <v>59.3</v>
       </c>
       <c r="D29" t="n">
-        <v>56.6</v>
+        <v>59.4</v>
       </c>
       <c r="E29" t="n">
-        <v>56.1</v>
+        <v>58.9</v>
       </c>
       <c r="F29" t="n">
-        <v>192225.5661910583</v>
+        <v>158594.1741054054</v>
       </c>
       <c r="G29" t="n">
-        <v>-7564501.820939632</v>
+        <v>57.79000000000001</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>56.4</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
@@ -1535,38 +1559,37 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>56.6</v>
+        <v>59.5</v>
       </c>
       <c r="C30" t="n">
-        <v>56.9</v>
+        <v>60.1</v>
       </c>
       <c r="D30" t="n">
-        <v>56.9</v>
+        <v>60.1</v>
       </c>
       <c r="E30" t="n">
-        <v>56.6</v>
+        <v>59.5</v>
       </c>
       <c r="F30" t="n">
-        <v>279065.0619</v>
+        <v>211032.6491282303</v>
       </c>
       <c r="G30" t="n">
-        <v>-7285436.759039632</v>
+        <v>57.91500000000001</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>56.6</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
@@ -1576,38 +1599,37 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>56.9</v>
+        <v>60.1</v>
       </c>
       <c r="C31" t="n">
-        <v>57.4</v>
+        <v>60.2</v>
       </c>
       <c r="D31" t="n">
-        <v>57.4</v>
+        <v>60.3</v>
       </c>
       <c r="E31" t="n">
-        <v>56.9</v>
+        <v>59.9</v>
       </c>
       <c r="F31" t="n">
-        <v>204193.3515</v>
+        <v>306391.6086703151</v>
       </c>
       <c r="G31" t="n">
-        <v>-7081243.407539632</v>
+        <v>58.07000000000001</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>56.9</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
@@ -1617,38 +1639,37 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>56.8</v>
+        <v>60.2</v>
       </c>
       <c r="C32" t="n">
-        <v>57.4</v>
+        <v>61.3</v>
       </c>
       <c r="D32" t="n">
-        <v>57.4</v>
+        <v>61.3</v>
       </c>
       <c r="E32" t="n">
-        <v>56.8</v>
+        <v>60.2</v>
       </c>
       <c r="F32" t="n">
-        <v>38665.15849808363</v>
+        <v>685300.04550584</v>
       </c>
       <c r="G32" t="n">
-        <v>-7081243.407539632</v>
+        <v>58.24000000000001</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>57.4</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
@@ -1658,38 +1679,37 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>57.1</v>
+        <v>61.2</v>
       </c>
       <c r="C33" t="n">
-        <v>57.1</v>
+        <v>61.2</v>
       </c>
       <c r="D33" t="n">
-        <v>57.1</v>
+        <v>61.6</v>
       </c>
       <c r="E33" t="n">
-        <v>57.1</v>
+        <v>61.2</v>
       </c>
       <c r="F33" t="n">
-        <v>35310.5146</v>
+        <v>317710.3701</v>
       </c>
       <c r="G33" t="n">
-        <v>-7116553.922139633</v>
+        <v>58.45500000000001</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>57.4</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
@@ -1699,28 +1719,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>57.1</v>
+        <v>61</v>
       </c>
       <c r="C34" t="n">
-        <v>57.3</v>
+        <v>60.1</v>
       </c>
       <c r="D34" t="n">
-        <v>57.3</v>
+        <v>61</v>
       </c>
       <c r="E34" t="n">
-        <v>57.1</v>
+        <v>60.1</v>
       </c>
       <c r="F34" t="n">
-        <v>2663.60334904014</v>
+        <v>131476.6069</v>
       </c>
       <c r="G34" t="n">
-        <v>-7113890.318790592</v>
+        <v>58.65500000000001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1738,38 +1759,37 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>57.3</v>
+        <v>60.2</v>
       </c>
       <c r="C35" t="n">
-        <v>57.3</v>
+        <v>60.2</v>
       </c>
       <c r="D35" t="n">
-        <v>57.3</v>
+        <v>60.9</v>
       </c>
       <c r="E35" t="n">
-        <v>57.1</v>
+        <v>60.2</v>
       </c>
       <c r="F35" t="n">
-        <v>62545.3669</v>
+        <v>55163.8643</v>
       </c>
       <c r="G35" t="n">
-        <v>-7113890.318790592</v>
+        <v>58.78000000000001</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>57.3</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
@@ -1779,38 +1799,37 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>57.3</v>
+        <v>60.2</v>
       </c>
       <c r="C36" t="n">
-        <v>57.3</v>
+        <v>60.5</v>
       </c>
       <c r="D36" t="n">
-        <v>57.3</v>
+        <v>60.5</v>
       </c>
       <c r="E36" t="n">
-        <v>57.3</v>
+        <v>60.2</v>
       </c>
       <c r="F36" t="n">
-        <v>49721.0296</v>
+        <v>81173.9762</v>
       </c>
       <c r="G36" t="n">
-        <v>-7113890.318790592</v>
+        <v>58.91000000000001</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>57.3</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
@@ -1820,38 +1839,37 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>57.3</v>
+        <v>60.9</v>
       </c>
       <c r="C37" t="n">
-        <v>57.5</v>
+        <v>61</v>
       </c>
       <c r="D37" t="n">
-        <v>57.5</v>
+        <v>61</v>
       </c>
       <c r="E37" t="n">
-        <v>57.3</v>
+        <v>60.5</v>
       </c>
       <c r="F37" t="n">
-        <v>96549.00395095986</v>
+        <v>113259.972</v>
       </c>
       <c r="G37" t="n">
-        <v>-7017341.314839632</v>
+        <v>59.07500000000002</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>57.3</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
@@ -1861,28 +1879,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>57.5</v>
+        <v>60.9</v>
       </c>
       <c r="C38" t="n">
-        <v>57.7</v>
+        <v>60.6</v>
       </c>
       <c r="D38" t="n">
-        <v>57.7</v>
+        <v>61</v>
       </c>
       <c r="E38" t="n">
-        <v>57.5</v>
+        <v>60.6</v>
       </c>
       <c r="F38" t="n">
-        <v>81194.02100191638</v>
+        <v>68975.50900000001</v>
       </c>
       <c r="G38" t="n">
-        <v>-6936147.293837716</v>
+        <v>59.25000000000002</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1900,28 +1919,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>57.7</v>
+        <v>60.9</v>
       </c>
       <c r="C39" t="n">
-        <v>56.4</v>
+        <v>61.1</v>
       </c>
       <c r="D39" t="n">
-        <v>57.7</v>
+        <v>61.1</v>
       </c>
       <c r="E39" t="n">
-        <v>56.4</v>
+        <v>60.9</v>
       </c>
       <c r="F39" t="n">
-        <v>41782.5085354121</v>
+        <v>264527.4579</v>
       </c>
       <c r="G39" t="n">
-        <v>-6977929.802373128</v>
+        <v>59.42500000000003</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1939,28 +1959,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>56.9</v>
+        <v>61.2</v>
       </c>
       <c r="C40" t="n">
-        <v>57.3</v>
+        <v>61.2</v>
       </c>
       <c r="D40" t="n">
-        <v>57.3</v>
+        <v>61.2</v>
       </c>
       <c r="E40" t="n">
-        <v>56.6</v>
+        <v>61</v>
       </c>
       <c r="F40" t="n">
-        <v>78669.1645</v>
+        <v>68331.64030718955</v>
       </c>
       <c r="G40" t="n">
-        <v>-6899260.637873128</v>
+        <v>59.61500000000002</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1978,28 +1999,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>57.3</v>
+        <v>61.2</v>
       </c>
       <c r="C41" t="n">
-        <v>57.4</v>
+        <v>61.3</v>
       </c>
       <c r="D41" t="n">
-        <v>57.5</v>
+        <v>61.4</v>
       </c>
       <c r="E41" t="n">
-        <v>57</v>
+        <v>61.2</v>
       </c>
       <c r="F41" t="n">
-        <v>67304.9644979094</v>
+        <v>90782.07819281046</v>
       </c>
       <c r="G41" t="n">
-        <v>-6831955.673375219</v>
+        <v>59.79000000000002</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2017,28 +2039,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>57.4</v>
+        <v>61.3</v>
       </c>
       <c r="C42" t="n">
-        <v>56.9</v>
+        <v>61.7</v>
       </c>
       <c r="D42" t="n">
-        <v>57.4</v>
+        <v>61.7</v>
       </c>
       <c r="E42" t="n">
-        <v>56.9</v>
+        <v>61</v>
       </c>
       <c r="F42" t="n">
-        <v>14998.90930209059</v>
+        <v>306944.7903</v>
       </c>
       <c r="G42" t="n">
-        <v>-6846954.582677309</v>
+        <v>59.97000000000001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2056,38 +2079,37 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>56.9</v>
+        <v>61.8</v>
       </c>
       <c r="C43" t="n">
-        <v>56.8</v>
+        <v>61.8</v>
       </c>
       <c r="D43" t="n">
-        <v>56.9</v>
+        <v>62.4</v>
       </c>
       <c r="E43" t="n">
-        <v>56.8</v>
+        <v>61.8</v>
       </c>
       <c r="F43" t="n">
-        <v>26490.2349</v>
+        <v>533645.6855100961</v>
       </c>
       <c r="G43" t="n">
-        <v>-6873444.817577309</v>
+        <v>60.13500000000001</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>56.9</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
@@ -2097,38 +2119,37 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>56.4</v>
+        <v>62.1</v>
       </c>
       <c r="C44" t="n">
-        <v>56.8</v>
+        <v>61.7</v>
       </c>
       <c r="D44" t="n">
-        <v>56.9</v>
+        <v>62.1</v>
       </c>
       <c r="E44" t="n">
-        <v>56.4</v>
+        <v>61.2</v>
       </c>
       <c r="F44" t="n">
-        <v>40499.4065</v>
+        <v>262414.0553</v>
       </c>
       <c r="G44" t="n">
-        <v>-6873444.817577309</v>
+        <v>60.30000000000001</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>56.8</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
@@ -2138,38 +2159,37 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>56.5</v>
+        <v>61.7</v>
       </c>
       <c r="C45" t="n">
-        <v>56.7</v>
+        <v>61.7</v>
       </c>
       <c r="D45" t="n">
-        <v>56.8</v>
+        <v>61.8</v>
       </c>
       <c r="E45" t="n">
-        <v>56.5</v>
+        <v>61.3</v>
       </c>
       <c r="F45" t="n">
-        <v>33848.76306619719</v>
+        <v>28493.5016</v>
       </c>
       <c r="G45" t="n">
-        <v>-6907293.580643506</v>
+        <v>60.47000000000001</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>56.8</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
@@ -2179,38 +2199,37 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>56.7</v>
+        <v>61.4</v>
       </c>
       <c r="C46" t="n">
-        <v>56.8</v>
+        <v>61.6</v>
       </c>
       <c r="D46" t="n">
-        <v>56.9</v>
+        <v>61.7</v>
       </c>
       <c r="E46" t="n">
-        <v>56.7</v>
+        <v>61.3</v>
       </c>
       <c r="F46" t="n">
-        <v>15857.75063380282</v>
+        <v>73003.6982</v>
       </c>
       <c r="G46" t="n">
-        <v>-6891435.830009703</v>
+        <v>60.62500000000002</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>56.7</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
@@ -2220,38 +2239,37 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>56.8</v>
+        <v>61.5</v>
       </c>
       <c r="C47" t="n">
-        <v>56.6</v>
+        <v>61.5</v>
       </c>
       <c r="D47" t="n">
-        <v>56.8</v>
+        <v>61.6</v>
       </c>
       <c r="E47" t="n">
-        <v>56.6</v>
+        <v>61.1</v>
       </c>
       <c r="F47" t="n">
-        <v>27263.39456619718</v>
+        <v>139481.100200813</v>
       </c>
       <c r="G47" t="n">
-        <v>-6918699.2245759</v>
+        <v>60.76500000000002</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>56.8</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
@@ -2261,28 +2279,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>56.5</v>
+        <v>61.4</v>
       </c>
       <c r="C48" t="n">
-        <v>57</v>
+        <v>61.4</v>
       </c>
       <c r="D48" t="n">
-        <v>57</v>
+        <v>61.4</v>
       </c>
       <c r="E48" t="n">
-        <v>56.4</v>
+        <v>61.3</v>
       </c>
       <c r="F48" t="n">
-        <v>1051781.210060563</v>
+        <v>75264.49980000001</v>
       </c>
       <c r="G48" t="n">
-        <v>-5866918.014515337</v>
+        <v>60.88000000000003</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2300,28 +2319,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>57</v>
+        <v>61.6</v>
       </c>
       <c r="C49" t="n">
-        <v>57</v>
+        <v>61.9</v>
       </c>
       <c r="D49" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E49" t="n">
-        <v>56.5</v>
+        <v>61.4</v>
       </c>
       <c r="F49" t="n">
-        <v>71002062.3602</v>
+        <v>91790.3904</v>
       </c>
       <c r="G49" t="n">
-        <v>-5866918.014515337</v>
+        <v>61.01500000000002</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2339,28 +2359,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>57</v>
+        <v>61.9</v>
       </c>
       <c r="C50" t="n">
-        <v>57</v>
+        <v>61.9</v>
       </c>
       <c r="D50" t="n">
-        <v>57.1</v>
+        <v>62</v>
       </c>
       <c r="E50" t="n">
-        <v>56.7</v>
+        <v>61.5</v>
       </c>
       <c r="F50" t="n">
-        <v>127050494.0849</v>
+        <v>250318.2907887097</v>
       </c>
       <c r="G50" t="n">
-        <v>-5866918.014515337</v>
+        <v>61.13500000000003</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2378,28 +2399,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>57</v>
+        <v>61.8</v>
       </c>
       <c r="C51" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D51" t="n">
-        <v>57.1</v>
+        <v>62</v>
       </c>
       <c r="E51" t="n">
-        <v>56.7</v>
+        <v>61.8</v>
       </c>
       <c r="F51" t="n">
-        <v>136117335.1924093</v>
+        <v>27991.04361129032</v>
       </c>
       <c r="G51" t="n">
-        <v>-5866918.014515337</v>
+        <v>61.22000000000003</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2417,28 +2439,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C52" t="n">
-        <v>57</v>
+        <v>61.9</v>
       </c>
       <c r="D52" t="n">
-        <v>57</v>
+        <v>62.2</v>
       </c>
       <c r="E52" t="n">
-        <v>57</v>
+        <v>61.9</v>
       </c>
       <c r="F52" t="n">
-        <v>77357334.207</v>
+        <v>126089.8463</v>
       </c>
       <c r="G52" t="n">
-        <v>-5866918.014515337</v>
+        <v>61.31000000000002</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2456,28 +2479,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>57</v>
+        <v>61.9</v>
       </c>
       <c r="C53" t="n">
-        <v>57</v>
+        <v>61.8</v>
       </c>
       <c r="D53" t="n">
-        <v>57.1</v>
+        <v>62.2</v>
       </c>
       <c r="E53" t="n">
-        <v>57</v>
+        <v>61.6</v>
       </c>
       <c r="F53" t="n">
-        <v>31027540.44512807</v>
+        <v>151879.5547665595</v>
       </c>
       <c r="G53" t="n">
-        <v>-5866918.014515337</v>
+        <v>61.34500000000003</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2495,28 +2519,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>56.8</v>
+        <v>61.8</v>
       </c>
       <c r="C54" t="n">
-        <v>56.9</v>
+        <v>61.5</v>
       </c>
       <c r="D54" t="n">
-        <v>56.9</v>
+        <v>62.3</v>
       </c>
       <c r="E54" t="n">
-        <v>56.8</v>
+        <v>61.4</v>
       </c>
       <c r="F54" t="n">
-        <v>14836.3921</v>
+        <v>215185.6092110754</v>
       </c>
       <c r="G54" t="n">
-        <v>-5881754.406615336</v>
+        <v>61.38500000000003</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2534,28 +2559,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>56.9</v>
+        <v>61.5</v>
       </c>
       <c r="C55" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D55" t="n">
-        <v>57</v>
+        <v>61.5</v>
       </c>
       <c r="E55" t="n">
-        <v>56.9</v>
+        <v>61</v>
       </c>
       <c r="F55" t="n">
-        <v>12940.1231</v>
+        <v>202131.6068959283</v>
       </c>
       <c r="G55" t="n">
-        <v>-5868814.283515336</v>
+        <v>61.45000000000002</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2573,28 +2599,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C56" t="n">
-        <v>57.8</v>
+        <v>60.5</v>
       </c>
       <c r="D56" t="n">
-        <v>57.9</v>
+        <v>61</v>
       </c>
       <c r="E56" t="n">
-        <v>57</v>
+        <v>60.5</v>
       </c>
       <c r="F56" t="n">
-        <v>102060.1217671886</v>
+        <v>50671.4001</v>
       </c>
       <c r="G56" t="n">
-        <v>-5766754.161748148</v>
+        <v>61.49000000000002</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2612,28 +2639,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>57.7</v>
+        <v>60.6</v>
       </c>
       <c r="C57" t="n">
-        <v>57.7</v>
+        <v>60.8</v>
       </c>
       <c r="D57" t="n">
-        <v>57.7</v>
+        <v>61.2</v>
       </c>
       <c r="E57" t="n">
-        <v>57.7</v>
+        <v>60.5</v>
       </c>
       <c r="F57" t="n">
-        <v>4326.6782</v>
+        <v>78564.1185</v>
       </c>
       <c r="G57" t="n">
-        <v>-5771080.839948148</v>
+        <v>61.47500000000001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2651,28 +2679,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>57.6</v>
+        <v>61.1</v>
       </c>
       <c r="C58" t="n">
-        <v>57.6</v>
+        <v>60.5</v>
       </c>
       <c r="D58" t="n">
-        <v>57.7</v>
+        <v>61.2</v>
       </c>
       <c r="E58" t="n">
-        <v>57.6</v>
+        <v>60.5</v>
       </c>
       <c r="F58" t="n">
-        <v>50944.3488</v>
+        <v>116139.4281</v>
       </c>
       <c r="G58" t="n">
-        <v>-5822025.188748147</v>
+        <v>61.485</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2690,28 +2719,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>57.6</v>
+        <v>60.6</v>
       </c>
       <c r="C59" t="n">
-        <v>57.4</v>
+        <v>60.5</v>
       </c>
       <c r="D59" t="n">
-        <v>57.6</v>
+        <v>60.6</v>
       </c>
       <c r="E59" t="n">
-        <v>57.4</v>
+        <v>60.2</v>
       </c>
       <c r="F59" t="n">
-        <v>6087.418</v>
+        <v>89447.45590718955</v>
       </c>
       <c r="G59" t="n">
-        <v>-5828112.606748147</v>
+        <v>61.46999999999999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2729,28 +2759,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>57.4</v>
+        <v>60.5</v>
       </c>
       <c r="C60" t="n">
-        <v>57.4</v>
+        <v>60.3</v>
       </c>
       <c r="D60" t="n">
-        <v>57.4</v>
+        <v>61.1</v>
       </c>
       <c r="E60" t="n">
-        <v>57.4</v>
+        <v>60.2</v>
       </c>
       <c r="F60" t="n">
-        <v>1715.5805</v>
+        <v>54673.07648330605</v>
       </c>
       <c r="G60" t="n">
-        <v>-5828112.606748147</v>
+        <v>61.43499999999999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2768,38 +2799,37 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>57.4</v>
+        <v>60.3</v>
       </c>
       <c r="C61" t="n">
-        <v>57.4</v>
+        <v>60.8</v>
       </c>
       <c r="D61" t="n">
-        <v>57.4</v>
+        <v>60.9</v>
       </c>
       <c r="E61" t="n">
-        <v>57.4</v>
+        <v>60</v>
       </c>
       <c r="F61" t="n">
-        <v>1717.4446</v>
+        <v>104233.1754</v>
       </c>
       <c r="G61" t="n">
-        <v>-5828112.606748147</v>
+        <v>61.38999999999999</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>57.4</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
@@ -2809,28 +2839,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>57.4</v>
+        <v>60.1</v>
       </c>
       <c r="C62" t="n">
-        <v>57.7</v>
+        <v>59.9</v>
       </c>
       <c r="D62" t="n">
-        <v>57.7</v>
+        <v>60.1</v>
       </c>
       <c r="E62" t="n">
-        <v>57.4</v>
+        <v>59.1</v>
       </c>
       <c r="F62" t="n">
-        <v>18002361.7356</v>
+        <v>93689.6326</v>
       </c>
       <c r="G62" t="n">
-        <v>12174249.12885185</v>
+        <v>61.32999999999998</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2848,28 +2879,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>57.7</v>
+        <v>59.9</v>
       </c>
       <c r="C63" t="n">
-        <v>57.7</v>
+        <v>59.6</v>
       </c>
       <c r="D63" t="n">
-        <v>57.8</v>
+        <v>59.9</v>
       </c>
       <c r="E63" t="n">
-        <v>57.7</v>
+        <v>59.3</v>
       </c>
       <c r="F63" t="n">
-        <v>134038003.0213991</v>
+        <v>128052.9376</v>
       </c>
       <c r="G63" t="n">
-        <v>12174249.12885185</v>
+        <v>61.23499999999999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2887,28 +2919,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>57.7</v>
+        <v>59.6</v>
       </c>
       <c r="C64" t="n">
+        <v>59</v>
+      </c>
+      <c r="D64" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="E64" t="n">
         <v>58.8</v>
       </c>
-      <c r="D64" t="n">
-        <v>58.8</v>
-      </c>
-      <c r="E64" t="n">
-        <v>57.7</v>
-      </c>
       <c r="F64" t="n">
-        <v>28013085.02010879</v>
+        <v>227863.3954</v>
       </c>
       <c r="G64" t="n">
-        <v>40187334.14896064</v>
+        <v>61.10999999999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2926,28 +2959,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>58.5</v>
+        <v>59</v>
       </c>
       <c r="C65" t="n">
-        <v>58.8</v>
+        <v>58.3</v>
       </c>
       <c r="D65" t="n">
-        <v>58.8</v>
+        <v>59</v>
       </c>
       <c r="E65" t="n">
-        <v>58.5</v>
+        <v>58.2</v>
       </c>
       <c r="F65" t="n">
-        <v>9639.098599999999</v>
+        <v>233605.6099</v>
       </c>
       <c r="G65" t="n">
-        <v>40187334.14896064</v>
+        <v>60.97499999999999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2965,28 +2999,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>58.8</v>
+        <v>58.1</v>
       </c>
       <c r="C66" t="n">
-        <v>58.3</v>
+        <v>57.5</v>
       </c>
       <c r="D66" t="n">
-        <v>58.8</v>
+        <v>58.1</v>
       </c>
       <c r="E66" t="n">
-        <v>58.3</v>
+        <v>57.5</v>
       </c>
       <c r="F66" t="n">
-        <v>2041913.5914</v>
+        <v>74836.10060000001</v>
       </c>
       <c r="G66" t="n">
-        <v>38145420.55756065</v>
+        <v>60.80999999999998</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3004,28 +3039,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>58.3</v>
+        <v>57.4</v>
       </c>
       <c r="C67" t="n">
-        <v>58.3</v>
+        <v>57.8</v>
       </c>
       <c r="D67" t="n">
-        <v>58.3</v>
+        <v>57.8</v>
       </c>
       <c r="E67" t="n">
-        <v>58.2</v>
+        <v>57</v>
       </c>
       <c r="F67" t="n">
-        <v>139292804.9656</v>
+        <v>410988.2761</v>
       </c>
       <c r="G67" t="n">
-        <v>38145420.55756065</v>
+        <v>60.60499999999998</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3043,28 +3079,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="C68" t="n">
         <v>58.3</v>
       </c>
-      <c r="C68" t="n">
-        <v>58.7</v>
-      </c>
       <c r="D68" t="n">
-        <v>58.7</v>
+        <v>58.5</v>
       </c>
       <c r="E68" t="n">
-        <v>58.3</v>
+        <v>57.5</v>
       </c>
       <c r="F68" t="n">
-        <v>25886103.0504</v>
+        <v>128482.5190752137</v>
       </c>
       <c r="G68" t="n">
-        <v>64031523.60796064</v>
+        <v>60.41999999999998</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3082,28 +3119,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>58.7</v>
+        <v>58.2</v>
       </c>
       <c r="C69" t="n">
-        <v>58.8</v>
+        <v>58.9</v>
       </c>
       <c r="D69" t="n">
-        <v>59.2</v>
+        <v>59.1</v>
       </c>
       <c r="E69" t="n">
-        <v>58.7</v>
+        <v>57.8</v>
       </c>
       <c r="F69" t="n">
-        <v>38158.7024945946</v>
+        <v>86465.8149</v>
       </c>
       <c r="G69" t="n">
-        <v>64069682.31045523</v>
+        <v>60.24999999999999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3121,28 +3159,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>59.1</v>
+        <v>58.8</v>
       </c>
       <c r="C70" t="n">
-        <v>59.1</v>
+        <v>58.8</v>
       </c>
       <c r="D70" t="n">
-        <v>59.2</v>
+        <v>58.8</v>
       </c>
       <c r="E70" t="n">
-        <v>59.1</v>
+        <v>58.8</v>
       </c>
       <c r="F70" t="n">
-        <v>26139.2919</v>
+        <v>8779.681</v>
       </c>
       <c r="G70" t="n">
-        <v>64095821.60235523</v>
+        <v>60.09499999999998</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3160,28 +3199,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>58.9</v>
+        <v>58.8</v>
       </c>
       <c r="C71" t="n">
-        <v>59.3</v>
+        <v>58.5</v>
       </c>
       <c r="D71" t="n">
-        <v>59.4</v>
+        <v>58.8</v>
       </c>
       <c r="E71" t="n">
-        <v>58.9</v>
+        <v>58.3</v>
       </c>
       <c r="F71" t="n">
-        <v>158594.1741054054</v>
+        <v>41955.12093129252</v>
       </c>
       <c r="G71" t="n">
-        <v>64254415.77646064</v>
+        <v>59.94499999999998</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3199,28 +3239,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>59.5</v>
+        <v>58.4</v>
       </c>
       <c r="C72" t="n">
-        <v>60.1</v>
+        <v>58.5</v>
       </c>
       <c r="D72" t="n">
-        <v>60.1</v>
+        <v>58.9</v>
       </c>
       <c r="E72" t="n">
-        <v>59.5</v>
+        <v>57.9</v>
       </c>
       <c r="F72" t="n">
-        <v>211032.6491282303</v>
+        <v>96036.55662658662</v>
       </c>
       <c r="G72" t="n">
-        <v>64465448.42558887</v>
+        <v>59.76499999999999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3238,28 +3279,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>60.1</v>
+        <v>58.5</v>
       </c>
       <c r="C73" t="n">
-        <v>60.2</v>
+        <v>57.8</v>
       </c>
       <c r="D73" t="n">
-        <v>60.3</v>
+        <v>58.5</v>
       </c>
       <c r="E73" t="n">
-        <v>59.9</v>
+        <v>57.8</v>
       </c>
       <c r="F73" t="n">
-        <v>306391.6086703151</v>
+        <v>55078.1228034188</v>
       </c>
       <c r="G73" t="n">
-        <v>64771840.03425919</v>
+        <v>59.59499999999998</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3277,28 +3319,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>60.2</v>
+        <v>58.2</v>
       </c>
       <c r="C74" t="n">
-        <v>61.3</v>
+        <v>58.3</v>
       </c>
       <c r="D74" t="n">
-        <v>61.3</v>
+        <v>58.3</v>
       </c>
       <c r="E74" t="n">
-        <v>60.2</v>
+        <v>58.1</v>
       </c>
       <c r="F74" t="n">
-        <v>685300.04550584</v>
+        <v>5112.5979</v>
       </c>
       <c r="G74" t="n">
-        <v>65457140.07976502</v>
+        <v>59.41499999999998</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3316,28 +3359,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>61.2</v>
+        <v>58.4</v>
       </c>
       <c r="C75" t="n">
-        <v>61.2</v>
+        <v>58.9</v>
       </c>
       <c r="D75" t="n">
-        <v>61.6</v>
+        <v>58.9</v>
       </c>
       <c r="E75" t="n">
-        <v>61.2</v>
+        <v>58.3</v>
       </c>
       <c r="F75" t="n">
-        <v>317710.3701</v>
+        <v>44352.6073</v>
       </c>
       <c r="G75" t="n">
-        <v>65139429.70966502</v>
+        <v>59.25999999999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3355,28 +3399,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>61</v>
+        <v>58.8</v>
       </c>
       <c r="C76" t="n">
-        <v>60.1</v>
+        <v>58.1</v>
       </c>
       <c r="D76" t="n">
-        <v>61</v>
+        <v>58.8</v>
       </c>
       <c r="E76" t="n">
-        <v>60.1</v>
+        <v>58.1</v>
       </c>
       <c r="F76" t="n">
-        <v>131476.6069</v>
+        <v>127342.7377</v>
       </c>
       <c r="G76" t="n">
-        <v>65007953.10276502</v>
+        <v>59.14999999999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3394,28 +3439,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>60.2</v>
+        <v>58.4</v>
       </c>
       <c r="C77" t="n">
-        <v>60.2</v>
+        <v>58.3</v>
       </c>
       <c r="D77" t="n">
-        <v>60.9</v>
+        <v>58.4</v>
       </c>
       <c r="E77" t="n">
-        <v>60.2</v>
+        <v>58.3</v>
       </c>
       <c r="F77" t="n">
-        <v>55163.8643</v>
+        <v>3585.5017</v>
       </c>
       <c r="G77" t="n">
-        <v>65063116.96706502</v>
+        <v>59.04</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3433,28 +3479,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>60.2</v>
+        <v>58.4</v>
       </c>
       <c r="C78" t="n">
-        <v>60.5</v>
+        <v>58.6</v>
       </c>
       <c r="D78" t="n">
-        <v>60.5</v>
+        <v>58.7</v>
       </c>
       <c r="E78" t="n">
-        <v>60.2</v>
+        <v>58.4</v>
       </c>
       <c r="F78" t="n">
-        <v>81173.9762</v>
+        <v>59207.8775</v>
       </c>
       <c r="G78" t="n">
-        <v>65144290.94326502</v>
+        <v>58.90500000000001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3472,28 +3519,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>60.9</v>
+        <v>58.5</v>
       </c>
       <c r="C79" t="n">
-        <v>61</v>
+        <v>58.7</v>
       </c>
       <c r="D79" t="n">
-        <v>61</v>
+        <v>58.7</v>
       </c>
       <c r="E79" t="n">
-        <v>60.5</v>
+        <v>58.5</v>
       </c>
       <c r="F79" t="n">
-        <v>113259.972</v>
+        <v>20171.93201260647</v>
       </c>
       <c r="G79" t="n">
-        <v>65257550.91526502</v>
+        <v>58.80000000000001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3511,28 +3559,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>60.9</v>
+        <v>58.7</v>
       </c>
       <c r="C80" t="n">
-        <v>60.6</v>
+        <v>59.2</v>
       </c>
       <c r="D80" t="n">
-        <v>61</v>
+        <v>59.2</v>
       </c>
       <c r="E80" t="n">
-        <v>60.6</v>
+        <v>58.7</v>
       </c>
       <c r="F80" t="n">
-        <v>68975.50900000001</v>
+        <v>42362.8567</v>
       </c>
       <c r="G80" t="n">
-        <v>65188575.40626502</v>
+        <v>58.71000000000002</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3550,28 +3599,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>60.9</v>
+        <v>59</v>
       </c>
       <c r="C81" t="n">
-        <v>61.1</v>
+        <v>59.1</v>
       </c>
       <c r="D81" t="n">
-        <v>61.1</v>
+        <v>59.1</v>
       </c>
       <c r="E81" t="n">
-        <v>60.9</v>
+        <v>59</v>
       </c>
       <c r="F81" t="n">
-        <v>264527.4579</v>
+        <v>6565.1743</v>
       </c>
       <c r="G81" t="n">
-        <v>65453102.86416502</v>
+        <v>58.64500000000002</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3589,28 +3639,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>61.2</v>
+        <v>59.1</v>
       </c>
       <c r="C82" t="n">
-        <v>61.2</v>
+        <v>58.9</v>
       </c>
       <c r="D82" t="n">
-        <v>61.2</v>
+        <v>59.1</v>
       </c>
       <c r="E82" t="n">
-        <v>61</v>
+        <v>58.9</v>
       </c>
       <c r="F82" t="n">
-        <v>68331.64030718955</v>
+        <v>57381.2367</v>
       </c>
       <c r="G82" t="n">
-        <v>65521434.50447221</v>
+        <v>58.59500000000001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3628,28 +3679,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>61.2</v>
+        <v>58.9</v>
       </c>
       <c r="C83" t="n">
-        <v>61.3</v>
+        <v>58.3</v>
       </c>
       <c r="D83" t="n">
-        <v>61.4</v>
+        <v>58.9</v>
       </c>
       <c r="E83" t="n">
-        <v>61.2</v>
+        <v>58.3</v>
       </c>
       <c r="F83" t="n">
-        <v>90782.07819281046</v>
+        <v>87363.1765</v>
       </c>
       <c r="G83" t="n">
-        <v>65612216.58266502</v>
+        <v>58.54500000000002</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3667,28 +3719,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>61.3</v>
+        <v>58.4</v>
       </c>
       <c r="C84" t="n">
-        <v>61.7</v>
+        <v>58.1</v>
       </c>
       <c r="D84" t="n">
-        <v>61.7</v>
+        <v>58.4</v>
       </c>
       <c r="E84" t="n">
-        <v>61</v>
+        <v>58.1</v>
       </c>
       <c r="F84" t="n">
-        <v>306944.7903</v>
+        <v>1789.5405</v>
       </c>
       <c r="G84" t="n">
-        <v>65919161.37296502</v>
+        <v>58.48500000000003</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3706,28 +3759,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>61.8</v>
+        <v>58.8</v>
       </c>
       <c r="C85" t="n">
-        <v>61.8</v>
+        <v>58.8</v>
       </c>
       <c r="D85" t="n">
-        <v>62.4</v>
+        <v>58.8</v>
       </c>
       <c r="E85" t="n">
-        <v>61.8</v>
+        <v>58.2</v>
       </c>
       <c r="F85" t="n">
-        <v>533645.6855100961</v>
+        <v>1550.612344897959</v>
       </c>
       <c r="G85" t="n">
-        <v>66452807.05847511</v>
+        <v>58.47500000000002</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3745,28 +3799,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>62.1</v>
+        <v>58.3</v>
       </c>
       <c r="C86" t="n">
-        <v>61.7</v>
+        <v>58.3</v>
       </c>
       <c r="D86" t="n">
-        <v>62.1</v>
+        <v>58.3</v>
       </c>
       <c r="E86" t="n">
-        <v>61.2</v>
+        <v>58.2</v>
       </c>
       <c r="F86" t="n">
-        <v>262414.0553</v>
+        <v>63.4189</v>
       </c>
       <c r="G86" t="n">
-        <v>66190393.00317512</v>
+        <v>58.48500000000003</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3784,28 +3839,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>61.7</v>
+        <v>58.3</v>
       </c>
       <c r="C87" t="n">
-        <v>61.7</v>
+        <v>58.9</v>
       </c>
       <c r="D87" t="n">
-        <v>61.8</v>
+        <v>58.9</v>
       </c>
       <c r="E87" t="n">
-        <v>61.3</v>
+        <v>58.3</v>
       </c>
       <c r="F87" t="n">
-        <v>28493.5016</v>
+        <v>31579.04921952462</v>
       </c>
       <c r="G87" t="n">
-        <v>66190393.00317512</v>
+        <v>58.53000000000002</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3823,28 +3879,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>61.4</v>
+        <v>58.8</v>
       </c>
       <c r="C88" t="n">
-        <v>61.6</v>
+        <v>58.7</v>
       </c>
       <c r="D88" t="n">
-        <v>61.7</v>
+        <v>58.8</v>
       </c>
       <c r="E88" t="n">
-        <v>61.3</v>
+        <v>58.7</v>
       </c>
       <c r="F88" t="n">
-        <v>73003.6982</v>
+        <v>50</v>
       </c>
       <c r="G88" t="n">
-        <v>66117389.30497511</v>
+        <v>58.58500000000002</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3862,28 +3919,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>61.5</v>
+        <v>58.7</v>
       </c>
       <c r="C89" t="n">
-        <v>61.5</v>
+        <v>58.7</v>
       </c>
       <c r="D89" t="n">
-        <v>61.6</v>
+        <v>58.7</v>
       </c>
       <c r="E89" t="n">
-        <v>61.1</v>
+        <v>58.7</v>
       </c>
       <c r="F89" t="n">
-        <v>139481.100200813</v>
+        <v>771.908</v>
       </c>
       <c r="G89" t="n">
-        <v>65977908.20477431</v>
+        <v>58.61000000000001</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3901,28 +3959,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>61.4</v>
+        <v>58.5</v>
       </c>
       <c r="C90" t="n">
-        <v>61.4</v>
+        <v>58.5</v>
       </c>
       <c r="D90" t="n">
-        <v>61.4</v>
+        <v>58.5</v>
       </c>
       <c r="E90" t="n">
-        <v>61.3</v>
+        <v>58.3</v>
       </c>
       <c r="F90" t="n">
-        <v>75264.49980000001</v>
+        <v>16892.0843</v>
       </c>
       <c r="G90" t="n">
-        <v>65902643.70497431</v>
+        <v>58.59500000000001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3940,28 +3999,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>61.6</v>
+        <v>58.7</v>
       </c>
       <c r="C91" t="n">
-        <v>61.9</v>
+        <v>58.5</v>
       </c>
       <c r="D91" t="n">
-        <v>62</v>
+        <v>58.7</v>
       </c>
       <c r="E91" t="n">
-        <v>61.4</v>
+        <v>58.5</v>
       </c>
       <c r="F91" t="n">
-        <v>91790.3904</v>
+        <v>7857.6867</v>
       </c>
       <c r="G91" t="n">
-        <v>65994434.09537431</v>
+        <v>58.59000000000002</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3979,28 +4039,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>61.9</v>
+        <v>58.6</v>
       </c>
       <c r="C92" t="n">
-        <v>61.9</v>
+        <v>59</v>
       </c>
       <c r="D92" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E92" t="n">
-        <v>61.5</v>
+        <v>58.5</v>
       </c>
       <c r="F92" t="n">
-        <v>250318.2907887097</v>
+        <v>42359.3764</v>
       </c>
       <c r="G92" t="n">
-        <v>65994434.09537431</v>
+        <v>58.60000000000001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4018,28 +4079,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>61.8</v>
+        <v>59</v>
       </c>
       <c r="C93" t="n">
-        <v>62</v>
+        <v>59.3</v>
       </c>
       <c r="D93" t="n">
-        <v>62</v>
+        <v>59.3</v>
       </c>
       <c r="E93" t="n">
-        <v>61.8</v>
+        <v>59</v>
       </c>
       <c r="F93" t="n">
-        <v>27991.04361129032</v>
+        <v>45092.8559</v>
       </c>
       <c r="G93" t="n">
-        <v>66022425.1389856</v>
+        <v>58.62500000000001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4057,28 +4119,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>62</v>
+        <v>59.4</v>
       </c>
       <c r="C94" t="n">
-        <v>61.9</v>
+        <v>60.1</v>
       </c>
       <c r="D94" t="n">
-        <v>62.2</v>
+        <v>60.1</v>
       </c>
       <c r="E94" t="n">
-        <v>61.9</v>
+        <v>59.4</v>
       </c>
       <c r="F94" t="n">
-        <v>126089.8463</v>
+        <v>76144.6759</v>
       </c>
       <c r="G94" t="n">
-        <v>65896335.2926856</v>
+        <v>58.68500000000002</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4096,28 +4159,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>61.9</v>
+        <v>60.1</v>
       </c>
       <c r="C95" t="n">
-        <v>61.8</v>
+        <v>60.1</v>
       </c>
       <c r="D95" t="n">
-        <v>62.2</v>
+        <v>60.1</v>
       </c>
       <c r="E95" t="n">
-        <v>61.6</v>
+        <v>59.8</v>
       </c>
       <c r="F95" t="n">
-        <v>151879.5547665595</v>
+        <v>86497.166</v>
       </c>
       <c r="G95" t="n">
-        <v>65744455.73791904</v>
+        <v>58.77</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4135,28 +4199,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>61.8</v>
+        <v>60.1</v>
       </c>
       <c r="C96" t="n">
-        <v>61.5</v>
+        <v>60.3</v>
       </c>
       <c r="D96" t="n">
-        <v>62.3</v>
+        <v>60.3</v>
       </c>
       <c r="E96" t="n">
-        <v>61.4</v>
+        <v>59.8</v>
       </c>
       <c r="F96" t="n">
-        <v>215185.6092110754</v>
+        <v>112851.9075</v>
       </c>
       <c r="G96" t="n">
-        <v>65529270.12870797</v>
+        <v>58.835</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4174,28 +4239,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>61.5</v>
+        <v>60.3</v>
       </c>
       <c r="C97" t="n">
         <v>61</v>
       </c>
       <c r="D97" t="n">
-        <v>61.5</v>
+        <v>61</v>
       </c>
       <c r="E97" t="n">
-        <v>61</v>
+        <v>60.3</v>
       </c>
       <c r="F97" t="n">
-        <v>202131.6068959283</v>
+        <v>166866.9453465574</v>
       </c>
       <c r="G97" t="n">
-        <v>65327138.52181204</v>
+        <v>58.92999999999999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4213,28 +4279,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>61</v>
+        <v>60.9</v>
       </c>
       <c r="C98" t="n">
-        <v>60.5</v>
+        <v>60.9</v>
       </c>
       <c r="D98" t="n">
-        <v>61</v>
+        <v>60.9</v>
       </c>
       <c r="E98" t="n">
-        <v>60.5</v>
+        <v>60.6</v>
       </c>
       <c r="F98" t="n">
-        <v>50671.4001</v>
+        <v>17690.6378</v>
       </c>
       <c r="G98" t="n">
-        <v>65276467.12171204</v>
+        <v>59.05499999999999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4252,28 +4319,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>60.6</v>
+        <v>60.7</v>
       </c>
       <c r="C99" t="n">
-        <v>60.8</v>
+        <v>60.3</v>
       </c>
       <c r="D99" t="n">
-        <v>61.2</v>
+        <v>60.7</v>
       </c>
       <c r="E99" t="n">
-        <v>60.5</v>
+        <v>60.3</v>
       </c>
       <c r="F99" t="n">
-        <v>78564.1185</v>
+        <v>45291.3193</v>
       </c>
       <c r="G99" t="n">
-        <v>65355031.24021204</v>
+        <v>59.165</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4291,28 +4359,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>61.1</v>
+        <v>60.2</v>
       </c>
       <c r="C100" t="n">
-        <v>60.5</v>
+        <v>59</v>
       </c>
       <c r="D100" t="n">
-        <v>61.2</v>
+        <v>60.2</v>
       </c>
       <c r="E100" t="n">
-        <v>60.5</v>
+        <v>59</v>
       </c>
       <c r="F100" t="n">
-        <v>116139.4281</v>
+        <v>127450.5766</v>
       </c>
       <c r="G100" t="n">
-        <v>65238891.81211204</v>
+        <v>59.23999999999999</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4330,28 +4399,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>60.6</v>
+        <v>59</v>
       </c>
       <c r="C101" t="n">
-        <v>60.5</v>
+        <v>59.8</v>
       </c>
       <c r="D101" t="n">
-        <v>60.6</v>
+        <v>59.8</v>
       </c>
       <c r="E101" t="n">
-        <v>60.2</v>
+        <v>59</v>
       </c>
       <c r="F101" t="n">
-        <v>89447.45590718955</v>
+        <v>122245.8598</v>
       </c>
       <c r="G101" t="n">
-        <v>65238891.81211204</v>
+        <v>59.23999999999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4369,28 +4439,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>60.5</v>
+        <v>59.8</v>
       </c>
       <c r="C102" t="n">
-        <v>60.3</v>
+        <v>59.7</v>
       </c>
       <c r="D102" t="n">
-        <v>61.1</v>
+        <v>59.8</v>
       </c>
       <c r="E102" t="n">
-        <v>60.2</v>
+        <v>59.5</v>
       </c>
       <c r="F102" t="n">
-        <v>54673.07648330605</v>
+        <v>63740.0684</v>
       </c>
       <c r="G102" t="n">
-        <v>65184218.73562873</v>
+        <v>59.275</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4408,28 +4479,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>60.3</v>
+        <v>59.7</v>
       </c>
       <c r="C103" t="n">
-        <v>60.8</v>
+        <v>59.7</v>
       </c>
       <c r="D103" t="n">
-        <v>60.9</v>
+        <v>59.7</v>
       </c>
       <c r="E103" t="n">
-        <v>60</v>
+        <v>59.3</v>
       </c>
       <c r="F103" t="n">
-        <v>104233.1754</v>
+        <v>75741.3897</v>
       </c>
       <c r="G103" t="n">
-        <v>65288451.91102873</v>
+        <v>59.315</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4447,28 +4519,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>60.1</v>
+        <v>59.3</v>
       </c>
       <c r="C104" t="n">
-        <v>59.9</v>
+        <v>59.1</v>
       </c>
       <c r="D104" t="n">
-        <v>60.1</v>
+        <v>59.3</v>
       </c>
       <c r="E104" t="n">
-        <v>59.1</v>
+        <v>58.9</v>
       </c>
       <c r="F104" t="n">
-        <v>93689.6326</v>
+        <v>84596.1491</v>
       </c>
       <c r="G104" t="n">
-        <v>65194762.27842873</v>
+        <v>59.35999999999999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4486,28 +4559,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>59.9</v>
+        <v>59</v>
       </c>
       <c r="C105" t="n">
-        <v>59.6</v>
+        <v>59</v>
       </c>
       <c r="D105" t="n">
-        <v>59.9</v>
+        <v>59</v>
       </c>
       <c r="E105" t="n">
-        <v>59.3</v>
+        <v>58.7</v>
       </c>
       <c r="F105" t="n">
-        <v>128052.9376</v>
+        <v>54131.5986</v>
       </c>
       <c r="G105" t="n">
-        <v>65066709.34082872</v>
+        <v>59.36999999999999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4525,28 +4599,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>59.6</v>
+        <v>59</v>
       </c>
       <c r="C106" t="n">
-        <v>59</v>
+        <v>59.2</v>
       </c>
       <c r="D106" t="n">
-        <v>59.9</v>
+        <v>59.2</v>
       </c>
       <c r="E106" t="n">
         <v>58.8</v>
       </c>
       <c r="F106" t="n">
-        <v>227863.3954</v>
+        <v>62048.0638</v>
       </c>
       <c r="G106" t="n">
-        <v>64838845.94542872</v>
+        <v>59.40499999999999</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4564,28 +4639,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>59</v>
+        <v>59.3</v>
       </c>
       <c r="C107" t="n">
-        <v>58.3</v>
+        <v>59.5</v>
       </c>
       <c r="D107" t="n">
-        <v>59</v>
+        <v>59.5</v>
       </c>
       <c r="E107" t="n">
-        <v>58.2</v>
+        <v>59.3</v>
       </c>
       <c r="F107" t="n">
-        <v>233605.6099</v>
+        <v>7213.8847</v>
       </c>
       <c r="G107" t="n">
-        <v>64605240.33552872</v>
+        <v>59.455</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4603,28 +4679,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>58.1</v>
+        <v>59.5</v>
       </c>
       <c r="C108" t="n">
-        <v>57.5</v>
+        <v>59.7</v>
       </c>
       <c r="D108" t="n">
-        <v>58.1</v>
+        <v>59.7</v>
       </c>
       <c r="E108" t="n">
-        <v>57.5</v>
+        <v>59.5</v>
       </c>
       <c r="F108" t="n">
-        <v>74836.10060000001</v>
+        <v>35996.5358</v>
       </c>
       <c r="G108" t="n">
-        <v>64530404.23492873</v>
+        <v>59.48999999999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4642,28 +4719,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>57.4</v>
+        <v>59.7</v>
       </c>
       <c r="C109" t="n">
-        <v>57.8</v>
+        <v>59.4</v>
       </c>
       <c r="D109" t="n">
-        <v>57.8</v>
+        <v>59.8</v>
       </c>
       <c r="E109" t="n">
-        <v>57</v>
+        <v>59.4</v>
       </c>
       <c r="F109" t="n">
-        <v>410988.2761</v>
+        <v>30282.8016</v>
       </c>
       <c r="G109" t="n">
-        <v>64941392.51102873</v>
+        <v>59.54</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4681,28 +4759,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>57.7</v>
+        <v>59.4</v>
       </c>
       <c r="C110" t="n">
-        <v>58.3</v>
+        <v>59.7</v>
       </c>
       <c r="D110" t="n">
-        <v>58.5</v>
+        <v>59.8</v>
       </c>
       <c r="E110" t="n">
-        <v>57.5</v>
+        <v>59.4</v>
       </c>
       <c r="F110" t="n">
-        <v>128482.5190752137</v>
+        <v>34232.4331</v>
       </c>
       <c r="G110" t="n">
-        <v>65069875.03010394</v>
+        <v>59.585</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4720,28 +4799,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>58.2</v>
+        <v>59.7</v>
       </c>
       <c r="C111" t="n">
-        <v>58.9</v>
+        <v>59.7</v>
       </c>
       <c r="D111" t="n">
-        <v>59.1</v>
+        <v>59.7</v>
       </c>
       <c r="E111" t="n">
-        <v>57.8</v>
+        <v>59.7</v>
       </c>
       <c r="F111" t="n">
-        <v>86465.8149</v>
+        <v>10</v>
       </c>
       <c r="G111" t="n">
-        <v>65156340.84500395</v>
+        <v>59.63500000000001</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4759,28 +4839,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>58.8</v>
+        <v>59.6</v>
       </c>
       <c r="C112" t="n">
-        <v>58.8</v>
+        <v>59</v>
       </c>
       <c r="D112" t="n">
-        <v>58.8</v>
+        <v>59.6</v>
       </c>
       <c r="E112" t="n">
-        <v>58.8</v>
+        <v>59</v>
       </c>
       <c r="F112" t="n">
-        <v>8779.681</v>
+        <v>76341.0919</v>
       </c>
       <c r="G112" t="n">
-        <v>65147561.16400395</v>
+        <v>59.685</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4798,28 +4879,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>58.8</v>
+        <v>59</v>
       </c>
       <c r="C113" t="n">
-        <v>58.5</v>
+        <v>58.7</v>
       </c>
       <c r="D113" t="n">
-        <v>58.8</v>
+        <v>59</v>
       </c>
       <c r="E113" t="n">
-        <v>58.3</v>
+        <v>58.7</v>
       </c>
       <c r="F113" t="n">
-        <v>41955.12093129252</v>
+        <v>132311.0229</v>
       </c>
       <c r="G113" t="n">
-        <v>65105606.04307266</v>
+        <v>59.685</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4837,28 +4919,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>58.4</v>
+        <v>59.2</v>
       </c>
       <c r="C114" t="n">
-        <v>58.5</v>
+        <v>59.3</v>
       </c>
       <c r="D114" t="n">
-        <v>58.9</v>
+        <v>59.3</v>
       </c>
       <c r="E114" t="n">
-        <v>57.9</v>
+        <v>59.2</v>
       </c>
       <c r="F114" t="n">
-        <v>96036.55662658662</v>
+        <v>505.9192563237774</v>
       </c>
       <c r="G114" t="n">
-        <v>65105606.04307266</v>
+        <v>59.675</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4876,28 +4959,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>58.5</v>
+        <v>59.3</v>
       </c>
       <c r="C115" t="n">
-        <v>57.8</v>
+        <v>59.2</v>
       </c>
       <c r="D115" t="n">
-        <v>58.5</v>
+        <v>59.3</v>
       </c>
       <c r="E115" t="n">
-        <v>57.8</v>
+        <v>59.2</v>
       </c>
       <c r="F115" t="n">
-        <v>55078.1228034188</v>
+        <v>674.821111161752</v>
       </c>
       <c r="G115" t="n">
-        <v>65050527.92026924</v>
+        <v>59.63500000000001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4915,145 +4999,139 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>58.2</v>
+        <v>59.3</v>
       </c>
       <c r="C116" t="n">
-        <v>58.3</v>
+        <v>58.7</v>
       </c>
       <c r="D116" t="n">
-        <v>58.3</v>
+        <v>59.3</v>
       </c>
       <c r="E116" t="n">
-        <v>58.1</v>
+        <v>58.7</v>
       </c>
       <c r="F116" t="n">
-        <v>5112.5979</v>
+        <v>19107.29759224283</v>
       </c>
       <c r="G116" t="n">
-        <v>65055640.51816924</v>
+        <v>59.59500000000001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>58.4</v>
+        <v>59.2</v>
       </c>
       <c r="C117" t="n">
         <v>58.9</v>
       </c>
       <c r="D117" t="n">
-        <v>58.9</v>
+        <v>59.2</v>
       </c>
       <c r="E117" t="n">
-        <v>58.3</v>
+        <v>58.6</v>
       </c>
       <c r="F117" t="n">
-        <v>44352.6073</v>
+        <v>20544.0558</v>
       </c>
       <c r="G117" t="n">
-        <v>65099993.12546924</v>
+        <v>59.54000000000001</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>58.8</v>
+        <v>58.9</v>
       </c>
       <c r="C118" t="n">
-        <v>58.1</v>
+        <v>58.9</v>
       </c>
       <c r="D118" t="n">
-        <v>58.8</v>
+        <v>58.9</v>
       </c>
       <c r="E118" t="n">
-        <v>58.1</v>
+        <v>58.9</v>
       </c>
       <c r="F118" t="n">
-        <v>127342.7377</v>
+        <v>2346.3055</v>
       </c>
       <c r="G118" t="n">
-        <v>64972650.38776924</v>
+        <v>59.44000000000001</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>58.4</v>
+        <v>58.9</v>
       </c>
       <c r="C119" t="n">
-        <v>58.3</v>
+        <v>58.9</v>
       </c>
       <c r="D119" t="n">
-        <v>58.4</v>
+        <v>58.9</v>
       </c>
       <c r="E119" t="n">
-        <v>58.3</v>
+        <v>58.9</v>
       </c>
       <c r="F119" t="n">
-        <v>3585.5017</v>
+        <v>174.6010186757215</v>
       </c>
       <c r="G119" t="n">
-        <v>64976235.88946924</v>
+        <v>59.35000000000001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5063,21 +5141,18 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>58.4</v>
+        <v>58.7</v>
       </c>
       <c r="C120" t="n">
         <v>58.6</v>
@@ -5086,13 +5161,13 @@
         <v>58.7</v>
       </c>
       <c r="E120" t="n">
-        <v>58.4</v>
+        <v>58.3</v>
       </c>
       <c r="F120" t="n">
-        <v>59207.8775</v>
+        <v>66685.89472047781</v>
       </c>
       <c r="G120" t="n">
-        <v>65035443.76696923</v>
+        <v>59.27500000000001</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5102,36 +5177,33 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>58.5</v>
+        <v>58.6</v>
       </c>
       <c r="C121" t="n">
-        <v>58.7</v>
+        <v>58.4</v>
       </c>
       <c r="D121" t="n">
-        <v>58.7</v>
+        <v>58.6</v>
       </c>
       <c r="E121" t="n">
-        <v>58.5</v>
+        <v>58.4</v>
       </c>
       <c r="F121" t="n">
-        <v>20171.93201260647</v>
+        <v>16057.2763</v>
       </c>
       <c r="G121" t="n">
-        <v>65055615.69898184</v>
+        <v>59.25500000000001</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5141,36 +5213,33 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>58.7</v>
+        <v>58.6</v>
       </c>
       <c r="C122" t="n">
-        <v>59.2</v>
+        <v>58.6</v>
       </c>
       <c r="D122" t="n">
-        <v>59.2</v>
+        <v>58.6</v>
       </c>
       <c r="E122" t="n">
-        <v>58.7</v>
+        <v>58.3</v>
       </c>
       <c r="F122" t="n">
-        <v>42362.8567</v>
+        <v>2852.7264</v>
       </c>
       <c r="G122" t="n">
-        <v>65097978.55568185</v>
+        <v>59.19500000000001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5180,36 +5249,33 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>59</v>
+        <v>58.3</v>
       </c>
       <c r="C123" t="n">
-        <v>59.1</v>
+        <v>58.3</v>
       </c>
       <c r="D123" t="n">
-        <v>59.1</v>
+        <v>58.3</v>
       </c>
       <c r="E123" t="n">
-        <v>59</v>
+        <v>58.3</v>
       </c>
       <c r="F123" t="n">
-        <v>6565.1743</v>
+        <v>30426.2894</v>
       </c>
       <c r="G123" t="n">
-        <v>65091413.38138185</v>
+        <v>59.125</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5219,36 +5285,33 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>59.1</v>
+        <v>58.3</v>
       </c>
       <c r="C124" t="n">
-        <v>58.9</v>
+        <v>58.3</v>
       </c>
       <c r="D124" t="n">
-        <v>59.1</v>
+        <v>58.5</v>
       </c>
       <c r="E124" t="n">
-        <v>58.9</v>
+        <v>58.3</v>
       </c>
       <c r="F124" t="n">
-        <v>57381.2367</v>
+        <v>17700.0992</v>
       </c>
       <c r="G124" t="n">
-        <v>65034032.14468185</v>
+        <v>59.075</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5258,36 +5321,33 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>58.9</v>
+        <v>58.6</v>
       </c>
       <c r="C125" t="n">
-        <v>58.3</v>
+        <v>58.5</v>
       </c>
       <c r="D125" t="n">
-        <v>58.9</v>
+        <v>58.6</v>
       </c>
       <c r="E125" t="n">
         <v>58.3</v>
       </c>
       <c r="F125" t="n">
-        <v>87363.1765</v>
+        <v>50032.9146</v>
       </c>
       <c r="G125" t="n">
-        <v>64946668.96818185</v>
+        <v>59.05499999999999</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5297,504 +5357,465 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>58.4</v>
+        <v>58.5</v>
       </c>
       <c r="C126" t="n">
-        <v>58.1</v>
+        <v>59.2</v>
       </c>
       <c r="D126" t="n">
-        <v>58.4</v>
+        <v>59.2</v>
       </c>
       <c r="E126" t="n">
-        <v>58.1</v>
+        <v>58.5</v>
       </c>
       <c r="F126" t="n">
-        <v>1789.5405</v>
+        <v>147592.4317795222</v>
       </c>
       <c r="G126" t="n">
-        <v>64944879.42768185</v>
+        <v>59.02999999999999</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>58.8</v>
+        <v>59.2</v>
       </c>
       <c r="C127" t="n">
-        <v>58.8</v>
+        <v>59.4</v>
       </c>
       <c r="D127" t="n">
-        <v>58.8</v>
+        <v>59.4</v>
       </c>
       <c r="E127" t="n">
-        <v>58.2</v>
+        <v>59.2</v>
       </c>
       <c r="F127" t="n">
-        <v>1550.612344897959</v>
+        <v>7143.599137837838</v>
       </c>
       <c r="G127" t="n">
-        <v>64946430.04002675</v>
+        <v>59.025</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>58.3</v>
+        <v>59.4</v>
       </c>
       <c r="C128" t="n">
-        <v>58.3</v>
+        <v>59.4</v>
       </c>
       <c r="D128" t="n">
-        <v>58.3</v>
+        <v>59.7</v>
       </c>
       <c r="E128" t="n">
-        <v>58.2</v>
+        <v>59.4</v>
       </c>
       <c r="F128" t="n">
-        <v>63.4189</v>
+        <v>22910.1178</v>
       </c>
       <c r="G128" t="n">
-        <v>64946366.62112675</v>
+        <v>59.02</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>58.3</v>
+        <v>58.9</v>
       </c>
       <c r="C129" t="n">
-        <v>58.9</v>
+        <v>59.3</v>
       </c>
       <c r="D129" t="n">
-        <v>58.9</v>
+        <v>59.3</v>
       </c>
       <c r="E129" t="n">
-        <v>58.3</v>
+        <v>58.6</v>
       </c>
       <c r="F129" t="n">
-        <v>31579.04921952462</v>
+        <v>12790.9589</v>
       </c>
       <c r="G129" t="n">
-        <v>64977945.67034627</v>
+        <v>58.98</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>58.8</v>
+        <v>59.3</v>
       </c>
       <c r="C130" t="n">
-        <v>58.7</v>
+        <v>59.6</v>
       </c>
       <c r="D130" t="n">
-        <v>58.8</v>
+        <v>59.6</v>
       </c>
       <c r="E130" t="n">
-        <v>58.7</v>
+        <v>59</v>
       </c>
       <c r="F130" t="n">
-        <v>50</v>
+        <v>42322.49762372881</v>
       </c>
       <c r="G130" t="n">
-        <v>64977895.67034627</v>
+        <v>58.975</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>58.7</v>
+        <v>59</v>
       </c>
       <c r="C131" t="n">
-        <v>58.7</v>
+        <v>59</v>
       </c>
       <c r="D131" t="n">
-        <v>58.7</v>
+        <v>59.5</v>
       </c>
       <c r="E131" t="n">
-        <v>58.7</v>
+        <v>59</v>
       </c>
       <c r="F131" t="n">
-        <v>771.908</v>
+        <v>140667.37</v>
       </c>
       <c r="G131" t="n">
-        <v>64977895.67034627</v>
+        <v>58.94</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>58.5</v>
+        <v>58.9</v>
       </c>
       <c r="C132" t="n">
-        <v>58.5</v>
+        <v>58.9</v>
       </c>
       <c r="D132" t="n">
-        <v>58.5</v>
+        <v>58.9</v>
       </c>
       <c r="E132" t="n">
-        <v>58.3</v>
+        <v>58.9</v>
       </c>
       <c r="F132" t="n">
-        <v>16892.0843</v>
+        <v>6071.7912</v>
       </c>
       <c r="G132" t="n">
-        <v>64961003.58604628</v>
+        <v>58.90500000000001</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>58.7</v>
+        <v>58.9</v>
       </c>
       <c r="C133" t="n">
-        <v>58.5</v>
+        <v>59.2</v>
       </c>
       <c r="D133" t="n">
-        <v>58.7</v>
+        <v>59.2</v>
       </c>
       <c r="E133" t="n">
-        <v>58.5</v>
+        <v>58.9</v>
       </c>
       <c r="F133" t="n">
-        <v>7857.6867</v>
+        <v>10328.7119</v>
       </c>
       <c r="G133" t="n">
-        <v>64961003.58604628</v>
+        <v>58.90000000000001</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>58.6</v>
+        <v>59.2</v>
       </c>
       <c r="C134" t="n">
-        <v>59</v>
+        <v>58.9</v>
       </c>
       <c r="D134" t="n">
-        <v>59</v>
+        <v>59.2</v>
       </c>
       <c r="E134" t="n">
-        <v>58.5</v>
+        <v>58.9</v>
       </c>
       <c r="F134" t="n">
-        <v>42359.3764</v>
+        <v>737.1992</v>
       </c>
       <c r="G134" t="n">
-        <v>65003362.96244628</v>
+        <v>58.90000000000001</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>59</v>
+        <v>58.8</v>
       </c>
       <c r="C135" t="n">
-        <v>59.3</v>
+        <v>58.7</v>
       </c>
       <c r="D135" t="n">
-        <v>59.3</v>
+        <v>59.1</v>
       </c>
       <c r="E135" t="n">
-        <v>59</v>
+        <v>58.7</v>
       </c>
       <c r="F135" t="n">
-        <v>45092.8559</v>
+        <v>15084.6957</v>
       </c>
       <c r="G135" t="n">
-        <v>65048455.81834628</v>
+        <v>58.87500000000001</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>59.4</v>
+        <v>58.7</v>
       </c>
       <c r="C136" t="n">
-        <v>60.1</v>
+        <v>58.3</v>
       </c>
       <c r="D136" t="n">
-        <v>60.1</v>
+        <v>58.7</v>
       </c>
       <c r="E136" t="n">
-        <v>59.4</v>
+        <v>58.3</v>
       </c>
       <c r="F136" t="n">
-        <v>76144.6759</v>
+        <v>41739.6587</v>
       </c>
       <c r="G136" t="n">
-        <v>65124600.49424627</v>
+        <v>58.84500000000001</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>60.1</v>
+        <v>58.3</v>
       </c>
       <c r="C137" t="n">
-        <v>60.1</v>
+        <v>58.3</v>
       </c>
       <c r="D137" t="n">
-        <v>60.1</v>
+        <v>58.3</v>
       </c>
       <c r="E137" t="n">
-        <v>59.8</v>
+        <v>58.2</v>
       </c>
       <c r="F137" t="n">
-        <v>86497.166</v>
+        <v>39034.7911</v>
       </c>
       <c r="G137" t="n">
-        <v>65124600.49424627</v>
+        <v>58.80000000000001</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>60.1</v>
+        <v>58.3</v>
       </c>
       <c r="C138" t="n">
-        <v>60.3</v>
+        <v>59.3</v>
       </c>
       <c r="D138" t="n">
-        <v>60.3</v>
+        <v>59.3</v>
       </c>
       <c r="E138" t="n">
-        <v>59.8</v>
+        <v>58.3</v>
       </c>
       <c r="F138" t="n">
-        <v>112851.9075</v>
+        <v>92417.5309</v>
       </c>
       <c r="G138" t="n">
-        <v>65237452.40174627</v>
+        <v>58.77</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5804,36 +5825,33 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>60.3</v>
+        <v>59.3</v>
       </c>
       <c r="C139" t="n">
-        <v>61</v>
+        <v>59.1</v>
       </c>
       <c r="D139" t="n">
-        <v>61</v>
+        <v>59.4</v>
       </c>
       <c r="E139" t="n">
-        <v>60.3</v>
+        <v>59.1</v>
       </c>
       <c r="F139" t="n">
-        <v>166866.9453465574</v>
+        <v>40632.11764080945</v>
       </c>
       <c r="G139" t="n">
-        <v>65404319.34709283</v>
+        <v>58.79</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5843,36 +5861,33 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>60.9</v>
+        <v>58.6</v>
       </c>
       <c r="C140" t="n">
-        <v>60.9</v>
+        <v>58.9</v>
       </c>
       <c r="D140" t="n">
-        <v>60.9</v>
+        <v>58.9</v>
       </c>
       <c r="E140" t="n">
-        <v>60.6</v>
+        <v>58.6</v>
       </c>
       <c r="F140" t="n">
-        <v>17690.6378</v>
+        <v>8463.4112</v>
       </c>
       <c r="G140" t="n">
-        <v>65386628.70929283</v>
+        <v>58.78499999999999</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5882,34 +5897,33 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>60.7</v>
+        <v>58.7</v>
       </c>
       <c r="C141" t="n">
-        <v>60.3</v>
+        <v>58.3</v>
       </c>
       <c r="D141" t="n">
-        <v>60.7</v>
+        <v>58.9</v>
       </c>
       <c r="E141" t="n">
-        <v>60.3</v>
+        <v>58.3</v>
       </c>
       <c r="F141" t="n">
-        <v>45291.3193</v>
+        <v>19691.1727</v>
       </c>
       <c r="G141" t="n">
-        <v>65341337.38999283</v>
+        <v>58.79</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5923,28 +5937,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>60.2</v>
+        <v>58.6</v>
       </c>
       <c r="C142" t="n">
-        <v>59</v>
+        <v>58.6</v>
       </c>
       <c r="D142" t="n">
-        <v>60.2</v>
+        <v>58.6</v>
       </c>
       <c r="E142" t="n">
-        <v>59</v>
+        <v>58.6</v>
       </c>
       <c r="F142" t="n">
-        <v>127450.5766</v>
+        <v>23752.5895</v>
       </c>
       <c r="G142" t="n">
-        <v>65213886.81339283</v>
+        <v>58.79</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5958,34 +5973,35 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>59</v>
+        <v>58.6</v>
       </c>
       <c r="C143" t="n">
-        <v>59.8</v>
+        <v>58.9</v>
       </c>
       <c r="D143" t="n">
-        <v>59.8</v>
+        <v>58.9</v>
       </c>
       <c r="E143" t="n">
-        <v>59</v>
+        <v>58.5</v>
       </c>
       <c r="F143" t="n">
-        <v>122245.8598</v>
+        <v>20247.5519</v>
       </c>
       <c r="G143" t="n">
-        <v>65336132.67319283</v>
+        <v>58.80499999999999</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -5993,34 +6009,35 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>59.8</v>
+        <v>58.9</v>
       </c>
       <c r="C144" t="n">
-        <v>59.7</v>
+        <v>58.9</v>
       </c>
       <c r="D144" t="n">
-        <v>59.8</v>
+        <v>58.9</v>
       </c>
       <c r="E144" t="n">
-        <v>59.5</v>
+        <v>58.9</v>
       </c>
       <c r="F144" t="n">
-        <v>63740.0684</v>
+        <v>48180.9645</v>
       </c>
       <c r="G144" t="n">
-        <v>65272392.60479283</v>
+        <v>58.835</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
@@ -6028,34 +6045,35 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>59.7</v>
+        <v>58.8</v>
       </c>
       <c r="C145" t="n">
-        <v>59.7</v>
+        <v>58.7</v>
       </c>
       <c r="D145" t="n">
-        <v>59.7</v>
+        <v>58.8</v>
       </c>
       <c r="E145" t="n">
-        <v>59.3</v>
+        <v>58.7</v>
       </c>
       <c r="F145" t="n">
-        <v>75741.3897</v>
+        <v>176</v>
       </c>
       <c r="G145" t="n">
-        <v>65272392.60479283</v>
+        <v>58.84500000000001</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
@@ -6063,34 +6081,35 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>59.3</v>
+        <v>58.7</v>
       </c>
       <c r="C146" t="n">
-        <v>59.1</v>
+        <v>58.7</v>
       </c>
       <c r="D146" t="n">
-        <v>59.3</v>
+        <v>58.7</v>
       </c>
       <c r="E146" t="n">
-        <v>58.9</v>
+        <v>58.7</v>
       </c>
       <c r="F146" t="n">
-        <v>84596.1491</v>
+        <v>29091.0562</v>
       </c>
       <c r="G146" t="n">
-        <v>65187796.45569283</v>
+        <v>58.855</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
@@ -6098,34 +6117,35 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>59</v>
+        <v>58.6</v>
       </c>
       <c r="C147" t="n">
-        <v>59</v>
+        <v>58.8</v>
       </c>
       <c r="D147" t="n">
-        <v>59</v>
+        <v>58.9</v>
       </c>
       <c r="E147" t="n">
-        <v>58.7</v>
+        <v>58.5</v>
       </c>
       <c r="F147" t="n">
-        <v>54131.5986</v>
+        <v>9327.6405</v>
       </c>
       <c r="G147" t="n">
-        <v>65133664.85709283</v>
+        <v>58.825</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
@@ -6133,34 +6153,35 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>59</v>
+        <v>58.6</v>
       </c>
       <c r="C148" t="n">
-        <v>59.2</v>
+        <v>58.6</v>
       </c>
       <c r="D148" t="n">
-        <v>59.2</v>
+        <v>58.6</v>
       </c>
       <c r="E148" t="n">
-        <v>58.8</v>
+        <v>58.6</v>
       </c>
       <c r="F148" t="n">
-        <v>62048.0638</v>
+        <v>10</v>
       </c>
       <c r="G148" t="n">
-        <v>65195712.92089283</v>
+        <v>58.78499999999999</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
@@ -6168,28 +6189,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>59.3</v>
+        <v>58.7</v>
       </c>
       <c r="C149" t="n">
-        <v>59.5</v>
+        <v>58.7</v>
       </c>
       <c r="D149" t="n">
-        <v>59.5</v>
+        <v>58.8</v>
       </c>
       <c r="E149" t="n">
-        <v>59.3</v>
+        <v>58.5</v>
       </c>
       <c r="F149" t="n">
-        <v>7213.8847</v>
+        <v>33115.3603</v>
       </c>
       <c r="G149" t="n">
-        <v>65202926.80559283</v>
+        <v>58.77499999999999</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6203,28 +6225,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>59.5</v>
+        <v>58.7</v>
       </c>
       <c r="C150" t="n">
-        <v>59.7</v>
+        <v>58.8</v>
       </c>
       <c r="D150" t="n">
-        <v>59.7</v>
+        <v>58.8</v>
       </c>
       <c r="E150" t="n">
-        <v>59.5</v>
+        <v>58.7</v>
       </c>
       <c r="F150" t="n">
-        <v>35996.5358</v>
+        <v>28925.5952</v>
       </c>
       <c r="G150" t="n">
-        <v>65238923.34139283</v>
+        <v>58.74499999999999</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6238,28 +6261,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>59.7</v>
+        <v>58.6</v>
       </c>
       <c r="C151" t="n">
-        <v>59.4</v>
+        <v>59.1</v>
       </c>
       <c r="D151" t="n">
-        <v>59.8</v>
+        <v>59.3</v>
       </c>
       <c r="E151" t="n">
-        <v>59.4</v>
+        <v>58.3</v>
       </c>
       <c r="F151" t="n">
-        <v>30282.8016</v>
+        <v>16031.316</v>
       </c>
       <c r="G151" t="n">
-        <v>65208640.53979283</v>
+        <v>58.72499999999999</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6273,28 +6297,29 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>59.4</v>
+        <v>59.1</v>
       </c>
       <c r="C152" t="n">
-        <v>59.7</v>
+        <v>59</v>
       </c>
       <c r="D152" t="n">
-        <v>59.8</v>
+        <v>59.3</v>
       </c>
       <c r="E152" t="n">
-        <v>59.4</v>
+        <v>59</v>
       </c>
       <c r="F152" t="n">
-        <v>34232.4331</v>
+        <v>6031.9491</v>
       </c>
       <c r="G152" t="n">
-        <v>65242872.97289283</v>
+        <v>58.73499999999998</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6308,28 +6333,29 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>59.7</v>
+        <v>58.9</v>
       </c>
       <c r="C153" t="n">
-        <v>59.7</v>
+        <v>58.9</v>
       </c>
       <c r="D153" t="n">
-        <v>59.7</v>
+        <v>58.9</v>
       </c>
       <c r="E153" t="n">
-        <v>59.7</v>
+        <v>58.9</v>
       </c>
       <c r="F153" t="n">
         <v>10</v>
       </c>
       <c r="G153" t="n">
-        <v>65242872.97289283</v>
+        <v>58.73499999999998</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6343,28 +6369,29 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>59.6</v>
+        <v>58.8</v>
       </c>
       <c r="C154" t="n">
-        <v>59</v>
+        <v>58.7</v>
       </c>
       <c r="D154" t="n">
-        <v>59.6</v>
+        <v>58.8</v>
       </c>
       <c r="E154" t="n">
-        <v>59</v>
+        <v>58.5</v>
       </c>
       <c r="F154" t="n">
-        <v>76341.0919</v>
+        <v>5719.2115</v>
       </c>
       <c r="G154" t="n">
-        <v>65166531.88099283</v>
+        <v>58.71499999999997</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6378,28 +6405,29 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>59</v>
+        <v>58.7</v>
       </c>
       <c r="C155" t="n">
         <v>58.7</v>
       </c>
       <c r="D155" t="n">
-        <v>59</v>
+        <v>58.7</v>
       </c>
       <c r="E155" t="n">
-        <v>58.7</v>
+        <v>58.5</v>
       </c>
       <c r="F155" t="n">
-        <v>132311.0229</v>
+        <v>680.1357</v>
       </c>
       <c r="G155" t="n">
-        <v>65034220.85809283</v>
+        <v>58.70999999999998</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6413,28 +6441,29 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>59.2</v>
+        <v>58.5</v>
       </c>
       <c r="C156" t="n">
-        <v>59.3</v>
+        <v>58.3</v>
       </c>
       <c r="D156" t="n">
-        <v>59.3</v>
+        <v>58.5</v>
       </c>
       <c r="E156" t="n">
-        <v>59.2</v>
+        <v>58.3</v>
       </c>
       <c r="F156" t="n">
-        <v>505.9192563237774</v>
+        <v>32930.7963</v>
       </c>
       <c r="G156" t="n">
-        <v>65034726.77734915</v>
+        <v>58.69999999999997</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6448,28 +6477,29 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>59.3</v>
+        <v>58.2</v>
       </c>
       <c r="C157" t="n">
-        <v>59.2</v>
+        <v>58.6</v>
       </c>
       <c r="D157" t="n">
-        <v>59.3</v>
+        <v>58.7</v>
       </c>
       <c r="E157" t="n">
-        <v>59.2</v>
+        <v>58.2</v>
       </c>
       <c r="F157" t="n">
-        <v>674.821111161752</v>
+        <v>52164.8108</v>
       </c>
       <c r="G157" t="n">
-        <v>65034051.95623799</v>
+        <v>58.69499999999998</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6483,28 +6513,29 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>59.3</v>
+        <v>58.3</v>
       </c>
       <c r="C158" t="n">
         <v>58.7</v>
       </c>
       <c r="D158" t="n">
-        <v>59.3</v>
+        <v>58.7</v>
       </c>
       <c r="E158" t="n">
-        <v>58.7</v>
+        <v>58.3</v>
       </c>
       <c r="F158" t="n">
-        <v>19107.29759224283</v>
+        <v>17725.6853</v>
       </c>
       <c r="G158" t="n">
-        <v>65014944.65864574</v>
+        <v>58.69499999999998</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6518,28 +6549,29 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>59.2</v>
+        <v>58.5</v>
       </c>
       <c r="C159" t="n">
-        <v>58.9</v>
+        <v>58.6</v>
       </c>
       <c r="D159" t="n">
-        <v>59.2</v>
+        <v>58.6</v>
       </c>
       <c r="E159" t="n">
-        <v>58.6</v>
+        <v>57.9</v>
       </c>
       <c r="F159" t="n">
-        <v>20544.0558</v>
+        <v>162202.4161</v>
       </c>
       <c r="G159" t="n">
-        <v>65035488.71444574</v>
+        <v>58.65499999999999</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6553,28 +6585,29 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>58.9</v>
+        <v>58.5</v>
       </c>
       <c r="C160" t="n">
-        <v>58.9</v>
+        <v>58.1</v>
       </c>
       <c r="D160" t="n">
-        <v>58.9</v>
+        <v>58.5</v>
       </c>
       <c r="E160" t="n">
-        <v>58.9</v>
+        <v>58.1</v>
       </c>
       <c r="F160" t="n">
-        <v>2346.3055</v>
+        <v>49034.5936</v>
       </c>
       <c r="G160" t="n">
-        <v>65035488.71444574</v>
+        <v>58.64999999999999</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6588,28 +6621,29 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>58.9</v>
+        <v>58.5</v>
       </c>
       <c r="C161" t="n">
-        <v>58.9</v>
+        <v>58.3</v>
       </c>
       <c r="D161" t="n">
-        <v>58.9</v>
+        <v>58.5</v>
       </c>
       <c r="E161" t="n">
-        <v>58.9</v>
+        <v>58.1</v>
       </c>
       <c r="F161" t="n">
-        <v>174.6010186757215</v>
+        <v>124252.0975</v>
       </c>
       <c r="G161" t="n">
-        <v>65035488.71444574</v>
+        <v>58.63999999999999</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6623,28 +6657,29 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>58.7</v>
+        <v>58.3</v>
       </c>
       <c r="C162" t="n">
-        <v>58.6</v>
+        <v>58.4</v>
       </c>
       <c r="D162" t="n">
-        <v>58.7</v>
+        <v>58.5</v>
       </c>
       <c r="E162" t="n">
         <v>58.3</v>
       </c>
       <c r="F162" t="n">
-        <v>66685.89472047781</v>
+        <v>9930</v>
       </c>
       <c r="G162" t="n">
-        <v>64968802.81972526</v>
+        <v>58.62499999999999</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6658,28 +6693,29 @@
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>58.6</v>
+        <v>58.2</v>
       </c>
       <c r="C163" t="n">
-        <v>58.4</v>
+        <v>58.3</v>
       </c>
       <c r="D163" t="n">
-        <v>58.6</v>
+        <v>58.3</v>
       </c>
       <c r="E163" t="n">
-        <v>58.4</v>
+        <v>58.1</v>
       </c>
       <c r="F163" t="n">
-        <v>16057.2763</v>
+        <v>28491.4051</v>
       </c>
       <c r="G163" t="n">
-        <v>64952745.54342526</v>
+        <v>58.605</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6693,28 +6729,29 @@
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>58.6</v>
+        <v>58.1</v>
       </c>
       <c r="C164" t="n">
-        <v>58.6</v>
+        <v>58</v>
       </c>
       <c r="D164" t="n">
-        <v>58.6</v>
+        <v>58.1</v>
       </c>
       <c r="E164" t="n">
-        <v>58.3</v>
+        <v>57.7</v>
       </c>
       <c r="F164" t="n">
-        <v>2852.7264</v>
+        <v>174569.7526</v>
       </c>
       <c r="G164" t="n">
-        <v>64955598.26982526</v>
+        <v>58.56499999999998</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6728,28 +6765,29 @@
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>58.3</v>
+        <v>57.7</v>
       </c>
       <c r="C165" t="n">
-        <v>58.3</v>
+        <v>57.6</v>
       </c>
       <c r="D165" t="n">
-        <v>58.3</v>
+        <v>58</v>
       </c>
       <c r="E165" t="n">
-        <v>58.3</v>
+        <v>57.6</v>
       </c>
       <c r="F165" t="n">
-        <v>30426.2894</v>
+        <v>47770.4521</v>
       </c>
       <c r="G165" t="n">
-        <v>64925171.98042527</v>
+        <v>58.50999999999999</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6763,28 +6801,29 @@
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>58.3</v>
+        <v>57.8</v>
       </c>
       <c r="C166" t="n">
-        <v>58.3</v>
+        <v>57.9</v>
       </c>
       <c r="D166" t="n">
-        <v>58.5</v>
+        <v>57.9</v>
       </c>
       <c r="E166" t="n">
-        <v>58.3</v>
+        <v>57.6</v>
       </c>
       <c r="F166" t="n">
-        <v>17700.0992</v>
+        <v>48743.4991</v>
       </c>
       <c r="G166" t="n">
-        <v>64925171.98042527</v>
+        <v>58.46499999999999</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6798,28 +6837,29 @@
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>58.6</v>
+        <v>57.9</v>
       </c>
       <c r="C167" t="n">
-        <v>58.5</v>
+        <v>58</v>
       </c>
       <c r="D167" t="n">
-        <v>58.6</v>
+        <v>58</v>
       </c>
       <c r="E167" t="n">
-        <v>58.3</v>
+        <v>57.7</v>
       </c>
       <c r="F167" t="n">
-        <v>50032.9146</v>
+        <v>63188.3149</v>
       </c>
       <c r="G167" t="n">
-        <v>64975204.89502527</v>
+        <v>58.42999999999999</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6833,28 +6873,29 @@
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>58.5</v>
+        <v>58</v>
       </c>
       <c r="C168" t="n">
-        <v>59.2</v>
+        <v>58.3</v>
       </c>
       <c r="D168" t="n">
-        <v>59.2</v>
+        <v>58.3</v>
       </c>
       <c r="E168" t="n">
-        <v>58.5</v>
+        <v>57.8</v>
       </c>
       <c r="F168" t="n">
-        <v>147592.4317795222</v>
+        <v>48238.2601</v>
       </c>
       <c r="G168" t="n">
-        <v>65122797.32680479</v>
+        <v>58.4</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6868,28 +6909,29 @@
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>59.2</v>
+        <v>58.2</v>
       </c>
       <c r="C169" t="n">
-        <v>59.4</v>
+        <v>58.2</v>
       </c>
       <c r="D169" t="n">
-        <v>59.4</v>
+        <v>58.2</v>
       </c>
       <c r="E169" t="n">
-        <v>59.2</v>
+        <v>57.9</v>
       </c>
       <c r="F169" t="n">
-        <v>7143.599137837838</v>
+        <v>70972</v>
       </c>
       <c r="G169" t="n">
-        <v>65129940.92594262</v>
+        <v>58.375</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6903,28 +6945,29 @@
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>59.4</v>
+        <v>58.2</v>
       </c>
       <c r="C170" t="n">
-        <v>59.4</v>
+        <v>58.2</v>
       </c>
       <c r="D170" t="n">
-        <v>59.7</v>
+        <v>58.2</v>
       </c>
       <c r="E170" t="n">
-        <v>59.4</v>
+        <v>58.2</v>
       </c>
       <c r="F170" t="n">
-        <v>22910.1178</v>
+        <v>44787.1855</v>
       </c>
       <c r="G170" t="n">
-        <v>65129940.92594262</v>
+        <v>58.35</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6938,28 +6981,29 @@
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>58.9</v>
+        <v>58.2</v>
       </c>
       <c r="C171" t="n">
-        <v>59.3</v>
+        <v>58.2</v>
       </c>
       <c r="D171" t="n">
-        <v>59.3</v>
+        <v>58.3</v>
       </c>
       <c r="E171" t="n">
-        <v>58.6</v>
+        <v>58.2</v>
       </c>
       <c r="F171" t="n">
-        <v>12790.9589</v>
+        <v>45836.1674</v>
       </c>
       <c r="G171" t="n">
-        <v>65117149.96704262</v>
+        <v>58.33000000000001</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6973,28 +7017,29 @@
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>59.3</v>
+        <v>58.1</v>
       </c>
       <c r="C172" t="n">
-        <v>59.6</v>
+        <v>57.8</v>
       </c>
       <c r="D172" t="n">
-        <v>59.6</v>
+        <v>58.3</v>
       </c>
       <c r="E172" t="n">
-        <v>59</v>
+        <v>57.5</v>
       </c>
       <c r="F172" t="n">
-        <v>42322.49762372881</v>
+        <v>97868.3855</v>
       </c>
       <c r="G172" t="n">
-        <v>65159472.46466635</v>
+        <v>58.28000000000001</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -7008,28 +7053,29 @@
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>59</v>
+        <v>57.8</v>
       </c>
       <c r="C173" t="n">
-        <v>59</v>
+        <v>58.1</v>
       </c>
       <c r="D173" t="n">
-        <v>59.5</v>
+        <v>58.2</v>
       </c>
       <c r="E173" t="n">
-        <v>59</v>
+        <v>57.8</v>
       </c>
       <c r="F173" t="n">
-        <v>140667.37</v>
+        <v>38043.0902</v>
       </c>
       <c r="G173" t="n">
-        <v>65018805.09466635</v>
+        <v>58.225</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -7043,28 +7089,29 @@
       <c r="M173" t="n">
         <v>1</v>
       </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>58.9</v>
+        <v>58.1</v>
       </c>
       <c r="C174" t="n">
-        <v>58.9</v>
+        <v>58</v>
       </c>
       <c r="D174" t="n">
-        <v>58.9</v>
+        <v>58.1</v>
       </c>
       <c r="E174" t="n">
-        <v>58.9</v>
+        <v>57.2</v>
       </c>
       <c r="F174" t="n">
-        <v>6071.7912</v>
+        <v>32722.653</v>
       </c>
       <c r="G174" t="n">
-        <v>65012733.30346636</v>
+        <v>58.19</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -7078,28 +7125,29 @@
       <c r="M174" t="n">
         <v>1</v>
       </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>58.9</v>
+        <v>57.5</v>
       </c>
       <c r="C175" t="n">
-        <v>59.2</v>
+        <v>58</v>
       </c>
       <c r="D175" t="n">
-        <v>59.2</v>
+        <v>58</v>
       </c>
       <c r="E175" t="n">
-        <v>58.9</v>
+        <v>57.4</v>
       </c>
       <c r="F175" t="n">
-        <v>10328.7119</v>
+        <v>572.9535</v>
       </c>
       <c r="G175" t="n">
-        <v>65023062.01536636</v>
+        <v>58.13</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7113,28 +7161,29 @@
       <c r="M175" t="n">
         <v>1</v>
       </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>59.2</v>
+        <v>57.9</v>
       </c>
       <c r="C176" t="n">
-        <v>58.9</v>
+        <v>58</v>
       </c>
       <c r="D176" t="n">
-        <v>59.2</v>
+        <v>58</v>
       </c>
       <c r="E176" t="n">
-        <v>58.9</v>
+        <v>57.9</v>
       </c>
       <c r="F176" t="n">
-        <v>737.1992</v>
+        <v>1080</v>
       </c>
       <c r="G176" t="n">
-        <v>65022324.81616636</v>
+        <v>58.1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7148,28 +7197,29 @@
       <c r="M176" t="n">
         <v>1</v>
       </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>58.8</v>
+        <v>57.6</v>
       </c>
       <c r="C177" t="n">
-        <v>58.7</v>
+        <v>57.7</v>
       </c>
       <c r="D177" t="n">
-        <v>59.1</v>
+        <v>57.7</v>
       </c>
       <c r="E177" t="n">
-        <v>58.7</v>
+        <v>57.4</v>
       </c>
       <c r="F177" t="n">
-        <v>15084.6957</v>
+        <v>10620.688</v>
       </c>
       <c r="G177" t="n">
-        <v>65007240.12046637</v>
+        <v>58.06999999999999</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7183,28 +7233,29 @@
       <c r="M177" t="n">
         <v>1</v>
       </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>58.7</v>
+        <v>57.4</v>
       </c>
       <c r="C178" t="n">
-        <v>58.3</v>
+        <v>57</v>
       </c>
       <c r="D178" t="n">
-        <v>58.7</v>
+        <v>57.4</v>
       </c>
       <c r="E178" t="n">
-        <v>58.3</v>
+        <v>57</v>
       </c>
       <c r="F178" t="n">
-        <v>41739.6587</v>
+        <v>121435.8214</v>
       </c>
       <c r="G178" t="n">
-        <v>64965500.46176637</v>
+        <v>58.025</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7218,28 +7269,29 @@
       <c r="M178" t="n">
         <v>1</v>
       </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>58.3</v>
+        <v>57</v>
       </c>
       <c r="C179" t="n">
-        <v>58.3</v>
+        <v>57.8</v>
       </c>
       <c r="D179" t="n">
-        <v>58.3</v>
+        <v>57.8</v>
       </c>
       <c r="E179" t="n">
-        <v>58.2</v>
+        <v>57</v>
       </c>
       <c r="F179" t="n">
-        <v>39034.7911</v>
+        <v>20170</v>
       </c>
       <c r="G179" t="n">
-        <v>64965500.46176637</v>
+        <v>57.95</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7253,28 +7305,29 @@
       <c r="M179" t="n">
         <v>1</v>
       </c>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>58.3</v>
+        <v>57.5</v>
       </c>
       <c r="C180" t="n">
-        <v>59.3</v>
+        <v>57</v>
       </c>
       <c r="D180" t="n">
-        <v>59.3</v>
+        <v>57.5</v>
       </c>
       <c r="E180" t="n">
-        <v>58.3</v>
+        <v>57</v>
       </c>
       <c r="F180" t="n">
-        <v>92417.5309</v>
+        <v>46603.59226020942</v>
       </c>
       <c r="G180" t="n">
-        <v>65057917.99266637</v>
+        <v>57.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7288,28 +7341,29 @@
       <c r="M180" t="n">
         <v>1</v>
       </c>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>59.3</v>
+        <v>57.3</v>
       </c>
       <c r="C181" t="n">
-        <v>59.1</v>
+        <v>57.3</v>
       </c>
       <c r="D181" t="n">
-        <v>59.4</v>
+        <v>57.3</v>
       </c>
       <c r="E181" t="n">
-        <v>59.1</v>
+        <v>57.3</v>
       </c>
       <c r="F181" t="n">
-        <v>40632.11764080945</v>
+        <v>55</v>
       </c>
       <c r="G181" t="n">
-        <v>65017285.87502556</v>
+        <v>57.84</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7323,28 +7377,29 @@
       <c r="M181" t="n">
         <v>1</v>
       </c>
+      <c r="N181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>58.6</v>
+        <v>57.1</v>
       </c>
       <c r="C182" t="n">
-        <v>58.9</v>
+        <v>57.7</v>
       </c>
       <c r="D182" t="n">
-        <v>58.9</v>
+        <v>57.7</v>
       </c>
       <c r="E182" t="n">
-        <v>58.6</v>
+        <v>57</v>
       </c>
       <c r="F182" t="n">
-        <v>8463.4112</v>
+        <v>39284.9676</v>
       </c>
       <c r="G182" t="n">
-        <v>65008822.46382556</v>
+        <v>57.77999999999999</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7358,28 +7413,29 @@
       <c r="M182" t="n">
         <v>1</v>
       </c>
+      <c r="N182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>58.7</v>
+        <v>57.6</v>
       </c>
       <c r="C183" t="n">
-        <v>58.3</v>
+        <v>57.5</v>
       </c>
       <c r="D183" t="n">
-        <v>58.9</v>
+        <v>57.6</v>
       </c>
       <c r="E183" t="n">
-        <v>58.3</v>
+        <v>57.5</v>
       </c>
       <c r="F183" t="n">
-        <v>19691.1727</v>
+        <v>5155</v>
       </c>
       <c r="G183" t="n">
-        <v>64989131.29112556</v>
+        <v>57.74999999999999</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7393,28 +7449,29 @@
       <c r="M183" t="n">
         <v>1</v>
       </c>
+      <c r="N183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>58.6</v>
+        <v>57.5</v>
       </c>
       <c r="C184" t="n">
-        <v>58.6</v>
+        <v>57.5</v>
       </c>
       <c r="D184" t="n">
-        <v>58.6</v>
+        <v>57.5</v>
       </c>
       <c r="E184" t="n">
-        <v>58.6</v>
+        <v>57.5</v>
       </c>
       <c r="F184" t="n">
-        <v>23752.5895</v>
+        <v>130</v>
       </c>
       <c r="G184" t="n">
-        <v>65012883.88062556</v>
+        <v>57.71999999999999</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7428,28 +7485,29 @@
       <c r="M184" t="n">
         <v>1</v>
       </c>
+      <c r="N184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>58.6</v>
+        <v>57.5</v>
       </c>
       <c r="C185" t="n">
-        <v>58.9</v>
+        <v>57.3</v>
       </c>
       <c r="D185" t="n">
-        <v>58.9</v>
+        <v>57.5</v>
       </c>
       <c r="E185" t="n">
-        <v>58.5</v>
+        <v>57.3</v>
       </c>
       <c r="F185" t="n">
-        <v>20247.5519</v>
+        <v>17118.90426956522</v>
       </c>
       <c r="G185" t="n">
-        <v>65033131.43252556</v>
+        <v>57.70999999999999</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7463,28 +7521,29 @@
       <c r="M185" t="n">
         <v>1</v>
       </c>
+      <c r="N185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>58.9</v>
+        <v>57.2</v>
       </c>
       <c r="C186" t="n">
-        <v>58.9</v>
+        <v>57.5</v>
       </c>
       <c r="D186" t="n">
-        <v>58.9</v>
+        <v>57.5</v>
       </c>
       <c r="E186" t="n">
-        <v>58.9</v>
+        <v>57</v>
       </c>
       <c r="F186" t="n">
-        <v>48180.9645</v>
+        <v>37298.3751</v>
       </c>
       <c r="G186" t="n">
-        <v>65033131.43252556</v>
+        <v>57.67999999999999</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7498,28 +7557,29 @@
       <c r="M186" t="n">
         <v>1</v>
       </c>
+      <c r="N186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>58.8</v>
+        <v>57</v>
       </c>
       <c r="C187" t="n">
-        <v>58.7</v>
+        <v>57.4</v>
       </c>
       <c r="D187" t="n">
-        <v>58.8</v>
+        <v>57.4</v>
       </c>
       <c r="E187" t="n">
-        <v>58.7</v>
+        <v>57</v>
       </c>
       <c r="F187" t="n">
-        <v>176</v>
+        <v>3647.7821</v>
       </c>
       <c r="G187" t="n">
-        <v>65032955.43252556</v>
+        <v>57.63499999999999</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7533,28 +7593,29 @@
       <c r="M187" t="n">
         <v>1</v>
       </c>
+      <c r="N187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>58.7</v>
+        <v>57.4</v>
       </c>
       <c r="C188" t="n">
-        <v>58.7</v>
+        <v>57.5</v>
       </c>
       <c r="D188" t="n">
-        <v>58.7</v>
+        <v>57.5</v>
       </c>
       <c r="E188" t="n">
-        <v>58.7</v>
+        <v>57.4</v>
       </c>
       <c r="F188" t="n">
-        <v>29091.0562</v>
+        <v>620</v>
       </c>
       <c r="G188" t="n">
-        <v>65032955.43252556</v>
+        <v>57.605</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7568,28 +7629,29 @@
       <c r="M188" t="n">
         <v>1</v>
       </c>
+      <c r="N188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>58.6</v>
+        <v>57.1</v>
       </c>
       <c r="C189" t="n">
-        <v>58.8</v>
+        <v>57.2</v>
       </c>
       <c r="D189" t="n">
-        <v>58.9</v>
+        <v>57.3</v>
       </c>
       <c r="E189" t="n">
-        <v>58.5</v>
+        <v>56.7</v>
       </c>
       <c r="F189" t="n">
-        <v>9327.6405</v>
+        <v>141804.7276</v>
       </c>
       <c r="G189" t="n">
-        <v>65042283.07302556</v>
+        <v>57.54999999999999</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7603,28 +7665,29 @@
       <c r="M189" t="n">
         <v>1</v>
       </c>
+      <c r="N189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>58.6</v>
+        <v>57.3</v>
       </c>
       <c r="C190" t="n">
-        <v>58.6</v>
+        <v>57.2</v>
       </c>
       <c r="D190" t="n">
-        <v>58.6</v>
+        <v>57.3</v>
       </c>
       <c r="E190" t="n">
-        <v>58.6</v>
+        <v>57.2</v>
       </c>
       <c r="F190" t="n">
-        <v>10</v>
+        <v>26984.8951</v>
       </c>
       <c r="G190" t="n">
-        <v>65042273.07302556</v>
+        <v>57.50499999999998</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7638,1476 +7701,7 @@
       <c r="M190" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>58.7</v>
-      </c>
-      <c r="C191" t="n">
-        <v>58.7</v>
-      </c>
-      <c r="D191" t="n">
-        <v>58.8</v>
-      </c>
-      <c r="E191" t="n">
-        <v>58.5</v>
-      </c>
-      <c r="F191" t="n">
-        <v>33115.3603</v>
-      </c>
-      <c r="G191" t="n">
-        <v>65075388.43332556</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>58.7</v>
-      </c>
-      <c r="C192" t="n">
-        <v>58.8</v>
-      </c>
-      <c r="D192" t="n">
-        <v>58.8</v>
-      </c>
-      <c r="E192" t="n">
-        <v>58.7</v>
-      </c>
-      <c r="F192" t="n">
-        <v>28925.5952</v>
-      </c>
-      <c r="G192" t="n">
-        <v>65104314.02852556</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>58.6</v>
-      </c>
-      <c r="C193" t="n">
-        <v>59.1</v>
-      </c>
-      <c r="D193" t="n">
-        <v>59.3</v>
-      </c>
-      <c r="E193" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="F193" t="n">
-        <v>16031.316</v>
-      </c>
-      <c r="G193" t="n">
-        <v>65120345.34452556</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>59.1</v>
-      </c>
-      <c r="C194" t="n">
-        <v>59</v>
-      </c>
-      <c r="D194" t="n">
-        <v>59.3</v>
-      </c>
-      <c r="E194" t="n">
-        <v>59</v>
-      </c>
-      <c r="F194" t="n">
-        <v>6031.9491</v>
-      </c>
-      <c r="G194" t="n">
-        <v>65114313.39542556</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="C195" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="D195" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="E195" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="F195" t="n">
-        <v>10</v>
-      </c>
-      <c r="G195" t="n">
-        <v>65114303.39542556</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>58.8</v>
-      </c>
-      <c r="C196" t="n">
-        <v>58.7</v>
-      </c>
-      <c r="D196" t="n">
-        <v>58.8</v>
-      </c>
-      <c r="E196" t="n">
-        <v>58.5</v>
-      </c>
-      <c r="F196" t="n">
-        <v>5719.2115</v>
-      </c>
-      <c r="G196" t="n">
-        <v>65108584.18392556</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>58.7</v>
-      </c>
-      <c r="C197" t="n">
-        <v>58.7</v>
-      </c>
-      <c r="D197" t="n">
-        <v>58.7</v>
-      </c>
-      <c r="E197" t="n">
-        <v>58.5</v>
-      </c>
-      <c r="F197" t="n">
-        <v>680.1357</v>
-      </c>
-      <c r="G197" t="n">
-        <v>65108584.18392556</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>58.5</v>
-      </c>
-      <c r="C198" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="D198" t="n">
-        <v>58.5</v>
-      </c>
-      <c r="E198" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="F198" t="n">
-        <v>32930.7963</v>
-      </c>
-      <c r="G198" t="n">
-        <v>65075653.38762556</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>58.2</v>
-      </c>
-      <c r="C199" t="n">
-        <v>58.6</v>
-      </c>
-      <c r="D199" t="n">
-        <v>58.7</v>
-      </c>
-      <c r="E199" t="n">
-        <v>58.2</v>
-      </c>
-      <c r="F199" t="n">
-        <v>52164.8108</v>
-      </c>
-      <c r="G199" t="n">
-        <v>65127818.19842556</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="C200" t="n">
-        <v>58.7</v>
-      </c>
-      <c r="D200" t="n">
-        <v>58.7</v>
-      </c>
-      <c r="E200" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="F200" t="n">
-        <v>17725.6853</v>
-      </c>
-      <c r="G200" t="n">
-        <v>65145543.88372556</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>58.5</v>
-      </c>
-      <c r="C201" t="n">
-        <v>58.6</v>
-      </c>
-      <c r="D201" t="n">
-        <v>58.6</v>
-      </c>
-      <c r="E201" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="F201" t="n">
-        <v>162202.4161</v>
-      </c>
-      <c r="G201" t="n">
-        <v>64983341.46762556</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>58.5</v>
-      </c>
-      <c r="C202" t="n">
-        <v>58.1</v>
-      </c>
-      <c r="D202" t="n">
-        <v>58.5</v>
-      </c>
-      <c r="E202" t="n">
-        <v>58.1</v>
-      </c>
-      <c r="F202" t="n">
-        <v>49034.5936</v>
-      </c>
-      <c r="G202" t="n">
-        <v>64934306.87402556</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>58.5</v>
-      </c>
-      <c r="C203" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="D203" t="n">
-        <v>58.5</v>
-      </c>
-      <c r="E203" t="n">
-        <v>58.1</v>
-      </c>
-      <c r="F203" t="n">
-        <v>124252.0975</v>
-      </c>
-      <c r="G203" t="n">
-        <v>65058558.97152556</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="C204" t="n">
-        <v>58.4</v>
-      </c>
-      <c r="D204" t="n">
-        <v>58.5</v>
-      </c>
-      <c r="E204" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="F204" t="n">
-        <v>9930</v>
-      </c>
-      <c r="G204" t="n">
-        <v>65068488.97152556</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>58.2</v>
-      </c>
-      <c r="C205" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="D205" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="E205" t="n">
-        <v>58.1</v>
-      </c>
-      <c r="F205" t="n">
-        <v>28491.4051</v>
-      </c>
-      <c r="G205" t="n">
-        <v>65039997.56642555</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>58.1</v>
-      </c>
-      <c r="C206" t="n">
-        <v>58</v>
-      </c>
-      <c r="D206" t="n">
-        <v>58.1</v>
-      </c>
-      <c r="E206" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="F206" t="n">
-        <v>174569.7526</v>
-      </c>
-      <c r="G206" t="n">
-        <v>64865427.81382556</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="C207" t="n">
-        <v>57.6</v>
-      </c>
-      <c r="D207" t="n">
-        <v>58</v>
-      </c>
-      <c r="E207" t="n">
-        <v>57.6</v>
-      </c>
-      <c r="F207" t="n">
-        <v>47770.4521</v>
-      </c>
-      <c r="G207" t="n">
-        <v>64817657.36172555</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>57.8</v>
-      </c>
-      <c r="C208" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="D208" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="E208" t="n">
-        <v>57.6</v>
-      </c>
-      <c r="F208" t="n">
-        <v>48743.4991</v>
-      </c>
-      <c r="G208" t="n">
-        <v>64866400.86082555</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="C209" t="n">
-        <v>58</v>
-      </c>
-      <c r="D209" t="n">
-        <v>58</v>
-      </c>
-      <c r="E209" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="F209" t="n">
-        <v>63188.3149</v>
-      </c>
-      <c r="G209" t="n">
-        <v>64929589.17572556</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>58</v>
-      </c>
-      <c r="C210" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="D210" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="E210" t="n">
-        <v>57.8</v>
-      </c>
-      <c r="F210" t="n">
-        <v>48238.2601</v>
-      </c>
-      <c r="G210" t="n">
-        <v>64977827.43582556</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>58.2</v>
-      </c>
-      <c r="C211" t="n">
-        <v>58.2</v>
-      </c>
-      <c r="D211" t="n">
-        <v>58.2</v>
-      </c>
-      <c r="E211" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="F211" t="n">
-        <v>70972</v>
-      </c>
-      <c r="G211" t="n">
-        <v>64906855.43582556</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>58.2</v>
-      </c>
-      <c r="C212" t="n">
-        <v>58.2</v>
-      </c>
-      <c r="D212" t="n">
-        <v>58.2</v>
-      </c>
-      <c r="E212" t="n">
-        <v>58.2</v>
-      </c>
-      <c r="F212" t="n">
-        <v>44787.1855</v>
-      </c>
-      <c r="G212" t="n">
-        <v>64906855.43582556</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>58.2</v>
-      </c>
-      <c r="C213" t="n">
-        <v>58.2</v>
-      </c>
-      <c r="D213" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="E213" t="n">
-        <v>58.2</v>
-      </c>
-      <c r="F213" t="n">
-        <v>45836.1674</v>
-      </c>
-      <c r="G213" t="n">
-        <v>64906855.43582556</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>58.1</v>
-      </c>
-      <c r="C214" t="n">
-        <v>57.8</v>
-      </c>
-      <c r="D214" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="E214" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="F214" t="n">
-        <v>97868.3855</v>
-      </c>
-      <c r="G214" t="n">
-        <v>64808987.05032556</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>57.8</v>
-      </c>
-      <c r="C215" t="n">
-        <v>58.1</v>
-      </c>
-      <c r="D215" t="n">
-        <v>58.2</v>
-      </c>
-      <c r="E215" t="n">
-        <v>57.8</v>
-      </c>
-      <c r="F215" t="n">
-        <v>38043.0902</v>
-      </c>
-      <c r="G215" t="n">
-        <v>64847030.14052556</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>58.1</v>
-      </c>
-      <c r="C216" t="n">
-        <v>58</v>
-      </c>
-      <c r="D216" t="n">
-        <v>58.1</v>
-      </c>
-      <c r="E216" t="n">
-        <v>57.2</v>
-      </c>
-      <c r="F216" t="n">
-        <v>32722.653</v>
-      </c>
-      <c r="G216" t="n">
-        <v>64814307.48752556</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="C217" t="n">
-        <v>58</v>
-      </c>
-      <c r="D217" t="n">
-        <v>58</v>
-      </c>
-      <c r="E217" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="F217" t="n">
-        <v>572.9535</v>
-      </c>
-      <c r="G217" t="n">
-        <v>64814307.48752556</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="C218" t="n">
-        <v>58</v>
-      </c>
-      <c r="D218" t="n">
-        <v>58</v>
-      </c>
-      <c r="E218" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="F218" t="n">
-        <v>1080</v>
-      </c>
-      <c r="G218" t="n">
-        <v>64814307.48752556</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>57.6</v>
-      </c>
-      <c r="C219" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="D219" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="E219" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="F219" t="n">
-        <v>10620.688</v>
-      </c>
-      <c r="G219" t="n">
-        <v>64803686.79952556</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="C220" t="n">
-        <v>57</v>
-      </c>
-      <c r="D220" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="E220" t="n">
-        <v>57</v>
-      </c>
-      <c r="F220" t="n">
-        <v>121435.8214</v>
-      </c>
-      <c r="G220" t="n">
-        <v>64682250.97812556</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>57</v>
-      </c>
-      <c r="C221" t="n">
-        <v>57.8</v>
-      </c>
-      <c r="D221" t="n">
-        <v>57.8</v>
-      </c>
-      <c r="E221" t="n">
-        <v>57</v>
-      </c>
-      <c r="F221" t="n">
-        <v>20170</v>
-      </c>
-      <c r="G221" t="n">
-        <v>64702420.97812556</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="C222" t="n">
-        <v>57</v>
-      </c>
-      <c r="D222" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="E222" t="n">
-        <v>57</v>
-      </c>
-      <c r="F222" t="n">
-        <v>46603.59226020942</v>
-      </c>
-      <c r="G222" t="n">
-        <v>64655817.38586535</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="C223" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="D223" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="E223" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="F223" t="n">
-        <v>55</v>
-      </c>
-      <c r="G223" t="n">
-        <v>64655872.38586535</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="C224" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="D224" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="E224" t="n">
-        <v>57</v>
-      </c>
-      <c r="F224" t="n">
-        <v>39284.9676</v>
-      </c>
-      <c r="G224" t="n">
-        <v>64695157.35346535</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>57.6</v>
-      </c>
-      <c r="C225" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="D225" t="n">
-        <v>57.6</v>
-      </c>
-      <c r="E225" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="F225" t="n">
-        <v>5155</v>
-      </c>
-      <c r="G225" t="n">
-        <v>64690002.35346535</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="C226" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="D226" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="E226" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="F226" t="n">
-        <v>130</v>
-      </c>
-      <c r="G226" t="n">
-        <v>64690002.35346535</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="C227" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="D227" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="E227" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="F227" t="n">
-        <v>17118.90426956522</v>
-      </c>
-      <c r="G227" t="n">
-        <v>64672883.44919578</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>57.2</v>
-      </c>
-      <c r="C228" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="D228" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="E228" t="n">
-        <v>57</v>
-      </c>
-      <c r="F228" t="n">
-        <v>37298.3751</v>
-      </c>
-      <c r="G228" t="n">
-        <v>64710181.82429578</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>57</v>
-      </c>
-      <c r="C229" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="D229" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="E229" t="n">
-        <v>57</v>
-      </c>
-      <c r="F229" t="n">
-        <v>3647.7821</v>
-      </c>
-      <c r="G229" t="n">
-        <v>64706534.04219578</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="C230" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="D230" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="E230" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="F230" t="n">
-        <v>620</v>
-      </c>
-      <c r="G230" t="n">
-        <v>64707154.04219578</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="C231" t="n">
-        <v>57.2</v>
-      </c>
-      <c r="D231" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="E231" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="F231" t="n">
-        <v>141804.7276</v>
-      </c>
-      <c r="G231" t="n">
-        <v>64565349.31459578</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="C232" t="n">
-        <v>57.2</v>
-      </c>
-      <c r="D232" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="E232" t="n">
-        <v>57.2</v>
-      </c>
-      <c r="F232" t="n">
-        <v>26984.8951</v>
-      </c>
-      <c r="G232" t="n">
-        <v>64565349.31459578</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
+      <c r="N190" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-29 BackTest TRV.xlsx
+++ b/BackTest/2019-10-29 BackTest TRV.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N190"/>
+  <dimension ref="A1:N261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>56.4</v>
+        <v>61.3</v>
       </c>
       <c r="C2" t="n">
-        <v>56.8</v>
+        <v>61.4</v>
       </c>
       <c r="D2" t="n">
-        <v>56.9</v>
+        <v>61.4</v>
       </c>
       <c r="E2" t="n">
-        <v>56.4</v>
+        <v>61.3</v>
       </c>
       <c r="F2" t="n">
-        <v>40499.4065</v>
+        <v>184649.4942</v>
       </c>
       <c r="G2" t="n">
-        <v>56.86</v>
+        <v>-3920996.528470295</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,38 +474,32 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>56.5</v>
+        <v>61.4</v>
       </c>
       <c r="C3" t="n">
-        <v>56.7</v>
+        <v>61.3</v>
       </c>
       <c r="D3" t="n">
-        <v>56.8</v>
+        <v>61.4</v>
       </c>
       <c r="E3" t="n">
-        <v>56.5</v>
+        <v>61.3</v>
       </c>
       <c r="F3" t="n">
-        <v>33848.76306619719</v>
+        <v>47442.4165</v>
       </c>
       <c r="G3" t="n">
-        <v>56.875</v>
+        <v>-3968438.944970295</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>56.8</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -516,38 +510,32 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>56.7</v>
+        <v>61.5</v>
       </c>
       <c r="C4" t="n">
-        <v>56.8</v>
+        <v>61.2</v>
       </c>
       <c r="D4" t="n">
-        <v>56.9</v>
+        <v>61.7</v>
       </c>
       <c r="E4" t="n">
-        <v>56.7</v>
+        <v>61.2</v>
       </c>
       <c r="F4" t="n">
-        <v>15857.75063380282</v>
+        <v>195345.6189</v>
       </c>
       <c r="G4" t="n">
-        <v>56.90500000000001</v>
+        <v>-4163784.563870295</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>56.7</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -558,38 +546,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>56.8</v>
+        <v>61.7</v>
       </c>
       <c r="C5" t="n">
-        <v>56.6</v>
+        <v>61</v>
       </c>
       <c r="D5" t="n">
-        <v>56.8</v>
+        <v>61.7</v>
       </c>
       <c r="E5" t="n">
-        <v>56.6</v>
+        <v>61</v>
       </c>
       <c r="F5" t="n">
-        <v>27263.39456619718</v>
+        <v>120859.9501</v>
       </c>
       <c r="G5" t="n">
-        <v>56.94500000000001</v>
+        <v>-4284644.513970295</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>56.8</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -600,38 +582,32 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>56.5</v>
+        <v>60.8</v>
       </c>
       <c r="C6" t="n">
-        <v>57</v>
+        <v>60.1</v>
       </c>
       <c r="D6" t="n">
-        <v>57</v>
+        <v>60.8</v>
       </c>
       <c r="E6" t="n">
-        <v>56.4</v>
+        <v>60.1</v>
       </c>
       <c r="F6" t="n">
-        <v>1051781.210060563</v>
+        <v>420994.2833</v>
       </c>
       <c r="G6" t="n">
-        <v>56.97000000000001</v>
+        <v>-4705638.797270295</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>56.6</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -642,38 +618,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>57</v>
+        <v>60.3</v>
       </c>
       <c r="C7" t="n">
-        <v>57</v>
+        <v>60.3</v>
       </c>
       <c r="D7" t="n">
-        <v>57</v>
+        <v>60.7</v>
       </c>
       <c r="E7" t="n">
-        <v>56.5</v>
+        <v>60.3</v>
       </c>
       <c r="F7" t="n">
-        <v>71002062.3602</v>
+        <v>74603.9336</v>
       </c>
       <c r="G7" t="n">
-        <v>57</v>
+        <v>-4631034.863670295</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>57</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -684,38 +654,32 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>57</v>
+        <v>60.5</v>
       </c>
       <c r="C8" t="n">
-        <v>57</v>
+        <v>60.6</v>
       </c>
       <c r="D8" t="n">
-        <v>57.1</v>
+        <v>60.6</v>
       </c>
       <c r="E8" t="n">
-        <v>56.7</v>
+        <v>60.1</v>
       </c>
       <c r="F8" t="n">
-        <v>127050494.0849</v>
+        <v>66421.7227</v>
       </c>
       <c r="G8" t="n">
-        <v>57.02</v>
+        <v>-4564613.140970295</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>57</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -726,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>57</v>
+        <v>60.5</v>
       </c>
       <c r="C9" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D9" t="n">
-        <v>57.1</v>
+        <v>60.5</v>
       </c>
       <c r="E9" t="n">
-        <v>56.7</v>
+        <v>60</v>
       </c>
       <c r="F9" t="n">
-        <v>136117335.1924093</v>
+        <v>100270.5887</v>
       </c>
       <c r="G9" t="n">
-        <v>57.025</v>
+        <v>-4664883.729670295</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -751,11 +715,7 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -766,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>57</v>
+        <v>60.2</v>
       </c>
       <c r="C10" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D10" t="n">
-        <v>57</v>
+        <v>60.2</v>
       </c>
       <c r="E10" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F10" t="n">
-        <v>77357334.207</v>
+        <v>75050</v>
       </c>
       <c r="G10" t="n">
-        <v>57.035</v>
+        <v>-4664883.729670295</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -791,11 +751,7 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -806,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C11" t="n">
-        <v>57</v>
+        <v>60.2</v>
       </c>
       <c r="D11" t="n">
-        <v>57.1</v>
+        <v>60.2</v>
       </c>
       <c r="E11" t="n">
-        <v>57</v>
+        <v>59.9</v>
       </c>
       <c r="F11" t="n">
-        <v>31027540.44512807</v>
+        <v>107136.7559</v>
       </c>
       <c r="G11" t="n">
-        <v>57.03000000000001</v>
+        <v>-4557746.973770295</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -831,11 +787,7 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -846,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>56.8</v>
+        <v>60.2</v>
       </c>
       <c r="C12" t="n">
-        <v>56.9</v>
+        <v>60.3</v>
       </c>
       <c r="D12" t="n">
-        <v>56.9</v>
+        <v>60.3</v>
       </c>
       <c r="E12" t="n">
-        <v>56.8</v>
+        <v>60.2</v>
       </c>
       <c r="F12" t="n">
-        <v>14836.3921</v>
+        <v>54328.4737</v>
       </c>
       <c r="G12" t="n">
-        <v>57.01500000000001</v>
+        <v>-4503418.500070295</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -871,11 +823,7 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -886,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>56.9</v>
+        <v>60.3</v>
       </c>
       <c r="C13" t="n">
-        <v>57</v>
+        <v>60.4</v>
       </c>
       <c r="D13" t="n">
-        <v>57</v>
+        <v>60.4</v>
       </c>
       <c r="E13" t="n">
-        <v>56.9</v>
+        <v>60</v>
       </c>
       <c r="F13" t="n">
-        <v>12940.1231</v>
+        <v>98028.8851</v>
       </c>
       <c r="G13" t="n">
-        <v>56.99500000000002</v>
+        <v>-4405389.614970296</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -911,11 +859,7 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -926,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>57</v>
+        <v>60.4</v>
       </c>
       <c r="C14" t="n">
-        <v>57.8</v>
+        <v>60.5</v>
       </c>
       <c r="D14" t="n">
-        <v>57.9</v>
+        <v>60.7</v>
       </c>
       <c r="E14" t="n">
-        <v>57</v>
+        <v>60.4</v>
       </c>
       <c r="F14" t="n">
-        <v>102060.1217671886</v>
+        <v>350399.6164861614</v>
       </c>
       <c r="G14" t="n">
-        <v>56.98000000000002</v>
+        <v>-4054989.998484134</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -951,11 +895,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -966,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>57.7</v>
+        <v>60.7</v>
       </c>
       <c r="C15" t="n">
-        <v>57.7</v>
+        <v>60.5</v>
       </c>
       <c r="D15" t="n">
-        <v>57.7</v>
+        <v>60.7</v>
       </c>
       <c r="E15" t="n">
-        <v>57.7</v>
+        <v>60.5</v>
       </c>
       <c r="F15" t="n">
-        <v>4326.6782</v>
+        <v>79891.86948924256</v>
       </c>
       <c r="G15" t="n">
-        <v>57.00000000000002</v>
+        <v>-4054989.998484134</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -991,11 +931,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1006,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>57.6</v>
+        <v>60.4</v>
       </c>
       <c r="C16" t="n">
-        <v>57.6</v>
+        <v>60.3</v>
       </c>
       <c r="D16" t="n">
-        <v>57.7</v>
+        <v>60.4</v>
       </c>
       <c r="E16" t="n">
-        <v>57.6</v>
+        <v>60.1</v>
       </c>
       <c r="F16" t="n">
-        <v>50944.3488</v>
+        <v>211707.5414</v>
       </c>
       <c r="G16" t="n">
-        <v>57.00500000000002</v>
+        <v>-4266697.539884134</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1031,11 +967,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1046,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>57.6</v>
+        <v>60.1</v>
       </c>
       <c r="C17" t="n">
-        <v>57.4</v>
+        <v>60.1</v>
       </c>
       <c r="D17" t="n">
-        <v>57.6</v>
+        <v>60.3</v>
       </c>
       <c r="E17" t="n">
-        <v>57.4</v>
+        <v>60.1</v>
       </c>
       <c r="F17" t="n">
-        <v>6087.418</v>
+        <v>46041.656</v>
       </c>
       <c r="G17" t="n">
-        <v>57.00000000000001</v>
+        <v>-4312739.195884135</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1071,11 +1003,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1086,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>57.4</v>
+        <v>60.1</v>
       </c>
       <c r="C18" t="n">
-        <v>57.4</v>
+        <v>59.4</v>
       </c>
       <c r="D18" t="n">
-        <v>57.4</v>
+        <v>60.1</v>
       </c>
       <c r="E18" t="n">
-        <v>57.4</v>
+        <v>59.4</v>
       </c>
       <c r="F18" t="n">
-        <v>1715.5805</v>
+        <v>168594.4471</v>
       </c>
       <c r="G18" t="n">
-        <v>57.02500000000001</v>
+        <v>-4481333.642984135</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1111,11 +1039,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1126,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>57.4</v>
+        <v>59.4</v>
       </c>
       <c r="C19" t="n">
-        <v>57.4</v>
+        <v>59.4</v>
       </c>
       <c r="D19" t="n">
-        <v>57.4</v>
+        <v>59.5</v>
       </c>
       <c r="E19" t="n">
-        <v>57.4</v>
+        <v>58.9</v>
       </c>
       <c r="F19" t="n">
-        <v>1717.4446</v>
+        <v>343991.1273</v>
       </c>
       <c r="G19" t="n">
-        <v>57.03000000000002</v>
+        <v>-4481333.642984135</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1151,11 +1075,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1166,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>57.4</v>
+        <v>59.4</v>
       </c>
       <c r="C20" t="n">
-        <v>57.7</v>
+        <v>59.5</v>
       </c>
       <c r="D20" t="n">
-        <v>57.7</v>
+        <v>59.6</v>
       </c>
       <c r="E20" t="n">
-        <v>57.4</v>
+        <v>59.2</v>
       </c>
       <c r="F20" t="n">
-        <v>18002361.7356</v>
+        <v>43053.8672</v>
       </c>
       <c r="G20" t="n">
-        <v>57.03000000000002</v>
+        <v>-4438279.775784135</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1191,11 +1111,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1206,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>57.7</v>
+        <v>59.6</v>
       </c>
       <c r="C21" t="n">
-        <v>57.7</v>
+        <v>59.4</v>
       </c>
       <c r="D21" t="n">
-        <v>57.8</v>
+        <v>59.6</v>
       </c>
       <c r="E21" t="n">
-        <v>57.7</v>
+        <v>58.8</v>
       </c>
       <c r="F21" t="n">
-        <v>134038003.0213991</v>
+        <v>138927.7037</v>
       </c>
       <c r="G21" t="n">
-        <v>57.07000000000001</v>
+        <v>-4577207.479484135</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1231,11 +1147,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1246,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>57.7</v>
+        <v>59.3</v>
       </c>
       <c r="C22" t="n">
-        <v>58.8</v>
+        <v>59.3</v>
       </c>
       <c r="D22" t="n">
-        <v>58.8</v>
+        <v>59.3</v>
       </c>
       <c r="E22" t="n">
-        <v>57.7</v>
+        <v>58.9</v>
       </c>
       <c r="F22" t="n">
-        <v>28013085.02010879</v>
+        <v>84568.5529</v>
       </c>
       <c r="G22" t="n">
-        <v>57.13500000000001</v>
+        <v>-4661776.032384135</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1271,11 +1183,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1286,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>58.5</v>
+        <v>59.4</v>
       </c>
       <c r="C23" t="n">
-        <v>58.8</v>
+        <v>59.2</v>
       </c>
       <c r="D23" t="n">
-        <v>58.8</v>
+        <v>59.8</v>
       </c>
       <c r="E23" t="n">
-        <v>58.5</v>
+        <v>59.2</v>
       </c>
       <c r="F23" t="n">
-        <v>9639.098599999999</v>
+        <v>106511.3995940978</v>
       </c>
       <c r="G23" t="n">
-        <v>57.23500000000001</v>
+        <v>-4768287.431978232</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1311,11 +1219,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1326,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>58.8</v>
+        <v>59.1</v>
       </c>
       <c r="C24" t="n">
-        <v>58.3</v>
+        <v>58.9</v>
       </c>
       <c r="D24" t="n">
-        <v>58.8</v>
+        <v>59.2</v>
       </c>
       <c r="E24" t="n">
-        <v>58.3</v>
+        <v>58.7</v>
       </c>
       <c r="F24" t="n">
-        <v>2041913.5914</v>
+        <v>291352.4785322609</v>
       </c>
       <c r="G24" t="n">
-        <v>57.34000000000001</v>
+        <v>-5059639.910510493</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1351,11 +1255,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1366,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>58.3</v>
+        <v>58.9</v>
       </c>
       <c r="C25" t="n">
-        <v>58.3</v>
+        <v>58.7</v>
       </c>
       <c r="D25" t="n">
-        <v>58.3</v>
+        <v>58.9</v>
       </c>
       <c r="E25" t="n">
-        <v>58.2</v>
+        <v>58.7</v>
       </c>
       <c r="F25" t="n">
-        <v>139292804.9656</v>
+        <v>188480.39076927</v>
       </c>
       <c r="G25" t="n">
-        <v>57.41500000000001</v>
+        <v>-5248120.301279764</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1391,11 +1291,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1406,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>58.3</v>
+        <v>58.7</v>
       </c>
       <c r="C26" t="n">
-        <v>58.7</v>
+        <v>58.9</v>
       </c>
       <c r="D26" t="n">
-        <v>58.7</v>
+        <v>58.9</v>
       </c>
       <c r="E26" t="n">
-        <v>58.3</v>
+        <v>58.6</v>
       </c>
       <c r="F26" t="n">
-        <v>25886103.0504</v>
+        <v>154174.6993156197</v>
       </c>
       <c r="G26" t="n">
-        <v>57.50500000000001</v>
+        <v>-5093945.601964144</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1431,11 +1327,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1446,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>58.7</v>
+        <v>58.9</v>
       </c>
       <c r="C27" t="n">
-        <v>58.8</v>
+        <v>59.5</v>
       </c>
       <c r="D27" t="n">
-        <v>59.2</v>
+        <v>59.6</v>
       </c>
       <c r="E27" t="n">
-        <v>58.7</v>
+        <v>58.9</v>
       </c>
       <c r="F27" t="n">
-        <v>38158.7024945946</v>
+        <v>216923.9186038436</v>
       </c>
       <c r="G27" t="n">
-        <v>57.59000000000001</v>
+        <v>-4877021.6833603</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1471,11 +1363,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1486,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>59.1</v>
+        <v>59.5</v>
       </c>
       <c r="C28" t="n">
-        <v>59.1</v>
+        <v>59.3</v>
       </c>
       <c r="D28" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="E28" t="n">
         <v>59.2</v>
       </c>
-      <c r="E28" t="n">
-        <v>59.1</v>
-      </c>
       <c r="F28" t="n">
-        <v>26139.2919</v>
+        <v>67754.23021814054</v>
       </c>
       <c r="G28" t="n">
-        <v>57.69500000000001</v>
+        <v>-4944775.91357844</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1511,11 +1399,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1526,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>58.9</v>
+        <v>59.5</v>
       </c>
       <c r="C29" t="n">
-        <v>59.3</v>
+        <v>59.2</v>
       </c>
       <c r="D29" t="n">
-        <v>59.4</v>
+        <v>59.5</v>
       </c>
       <c r="E29" t="n">
         <v>58.9</v>
       </c>
       <c r="F29" t="n">
-        <v>158594.1741054054</v>
+        <v>396142.5330368376</v>
       </c>
       <c r="G29" t="n">
-        <v>57.79000000000001</v>
+        <v>-5340918.446615278</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1551,11 +1435,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1566,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>59.5</v>
+        <v>59.3</v>
       </c>
       <c r="C30" t="n">
-        <v>60.1</v>
+        <v>58.9</v>
       </c>
       <c r="D30" t="n">
-        <v>60.1</v>
+        <v>59.3</v>
       </c>
       <c r="E30" t="n">
-        <v>59.5</v>
+        <v>58.9</v>
       </c>
       <c r="F30" t="n">
-        <v>211032.6491282303</v>
+        <v>74693.72289999999</v>
       </c>
       <c r="G30" t="n">
-        <v>57.91500000000001</v>
+        <v>-5415612.169515278</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1591,11 +1471,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1606,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>60.1</v>
+        <v>58.9</v>
       </c>
       <c r="C31" t="n">
-        <v>60.2</v>
+        <v>59.3</v>
       </c>
       <c r="D31" t="n">
-        <v>60.3</v>
+        <v>59.3</v>
       </c>
       <c r="E31" t="n">
-        <v>59.9</v>
+        <v>58.9</v>
       </c>
       <c r="F31" t="n">
-        <v>306391.6086703151</v>
+        <v>99843.05258364249</v>
       </c>
       <c r="G31" t="n">
-        <v>58.07000000000001</v>
+        <v>-5315769.116931636</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1631,11 +1507,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1646,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>60.2</v>
+        <v>58.9</v>
       </c>
       <c r="C32" t="n">
-        <v>61.3</v>
+        <v>58.9</v>
       </c>
       <c r="D32" t="n">
-        <v>61.3</v>
+        <v>58.9</v>
       </c>
       <c r="E32" t="n">
-        <v>60.2</v>
+        <v>58.9</v>
       </c>
       <c r="F32" t="n">
-        <v>685300.04550584</v>
+        <v>382.6035</v>
       </c>
       <c r="G32" t="n">
-        <v>58.24000000000001</v>
+        <v>-5316151.720431636</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1671,11 +1543,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1686,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>61.2</v>
+        <v>58.9</v>
       </c>
       <c r="C33" t="n">
-        <v>61.2</v>
+        <v>58.3</v>
       </c>
       <c r="D33" t="n">
-        <v>61.6</v>
+        <v>58.9</v>
       </c>
       <c r="E33" t="n">
-        <v>61.2</v>
+        <v>56.2</v>
       </c>
       <c r="F33" t="n">
-        <v>317710.3701</v>
+        <v>447577.4517</v>
       </c>
       <c r="G33" t="n">
-        <v>58.45500000000001</v>
+        <v>-5763729.172131636</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1711,11 +1579,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1726,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>60.1</v>
+        <v>57.8</v>
       </c>
       <c r="D34" t="n">
-        <v>61</v>
+        <v>58.3</v>
       </c>
       <c r="E34" t="n">
-        <v>60.1</v>
+        <v>56.8</v>
       </c>
       <c r="F34" t="n">
-        <v>131476.6069</v>
+        <v>353424.8378592242</v>
       </c>
       <c r="G34" t="n">
-        <v>58.65500000000001</v>
+        <v>-6117154.009990861</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1751,11 +1615,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1766,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>60.2</v>
+        <v>57.1</v>
       </c>
       <c r="C35" t="n">
-        <v>60.2</v>
+        <v>56.7</v>
       </c>
       <c r="D35" t="n">
-        <v>60.9</v>
+        <v>57.4</v>
       </c>
       <c r="E35" t="n">
-        <v>60.2</v>
+        <v>56.7</v>
       </c>
       <c r="F35" t="n">
-        <v>55163.8643</v>
+        <v>117393.9206</v>
       </c>
       <c r="G35" t="n">
-        <v>58.78000000000001</v>
+        <v>-6234547.930590861</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1791,11 +1651,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1806,34 +1662,36 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>60.2</v>
+        <v>56.7</v>
       </c>
       <c r="C36" t="n">
-        <v>60.5</v>
+        <v>56</v>
       </c>
       <c r="D36" t="n">
-        <v>60.5</v>
+        <v>56.7</v>
       </c>
       <c r="E36" t="n">
-        <v>60.2</v>
+        <v>55.7</v>
       </c>
       <c r="F36" t="n">
-        <v>81173.9762</v>
+        <v>566950.1347091873</v>
       </c>
       <c r="G36" t="n">
-        <v>58.91000000000001</v>
+        <v>-6801498.065300047</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>56.7</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M36" t="n">
@@ -1846,30 +1704,32 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>60.9</v>
+        <v>56</v>
       </c>
       <c r="C37" t="n">
-        <v>61</v>
+        <v>56.6</v>
       </c>
       <c r="D37" t="n">
-        <v>61</v>
+        <v>57.2</v>
       </c>
       <c r="E37" t="n">
-        <v>60.5</v>
+        <v>56</v>
       </c>
       <c r="F37" t="n">
-        <v>113259.972</v>
+        <v>298717.1279</v>
       </c>
       <c r="G37" t="n">
-        <v>59.07500000000002</v>
+        <v>-6502780.937400048</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>56</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
@@ -1886,30 +1746,32 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>60.9</v>
+        <v>56.6</v>
       </c>
       <c r="C38" t="n">
-        <v>60.6</v>
+        <v>56</v>
       </c>
       <c r="D38" t="n">
-        <v>61</v>
+        <v>56.6</v>
       </c>
       <c r="E38" t="n">
-        <v>60.6</v>
+        <v>55.9</v>
       </c>
       <c r="F38" t="n">
-        <v>68975.50900000001</v>
+        <v>1474386.7048</v>
       </c>
       <c r="G38" t="n">
-        <v>59.25000000000002</v>
+        <v>-7977167.642200047</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>56.6</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
@@ -1926,30 +1788,32 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>60.9</v>
+        <v>56</v>
       </c>
       <c r="C39" t="n">
-        <v>61.1</v>
+        <v>55.9</v>
       </c>
       <c r="D39" t="n">
-        <v>61.1</v>
+        <v>56.1</v>
       </c>
       <c r="E39" t="n">
-        <v>60.9</v>
+        <v>55.6</v>
       </c>
       <c r="F39" t="n">
-        <v>264527.4579</v>
+        <v>77964.42075714286</v>
       </c>
       <c r="G39" t="n">
-        <v>59.42500000000003</v>
+        <v>-8055132.06295719</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>56</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
@@ -1966,30 +1830,32 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>61.2</v>
+        <v>55.9</v>
       </c>
       <c r="C40" t="n">
-        <v>61.2</v>
+        <v>56.8</v>
       </c>
       <c r="D40" t="n">
-        <v>61.2</v>
+        <v>56.8</v>
       </c>
       <c r="E40" t="n">
-        <v>61</v>
+        <v>55.9</v>
       </c>
       <c r="F40" t="n">
-        <v>68331.64030718955</v>
+        <v>63549.36547253521</v>
       </c>
       <c r="G40" t="n">
-        <v>59.61500000000002</v>
+        <v>-7991582.697484654</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>55.9</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
@@ -2006,30 +1872,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>61.2</v>
+        <v>56.7</v>
       </c>
       <c r="C41" t="n">
-        <v>61.3</v>
+        <v>56.9</v>
       </c>
       <c r="D41" t="n">
-        <v>61.4</v>
+        <v>56.9</v>
       </c>
       <c r="E41" t="n">
-        <v>61.2</v>
+        <v>56.2</v>
       </c>
       <c r="F41" t="n">
-        <v>90782.07819281046</v>
+        <v>101301.1630890721</v>
       </c>
       <c r="G41" t="n">
-        <v>59.79000000000002</v>
+        <v>-7890281.534395582</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>56.8</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
@@ -2046,30 +1914,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>61.3</v>
+        <v>56.9</v>
       </c>
       <c r="C42" t="n">
-        <v>61.7</v>
+        <v>57.3</v>
       </c>
       <c r="D42" t="n">
-        <v>61.7</v>
+        <v>57.9</v>
       </c>
       <c r="E42" t="n">
-        <v>61</v>
+        <v>56.9</v>
       </c>
       <c r="F42" t="n">
-        <v>306944.7903</v>
+        <v>124519.1393521923</v>
       </c>
       <c r="G42" t="n">
-        <v>59.97000000000001</v>
+        <v>-7765762.39504339</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>56.9</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
@@ -2086,30 +1956,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>61.8</v>
+        <v>57.5</v>
       </c>
       <c r="C43" t="n">
-        <v>61.8</v>
+        <v>57.5</v>
       </c>
       <c r="D43" t="n">
-        <v>62.4</v>
+        <v>57.5</v>
       </c>
       <c r="E43" t="n">
-        <v>61.8</v>
+        <v>57.3</v>
       </c>
       <c r="F43" t="n">
-        <v>533645.6855100961</v>
+        <v>142012.4341</v>
       </c>
       <c r="G43" t="n">
-        <v>60.13500000000001</v>
+        <v>-7623749.96094339</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>57.3</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
@@ -2126,30 +1998,32 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>62.1</v>
+        <v>57.5</v>
       </c>
       <c r="C44" t="n">
-        <v>61.7</v>
+        <v>57.7</v>
       </c>
       <c r="D44" t="n">
-        <v>62.1</v>
+        <v>57.7</v>
       </c>
       <c r="E44" t="n">
-        <v>61.2</v>
+        <v>57.5</v>
       </c>
       <c r="F44" t="n">
-        <v>262414.0553</v>
+        <v>101970.9242</v>
       </c>
       <c r="G44" t="n">
-        <v>60.30000000000001</v>
+        <v>-7521779.036743389</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>57.5</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
@@ -2166,30 +2040,32 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>61.7</v>
+        <v>57.7</v>
       </c>
       <c r="C45" t="n">
-        <v>61.7</v>
+        <v>58</v>
       </c>
       <c r="D45" t="n">
-        <v>61.8</v>
+        <v>58</v>
       </c>
       <c r="E45" t="n">
-        <v>61.3</v>
+        <v>57.7</v>
       </c>
       <c r="F45" t="n">
-        <v>28493.5016</v>
+        <v>7425.6724</v>
       </c>
       <c r="G45" t="n">
-        <v>60.47000000000001</v>
+        <v>-7514353.36434339</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>57.7</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
@@ -2206,30 +2082,32 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>61.4</v>
+        <v>57.5</v>
       </c>
       <c r="C46" t="n">
-        <v>61.6</v>
+        <v>57.6</v>
       </c>
       <c r="D46" t="n">
-        <v>61.7</v>
+        <v>57.9</v>
       </c>
       <c r="E46" t="n">
-        <v>61.3</v>
+        <v>57</v>
       </c>
       <c r="F46" t="n">
-        <v>73003.6982</v>
+        <v>50439.922752513</v>
       </c>
       <c r="G46" t="n">
-        <v>60.62500000000002</v>
+        <v>-7564793.287095902</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>58</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
@@ -2246,30 +2124,32 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>61.5</v>
+        <v>57.6</v>
       </c>
       <c r="C47" t="n">
-        <v>61.5</v>
+        <v>57.4</v>
       </c>
       <c r="D47" t="n">
-        <v>61.6</v>
+        <v>57.6</v>
       </c>
       <c r="E47" t="n">
-        <v>61.1</v>
+        <v>56.9</v>
       </c>
       <c r="F47" t="n">
-        <v>139481.100200813</v>
+        <v>51350.1936</v>
       </c>
       <c r="G47" t="n">
-        <v>60.76500000000002</v>
+        <v>-7616143.480695902</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>57.6</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
@@ -2286,30 +2166,32 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>61.4</v>
+        <v>57.4</v>
       </c>
       <c r="C48" t="n">
-        <v>61.4</v>
+        <v>57.2</v>
       </c>
       <c r="D48" t="n">
-        <v>61.4</v>
+        <v>57.4</v>
       </c>
       <c r="E48" t="n">
-        <v>61.3</v>
+        <v>57</v>
       </c>
       <c r="F48" t="n">
-        <v>75264.49980000001</v>
+        <v>53256.6121</v>
       </c>
       <c r="G48" t="n">
-        <v>60.88000000000003</v>
+        <v>-7669400.092795902</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>57.4</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
@@ -2326,30 +2208,32 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>61.6</v>
+        <v>57</v>
       </c>
       <c r="C49" t="n">
-        <v>61.9</v>
+        <v>56.4</v>
       </c>
       <c r="D49" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E49" t="n">
-        <v>61.4</v>
+        <v>56.4</v>
       </c>
       <c r="F49" t="n">
-        <v>91790.3904</v>
+        <v>153784.4385132343</v>
       </c>
       <c r="G49" t="n">
-        <v>61.01500000000002</v>
+        <v>-7823184.531309136</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>57.2</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
@@ -2366,30 +2250,32 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>61.9</v>
+        <v>56.4</v>
       </c>
       <c r="C50" t="n">
-        <v>61.9</v>
+        <v>56.1</v>
       </c>
       <c r="D50" t="n">
-        <v>62</v>
+        <v>56.4</v>
       </c>
       <c r="E50" t="n">
-        <v>61.5</v>
+        <v>56</v>
       </c>
       <c r="F50" t="n">
-        <v>250318.2907887097</v>
+        <v>48559.0522</v>
       </c>
       <c r="G50" t="n">
-        <v>61.13500000000003</v>
+        <v>-7871743.583509136</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>56.4</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
@@ -2406,30 +2292,32 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>61.8</v>
+        <v>56.1</v>
       </c>
       <c r="C51" t="n">
-        <v>62</v>
+        <v>56.5</v>
       </c>
       <c r="D51" t="n">
-        <v>62</v>
+        <v>56.6</v>
       </c>
       <c r="E51" t="n">
-        <v>61.8</v>
+        <v>56.1</v>
       </c>
       <c r="F51" t="n">
-        <v>27991.04361129032</v>
+        <v>136828.9766784452</v>
       </c>
       <c r="G51" t="n">
-        <v>61.22000000000003</v>
+        <v>-7734914.606830691</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>56.1</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
@@ -2446,30 +2334,32 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>62</v>
+        <v>56.6</v>
       </c>
       <c r="C52" t="n">
-        <v>61.9</v>
+        <v>56.5</v>
       </c>
       <c r="D52" t="n">
-        <v>62.2</v>
+        <v>56.6</v>
       </c>
       <c r="E52" t="n">
-        <v>61.9</v>
+        <v>56.5</v>
       </c>
       <c r="F52" t="n">
-        <v>126089.8463</v>
+        <v>29599.891</v>
       </c>
       <c r="G52" t="n">
-        <v>61.31000000000002</v>
+        <v>-7734914.606830691</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
@@ -2486,30 +2376,32 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>61.9</v>
+        <v>56.6</v>
       </c>
       <c r="C53" t="n">
-        <v>61.8</v>
+        <v>56.5</v>
       </c>
       <c r="D53" t="n">
-        <v>62.2</v>
+        <v>56.6</v>
       </c>
       <c r="E53" t="n">
-        <v>61.6</v>
+        <v>56.5</v>
       </c>
       <c r="F53" t="n">
-        <v>151879.5547665595</v>
+        <v>24600.4041</v>
       </c>
       <c r="G53" t="n">
-        <v>61.34500000000003</v>
+        <v>-7734914.606830691</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
@@ -2526,30 +2418,32 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>61.8</v>
+        <v>56.2</v>
       </c>
       <c r="C54" t="n">
-        <v>61.5</v>
+        <v>56.1</v>
       </c>
       <c r="D54" t="n">
-        <v>62.3</v>
+        <v>56.2</v>
       </c>
       <c r="E54" t="n">
-        <v>61.4</v>
+        <v>56.1</v>
       </c>
       <c r="F54" t="n">
-        <v>215185.6092110754</v>
+        <v>18282.0511</v>
       </c>
       <c r="G54" t="n">
-        <v>61.38500000000003</v>
+        <v>-7753196.657930691</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>56.5</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
@@ -2566,30 +2460,32 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>61.5</v>
+        <v>56.1</v>
       </c>
       <c r="C55" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D55" t="n">
-        <v>61.5</v>
+        <v>56.1</v>
       </c>
       <c r="E55" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F55" t="n">
-        <v>202131.6068959283</v>
+        <v>55704.6252</v>
       </c>
       <c r="G55" t="n">
-        <v>61.45000000000002</v>
+        <v>-7808901.28313069</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>56.1</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
@@ -2606,30 +2502,32 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C56" t="n">
-        <v>60.5</v>
+        <v>56</v>
       </c>
       <c r="D56" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E56" t="n">
-        <v>60.5</v>
+        <v>55.6</v>
       </c>
       <c r="F56" t="n">
-        <v>50671.4001</v>
+        <v>52066.1977</v>
       </c>
       <c r="G56" t="n">
-        <v>61.49000000000002</v>
+        <v>-7808901.28313069</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>56</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
@@ -2646,30 +2544,32 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>60.6</v>
+        <v>56</v>
       </c>
       <c r="C57" t="n">
-        <v>60.8</v>
+        <v>56.4</v>
       </c>
       <c r="D57" t="n">
-        <v>61.2</v>
+        <v>56.4</v>
       </c>
       <c r="E57" t="n">
-        <v>60.5</v>
+        <v>55.8</v>
       </c>
       <c r="F57" t="n">
-        <v>78564.1185</v>
+        <v>52173.896</v>
       </c>
       <c r="G57" t="n">
-        <v>61.47500000000001</v>
+        <v>-7756727.387130691</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>56</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
@@ -2686,30 +2586,32 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>61.1</v>
+        <v>56.4</v>
       </c>
       <c r="C58" t="n">
-        <v>60.5</v>
+        <v>56.6</v>
       </c>
       <c r="D58" t="n">
-        <v>61.2</v>
+        <v>56.6</v>
       </c>
       <c r="E58" t="n">
-        <v>60.5</v>
+        <v>56.1</v>
       </c>
       <c r="F58" t="n">
-        <v>116139.4281</v>
+        <v>192225.5661910583</v>
       </c>
       <c r="G58" t="n">
-        <v>61.485</v>
+        <v>-7564501.820939632</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>56.4</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
@@ -2726,30 +2628,32 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>60.6</v>
+        <v>56.6</v>
       </c>
       <c r="C59" t="n">
-        <v>60.5</v>
+        <v>56.9</v>
       </c>
       <c r="D59" t="n">
-        <v>60.6</v>
+        <v>56.9</v>
       </c>
       <c r="E59" t="n">
-        <v>60.2</v>
+        <v>56.6</v>
       </c>
       <c r="F59" t="n">
-        <v>89447.45590718955</v>
+        <v>279065.0619</v>
       </c>
       <c r="G59" t="n">
-        <v>61.46999999999999</v>
+        <v>-7285436.759039632</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>56.6</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
@@ -2766,30 +2670,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>60.5</v>
+        <v>56.9</v>
       </c>
       <c r="C60" t="n">
-        <v>60.3</v>
+        <v>57.4</v>
       </c>
       <c r="D60" t="n">
-        <v>61.1</v>
+        <v>57.4</v>
       </c>
       <c r="E60" t="n">
-        <v>60.2</v>
+        <v>56.9</v>
       </c>
       <c r="F60" t="n">
-        <v>54673.07648330605</v>
+        <v>204193.3515</v>
       </c>
       <c r="G60" t="n">
-        <v>61.43499999999999</v>
+        <v>-7081243.407539632</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>56.9</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
@@ -2806,30 +2712,32 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>60.3</v>
+        <v>56.8</v>
       </c>
       <c r="C61" t="n">
-        <v>60.8</v>
+        <v>57.4</v>
       </c>
       <c r="D61" t="n">
-        <v>60.9</v>
+        <v>57.4</v>
       </c>
       <c r="E61" t="n">
-        <v>60</v>
+        <v>56.8</v>
       </c>
       <c r="F61" t="n">
-        <v>104233.1754</v>
+        <v>38665.15849808363</v>
       </c>
       <c r="G61" t="n">
-        <v>61.38999999999999</v>
+        <v>-7081243.407539632</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>57.4</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
@@ -2846,30 +2754,32 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>60.1</v>
+        <v>57.1</v>
       </c>
       <c r="C62" t="n">
-        <v>59.9</v>
+        <v>57.1</v>
       </c>
       <c r="D62" t="n">
-        <v>60.1</v>
+        <v>57.1</v>
       </c>
       <c r="E62" t="n">
-        <v>59.1</v>
+        <v>57.1</v>
       </c>
       <c r="F62" t="n">
-        <v>93689.6326</v>
+        <v>35310.5146</v>
       </c>
       <c r="G62" t="n">
-        <v>61.32999999999998</v>
+        <v>-7116553.922139633</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>57.4</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
@@ -2886,30 +2796,32 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>59.9</v>
+        <v>57.1</v>
       </c>
       <c r="C63" t="n">
-        <v>59.6</v>
+        <v>57.3</v>
       </c>
       <c r="D63" t="n">
-        <v>59.9</v>
+        <v>57.3</v>
       </c>
       <c r="E63" t="n">
-        <v>59.3</v>
+        <v>57.1</v>
       </c>
       <c r="F63" t="n">
-        <v>128052.9376</v>
+        <v>2663.60334904014</v>
       </c>
       <c r="G63" t="n">
-        <v>61.23499999999999</v>
+        <v>-7113890.318790592</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>57.1</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
@@ -2926,30 +2838,32 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>59.6</v>
+        <v>57.3</v>
       </c>
       <c r="C64" t="n">
-        <v>59</v>
+        <v>57.3</v>
       </c>
       <c r="D64" t="n">
-        <v>59.9</v>
+        <v>57.3</v>
       </c>
       <c r="E64" t="n">
-        <v>58.8</v>
+        <v>57.1</v>
       </c>
       <c r="F64" t="n">
-        <v>227863.3954</v>
+        <v>62545.3669</v>
       </c>
       <c r="G64" t="n">
-        <v>61.10999999999999</v>
+        <v>-7113890.318790592</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>57.3</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
@@ -2966,30 +2880,32 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>59</v>
+        <v>57.3</v>
       </c>
       <c r="C65" t="n">
-        <v>58.3</v>
+        <v>57.3</v>
       </c>
       <c r="D65" t="n">
-        <v>59</v>
+        <v>57.3</v>
       </c>
       <c r="E65" t="n">
-        <v>58.2</v>
+        <v>57.3</v>
       </c>
       <c r="F65" t="n">
-        <v>233605.6099</v>
+        <v>49721.0296</v>
       </c>
       <c r="G65" t="n">
-        <v>60.97499999999999</v>
+        <v>-7113890.318790592</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>57.3</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
@@ -3006,30 +2922,32 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>58.1</v>
+        <v>57.3</v>
       </c>
       <c r="C66" t="n">
         <v>57.5</v>
       </c>
       <c r="D66" t="n">
-        <v>58.1</v>
+        <v>57.5</v>
       </c>
       <c r="E66" t="n">
-        <v>57.5</v>
+        <v>57.3</v>
       </c>
       <c r="F66" t="n">
-        <v>74836.10060000001</v>
+        <v>96549.00395095986</v>
       </c>
       <c r="G66" t="n">
-        <v>60.80999999999998</v>
+        <v>-7017341.314839632</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>57.3</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
@@ -3046,22 +2964,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>57.4</v>
+        <v>57.5</v>
       </c>
       <c r="C67" t="n">
-        <v>57.8</v>
+        <v>57.7</v>
       </c>
       <c r="D67" t="n">
-        <v>57.8</v>
+        <v>57.7</v>
       </c>
       <c r="E67" t="n">
-        <v>57</v>
+        <v>57.5</v>
       </c>
       <c r="F67" t="n">
-        <v>410988.2761</v>
+        <v>81194.02100191638</v>
       </c>
       <c r="G67" t="n">
-        <v>60.60499999999998</v>
+        <v>-6936147.293837716</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3089,19 +3007,19 @@
         <v>57.7</v>
       </c>
       <c r="C68" t="n">
-        <v>58.3</v>
+        <v>56.4</v>
       </c>
       <c r="D68" t="n">
-        <v>58.5</v>
+        <v>57.7</v>
       </c>
       <c r="E68" t="n">
-        <v>57.5</v>
+        <v>56.4</v>
       </c>
       <c r="F68" t="n">
-        <v>128482.5190752137</v>
+        <v>41782.5085354121</v>
       </c>
       <c r="G68" t="n">
-        <v>60.41999999999998</v>
+        <v>-6977929.802373128</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3126,22 +3044,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>58.2</v>
+        <v>56.9</v>
       </c>
       <c r="C69" t="n">
-        <v>58.9</v>
+        <v>57.3</v>
       </c>
       <c r="D69" t="n">
-        <v>59.1</v>
+        <v>57.3</v>
       </c>
       <c r="E69" t="n">
-        <v>57.8</v>
+        <v>56.6</v>
       </c>
       <c r="F69" t="n">
-        <v>86465.8149</v>
+        <v>78669.1645</v>
       </c>
       <c r="G69" t="n">
-        <v>60.24999999999999</v>
+        <v>-6899260.637873128</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3166,22 +3084,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>58.8</v>
+        <v>57.3</v>
       </c>
       <c r="C70" t="n">
-        <v>58.8</v>
+        <v>57.4</v>
       </c>
       <c r="D70" t="n">
-        <v>58.8</v>
+        <v>57.5</v>
       </c>
       <c r="E70" t="n">
-        <v>58.8</v>
+        <v>57</v>
       </c>
       <c r="F70" t="n">
-        <v>8779.681</v>
+        <v>67304.9644979094</v>
       </c>
       <c r="G70" t="n">
-        <v>60.09499999999998</v>
+        <v>-6831955.673375219</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3206,22 +3124,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>58.8</v>
+        <v>57.4</v>
       </c>
       <c r="C71" t="n">
-        <v>58.5</v>
+        <v>56.9</v>
       </c>
       <c r="D71" t="n">
-        <v>58.8</v>
+        <v>57.4</v>
       </c>
       <c r="E71" t="n">
-        <v>58.3</v>
+        <v>56.9</v>
       </c>
       <c r="F71" t="n">
-        <v>41955.12093129252</v>
+        <v>14998.90930209059</v>
       </c>
       <c r="G71" t="n">
-        <v>59.94499999999998</v>
+        <v>-6846954.582677309</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3246,22 +3164,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>58.4</v>
+        <v>56.9</v>
       </c>
       <c r="C72" t="n">
-        <v>58.5</v>
+        <v>56.8</v>
       </c>
       <c r="D72" t="n">
-        <v>58.9</v>
+        <v>56.9</v>
       </c>
       <c r="E72" t="n">
-        <v>57.9</v>
+        <v>56.8</v>
       </c>
       <c r="F72" t="n">
-        <v>96036.55662658662</v>
+        <v>26490.2349</v>
       </c>
       <c r="G72" t="n">
-        <v>59.76499999999999</v>
+        <v>-6873444.817577309</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3286,22 +3204,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>58.5</v>
+        <v>56.4</v>
       </c>
       <c r="C73" t="n">
-        <v>57.8</v>
+        <v>56.8</v>
       </c>
       <c r="D73" t="n">
-        <v>58.5</v>
+        <v>56.9</v>
       </c>
       <c r="E73" t="n">
-        <v>57.8</v>
+        <v>56.4</v>
       </c>
       <c r="F73" t="n">
-        <v>55078.1228034188</v>
+        <v>40499.4065</v>
       </c>
       <c r="G73" t="n">
-        <v>59.59499999999998</v>
+        <v>-6873444.817577309</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3326,22 +3244,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>58.2</v>
+        <v>56.5</v>
       </c>
       <c r="C74" t="n">
-        <v>58.3</v>
+        <v>56.7</v>
       </c>
       <c r="D74" t="n">
-        <v>58.3</v>
+        <v>56.8</v>
       </c>
       <c r="E74" t="n">
-        <v>58.1</v>
+        <v>56.5</v>
       </c>
       <c r="F74" t="n">
-        <v>5112.5979</v>
+        <v>33848.76306619719</v>
       </c>
       <c r="G74" t="n">
-        <v>59.41499999999998</v>
+        <v>-6907293.580643506</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3366,22 +3284,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>58.4</v>
+        <v>56.7</v>
       </c>
       <c r="C75" t="n">
-        <v>58.9</v>
+        <v>56.8</v>
       </c>
       <c r="D75" t="n">
-        <v>58.9</v>
+        <v>56.9</v>
       </c>
       <c r="E75" t="n">
-        <v>58.3</v>
+        <v>56.7</v>
       </c>
       <c r="F75" t="n">
-        <v>44352.6073</v>
+        <v>15857.75063380282</v>
       </c>
       <c r="G75" t="n">
-        <v>59.25999999999999</v>
+        <v>-6891435.830009703</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3406,30 +3324,32 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>58.8</v>
+        <v>56.8</v>
       </c>
       <c r="C76" t="n">
-        <v>58.1</v>
+        <v>56.6</v>
       </c>
       <c r="D76" t="n">
-        <v>58.8</v>
+        <v>56.8</v>
       </c>
       <c r="E76" t="n">
-        <v>58.1</v>
+        <v>56.6</v>
       </c>
       <c r="F76" t="n">
-        <v>127342.7377</v>
+        <v>27263.39456619718</v>
       </c>
       <c r="G76" t="n">
-        <v>59.14999999999999</v>
+        <v>-6918699.2245759</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>56.8</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
@@ -3446,30 +3366,32 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>58.4</v>
+        <v>56.5</v>
       </c>
       <c r="C77" t="n">
-        <v>58.3</v>
+        <v>57</v>
       </c>
       <c r="D77" t="n">
-        <v>58.4</v>
+        <v>57</v>
       </c>
       <c r="E77" t="n">
-        <v>58.3</v>
+        <v>56.4</v>
       </c>
       <c r="F77" t="n">
-        <v>3585.5017</v>
+        <v>1051781.210060563</v>
       </c>
       <c r="G77" t="n">
-        <v>59.04</v>
+        <v>-5866918.014515337</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>56.6</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
@@ -3486,30 +3408,32 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>58.4</v>
+        <v>57</v>
       </c>
       <c r="C78" t="n">
-        <v>58.6</v>
+        <v>57</v>
       </c>
       <c r="D78" t="n">
-        <v>58.7</v>
+        <v>57</v>
       </c>
       <c r="E78" t="n">
-        <v>58.4</v>
+        <v>56.5</v>
       </c>
       <c r="F78" t="n">
-        <v>59207.8775</v>
+        <v>71002062.3602</v>
       </c>
       <c r="G78" t="n">
-        <v>58.90500000000001</v>
+        <v>-5866918.014515337</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>57</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
@@ -3526,22 +3450,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>58.5</v>
+        <v>57</v>
       </c>
       <c r="C79" t="n">
-        <v>58.7</v>
+        <v>57</v>
       </c>
       <c r="D79" t="n">
-        <v>58.7</v>
+        <v>57.1</v>
       </c>
       <c r="E79" t="n">
-        <v>58.5</v>
+        <v>56.7</v>
       </c>
       <c r="F79" t="n">
-        <v>20171.93201260647</v>
+        <v>127050494.0849</v>
       </c>
       <c r="G79" t="n">
-        <v>58.80000000000001</v>
+        <v>-5866918.014515337</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3566,22 +3490,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>58.7</v>
+        <v>57</v>
       </c>
       <c r="C80" t="n">
-        <v>59.2</v>
+        <v>57</v>
       </c>
       <c r="D80" t="n">
-        <v>59.2</v>
+        <v>57.1</v>
       </c>
       <c r="E80" t="n">
-        <v>58.7</v>
+        <v>56.7</v>
       </c>
       <c r="F80" t="n">
-        <v>42362.8567</v>
+        <v>136117335.1924093</v>
       </c>
       <c r="G80" t="n">
-        <v>58.71000000000002</v>
+        <v>-5866918.014515337</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3606,22 +3530,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C81" t="n">
-        <v>59.1</v>
+        <v>57</v>
       </c>
       <c r="D81" t="n">
-        <v>59.1</v>
+        <v>57</v>
       </c>
       <c r="E81" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F81" t="n">
-        <v>6565.1743</v>
+        <v>77357334.207</v>
       </c>
       <c r="G81" t="n">
-        <v>58.64500000000002</v>
+        <v>-5866918.014515337</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3646,22 +3570,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>59.1</v>
+        <v>57</v>
       </c>
       <c r="C82" t="n">
-        <v>58.9</v>
+        <v>57</v>
       </c>
       <c r="D82" t="n">
-        <v>59.1</v>
+        <v>57.1</v>
       </c>
       <c r="E82" t="n">
-        <v>58.9</v>
+        <v>57</v>
       </c>
       <c r="F82" t="n">
-        <v>57381.2367</v>
+        <v>31027540.44512807</v>
       </c>
       <c r="G82" t="n">
-        <v>58.59500000000001</v>
+        <v>-5866918.014515337</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3686,22 +3610,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>58.9</v>
+        <v>56.8</v>
       </c>
       <c r="C83" t="n">
-        <v>58.3</v>
+        <v>56.9</v>
       </c>
       <c r="D83" t="n">
-        <v>58.9</v>
+        <v>56.9</v>
       </c>
       <c r="E83" t="n">
-        <v>58.3</v>
+        <v>56.8</v>
       </c>
       <c r="F83" t="n">
-        <v>87363.1765</v>
+        <v>14836.3921</v>
       </c>
       <c r="G83" t="n">
-        <v>58.54500000000002</v>
+        <v>-5881754.406615336</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3726,22 +3650,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>58.4</v>
+        <v>56.9</v>
       </c>
       <c r="C84" t="n">
-        <v>58.1</v>
+        <v>57</v>
       </c>
       <c r="D84" t="n">
-        <v>58.4</v>
+        <v>57</v>
       </c>
       <c r="E84" t="n">
-        <v>58.1</v>
+        <v>56.9</v>
       </c>
       <c r="F84" t="n">
-        <v>1789.5405</v>
+        <v>12940.1231</v>
       </c>
       <c r="G84" t="n">
-        <v>58.48500000000003</v>
+        <v>-5868814.283515336</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3766,22 +3690,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>58.8</v>
+        <v>57</v>
       </c>
       <c r="C85" t="n">
-        <v>58.8</v>
+        <v>57.8</v>
       </c>
       <c r="D85" t="n">
-        <v>58.8</v>
+        <v>57.9</v>
       </c>
       <c r="E85" t="n">
-        <v>58.2</v>
+        <v>57</v>
       </c>
       <c r="F85" t="n">
-        <v>1550.612344897959</v>
+        <v>102060.1217671886</v>
       </c>
       <c r="G85" t="n">
-        <v>58.47500000000002</v>
+        <v>-5766754.161748148</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3806,22 +3730,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>58.3</v>
+        <v>57.7</v>
       </c>
       <c r="C86" t="n">
-        <v>58.3</v>
+        <v>57.7</v>
       </c>
       <c r="D86" t="n">
-        <v>58.3</v>
+        <v>57.7</v>
       </c>
       <c r="E86" t="n">
-        <v>58.2</v>
+        <v>57.7</v>
       </c>
       <c r="F86" t="n">
-        <v>63.4189</v>
+        <v>4326.6782</v>
       </c>
       <c r="G86" t="n">
-        <v>58.48500000000003</v>
+        <v>-5771080.839948148</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3846,22 +3770,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>58.3</v>
+        <v>57.6</v>
       </c>
       <c r="C87" t="n">
-        <v>58.9</v>
+        <v>57.6</v>
       </c>
       <c r="D87" t="n">
-        <v>58.9</v>
+        <v>57.7</v>
       </c>
       <c r="E87" t="n">
-        <v>58.3</v>
+        <v>57.6</v>
       </c>
       <c r="F87" t="n">
-        <v>31579.04921952462</v>
+        <v>50944.3488</v>
       </c>
       <c r="G87" t="n">
-        <v>58.53000000000002</v>
+        <v>-5822025.188748147</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3886,22 +3810,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>58.8</v>
+        <v>57.6</v>
       </c>
       <c r="C88" t="n">
-        <v>58.7</v>
+        <v>57.4</v>
       </c>
       <c r="D88" t="n">
-        <v>58.8</v>
+        <v>57.6</v>
       </c>
       <c r="E88" t="n">
-        <v>58.7</v>
+        <v>57.4</v>
       </c>
       <c r="F88" t="n">
-        <v>50</v>
+        <v>6087.418</v>
       </c>
       <c r="G88" t="n">
-        <v>58.58500000000002</v>
+        <v>-5828112.606748147</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3926,22 +3850,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>58.7</v>
+        <v>57.4</v>
       </c>
       <c r="C89" t="n">
-        <v>58.7</v>
+        <v>57.4</v>
       </c>
       <c r="D89" t="n">
-        <v>58.7</v>
+        <v>57.4</v>
       </c>
       <c r="E89" t="n">
-        <v>58.7</v>
+        <v>57.4</v>
       </c>
       <c r="F89" t="n">
-        <v>771.908</v>
+        <v>1715.5805</v>
       </c>
       <c r="G89" t="n">
-        <v>58.61000000000001</v>
+        <v>-5828112.606748147</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3966,22 +3890,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>58.5</v>
+        <v>57.4</v>
       </c>
       <c r="C90" t="n">
-        <v>58.5</v>
+        <v>57.4</v>
       </c>
       <c r="D90" t="n">
-        <v>58.5</v>
+        <v>57.4</v>
       </c>
       <c r="E90" t="n">
-        <v>58.3</v>
+        <v>57.4</v>
       </c>
       <c r="F90" t="n">
-        <v>16892.0843</v>
+        <v>1717.4446</v>
       </c>
       <c r="G90" t="n">
-        <v>58.59500000000001</v>
+        <v>-5828112.606748147</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4006,22 +3930,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>58.7</v>
+        <v>57.4</v>
       </c>
       <c r="C91" t="n">
-        <v>58.5</v>
+        <v>57.7</v>
       </c>
       <c r="D91" t="n">
-        <v>58.7</v>
+        <v>57.7</v>
       </c>
       <c r="E91" t="n">
-        <v>58.5</v>
+        <v>57.4</v>
       </c>
       <c r="F91" t="n">
-        <v>7857.6867</v>
+        <v>18002361.7356</v>
       </c>
       <c r="G91" t="n">
-        <v>58.59000000000002</v>
+        <v>12174249.12885185</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4046,22 +3970,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>58.6</v>
+        <v>57.7</v>
       </c>
       <c r="C92" t="n">
-        <v>59</v>
+        <v>57.7</v>
       </c>
       <c r="D92" t="n">
-        <v>59</v>
+        <v>57.8</v>
       </c>
       <c r="E92" t="n">
-        <v>58.5</v>
+        <v>57.7</v>
       </c>
       <c r="F92" t="n">
-        <v>42359.3764</v>
+        <v>134038003.0213991</v>
       </c>
       <c r="G92" t="n">
-        <v>58.60000000000001</v>
+        <v>12174249.12885185</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4086,22 +4010,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>59</v>
+        <v>57.7</v>
       </c>
       <c r="C93" t="n">
-        <v>59.3</v>
+        <v>58.8</v>
       </c>
       <c r="D93" t="n">
-        <v>59.3</v>
+        <v>58.8</v>
       </c>
       <c r="E93" t="n">
-        <v>59</v>
+        <v>57.7</v>
       </c>
       <c r="F93" t="n">
-        <v>45092.8559</v>
+        <v>28013085.02010879</v>
       </c>
       <c r="G93" t="n">
-        <v>58.62500000000001</v>
+        <v>40187334.14896064</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4126,22 +4050,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>59.4</v>
+        <v>58.5</v>
       </c>
       <c r="C94" t="n">
-        <v>60.1</v>
+        <v>58.8</v>
       </c>
       <c r="D94" t="n">
-        <v>60.1</v>
+        <v>58.8</v>
       </c>
       <c r="E94" t="n">
-        <v>59.4</v>
+        <v>58.5</v>
       </c>
       <c r="F94" t="n">
-        <v>76144.6759</v>
+        <v>9639.098599999999</v>
       </c>
       <c r="G94" t="n">
-        <v>58.68500000000002</v>
+        <v>40187334.14896064</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4166,22 +4090,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>60.1</v>
+        <v>58.8</v>
       </c>
       <c r="C95" t="n">
-        <v>60.1</v>
+        <v>58.3</v>
       </c>
       <c r="D95" t="n">
-        <v>60.1</v>
+        <v>58.8</v>
       </c>
       <c r="E95" t="n">
-        <v>59.8</v>
+        <v>58.3</v>
       </c>
       <c r="F95" t="n">
-        <v>86497.166</v>
+        <v>2041913.5914</v>
       </c>
       <c r="G95" t="n">
-        <v>58.77</v>
+        <v>38145420.55756065</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4206,22 +4130,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>60.1</v>
+        <v>58.3</v>
       </c>
       <c r="C96" t="n">
-        <v>60.3</v>
+        <v>58.3</v>
       </c>
       <c r="D96" t="n">
-        <v>60.3</v>
+        <v>58.3</v>
       </c>
       <c r="E96" t="n">
-        <v>59.8</v>
+        <v>58.2</v>
       </c>
       <c r="F96" t="n">
-        <v>112851.9075</v>
+        <v>139292804.9656</v>
       </c>
       <c r="G96" t="n">
-        <v>58.835</v>
+        <v>38145420.55756065</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4246,22 +4170,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>60.3</v>
+        <v>58.3</v>
       </c>
       <c r="C97" t="n">
-        <v>61</v>
+        <v>58.7</v>
       </c>
       <c r="D97" t="n">
-        <v>61</v>
+        <v>58.7</v>
       </c>
       <c r="E97" t="n">
-        <v>60.3</v>
+        <v>58.3</v>
       </c>
       <c r="F97" t="n">
-        <v>166866.9453465574</v>
+        <v>25886103.0504</v>
       </c>
       <c r="G97" t="n">
-        <v>58.92999999999999</v>
+        <v>64031523.60796064</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4286,22 +4210,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>60.9</v>
+        <v>58.7</v>
       </c>
       <c r="C98" t="n">
-        <v>60.9</v>
+        <v>58.8</v>
       </c>
       <c r="D98" t="n">
-        <v>60.9</v>
+        <v>59.2</v>
       </c>
       <c r="E98" t="n">
-        <v>60.6</v>
+        <v>58.7</v>
       </c>
       <c r="F98" t="n">
-        <v>17690.6378</v>
+        <v>38158.7024945946</v>
       </c>
       <c r="G98" t="n">
-        <v>59.05499999999999</v>
+        <v>64069682.31045523</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4326,22 +4250,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>60.7</v>
+        <v>59.1</v>
       </c>
       <c r="C99" t="n">
-        <v>60.3</v>
+        <v>59.1</v>
       </c>
       <c r="D99" t="n">
-        <v>60.7</v>
+        <v>59.2</v>
       </c>
       <c r="E99" t="n">
-        <v>60.3</v>
+        <v>59.1</v>
       </c>
       <c r="F99" t="n">
-        <v>45291.3193</v>
+        <v>26139.2919</v>
       </c>
       <c r="G99" t="n">
-        <v>59.165</v>
+        <v>64095821.60235523</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4366,22 +4290,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>60.2</v>
+        <v>58.9</v>
       </c>
       <c r="C100" t="n">
-        <v>59</v>
+        <v>59.3</v>
       </c>
       <c r="D100" t="n">
-        <v>60.2</v>
+        <v>59.4</v>
       </c>
       <c r="E100" t="n">
-        <v>59</v>
+        <v>58.9</v>
       </c>
       <c r="F100" t="n">
-        <v>127450.5766</v>
+        <v>158594.1741054054</v>
       </c>
       <c r="G100" t="n">
-        <v>59.23999999999999</v>
+        <v>64254415.77646064</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4406,22 +4330,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>59</v>
+        <v>59.5</v>
       </c>
       <c r="C101" t="n">
-        <v>59.8</v>
+        <v>60.1</v>
       </c>
       <c r="D101" t="n">
-        <v>59.8</v>
+        <v>60.1</v>
       </c>
       <c r="E101" t="n">
-        <v>59</v>
+        <v>59.5</v>
       </c>
       <c r="F101" t="n">
-        <v>122245.8598</v>
+        <v>211032.6491282303</v>
       </c>
       <c r="G101" t="n">
-        <v>59.23999999999999</v>
+        <v>64465448.42558887</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4446,22 +4370,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>59.8</v>
+        <v>60.1</v>
       </c>
       <c r="C102" t="n">
-        <v>59.7</v>
+        <v>60.2</v>
       </c>
       <c r="D102" t="n">
-        <v>59.8</v>
+        <v>60.3</v>
       </c>
       <c r="E102" t="n">
-        <v>59.5</v>
+        <v>59.9</v>
       </c>
       <c r="F102" t="n">
-        <v>63740.0684</v>
+        <v>306391.6086703151</v>
       </c>
       <c r="G102" t="n">
-        <v>59.275</v>
+        <v>64771840.03425919</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4486,22 +4410,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>59.7</v>
+        <v>60.2</v>
       </c>
       <c r="C103" t="n">
-        <v>59.7</v>
+        <v>61.3</v>
       </c>
       <c r="D103" t="n">
-        <v>59.7</v>
+        <v>61.3</v>
       </c>
       <c r="E103" t="n">
-        <v>59.3</v>
+        <v>60.2</v>
       </c>
       <c r="F103" t="n">
-        <v>75741.3897</v>
+        <v>685300.04550584</v>
       </c>
       <c r="G103" t="n">
-        <v>59.315</v>
+        <v>65457140.07976502</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4526,22 +4450,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>59.3</v>
+        <v>61.2</v>
       </c>
       <c r="C104" t="n">
-        <v>59.1</v>
+        <v>61.2</v>
       </c>
       <c r="D104" t="n">
-        <v>59.3</v>
+        <v>61.6</v>
       </c>
       <c r="E104" t="n">
-        <v>58.9</v>
+        <v>61.2</v>
       </c>
       <c r="F104" t="n">
-        <v>84596.1491</v>
+        <v>317710.3701</v>
       </c>
       <c r="G104" t="n">
-        <v>59.35999999999999</v>
+        <v>65139429.70966502</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4566,22 +4490,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C105" t="n">
-        <v>59</v>
+        <v>60.1</v>
       </c>
       <c r="D105" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E105" t="n">
-        <v>58.7</v>
+        <v>60.1</v>
       </c>
       <c r="F105" t="n">
-        <v>54131.5986</v>
+        <v>131476.6069</v>
       </c>
       <c r="G105" t="n">
-        <v>59.36999999999999</v>
+        <v>65007953.10276502</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4606,22 +4530,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>59</v>
+        <v>60.2</v>
       </c>
       <c r="C106" t="n">
-        <v>59.2</v>
+        <v>60.2</v>
       </c>
       <c r="D106" t="n">
-        <v>59.2</v>
+        <v>60.9</v>
       </c>
       <c r="E106" t="n">
-        <v>58.8</v>
+        <v>60.2</v>
       </c>
       <c r="F106" t="n">
-        <v>62048.0638</v>
+        <v>55163.8643</v>
       </c>
       <c r="G106" t="n">
-        <v>59.40499999999999</v>
+        <v>65063116.96706502</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4646,22 +4570,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>59.3</v>
+        <v>60.2</v>
       </c>
       <c r="C107" t="n">
-        <v>59.5</v>
+        <v>60.5</v>
       </c>
       <c r="D107" t="n">
-        <v>59.5</v>
+        <v>60.5</v>
       </c>
       <c r="E107" t="n">
-        <v>59.3</v>
+        <v>60.2</v>
       </c>
       <c r="F107" t="n">
-        <v>7213.8847</v>
+        <v>81173.9762</v>
       </c>
       <c r="G107" t="n">
-        <v>59.455</v>
+        <v>65144290.94326502</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4686,22 +4610,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>59.5</v>
+        <v>60.9</v>
       </c>
       <c r="C108" t="n">
-        <v>59.7</v>
+        <v>61</v>
       </c>
       <c r="D108" t="n">
-        <v>59.7</v>
+        <v>61</v>
       </c>
       <c r="E108" t="n">
-        <v>59.5</v>
+        <v>60.5</v>
       </c>
       <c r="F108" t="n">
-        <v>35996.5358</v>
+        <v>113259.972</v>
       </c>
       <c r="G108" t="n">
-        <v>59.48999999999999</v>
+        <v>65257550.91526502</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4726,22 +4650,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>59.7</v>
+        <v>60.9</v>
       </c>
       <c r="C109" t="n">
-        <v>59.4</v>
+        <v>60.6</v>
       </c>
       <c r="D109" t="n">
-        <v>59.8</v>
+        <v>61</v>
       </c>
       <c r="E109" t="n">
-        <v>59.4</v>
+        <v>60.6</v>
       </c>
       <c r="F109" t="n">
-        <v>30282.8016</v>
+        <v>68975.50900000001</v>
       </c>
       <c r="G109" t="n">
-        <v>59.54</v>
+        <v>65188575.40626502</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4766,22 +4690,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>59.4</v>
+        <v>60.9</v>
       </c>
       <c r="C110" t="n">
-        <v>59.7</v>
+        <v>61.1</v>
       </c>
       <c r="D110" t="n">
-        <v>59.8</v>
+        <v>61.1</v>
       </c>
       <c r="E110" t="n">
-        <v>59.4</v>
+        <v>60.9</v>
       </c>
       <c r="F110" t="n">
-        <v>34232.4331</v>
+        <v>264527.4579</v>
       </c>
       <c r="G110" t="n">
-        <v>59.585</v>
+        <v>65453102.86416502</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4806,22 +4730,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>59.7</v>
+        <v>61.2</v>
       </c>
       <c r="C111" t="n">
-        <v>59.7</v>
+        <v>61.2</v>
       </c>
       <c r="D111" t="n">
-        <v>59.7</v>
+        <v>61.2</v>
       </c>
       <c r="E111" t="n">
-        <v>59.7</v>
+        <v>61</v>
       </c>
       <c r="F111" t="n">
-        <v>10</v>
+        <v>68331.64030718955</v>
       </c>
       <c r="G111" t="n">
-        <v>59.63500000000001</v>
+        <v>65521434.50447221</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4846,22 +4770,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>59.6</v>
+        <v>61.2</v>
       </c>
       <c r="C112" t="n">
-        <v>59</v>
+        <v>61.3</v>
       </c>
       <c r="D112" t="n">
-        <v>59.6</v>
+        <v>61.4</v>
       </c>
       <c r="E112" t="n">
-        <v>59</v>
+        <v>61.2</v>
       </c>
       <c r="F112" t="n">
-        <v>76341.0919</v>
+        <v>90782.07819281046</v>
       </c>
       <c r="G112" t="n">
-        <v>59.685</v>
+        <v>65612216.58266502</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4886,22 +4810,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>59</v>
+        <v>61.3</v>
       </c>
       <c r="C113" t="n">
-        <v>58.7</v>
+        <v>61.7</v>
       </c>
       <c r="D113" t="n">
-        <v>59</v>
+        <v>61.7</v>
       </c>
       <c r="E113" t="n">
-        <v>58.7</v>
+        <v>61</v>
       </c>
       <c r="F113" t="n">
-        <v>132311.0229</v>
+        <v>306944.7903</v>
       </c>
       <c r="G113" t="n">
-        <v>59.685</v>
+        <v>65919161.37296502</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4926,22 +4850,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>59.2</v>
+        <v>61.8</v>
       </c>
       <c r="C114" t="n">
-        <v>59.3</v>
+        <v>61.8</v>
       </c>
       <c r="D114" t="n">
-        <v>59.3</v>
+        <v>62.4</v>
       </c>
       <c r="E114" t="n">
-        <v>59.2</v>
+        <v>61.8</v>
       </c>
       <c r="F114" t="n">
-        <v>505.9192563237774</v>
+        <v>533645.6855100961</v>
       </c>
       <c r="G114" t="n">
-        <v>59.675</v>
+        <v>66452807.05847511</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4966,22 +4890,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>59.3</v>
+        <v>62.1</v>
       </c>
       <c r="C115" t="n">
-        <v>59.2</v>
+        <v>61.7</v>
       </c>
       <c r="D115" t="n">
-        <v>59.3</v>
+        <v>62.1</v>
       </c>
       <c r="E115" t="n">
-        <v>59.2</v>
+        <v>61.2</v>
       </c>
       <c r="F115" t="n">
-        <v>674.821111161752</v>
+        <v>262414.0553</v>
       </c>
       <c r="G115" t="n">
-        <v>59.63500000000001</v>
+        <v>66190393.00317512</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5006,37 +4930,39 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>59.3</v>
+        <v>61.7</v>
       </c>
       <c r="C116" t="n">
-        <v>58.7</v>
+        <v>61.7</v>
       </c>
       <c r="D116" t="n">
-        <v>59.3</v>
+        <v>61.8</v>
       </c>
       <c r="E116" t="n">
-        <v>58.7</v>
+        <v>61.3</v>
       </c>
       <c r="F116" t="n">
-        <v>19107.29759224283</v>
+        <v>28493.5016</v>
       </c>
       <c r="G116" t="n">
-        <v>59.59500000000001</v>
+        <v>66190393.00317512</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M116" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
       <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
@@ -5044,32 +4970,36 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>59.2</v>
+        <v>61.4</v>
       </c>
       <c r="C117" t="n">
-        <v>58.9</v>
+        <v>61.6</v>
       </c>
       <c r="D117" t="n">
-        <v>59.2</v>
+        <v>61.7</v>
       </c>
       <c r="E117" t="n">
-        <v>58.6</v>
+        <v>61.3</v>
       </c>
       <c r="F117" t="n">
-        <v>20544.0558</v>
+        <v>73003.6982</v>
       </c>
       <c r="G117" t="n">
-        <v>59.54000000000001</v>
+        <v>66117389.30497511</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5080,32 +5010,36 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>58.9</v>
+        <v>61.5</v>
       </c>
       <c r="C118" t="n">
-        <v>58.9</v>
+        <v>61.5</v>
       </c>
       <c r="D118" t="n">
-        <v>58.9</v>
+        <v>61.6</v>
       </c>
       <c r="E118" t="n">
-        <v>58.9</v>
+        <v>61.1</v>
       </c>
       <c r="F118" t="n">
-        <v>2346.3055</v>
+        <v>139481.100200813</v>
       </c>
       <c r="G118" t="n">
-        <v>59.44000000000001</v>
+        <v>65977908.20477431</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5116,22 +5050,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>58.9</v>
+        <v>61.4</v>
       </c>
       <c r="C119" t="n">
-        <v>58.9</v>
+        <v>61.4</v>
       </c>
       <c r="D119" t="n">
-        <v>58.9</v>
+        <v>61.4</v>
       </c>
       <c r="E119" t="n">
-        <v>58.9</v>
+        <v>61.3</v>
       </c>
       <c r="F119" t="n">
-        <v>174.6010186757215</v>
+        <v>75264.49980000001</v>
       </c>
       <c r="G119" t="n">
-        <v>59.35000000000001</v>
+        <v>65902643.70497431</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5141,7 +5075,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5152,22 +5090,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>58.7</v>
+        <v>61.6</v>
       </c>
       <c r="C120" t="n">
-        <v>58.6</v>
+        <v>61.9</v>
       </c>
       <c r="D120" t="n">
-        <v>58.7</v>
+        <v>62</v>
       </c>
       <c r="E120" t="n">
-        <v>58.3</v>
+        <v>61.4</v>
       </c>
       <c r="F120" t="n">
-        <v>66685.89472047781</v>
+        <v>91790.3904</v>
       </c>
       <c r="G120" t="n">
-        <v>59.27500000000001</v>
+        <v>65994434.09537431</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5177,7 +5115,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5188,22 +5130,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>58.6</v>
+        <v>61.9</v>
       </c>
       <c r="C121" t="n">
-        <v>58.4</v>
+        <v>61.9</v>
       </c>
       <c r="D121" t="n">
-        <v>58.6</v>
+        <v>62</v>
       </c>
       <c r="E121" t="n">
-        <v>58.4</v>
+        <v>61.5</v>
       </c>
       <c r="F121" t="n">
-        <v>16057.2763</v>
+        <v>250318.2907887097</v>
       </c>
       <c r="G121" t="n">
-        <v>59.25500000000001</v>
+        <v>65994434.09537431</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5213,7 +5155,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5224,22 +5170,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>58.6</v>
+        <v>61.8</v>
       </c>
       <c r="C122" t="n">
-        <v>58.6</v>
+        <v>62</v>
       </c>
       <c r="D122" t="n">
-        <v>58.6</v>
+        <v>62</v>
       </c>
       <c r="E122" t="n">
-        <v>58.3</v>
+        <v>61.8</v>
       </c>
       <c r="F122" t="n">
-        <v>2852.7264</v>
+        <v>27991.04361129032</v>
       </c>
       <c r="G122" t="n">
-        <v>59.19500000000001</v>
+        <v>66022425.1389856</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5249,7 +5195,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5260,22 +5210,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>58.3</v>
+        <v>62</v>
       </c>
       <c r="C123" t="n">
-        <v>58.3</v>
+        <v>61.9</v>
       </c>
       <c r="D123" t="n">
-        <v>58.3</v>
+        <v>62.2</v>
       </c>
       <c r="E123" t="n">
-        <v>58.3</v>
+        <v>61.9</v>
       </c>
       <c r="F123" t="n">
-        <v>30426.2894</v>
+        <v>126089.8463</v>
       </c>
       <c r="G123" t="n">
-        <v>59.125</v>
+        <v>65896335.2926856</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5285,7 +5235,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5296,22 +5250,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>58.3</v>
+        <v>61.9</v>
       </c>
       <c r="C124" t="n">
-        <v>58.3</v>
+        <v>61.8</v>
       </c>
       <c r="D124" t="n">
-        <v>58.5</v>
+        <v>62.2</v>
       </c>
       <c r="E124" t="n">
-        <v>58.3</v>
+        <v>61.6</v>
       </c>
       <c r="F124" t="n">
-        <v>17700.0992</v>
+        <v>151879.5547665595</v>
       </c>
       <c r="G124" t="n">
-        <v>59.075</v>
+        <v>65744455.73791904</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5321,7 +5275,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5332,22 +5290,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>58.6</v>
+        <v>61.8</v>
       </c>
       <c r="C125" t="n">
-        <v>58.5</v>
+        <v>61.5</v>
       </c>
       <c r="D125" t="n">
-        <v>58.6</v>
+        <v>62.3</v>
       </c>
       <c r="E125" t="n">
-        <v>58.3</v>
+        <v>61.4</v>
       </c>
       <c r="F125" t="n">
-        <v>50032.9146</v>
+        <v>215185.6092110754</v>
       </c>
       <c r="G125" t="n">
-        <v>59.05499999999999</v>
+        <v>65529270.12870797</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5357,7 +5315,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5368,32 +5330,36 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>58.5</v>
+        <v>61.5</v>
       </c>
       <c r="C126" t="n">
-        <v>59.2</v>
+        <v>61</v>
       </c>
       <c r="D126" t="n">
-        <v>59.2</v>
+        <v>61.5</v>
       </c>
       <c r="E126" t="n">
-        <v>58.5</v>
+        <v>61</v>
       </c>
       <c r="F126" t="n">
-        <v>147592.4317795222</v>
+        <v>202131.6068959283</v>
       </c>
       <c r="G126" t="n">
-        <v>59.02999999999999</v>
+        <v>65327138.52181204</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5404,32 +5370,36 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>59.2</v>
+        <v>61</v>
       </c>
       <c r="C127" t="n">
-        <v>59.4</v>
+        <v>60.5</v>
       </c>
       <c r="D127" t="n">
-        <v>59.4</v>
+        <v>61</v>
       </c>
       <c r="E127" t="n">
-        <v>59.2</v>
+        <v>60.5</v>
       </c>
       <c r="F127" t="n">
-        <v>7143.599137837838</v>
+        <v>50671.4001</v>
       </c>
       <c r="G127" t="n">
-        <v>59.025</v>
+        <v>65276467.12171204</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5440,32 +5410,36 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>59.4</v>
+        <v>60.6</v>
       </c>
       <c r="C128" t="n">
-        <v>59.4</v>
+        <v>60.8</v>
       </c>
       <c r="D128" t="n">
-        <v>59.7</v>
+        <v>61.2</v>
       </c>
       <c r="E128" t="n">
-        <v>59.4</v>
+        <v>60.5</v>
       </c>
       <c r="F128" t="n">
-        <v>22910.1178</v>
+        <v>78564.1185</v>
       </c>
       <c r="G128" t="n">
-        <v>59.02</v>
+        <v>65355031.24021204</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5476,32 +5450,36 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>58.9</v>
+        <v>61.1</v>
       </c>
       <c r="C129" t="n">
-        <v>59.3</v>
+        <v>60.5</v>
       </c>
       <c r="D129" t="n">
-        <v>59.3</v>
+        <v>61.2</v>
       </c>
       <c r="E129" t="n">
-        <v>58.6</v>
+        <v>60.5</v>
       </c>
       <c r="F129" t="n">
-        <v>12790.9589</v>
+        <v>116139.4281</v>
       </c>
       <c r="G129" t="n">
-        <v>58.98</v>
+        <v>65238891.81211204</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5512,32 +5490,36 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>59.3</v>
+        <v>60.6</v>
       </c>
       <c r="C130" t="n">
-        <v>59.6</v>
+        <v>60.5</v>
       </c>
       <c r="D130" t="n">
-        <v>59.6</v>
+        <v>60.6</v>
       </c>
       <c r="E130" t="n">
-        <v>59</v>
+        <v>60.2</v>
       </c>
       <c r="F130" t="n">
-        <v>42322.49762372881</v>
+        <v>89447.45590718955</v>
       </c>
       <c r="G130" t="n">
-        <v>58.975</v>
+        <v>65238891.81211204</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5548,32 +5530,36 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>59</v>
+        <v>60.5</v>
       </c>
       <c r="C131" t="n">
-        <v>59</v>
+        <v>60.3</v>
       </c>
       <c r="D131" t="n">
-        <v>59.5</v>
+        <v>61.1</v>
       </c>
       <c r="E131" t="n">
-        <v>59</v>
+        <v>60.2</v>
       </c>
       <c r="F131" t="n">
-        <v>140667.37</v>
+        <v>54673.07648330605</v>
       </c>
       <c r="G131" t="n">
-        <v>58.94</v>
+        <v>65184218.73562873</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5584,32 +5570,36 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>58.9</v>
+        <v>60.3</v>
       </c>
       <c r="C132" t="n">
-        <v>58.9</v>
+        <v>60.8</v>
       </c>
       <c r="D132" t="n">
-        <v>58.9</v>
+        <v>60.9</v>
       </c>
       <c r="E132" t="n">
-        <v>58.9</v>
+        <v>60</v>
       </c>
       <c r="F132" t="n">
-        <v>6071.7912</v>
+        <v>104233.1754</v>
       </c>
       <c r="G132" t="n">
-        <v>58.90500000000001</v>
+        <v>65288451.91102873</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5620,32 +5610,36 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>58.9</v>
+        <v>60.1</v>
       </c>
       <c r="C133" t="n">
-        <v>59.2</v>
+        <v>59.9</v>
       </c>
       <c r="D133" t="n">
-        <v>59.2</v>
+        <v>60.1</v>
       </c>
       <c r="E133" t="n">
-        <v>58.9</v>
+        <v>59.1</v>
       </c>
       <c r="F133" t="n">
-        <v>10328.7119</v>
+        <v>93689.6326</v>
       </c>
       <c r="G133" t="n">
-        <v>58.90000000000001</v>
+        <v>65194762.27842873</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5656,32 +5650,36 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>59.2</v>
+        <v>59.9</v>
       </c>
       <c r="C134" t="n">
-        <v>58.9</v>
+        <v>59.6</v>
       </c>
       <c r="D134" t="n">
-        <v>59.2</v>
+        <v>59.9</v>
       </c>
       <c r="E134" t="n">
-        <v>58.9</v>
+        <v>59.3</v>
       </c>
       <c r="F134" t="n">
-        <v>737.1992</v>
+        <v>128052.9376</v>
       </c>
       <c r="G134" t="n">
-        <v>58.90000000000001</v>
+        <v>65066709.34082872</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5692,32 +5690,36 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="C135" t="n">
+        <v>59</v>
+      </c>
+      <c r="D135" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="E135" t="n">
         <v>58.8</v>
       </c>
-      <c r="C135" t="n">
-        <v>58.7</v>
-      </c>
-      <c r="D135" t="n">
-        <v>59.1</v>
-      </c>
-      <c r="E135" t="n">
-        <v>58.7</v>
-      </c>
       <c r="F135" t="n">
-        <v>15084.6957</v>
+        <v>227863.3954</v>
       </c>
       <c r="G135" t="n">
-        <v>58.87500000000001</v>
+        <v>64838845.94542872</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5728,32 +5730,36 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>58.7</v>
+        <v>59</v>
       </c>
       <c r="C136" t="n">
         <v>58.3</v>
       </c>
       <c r="D136" t="n">
-        <v>58.7</v>
+        <v>59</v>
       </c>
       <c r="E136" t="n">
-        <v>58.3</v>
+        <v>58.2</v>
       </c>
       <c r="F136" t="n">
-        <v>41739.6587</v>
+        <v>233605.6099</v>
       </c>
       <c r="G136" t="n">
-        <v>58.84500000000001</v>
+        <v>64605240.33552872</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5764,32 +5770,36 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>58.3</v>
+        <v>58.1</v>
       </c>
       <c r="C137" t="n">
-        <v>58.3</v>
+        <v>57.5</v>
       </c>
       <c r="D137" t="n">
-        <v>58.3</v>
+        <v>58.1</v>
       </c>
       <c r="E137" t="n">
-        <v>58.2</v>
+        <v>57.5</v>
       </c>
       <c r="F137" t="n">
-        <v>39034.7911</v>
+        <v>74836.10060000001</v>
       </c>
       <c r="G137" t="n">
-        <v>58.80000000000001</v>
+        <v>64530404.23492873</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5800,22 +5810,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>58.3</v>
+        <v>57.4</v>
       </c>
       <c r="C138" t="n">
-        <v>59.3</v>
+        <v>57.8</v>
       </c>
       <c r="D138" t="n">
-        <v>59.3</v>
+        <v>57.8</v>
       </c>
       <c r="E138" t="n">
-        <v>58.3</v>
+        <v>57</v>
       </c>
       <c r="F138" t="n">
-        <v>92417.5309</v>
+        <v>410988.2761</v>
       </c>
       <c r="G138" t="n">
-        <v>58.77</v>
+        <v>64941392.51102873</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5825,7 +5835,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5836,22 +5850,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>59.3</v>
+        <v>57.7</v>
       </c>
       <c r="C139" t="n">
-        <v>59.1</v>
+        <v>58.3</v>
       </c>
       <c r="D139" t="n">
-        <v>59.4</v>
+        <v>58.5</v>
       </c>
       <c r="E139" t="n">
-        <v>59.1</v>
+        <v>57.5</v>
       </c>
       <c r="F139" t="n">
-        <v>40632.11764080945</v>
+        <v>128482.5190752137</v>
       </c>
       <c r="G139" t="n">
-        <v>58.79</v>
+        <v>65069875.03010394</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5861,7 +5875,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5872,32 +5890,36 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>58.6</v>
+        <v>58.2</v>
       </c>
       <c r="C140" t="n">
         <v>58.9</v>
       </c>
       <c r="D140" t="n">
-        <v>58.9</v>
+        <v>59.1</v>
       </c>
       <c r="E140" t="n">
-        <v>58.6</v>
+        <v>57.8</v>
       </c>
       <c r="F140" t="n">
-        <v>8463.4112</v>
+        <v>86465.8149</v>
       </c>
       <c r="G140" t="n">
-        <v>58.78499999999999</v>
+        <v>65156340.84500395</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5908,32 +5930,36 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>58.7</v>
+        <v>58.8</v>
       </c>
       <c r="C141" t="n">
-        <v>58.3</v>
+        <v>58.8</v>
       </c>
       <c r="D141" t="n">
-        <v>58.9</v>
+        <v>58.8</v>
       </c>
       <c r="E141" t="n">
-        <v>58.3</v>
+        <v>58.8</v>
       </c>
       <c r="F141" t="n">
-        <v>19691.1727</v>
+        <v>8779.681</v>
       </c>
       <c r="G141" t="n">
-        <v>58.79</v>
+        <v>65147561.16400395</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5944,32 +5970,36 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>58.6</v>
+        <v>58.8</v>
       </c>
       <c r="C142" t="n">
-        <v>58.6</v>
+        <v>58.5</v>
       </c>
       <c r="D142" t="n">
-        <v>58.6</v>
+        <v>58.8</v>
       </c>
       <c r="E142" t="n">
-        <v>58.6</v>
+        <v>58.3</v>
       </c>
       <c r="F142" t="n">
-        <v>23752.5895</v>
+        <v>41955.12093129252</v>
       </c>
       <c r="G142" t="n">
-        <v>58.79</v>
+        <v>65105606.04307266</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5980,32 +6010,36 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>58.6</v>
+        <v>58.4</v>
       </c>
       <c r="C143" t="n">
-        <v>58.9</v>
+        <v>58.5</v>
       </c>
       <c r="D143" t="n">
         <v>58.9</v>
       </c>
       <c r="E143" t="n">
-        <v>58.5</v>
+        <v>57.9</v>
       </c>
       <c r="F143" t="n">
-        <v>20247.5519</v>
+        <v>96036.55662658662</v>
       </c>
       <c r="G143" t="n">
-        <v>58.80499999999999</v>
+        <v>65105606.04307266</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6016,32 +6050,36 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>58.9</v>
+        <v>58.5</v>
       </c>
       <c r="C144" t="n">
-        <v>58.9</v>
+        <v>57.8</v>
       </c>
       <c r="D144" t="n">
-        <v>58.9</v>
+        <v>58.5</v>
       </c>
       <c r="E144" t="n">
-        <v>58.9</v>
+        <v>57.8</v>
       </c>
       <c r="F144" t="n">
-        <v>48180.9645</v>
+        <v>55078.1228034188</v>
       </c>
       <c r="G144" t="n">
-        <v>58.835</v>
+        <v>65050527.92026924</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6052,32 +6090,36 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>58.8</v>
+        <v>58.2</v>
       </c>
       <c r="C145" t="n">
-        <v>58.7</v>
+        <v>58.3</v>
       </c>
       <c r="D145" t="n">
-        <v>58.8</v>
+        <v>58.3</v>
       </c>
       <c r="E145" t="n">
-        <v>58.7</v>
+        <v>58.1</v>
       </c>
       <c r="F145" t="n">
-        <v>176</v>
+        <v>5112.5979</v>
       </c>
       <c r="G145" t="n">
-        <v>58.84500000000001</v>
+        <v>65055640.51816924</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6088,32 +6130,36 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>58.7</v>
+        <v>58.4</v>
       </c>
       <c r="C146" t="n">
-        <v>58.7</v>
+        <v>58.9</v>
       </c>
       <c r="D146" t="n">
-        <v>58.7</v>
+        <v>58.9</v>
       </c>
       <c r="E146" t="n">
-        <v>58.7</v>
+        <v>58.3</v>
       </c>
       <c r="F146" t="n">
-        <v>29091.0562</v>
+        <v>44352.6073</v>
       </c>
       <c r="G146" t="n">
-        <v>58.855</v>
+        <v>65099993.12546924</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6124,32 +6170,36 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>58.6</v>
+        <v>58.8</v>
       </c>
       <c r="C147" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="D147" t="n">
         <v>58.8</v>
       </c>
-      <c r="D147" t="n">
-        <v>58.9</v>
-      </c>
       <c r="E147" t="n">
-        <v>58.5</v>
+        <v>58.1</v>
       </c>
       <c r="F147" t="n">
-        <v>9327.6405</v>
+        <v>127342.7377</v>
       </c>
       <c r="G147" t="n">
-        <v>58.825</v>
+        <v>64972650.38776924</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6160,32 +6210,36 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>58.6</v>
+        <v>58.4</v>
       </c>
       <c r="C148" t="n">
-        <v>58.6</v>
+        <v>58.3</v>
       </c>
       <c r="D148" t="n">
-        <v>58.6</v>
+        <v>58.4</v>
       </c>
       <c r="E148" t="n">
-        <v>58.6</v>
+        <v>58.3</v>
       </c>
       <c r="F148" t="n">
-        <v>10</v>
+        <v>3585.5017</v>
       </c>
       <c r="G148" t="n">
-        <v>58.78499999999999</v>
+        <v>64976235.88946924</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6196,22 +6250,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
+        <v>58.4</v>
+      </c>
+      <c r="C149" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="D149" t="n">
         <v>58.7</v>
       </c>
-      <c r="C149" t="n">
-        <v>58.7</v>
-      </c>
-      <c r="D149" t="n">
-        <v>58.8</v>
-      </c>
       <c r="E149" t="n">
-        <v>58.5</v>
+        <v>58.4</v>
       </c>
       <c r="F149" t="n">
-        <v>33115.3603</v>
+        <v>59207.8775</v>
       </c>
       <c r="G149" t="n">
-        <v>58.77499999999999</v>
+        <v>65035443.76696923</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6221,7 +6275,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6232,22 +6290,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="C150" t="n">
         <v>58.7</v>
       </c>
-      <c r="C150" t="n">
-        <v>58.8</v>
-      </c>
       <c r="D150" t="n">
-        <v>58.8</v>
+        <v>58.7</v>
       </c>
       <c r="E150" t="n">
-        <v>58.7</v>
+        <v>58.5</v>
       </c>
       <c r="F150" t="n">
-        <v>28925.5952</v>
+        <v>20171.93201260647</v>
       </c>
       <c r="G150" t="n">
-        <v>58.74499999999999</v>
+        <v>65055615.69898184</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6257,7 +6315,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6268,22 +6330,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>58.6</v>
+        <v>58.7</v>
       </c>
       <c r="C151" t="n">
-        <v>59.1</v>
+        <v>59.2</v>
       </c>
       <c r="D151" t="n">
-        <v>59.3</v>
+        <v>59.2</v>
       </c>
       <c r="E151" t="n">
-        <v>58.3</v>
+        <v>58.7</v>
       </c>
       <c r="F151" t="n">
-        <v>16031.316</v>
+        <v>42362.8567</v>
       </c>
       <c r="G151" t="n">
-        <v>58.72499999999999</v>
+        <v>65097978.55568185</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6293,7 +6355,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6304,35 +6370,37 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
+        <v>59</v>
+      </c>
+      <c r="C152" t="n">
         <v>59.1</v>
       </c>
-      <c r="C152" t="n">
-        <v>59</v>
-      </c>
       <c r="D152" t="n">
-        <v>59.3</v>
+        <v>59.1</v>
       </c>
       <c r="E152" t="n">
         <v>59</v>
       </c>
       <c r="F152" t="n">
-        <v>6031.9491</v>
+        <v>6565.1743</v>
       </c>
       <c r="G152" t="n">
-        <v>58.73499999999998</v>
+        <v>65091413.38138185</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
@@ -6340,28 +6408,28 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>58.9</v>
+        <v>59.1</v>
       </c>
       <c r="C153" t="n">
         <v>58.9</v>
       </c>
       <c r="D153" t="n">
-        <v>58.9</v>
+        <v>59.1</v>
       </c>
       <c r="E153" t="n">
         <v>58.9</v>
       </c>
       <c r="F153" t="n">
-        <v>10</v>
+        <v>57381.2367</v>
       </c>
       <c r="G153" t="n">
-        <v>58.73499999999998</v>
+        <v>65034032.14468185</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
@@ -6376,28 +6444,28 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>58.8</v>
+        <v>58.9</v>
       </c>
       <c r="C154" t="n">
-        <v>58.7</v>
+        <v>58.3</v>
       </c>
       <c r="D154" t="n">
-        <v>58.8</v>
+        <v>58.9</v>
       </c>
       <c r="E154" t="n">
-        <v>58.5</v>
+        <v>58.3</v>
       </c>
       <c r="F154" t="n">
-        <v>5719.2115</v>
+        <v>87363.1765</v>
       </c>
       <c r="G154" t="n">
-        <v>58.71499999999997</v>
+        <v>64946668.96818185</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
@@ -6412,28 +6480,28 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>58.7</v>
+        <v>58.4</v>
       </c>
       <c r="C155" t="n">
-        <v>58.7</v>
+        <v>58.1</v>
       </c>
       <c r="D155" t="n">
-        <v>58.7</v>
+        <v>58.4</v>
       </c>
       <c r="E155" t="n">
-        <v>58.5</v>
+        <v>58.1</v>
       </c>
       <c r="F155" t="n">
-        <v>680.1357</v>
+        <v>1789.5405</v>
       </c>
       <c r="G155" t="n">
-        <v>58.70999999999998</v>
+        <v>64944879.42768185</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
@@ -6448,22 +6516,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>58.5</v>
+        <v>58.8</v>
       </c>
       <c r="C156" t="n">
-        <v>58.3</v>
+        <v>58.8</v>
       </c>
       <c r="D156" t="n">
-        <v>58.5</v>
+        <v>58.8</v>
       </c>
       <c r="E156" t="n">
-        <v>58.3</v>
+        <v>58.2</v>
       </c>
       <c r="F156" t="n">
-        <v>32930.7963</v>
+        <v>1550.612344897959</v>
       </c>
       <c r="G156" t="n">
-        <v>58.69999999999997</v>
+        <v>64946430.04002675</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6484,28 +6552,28 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>58.2</v>
+        <v>58.3</v>
       </c>
       <c r="C157" t="n">
-        <v>58.6</v>
+        <v>58.3</v>
       </c>
       <c r="D157" t="n">
-        <v>58.7</v>
+        <v>58.3</v>
       </c>
       <c r="E157" t="n">
         <v>58.2</v>
       </c>
       <c r="F157" t="n">
-        <v>52164.8108</v>
+        <v>63.4189</v>
       </c>
       <c r="G157" t="n">
-        <v>58.69499999999998</v>
+        <v>64946366.62112675</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
@@ -6523,25 +6591,25 @@
         <v>58.3</v>
       </c>
       <c r="C158" t="n">
-        <v>58.7</v>
+        <v>58.9</v>
       </c>
       <c r="D158" t="n">
-        <v>58.7</v>
+        <v>58.9</v>
       </c>
       <c r="E158" t="n">
         <v>58.3</v>
       </c>
       <c r="F158" t="n">
-        <v>17725.6853</v>
+        <v>31579.04921952462</v>
       </c>
       <c r="G158" t="n">
-        <v>58.69499999999998</v>
+        <v>64977945.67034627</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
@@ -6556,28 +6624,28 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>58.5</v>
+        <v>58.8</v>
       </c>
       <c r="C159" t="n">
-        <v>58.6</v>
+        <v>58.7</v>
       </c>
       <c r="D159" t="n">
-        <v>58.6</v>
+        <v>58.8</v>
       </c>
       <c r="E159" t="n">
-        <v>57.9</v>
+        <v>58.7</v>
       </c>
       <c r="F159" t="n">
-        <v>162202.4161</v>
+        <v>50</v>
       </c>
       <c r="G159" t="n">
-        <v>58.65499999999999</v>
+        <v>64977895.67034627</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
@@ -6592,28 +6660,28 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>58.5</v>
+        <v>58.7</v>
       </c>
       <c r="C160" t="n">
-        <v>58.1</v>
+        <v>58.7</v>
       </c>
       <c r="D160" t="n">
-        <v>58.5</v>
+        <v>58.7</v>
       </c>
       <c r="E160" t="n">
-        <v>58.1</v>
+        <v>58.7</v>
       </c>
       <c r="F160" t="n">
-        <v>49034.5936</v>
+        <v>771.908</v>
       </c>
       <c r="G160" t="n">
-        <v>58.64999999999999</v>
+        <v>64977895.67034627</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
@@ -6631,25 +6699,25 @@
         <v>58.5</v>
       </c>
       <c r="C161" t="n">
-        <v>58.3</v>
+        <v>58.5</v>
       </c>
       <c r="D161" t="n">
         <v>58.5</v>
       </c>
       <c r="E161" t="n">
-        <v>58.1</v>
+        <v>58.3</v>
       </c>
       <c r="F161" t="n">
-        <v>124252.0975</v>
+        <v>16892.0843</v>
       </c>
       <c r="G161" t="n">
-        <v>58.63999999999999</v>
+        <v>64961003.58604628</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
@@ -6664,28 +6732,28 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>58.3</v>
+        <v>58.7</v>
       </c>
       <c r="C162" t="n">
-        <v>58.4</v>
+        <v>58.5</v>
       </c>
       <c r="D162" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="E162" t="n">
         <v>58.5</v>
       </c>
-      <c r="E162" t="n">
-        <v>58.3</v>
-      </c>
       <c r="F162" t="n">
-        <v>9930</v>
+        <v>7857.6867</v>
       </c>
       <c r="G162" t="n">
-        <v>58.62499999999999</v>
+        <v>64961003.58604628</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
@@ -6700,28 +6768,28 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>58.2</v>
+        <v>58.6</v>
       </c>
       <c r="C163" t="n">
-        <v>58.3</v>
+        <v>59</v>
       </c>
       <c r="D163" t="n">
-        <v>58.3</v>
+        <v>59</v>
       </c>
       <c r="E163" t="n">
-        <v>58.1</v>
+        <v>58.5</v>
       </c>
       <c r="F163" t="n">
-        <v>28491.4051</v>
+        <v>42359.3764</v>
       </c>
       <c r="G163" t="n">
-        <v>58.605</v>
+        <v>65003362.96244628</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
@@ -6736,28 +6804,28 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>58.1</v>
+        <v>59</v>
       </c>
       <c r="C164" t="n">
-        <v>58</v>
+        <v>59.3</v>
       </c>
       <c r="D164" t="n">
-        <v>58.1</v>
+        <v>59.3</v>
       </c>
       <c r="E164" t="n">
-        <v>57.7</v>
+        <v>59</v>
       </c>
       <c r="F164" t="n">
-        <v>174569.7526</v>
+        <v>45092.8559</v>
       </c>
       <c r="G164" t="n">
-        <v>58.56499999999998</v>
+        <v>65048455.81834628</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
@@ -6772,28 +6840,28 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>57.7</v>
+        <v>59.4</v>
       </c>
       <c r="C165" t="n">
-        <v>57.6</v>
+        <v>60.1</v>
       </c>
       <c r="D165" t="n">
-        <v>58</v>
+        <v>60.1</v>
       </c>
       <c r="E165" t="n">
-        <v>57.6</v>
+        <v>59.4</v>
       </c>
       <c r="F165" t="n">
-        <v>47770.4521</v>
+        <v>76144.6759</v>
       </c>
       <c r="G165" t="n">
-        <v>58.50999999999999</v>
+        <v>65124600.49424627</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
@@ -6808,28 +6876,28 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>57.8</v>
+        <v>60.1</v>
       </c>
       <c r="C166" t="n">
-        <v>57.9</v>
+        <v>60.1</v>
       </c>
       <c r="D166" t="n">
-        <v>57.9</v>
+        <v>60.1</v>
       </c>
       <c r="E166" t="n">
-        <v>57.6</v>
+        <v>59.8</v>
       </c>
       <c r="F166" t="n">
-        <v>48743.4991</v>
+        <v>86497.166</v>
       </c>
       <c r="G166" t="n">
-        <v>58.46499999999999</v>
+        <v>65124600.49424627</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
@@ -6844,28 +6912,28 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>57.9</v>
+        <v>60.1</v>
       </c>
       <c r="C167" t="n">
-        <v>58</v>
+        <v>60.3</v>
       </c>
       <c r="D167" t="n">
-        <v>58</v>
+        <v>60.3</v>
       </c>
       <c r="E167" t="n">
-        <v>57.7</v>
+        <v>59.8</v>
       </c>
       <c r="F167" t="n">
-        <v>63188.3149</v>
+        <v>112851.9075</v>
       </c>
       <c r="G167" t="n">
-        <v>58.42999999999999</v>
+        <v>65237452.40174627</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
@@ -6880,28 +6948,28 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>58</v>
+        <v>60.3</v>
       </c>
       <c r="C168" t="n">
-        <v>58.3</v>
+        <v>61</v>
       </c>
       <c r="D168" t="n">
-        <v>58.3</v>
+        <v>61</v>
       </c>
       <c r="E168" t="n">
-        <v>57.8</v>
+        <v>60.3</v>
       </c>
       <c r="F168" t="n">
-        <v>48238.2601</v>
+        <v>166866.9453465574</v>
       </c>
       <c r="G168" t="n">
-        <v>58.4</v>
+        <v>65404319.34709283</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
@@ -6916,28 +6984,28 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>58.2</v>
+        <v>60.9</v>
       </c>
       <c r="C169" t="n">
-        <v>58.2</v>
+        <v>60.9</v>
       </c>
       <c r="D169" t="n">
-        <v>58.2</v>
+        <v>60.9</v>
       </c>
       <c r="E169" t="n">
-        <v>57.9</v>
+        <v>60.6</v>
       </c>
       <c r="F169" t="n">
-        <v>70972</v>
+        <v>17690.6378</v>
       </c>
       <c r="G169" t="n">
-        <v>58.375</v>
+        <v>65386628.70929283</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
@@ -6952,28 +7020,28 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>58.2</v>
+        <v>60.7</v>
       </c>
       <c r="C170" t="n">
-        <v>58.2</v>
+        <v>60.3</v>
       </c>
       <c r="D170" t="n">
-        <v>58.2</v>
+        <v>60.7</v>
       </c>
       <c r="E170" t="n">
-        <v>58.2</v>
+        <v>60.3</v>
       </c>
       <c r="F170" t="n">
-        <v>44787.1855</v>
+        <v>45291.3193</v>
       </c>
       <c r="G170" t="n">
-        <v>58.35</v>
+        <v>65341337.38999283</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
@@ -6988,28 +7056,28 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>58.2</v>
+        <v>60.2</v>
       </c>
       <c r="C171" t="n">
-        <v>58.2</v>
+        <v>59</v>
       </c>
       <c r="D171" t="n">
-        <v>58.3</v>
+        <v>60.2</v>
       </c>
       <c r="E171" t="n">
-        <v>58.2</v>
+        <v>59</v>
       </c>
       <c r="F171" t="n">
-        <v>45836.1674</v>
+        <v>127450.5766</v>
       </c>
       <c r="G171" t="n">
-        <v>58.33000000000001</v>
+        <v>65213886.81339283</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
@@ -7024,28 +7092,28 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>58.1</v>
+        <v>59</v>
       </c>
       <c r="C172" t="n">
-        <v>57.8</v>
+        <v>59.8</v>
       </c>
       <c r="D172" t="n">
-        <v>58.3</v>
+        <v>59.8</v>
       </c>
       <c r="E172" t="n">
-        <v>57.5</v>
+        <v>59</v>
       </c>
       <c r="F172" t="n">
-        <v>97868.3855</v>
+        <v>122245.8598</v>
       </c>
       <c r="G172" t="n">
-        <v>58.28000000000001</v>
+        <v>65336132.67319283</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
@@ -7060,28 +7128,28 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>57.8</v>
+        <v>59.8</v>
       </c>
       <c r="C173" t="n">
-        <v>58.1</v>
+        <v>59.7</v>
       </c>
       <c r="D173" t="n">
-        <v>58.2</v>
+        <v>59.8</v>
       </c>
       <c r="E173" t="n">
-        <v>57.8</v>
+        <v>59.5</v>
       </c>
       <c r="F173" t="n">
-        <v>38043.0902</v>
+        <v>63740.0684</v>
       </c>
       <c r="G173" t="n">
-        <v>58.225</v>
+        <v>65272392.60479283</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
@@ -7096,28 +7164,28 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>58.1</v>
+        <v>59.7</v>
       </c>
       <c r="C174" t="n">
-        <v>58</v>
+        <v>59.7</v>
       </c>
       <c r="D174" t="n">
-        <v>58.1</v>
+        <v>59.7</v>
       </c>
       <c r="E174" t="n">
-        <v>57.2</v>
+        <v>59.3</v>
       </c>
       <c r="F174" t="n">
-        <v>32722.653</v>
+        <v>75741.3897</v>
       </c>
       <c r="G174" t="n">
-        <v>58.19</v>
+        <v>65272392.60479283</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
@@ -7132,28 +7200,28 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>57.5</v>
+        <v>59.3</v>
       </c>
       <c r="C175" t="n">
-        <v>58</v>
+        <v>59.1</v>
       </c>
       <c r="D175" t="n">
-        <v>58</v>
+        <v>59.3</v>
       </c>
       <c r="E175" t="n">
-        <v>57.4</v>
+        <v>58.9</v>
       </c>
       <c r="F175" t="n">
-        <v>572.9535</v>
+        <v>84596.1491</v>
       </c>
       <c r="G175" t="n">
-        <v>58.13</v>
+        <v>65187796.45569283</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
@@ -7168,28 +7236,28 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>57.9</v>
+        <v>59</v>
       </c>
       <c r="C176" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D176" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E176" t="n">
-        <v>57.9</v>
+        <v>58.7</v>
       </c>
       <c r="F176" t="n">
-        <v>1080</v>
+        <v>54131.5986</v>
       </c>
       <c r="G176" t="n">
-        <v>58.1</v>
+        <v>65133664.85709283</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
@@ -7204,28 +7272,28 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>57.6</v>
+        <v>59</v>
       </c>
       <c r="C177" t="n">
-        <v>57.7</v>
+        <v>59.2</v>
       </c>
       <c r="D177" t="n">
-        <v>57.7</v>
+        <v>59.2</v>
       </c>
       <c r="E177" t="n">
-        <v>57.4</v>
+        <v>58.8</v>
       </c>
       <c r="F177" t="n">
-        <v>10620.688</v>
+        <v>62048.0638</v>
       </c>
       <c r="G177" t="n">
-        <v>58.06999999999999</v>
+        <v>65195712.92089283</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
@@ -7240,28 +7308,28 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>57.4</v>
+        <v>59.3</v>
       </c>
       <c r="C178" t="n">
-        <v>57</v>
+        <v>59.5</v>
       </c>
       <c r="D178" t="n">
-        <v>57.4</v>
+        <v>59.5</v>
       </c>
       <c r="E178" t="n">
-        <v>57</v>
+        <v>59.3</v>
       </c>
       <c r="F178" t="n">
-        <v>121435.8214</v>
+        <v>7213.8847</v>
       </c>
       <c r="G178" t="n">
-        <v>58.025</v>
+        <v>65202926.80559283</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
@@ -7276,28 +7344,28 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>57</v>
+        <v>59.5</v>
       </c>
       <c r="C179" t="n">
-        <v>57.8</v>
+        <v>59.7</v>
       </c>
       <c r="D179" t="n">
-        <v>57.8</v>
+        <v>59.7</v>
       </c>
       <c r="E179" t="n">
-        <v>57</v>
+        <v>59.5</v>
       </c>
       <c r="F179" t="n">
-        <v>20170</v>
+        <v>35996.5358</v>
       </c>
       <c r="G179" t="n">
-        <v>57.95</v>
+        <v>65238923.34139283</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
@@ -7312,28 +7380,28 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>57.5</v>
+        <v>59.7</v>
       </c>
       <c r="C180" t="n">
-        <v>57</v>
+        <v>59.4</v>
       </c>
       <c r="D180" t="n">
-        <v>57.5</v>
+        <v>59.8</v>
       </c>
       <c r="E180" t="n">
-        <v>57</v>
+        <v>59.4</v>
       </c>
       <c r="F180" t="n">
-        <v>46603.59226020942</v>
+        <v>30282.8016</v>
       </c>
       <c r="G180" t="n">
-        <v>57.9</v>
+        <v>65208640.53979283</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
@@ -7348,28 +7416,28 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>57.3</v>
+        <v>59.4</v>
       </c>
       <c r="C181" t="n">
-        <v>57.3</v>
+        <v>59.7</v>
       </c>
       <c r="D181" t="n">
-        <v>57.3</v>
+        <v>59.8</v>
       </c>
       <c r="E181" t="n">
-        <v>57.3</v>
+        <v>59.4</v>
       </c>
       <c r="F181" t="n">
-        <v>55</v>
+        <v>34232.4331</v>
       </c>
       <c r="G181" t="n">
-        <v>57.84</v>
+        <v>65242872.97289283</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
@@ -7384,28 +7452,28 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>57.1</v>
+        <v>59.7</v>
       </c>
       <c r="C182" t="n">
-        <v>57.7</v>
+        <v>59.7</v>
       </c>
       <c r="D182" t="n">
-        <v>57.7</v>
+        <v>59.7</v>
       </c>
       <c r="E182" t="n">
-        <v>57</v>
+        <v>59.7</v>
       </c>
       <c r="F182" t="n">
-        <v>39284.9676</v>
+        <v>10</v>
       </c>
       <c r="G182" t="n">
-        <v>57.77999999999999</v>
+        <v>65242872.97289283</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
@@ -7420,28 +7488,28 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>57.6</v>
+        <v>59.6</v>
       </c>
       <c r="C183" t="n">
-        <v>57.5</v>
+        <v>59</v>
       </c>
       <c r="D183" t="n">
-        <v>57.6</v>
+        <v>59.6</v>
       </c>
       <c r="E183" t="n">
-        <v>57.5</v>
+        <v>59</v>
       </c>
       <c r="F183" t="n">
-        <v>5155</v>
+        <v>76341.0919</v>
       </c>
       <c r="G183" t="n">
-        <v>57.74999999999999</v>
+        <v>65166531.88099283</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
@@ -7456,28 +7524,28 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>57.5</v>
+        <v>59</v>
       </c>
       <c r="C184" t="n">
-        <v>57.5</v>
+        <v>58.7</v>
       </c>
       <c r="D184" t="n">
-        <v>57.5</v>
+        <v>59</v>
       </c>
       <c r="E184" t="n">
-        <v>57.5</v>
+        <v>58.7</v>
       </c>
       <c r="F184" t="n">
-        <v>130</v>
+        <v>132311.0229</v>
       </c>
       <c r="G184" t="n">
-        <v>57.71999999999999</v>
+        <v>65034220.85809283</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
@@ -7492,22 +7560,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>57.5</v>
+        <v>59.2</v>
       </c>
       <c r="C185" t="n">
-        <v>57.3</v>
+        <v>59.3</v>
       </c>
       <c r="D185" t="n">
-        <v>57.5</v>
+        <v>59.3</v>
       </c>
       <c r="E185" t="n">
-        <v>57.3</v>
+        <v>59.2</v>
       </c>
       <c r="F185" t="n">
-        <v>17118.90426956522</v>
+        <v>505.9192563237774</v>
       </c>
       <c r="G185" t="n">
-        <v>57.70999999999999</v>
+        <v>65034726.77734915</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7528,28 +7596,28 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>57.2</v>
+        <v>59.3</v>
       </c>
       <c r="C186" t="n">
-        <v>57.5</v>
+        <v>59.2</v>
       </c>
       <c r="D186" t="n">
-        <v>57.5</v>
+        <v>59.3</v>
       </c>
       <c r="E186" t="n">
-        <v>57</v>
+        <v>59.2</v>
       </c>
       <c r="F186" t="n">
-        <v>37298.3751</v>
+        <v>674.821111161752</v>
       </c>
       <c r="G186" t="n">
-        <v>57.67999999999999</v>
+        <v>65034051.95623799</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
@@ -7564,28 +7632,28 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>57</v>
+        <v>59.3</v>
       </c>
       <c r="C187" t="n">
-        <v>57.4</v>
+        <v>58.7</v>
       </c>
       <c r="D187" t="n">
-        <v>57.4</v>
+        <v>59.3</v>
       </c>
       <c r="E187" t="n">
-        <v>57</v>
+        <v>58.7</v>
       </c>
       <c r="F187" t="n">
-        <v>3647.7821</v>
+        <v>19107.29759224283</v>
       </c>
       <c r="G187" t="n">
-        <v>57.63499999999999</v>
+        <v>65014944.65864574</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
@@ -7600,22 +7668,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>57.4</v>
+        <v>59.2</v>
       </c>
       <c r="C188" t="n">
-        <v>57.5</v>
+        <v>58.9</v>
       </c>
       <c r="D188" t="n">
-        <v>57.5</v>
+        <v>59.2</v>
       </c>
       <c r="E188" t="n">
-        <v>57.4</v>
+        <v>58.6</v>
       </c>
       <c r="F188" t="n">
-        <v>620</v>
+        <v>20544.0558</v>
       </c>
       <c r="G188" t="n">
-        <v>57.605</v>
+        <v>65035488.71444574</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7636,22 +7704,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>57.1</v>
+        <v>58.9</v>
       </c>
       <c r="C189" t="n">
-        <v>57.2</v>
+        <v>58.9</v>
       </c>
       <c r="D189" t="n">
-        <v>57.3</v>
+        <v>58.9</v>
       </c>
       <c r="E189" t="n">
-        <v>56.7</v>
+        <v>58.9</v>
       </c>
       <c r="F189" t="n">
-        <v>141804.7276</v>
+        <v>2346.3055</v>
       </c>
       <c r="G189" t="n">
-        <v>57.54999999999999</v>
+        <v>65035488.71444574</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7672,22 +7740,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>57.3</v>
+        <v>58.9</v>
       </c>
       <c r="C190" t="n">
-        <v>57.2</v>
+        <v>58.9</v>
       </c>
       <c r="D190" t="n">
-        <v>57.3</v>
+        <v>58.9</v>
       </c>
       <c r="E190" t="n">
-        <v>57.2</v>
+        <v>58.9</v>
       </c>
       <c r="F190" t="n">
-        <v>26984.8951</v>
+        <v>174.6010186757215</v>
       </c>
       <c r="G190" t="n">
-        <v>57.50499999999998</v>
+        <v>65035488.71444574</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7703,6 +7771,2562 @@
       </c>
       <c r="N190" t="inlineStr"/>
     </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="C191" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="D191" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="E191" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="F191" t="n">
+        <v>66685.89472047781</v>
+      </c>
+      <c r="G191" t="n">
+        <v>64968802.81972526</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="C192" t="n">
+        <v>58.4</v>
+      </c>
+      <c r="D192" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="E192" t="n">
+        <v>58.4</v>
+      </c>
+      <c r="F192" t="n">
+        <v>16057.2763</v>
+      </c>
+      <c r="G192" t="n">
+        <v>64952745.54342526</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="C193" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="D193" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="E193" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="F193" t="n">
+        <v>2852.7264</v>
+      </c>
+      <c r="G193" t="n">
+        <v>64955598.26982526</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="C194" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="D194" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="E194" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="F194" t="n">
+        <v>30426.2894</v>
+      </c>
+      <c r="G194" t="n">
+        <v>64925171.98042527</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="C195" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="D195" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="E195" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="F195" t="n">
+        <v>17700.0992</v>
+      </c>
+      <c r="G195" t="n">
+        <v>64925171.98042527</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="C196" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="D196" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="E196" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="F196" t="n">
+        <v>50032.9146</v>
+      </c>
+      <c r="G196" t="n">
+        <v>64975204.89502527</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="C197" t="n">
+        <v>59.2</v>
+      </c>
+      <c r="D197" t="n">
+        <v>59.2</v>
+      </c>
+      <c r="E197" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="F197" t="n">
+        <v>147592.4317795222</v>
+      </c>
+      <c r="G197" t="n">
+        <v>65122797.32680479</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>59.2</v>
+      </c>
+      <c r="C198" t="n">
+        <v>59.4</v>
+      </c>
+      <c r="D198" t="n">
+        <v>59.4</v>
+      </c>
+      <c r="E198" t="n">
+        <v>59.2</v>
+      </c>
+      <c r="F198" t="n">
+        <v>7143.599137837838</v>
+      </c>
+      <c r="G198" t="n">
+        <v>65129940.92594262</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>59.4</v>
+      </c>
+      <c r="C199" t="n">
+        <v>59.4</v>
+      </c>
+      <c r="D199" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="E199" t="n">
+        <v>59.4</v>
+      </c>
+      <c r="F199" t="n">
+        <v>22910.1178</v>
+      </c>
+      <c r="G199" t="n">
+        <v>65129940.92594262</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="C200" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="D200" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="E200" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="F200" t="n">
+        <v>12790.9589</v>
+      </c>
+      <c r="G200" t="n">
+        <v>65117149.96704262</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>1</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="C201" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="D201" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="E201" t="n">
+        <v>59</v>
+      </c>
+      <c r="F201" t="n">
+        <v>42322.49762372881</v>
+      </c>
+      <c r="G201" t="n">
+        <v>65159472.46466635</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>59</v>
+      </c>
+      <c r="C202" t="n">
+        <v>59</v>
+      </c>
+      <c r="D202" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="E202" t="n">
+        <v>59</v>
+      </c>
+      <c r="F202" t="n">
+        <v>140667.37</v>
+      </c>
+      <c r="G202" t="n">
+        <v>65018805.09466635</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>1</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="C203" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="D203" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="E203" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="F203" t="n">
+        <v>6071.7912</v>
+      </c>
+      <c r="G203" t="n">
+        <v>65012733.30346636</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="C204" t="n">
+        <v>59.2</v>
+      </c>
+      <c r="D204" t="n">
+        <v>59.2</v>
+      </c>
+      <c r="E204" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="F204" t="n">
+        <v>10328.7119</v>
+      </c>
+      <c r="G204" t="n">
+        <v>65023062.01536636</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>59.2</v>
+      </c>
+      <c r="C205" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="D205" t="n">
+        <v>59.2</v>
+      </c>
+      <c r="E205" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="F205" t="n">
+        <v>737.1992</v>
+      </c>
+      <c r="G205" t="n">
+        <v>65022324.81616636</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="C206" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="D206" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="E206" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="F206" t="n">
+        <v>15084.6957</v>
+      </c>
+      <c r="G206" t="n">
+        <v>65007240.12046637</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>1</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="C207" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="D207" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="E207" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="F207" t="n">
+        <v>41739.6587</v>
+      </c>
+      <c r="G207" t="n">
+        <v>64965500.46176637</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>1</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="C208" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="D208" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="E208" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="F208" t="n">
+        <v>39034.7911</v>
+      </c>
+      <c r="G208" t="n">
+        <v>64965500.46176637</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="C209" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="D209" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="E209" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="F209" t="n">
+        <v>92417.5309</v>
+      </c>
+      <c r="G209" t="n">
+        <v>65057917.99266637</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="C210" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="D210" t="n">
+        <v>59.4</v>
+      </c>
+      <c r="E210" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="F210" t="n">
+        <v>40632.11764080945</v>
+      </c>
+      <c r="G210" t="n">
+        <v>65017285.87502556</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>1</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="C211" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="D211" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="E211" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="F211" t="n">
+        <v>8463.4112</v>
+      </c>
+      <c r="G211" t="n">
+        <v>65008822.46382556</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="C212" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="D212" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="E212" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="F212" t="n">
+        <v>19691.1727</v>
+      </c>
+      <c r="G212" t="n">
+        <v>64989131.29112556</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="C213" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="D213" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="E213" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="F213" t="n">
+        <v>23752.5895</v>
+      </c>
+      <c r="G213" t="n">
+        <v>65012883.88062556</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="C214" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="D214" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="E214" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="F214" t="n">
+        <v>20247.5519</v>
+      </c>
+      <c r="G214" t="n">
+        <v>65033131.43252556</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="C215" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="D215" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="E215" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="F215" t="n">
+        <v>48180.9645</v>
+      </c>
+      <c r="G215" t="n">
+        <v>65033131.43252556</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="C216" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="D216" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="E216" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="F216" t="n">
+        <v>176</v>
+      </c>
+      <c r="G216" t="n">
+        <v>65032955.43252556</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="C217" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="D217" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="E217" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="F217" t="n">
+        <v>29091.0562</v>
+      </c>
+      <c r="G217" t="n">
+        <v>65032955.43252556</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="C218" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="D218" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="E218" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="F218" t="n">
+        <v>9327.6405</v>
+      </c>
+      <c r="G218" t="n">
+        <v>65042283.07302556</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="C219" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="D219" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="E219" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="F219" t="n">
+        <v>10</v>
+      </c>
+      <c r="G219" t="n">
+        <v>65042273.07302556</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="C220" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="D220" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="E220" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="F220" t="n">
+        <v>33115.3603</v>
+      </c>
+      <c r="G220" t="n">
+        <v>65075388.43332556</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="C221" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="D221" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="E221" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="F221" t="n">
+        <v>28925.5952</v>
+      </c>
+      <c r="G221" t="n">
+        <v>65104314.02852556</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="C222" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="D222" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="E222" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="F222" t="n">
+        <v>16031.316</v>
+      </c>
+      <c r="G222" t="n">
+        <v>65120345.34452556</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="C223" t="n">
+        <v>59</v>
+      </c>
+      <c r="D223" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="E223" t="n">
+        <v>59</v>
+      </c>
+      <c r="F223" t="n">
+        <v>6031.9491</v>
+      </c>
+      <c r="G223" t="n">
+        <v>65114313.39542556</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="C224" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="D224" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="E224" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="F224" t="n">
+        <v>10</v>
+      </c>
+      <c r="G224" t="n">
+        <v>65114303.39542556</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="C225" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="D225" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="E225" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="F225" t="n">
+        <v>5719.2115</v>
+      </c>
+      <c r="G225" t="n">
+        <v>65108584.18392556</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="C226" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="D226" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="E226" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="F226" t="n">
+        <v>680.1357</v>
+      </c>
+      <c r="G226" t="n">
+        <v>65108584.18392556</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>1</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="C227" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="D227" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="E227" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="F227" t="n">
+        <v>32930.7963</v>
+      </c>
+      <c r="G227" t="n">
+        <v>65075653.38762556</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="C228" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="D228" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="E228" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="F228" t="n">
+        <v>52164.8108</v>
+      </c>
+      <c r="G228" t="n">
+        <v>65127818.19842556</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="C229" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="D229" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="E229" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="F229" t="n">
+        <v>17725.6853</v>
+      </c>
+      <c r="G229" t="n">
+        <v>65145543.88372556</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="C230" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="D230" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="E230" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="F230" t="n">
+        <v>162202.4161</v>
+      </c>
+      <c r="G230" t="n">
+        <v>64983341.46762556</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>1</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="C231" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="D231" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="E231" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="F231" t="n">
+        <v>49034.5936</v>
+      </c>
+      <c r="G231" t="n">
+        <v>64934306.87402556</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="C232" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="D232" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="E232" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="F232" t="n">
+        <v>124252.0975</v>
+      </c>
+      <c r="G232" t="n">
+        <v>65058558.97152556</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="C233" t="n">
+        <v>58.4</v>
+      </c>
+      <c r="D233" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="E233" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="F233" t="n">
+        <v>9930</v>
+      </c>
+      <c r="G233" t="n">
+        <v>65068488.97152556</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="C234" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="D234" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="E234" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="F234" t="n">
+        <v>28491.4051</v>
+      </c>
+      <c r="G234" t="n">
+        <v>65039997.56642555</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="C235" t="n">
+        <v>58</v>
+      </c>
+      <c r="D235" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="E235" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="F235" t="n">
+        <v>174569.7526</v>
+      </c>
+      <c r="G235" t="n">
+        <v>64865427.81382556</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="C236" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="D236" t="n">
+        <v>58</v>
+      </c>
+      <c r="E236" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="F236" t="n">
+        <v>47770.4521</v>
+      </c>
+      <c r="G236" t="n">
+        <v>64817657.36172555</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="C237" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="D237" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="E237" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="F237" t="n">
+        <v>48743.4991</v>
+      </c>
+      <c r="G237" t="n">
+        <v>64866400.86082555</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="C238" t="n">
+        <v>58</v>
+      </c>
+      <c r="D238" t="n">
+        <v>58</v>
+      </c>
+      <c r="E238" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="F238" t="n">
+        <v>63188.3149</v>
+      </c>
+      <c r="G238" t="n">
+        <v>64929589.17572556</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>58</v>
+      </c>
+      <c r="C239" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="D239" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="E239" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="F239" t="n">
+        <v>48238.2601</v>
+      </c>
+      <c r="G239" t="n">
+        <v>64977827.43582556</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="C240" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="D240" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="E240" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="F240" t="n">
+        <v>70972</v>
+      </c>
+      <c r="G240" t="n">
+        <v>64906855.43582556</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="C241" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="D241" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="E241" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="F241" t="n">
+        <v>44787.1855</v>
+      </c>
+      <c r="G241" t="n">
+        <v>64906855.43582556</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="C242" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="D242" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="E242" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="F242" t="n">
+        <v>45836.1674</v>
+      </c>
+      <c r="G242" t="n">
+        <v>64906855.43582556</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="C243" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="D243" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="E243" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="F243" t="n">
+        <v>97868.3855</v>
+      </c>
+      <c r="G243" t="n">
+        <v>64808987.05032556</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="C244" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="D244" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="E244" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="F244" t="n">
+        <v>38043.0902</v>
+      </c>
+      <c r="G244" t="n">
+        <v>64847030.14052556</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="C245" t="n">
+        <v>58</v>
+      </c>
+      <c r="D245" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="E245" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="F245" t="n">
+        <v>32722.653</v>
+      </c>
+      <c r="G245" t="n">
+        <v>64814307.48752556</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="C246" t="n">
+        <v>58</v>
+      </c>
+      <c r="D246" t="n">
+        <v>58</v>
+      </c>
+      <c r="E246" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="F246" t="n">
+        <v>572.9535</v>
+      </c>
+      <c r="G246" t="n">
+        <v>64814307.48752556</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="C247" t="n">
+        <v>58</v>
+      </c>
+      <c r="D247" t="n">
+        <v>58</v>
+      </c>
+      <c r="E247" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1080</v>
+      </c>
+      <c r="G247" t="n">
+        <v>64814307.48752556</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="C248" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="D248" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="E248" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="F248" t="n">
+        <v>10620.688</v>
+      </c>
+      <c r="G248" t="n">
+        <v>64803686.79952556</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="C249" t="n">
+        <v>57</v>
+      </c>
+      <c r="D249" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="E249" t="n">
+        <v>57</v>
+      </c>
+      <c r="F249" t="n">
+        <v>121435.8214</v>
+      </c>
+      <c r="G249" t="n">
+        <v>64682250.97812556</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+      <c r="N249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>57</v>
+      </c>
+      <c r="C250" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="D250" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="E250" t="n">
+        <v>57</v>
+      </c>
+      <c r="F250" t="n">
+        <v>20170</v>
+      </c>
+      <c r="G250" t="n">
+        <v>64702420.97812556</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="C251" t="n">
+        <v>57</v>
+      </c>
+      <c r="D251" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="E251" t="n">
+        <v>57</v>
+      </c>
+      <c r="F251" t="n">
+        <v>46603.59226020942</v>
+      </c>
+      <c r="G251" t="n">
+        <v>64655817.38586535</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+      <c r="N251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="C252" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="D252" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="E252" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="F252" t="n">
+        <v>55</v>
+      </c>
+      <c r="G252" t="n">
+        <v>64655872.38586535</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="C253" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="D253" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="E253" t="n">
+        <v>57</v>
+      </c>
+      <c r="F253" t="n">
+        <v>39284.9676</v>
+      </c>
+      <c r="G253" t="n">
+        <v>64695157.35346535</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="C254" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="D254" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="E254" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="F254" t="n">
+        <v>5155</v>
+      </c>
+      <c r="G254" t="n">
+        <v>64690002.35346535</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="n">
+        <v>1</v>
+      </c>
+      <c r="N254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="C255" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="D255" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="E255" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="F255" t="n">
+        <v>130</v>
+      </c>
+      <c r="G255" t="n">
+        <v>64690002.35346535</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="n">
+        <v>1</v>
+      </c>
+      <c r="N255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="C256" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="D256" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="E256" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="F256" t="n">
+        <v>17118.90426956522</v>
+      </c>
+      <c r="G256" t="n">
+        <v>64672883.44919578</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="n">
+        <v>1</v>
+      </c>
+      <c r="N256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="C257" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="D257" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="E257" t="n">
+        <v>57</v>
+      </c>
+      <c r="F257" t="n">
+        <v>37298.3751</v>
+      </c>
+      <c r="G257" t="n">
+        <v>64710181.82429578</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="n">
+        <v>1</v>
+      </c>
+      <c r="N257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>57</v>
+      </c>
+      <c r="C258" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="D258" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="E258" t="n">
+        <v>57</v>
+      </c>
+      <c r="F258" t="n">
+        <v>3647.7821</v>
+      </c>
+      <c r="G258" t="n">
+        <v>64706534.04219578</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="n">
+        <v>1</v>
+      </c>
+      <c r="N258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="C259" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="D259" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="E259" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="F259" t="n">
+        <v>620</v>
+      </c>
+      <c r="G259" t="n">
+        <v>64707154.04219578</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="n">
+        <v>1</v>
+      </c>
+      <c r="N259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="C260" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="D260" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="E260" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F260" t="n">
+        <v>141804.7276</v>
+      </c>
+      <c r="G260" t="n">
+        <v>64565349.31459578</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="n">
+        <v>1</v>
+      </c>
+      <c r="N260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="C261" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="D261" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="E261" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="F261" t="n">
+        <v>26984.8951</v>
+      </c>
+      <c r="G261" t="n">
+        <v>64565349.31459578</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="n">
+        <v>1</v>
+      </c>
+      <c r="N261" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-29 BackTest TRV.xlsx
+++ b/BackTest/2019-10-29 BackTest TRV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -682,7 +682,7 @@
         <v>-4664883.729670295</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-4664883.729670295</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-4557746.973770295</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-4503418.500070295</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-4405389.614970296</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-4054989.998484134</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-4054989.998484134</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-4266697.539884134</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-4312739.195884135</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-4481333.642984135</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-4481333.642984135</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-4438279.775784135</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-4577207.479484135</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-4661776.032384135</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-4768287.431978232</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-5059639.910510493</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-5248120.301279764</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-5093945.601964144</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-4877021.6833603</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-4944775.91357844</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-5340918.446615278</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-5415612.169515278</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-5315769.116931636</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-5316151.720431636</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-5763729.172131636</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-6117154.009990861</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-6234547.930590861</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1575,9 +1575,15 @@
       <c r="H36" t="n">
         <v>1</v>
       </c>
-      <c r="I36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>56.7</v>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1608,9 +1614,15 @@
       <c r="H37" t="n">
         <v>1</v>
       </c>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>56</v>
+      </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1641,9 +1653,15 @@
       <c r="H38" t="n">
         <v>1</v>
       </c>
-      <c r="I38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>56.6</v>
+      </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1690,17 @@
         <v>-8055132.06295719</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>56</v>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1707,9 +1731,15 @@
       <c r="H40" t="n">
         <v>1</v>
       </c>
-      <c r="I40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>55.9</v>
+      </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1768,17 @@
         <v>-7890281.534395582</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>56.8</v>
+      </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1807,17 @@
         <v>-7765762.39504339</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>56.9</v>
+      </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1846,17 @@
         <v>-7623749.96094339</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>57.3</v>
+      </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +1885,17 @@
         <v>-7521779.036743389</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>57.5</v>
+      </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1872,9 +1926,15 @@
       <c r="H45" t="n">
         <v>1</v>
       </c>
-      <c r="I45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>57.7</v>
+      </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1905,9 +1965,15 @@
       <c r="H46" t="n">
         <v>1</v>
       </c>
-      <c r="I46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>58</v>
+      </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1938,9 +2004,15 @@
       <c r="H47" t="n">
         <v>1</v>
       </c>
-      <c r="I47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>57.6</v>
+      </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1971,9 +2043,15 @@
       <c r="H48" t="n">
         <v>1</v>
       </c>
-      <c r="I48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>57.4</v>
+      </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2004,9 +2082,15 @@
       <c r="H49" t="n">
         <v>1</v>
       </c>
-      <c r="I49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>57.2</v>
+      </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2119,17 @@
         <v>-7871743.583509136</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>56.4</v>
+      </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2158,17 @@
         <v>-7734914.606830691</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>56.1</v>
+      </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2197,17 @@
         <v>-7734914.606830691</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>56.5</v>
+      </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2236,17 @@
         <v>-7734914.606830691</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>56.5</v>
+      </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,7 +2275,7 @@
         <v>-7753196.657930691</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>56.5</v>
@@ -2175,7 +2283,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -2206,7 +2314,7 @@
         <v>-7808901.28313069</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>56.1</v>
@@ -2245,7 +2353,7 @@
         <v>-7808901.28313069</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>56</v>
@@ -2284,7 +2392,7 @@
         <v>-7756727.387130691</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>56</v>
@@ -2323,7 +2431,7 @@
         <v>-7564501.820939632</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>56.4</v>
@@ -2362,7 +2470,7 @@
         <v>-7285436.759039632</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>56.6</v>
@@ -2401,7 +2509,7 @@
         <v>-7081243.407539632</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>56.9</v>
@@ -2440,7 +2548,7 @@
         <v>-7081243.407539632</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>57.4</v>
@@ -2479,7 +2587,7 @@
         <v>-7116553.922139633</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>57.4</v>
@@ -2518,7 +2626,7 @@
         <v>-7113890.318790592</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>57.1</v>
@@ -2557,7 +2665,7 @@
         <v>-7113890.318790592</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>57.3</v>
@@ -2596,7 +2704,7 @@
         <v>-7113890.318790592</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>57.3</v>
@@ -2635,7 +2743,7 @@
         <v>-7017341.314839632</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>57.3</v>
@@ -2674,7 +2782,7 @@
         <v>-6936147.293837716</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>57.5</v>
@@ -2713,7 +2821,7 @@
         <v>-6977929.802373128</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>57.7</v>
@@ -2752,7 +2860,7 @@
         <v>-6899260.637873128</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>56.4</v>
@@ -2791,9 +2899,11 @@
         <v>-6831955.673375219</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>57.3</v>
+      </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
@@ -2828,9 +2938,11 @@
         <v>-6846954.582677309</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>57.4</v>
+      </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -2865,7 +2977,7 @@
         <v>-6873444.817577309</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>56.9</v>
@@ -2904,7 +3016,7 @@
         <v>-6873444.817577309</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>56.8</v>
@@ -2943,7 +3055,7 @@
         <v>-6907293.580643506</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>56.8</v>
@@ -2982,7 +3094,7 @@
         <v>-6891435.830009703</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>56.7</v>
@@ -3021,7 +3133,7 @@
         <v>-6918699.2245759</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>56.8</v>
@@ -3060,7 +3172,7 @@
         <v>-5866918.014515337</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>56.6</v>
@@ -3099,7 +3211,7 @@
         <v>-5866918.014515337</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>57</v>
@@ -3397,9 +3509,11 @@
         <v>-5771080.839948148</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>57.8</v>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3434,9 +3548,11 @@
         <v>-5822025.188748147</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>57.7</v>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -3471,9 +3587,11 @@
         <v>-5828112.606748147</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>57.6</v>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -3508,9 +3626,11 @@
         <v>-5828112.606748147</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>57.4</v>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
@@ -3545,9 +3665,11 @@
         <v>-5828112.606748147</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>57.4</v>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
@@ -3582,9 +3704,11 @@
         <v>12174249.12885185</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>57.4</v>
+      </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
@@ -3619,9 +3743,11 @@
         <v>12174249.12885185</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>57.7</v>
+      </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
@@ -4803,16 +4929,18 @@
         <v>65744455.73791904</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
       <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
@@ -4842,7 +4970,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4875,7 +5007,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4908,7 +5044,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4941,7 +5081,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4974,7 +5118,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5007,7 +5155,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5040,7 +5192,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5073,7 +5229,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5106,7 +5266,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5139,7 +5303,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5172,7 +5340,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5201,11 +5373,15 @@
         <v>64605240.33552872</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5234,11 +5410,15 @@
         <v>64530404.23492873</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5271,7 +5451,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5304,7 +5488,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5337,7 +5525,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5370,7 +5562,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5403,7 +5599,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5436,7 +5636,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5469,7 +5673,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5502,7 +5710,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5531,14 +5743,16 @@
         <v>65099993.12546924</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
@@ -5564,7 +5778,7 @@
         <v>64972650.38776924</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5597,7 +5811,7 @@
         <v>64976235.88946924</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5630,7 +5844,7 @@
         <v>65035443.76696923</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5663,7 +5877,7 @@
         <v>65055615.69898184</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5696,7 +5910,7 @@
         <v>65097978.55568185</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5729,7 +5943,7 @@
         <v>65091413.38138185</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5762,7 +5976,7 @@
         <v>65034032.14468185</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5795,7 +6009,7 @@
         <v>64946668.96818185</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5828,7 +6042,7 @@
         <v>64944879.42768185</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5861,7 +6075,7 @@
         <v>64946430.04002675</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5894,7 +6108,7 @@
         <v>64946366.62112675</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5927,7 +6141,7 @@
         <v>64977945.67034627</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5960,7 +6174,7 @@
         <v>64977895.67034627</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5993,7 +6207,7 @@
         <v>64977895.67034627</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6026,7 +6240,7 @@
         <v>64961003.58604628</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6059,7 +6273,7 @@
         <v>64961003.58604628</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6092,7 +6306,7 @@
         <v>65003362.96244628</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6125,7 +6339,7 @@
         <v>65048455.81834628</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6158,7 +6372,7 @@
         <v>65124600.49424627</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6191,7 +6405,7 @@
         <v>65124600.49424627</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6224,7 +6438,7 @@
         <v>65237452.40174627</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6257,7 +6471,7 @@
         <v>65404319.34709283</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6290,7 +6504,7 @@
         <v>65386628.70929283</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6323,7 +6537,7 @@
         <v>65341337.38999283</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6356,7 +6570,7 @@
         <v>65213886.81339283</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6389,7 +6603,7 @@
         <v>65336132.67319283</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6422,7 +6636,7 @@
         <v>65272392.60479283</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6455,7 +6669,7 @@
         <v>65272392.60479283</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6488,7 +6702,7 @@
         <v>65187796.45569283</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6521,7 +6735,7 @@
         <v>65133664.85709283</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6554,7 +6768,7 @@
         <v>65195712.92089283</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6587,7 +6801,7 @@
         <v>65202926.80559283</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6620,7 +6834,7 @@
         <v>65238923.34139283</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6653,7 +6867,7 @@
         <v>65208640.53979283</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6686,7 +6900,7 @@
         <v>65242872.97289283</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6719,7 +6933,7 @@
         <v>65242872.97289283</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6752,7 +6966,7 @@
         <v>65166531.88099283</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6785,7 +6999,7 @@
         <v>65034220.85809283</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6818,7 +7032,7 @@
         <v>65034726.77734915</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6851,7 +7065,7 @@
         <v>65034051.95623799</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6884,7 +7098,7 @@
         <v>65014944.65864574</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6917,7 +7131,7 @@
         <v>65035488.71444574</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6950,7 +7164,7 @@
         <v>65035488.71444574</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6983,7 +7197,7 @@
         <v>65035488.71444574</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7016,7 +7230,7 @@
         <v>64968802.81972526</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7049,7 +7263,7 @@
         <v>64952745.54342526</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7082,7 +7296,7 @@
         <v>64955598.26982526</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7115,7 +7329,7 @@
         <v>64925171.98042527</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7148,7 +7362,7 @@
         <v>64925171.98042527</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7181,7 +7395,7 @@
         <v>64975204.89502527</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7214,7 +7428,7 @@
         <v>65122797.32680479</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7247,7 +7461,7 @@
         <v>65129940.92594262</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7280,7 +7494,7 @@
         <v>65129940.92594262</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7313,7 +7527,7 @@
         <v>65117149.96704262</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7346,7 +7560,7 @@
         <v>65159472.46466635</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7379,7 +7593,7 @@
         <v>65018805.09466635</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7412,7 +7626,7 @@
         <v>65012733.30346636</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7445,7 +7659,7 @@
         <v>65023062.01536636</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7478,7 +7692,7 @@
         <v>65022324.81616636</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7511,7 +7725,7 @@
         <v>65007240.12046637</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7544,7 +7758,7 @@
         <v>64965500.46176637</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7577,7 +7791,7 @@
         <v>64965500.46176637</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7610,7 +7824,7 @@
         <v>65057917.99266637</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7643,7 +7857,7 @@
         <v>65017285.87502556</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7676,7 +7890,7 @@
         <v>65008822.46382556</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7709,7 +7923,7 @@
         <v>64989131.29112556</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7742,7 +7956,7 @@
         <v>65012883.88062556</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7775,7 +7989,7 @@
         <v>65033131.43252556</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7808,7 +8022,7 @@
         <v>65033131.43252556</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7841,7 +8055,7 @@
         <v>65032955.43252556</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7874,7 +8088,7 @@
         <v>65032955.43252556</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7907,7 +8121,7 @@
         <v>65042283.07302556</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7940,7 +8154,7 @@
         <v>65042273.07302556</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7973,7 +8187,7 @@
         <v>65075388.43332556</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8006,7 +8220,7 @@
         <v>65104314.02852556</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8039,7 +8253,7 @@
         <v>65120345.34452556</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8072,7 +8286,7 @@
         <v>65114313.39542556</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8105,7 +8319,7 @@
         <v>65114303.39542556</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8138,7 +8352,7 @@
         <v>65108584.18392556</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8171,7 +8385,7 @@
         <v>65108584.18392556</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8204,7 +8418,7 @@
         <v>65075653.38762556</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8237,7 +8451,7 @@
         <v>65127818.19842556</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8270,7 +8484,7 @@
         <v>65145543.88372556</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8303,7 +8517,7 @@
         <v>64983341.46762556</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8336,7 +8550,7 @@
         <v>64934306.87402556</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8369,7 +8583,7 @@
         <v>65058558.97152556</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8402,7 +8616,7 @@
         <v>65068488.97152556</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8435,7 +8649,7 @@
         <v>65039997.56642555</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8468,7 +8682,7 @@
         <v>64865427.81382556</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8534,7 +8748,7 @@
         <v>64866400.86082555</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8963,7 +9177,7 @@
         <v>64702420.97812556</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9337,6 +9551,6 @@
       <c r="M261" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest TRV.xlsx
+++ b/BackTest/2019-10-29 BackTest TRV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1573,17 +1573,11 @@
         <v>-6801498.065300047</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>56.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1620,7 +1614,7 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -2665,11 +2659,9 @@
         <v>-7113890.318790592</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>57.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2821,11 +2813,9 @@
         <v>-6977929.802373128</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>57.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -2860,11 +2850,9 @@
         <v>-6899260.637873128</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>56.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
@@ -2977,11 +2965,9 @@
         <v>-6873444.817577309</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>56.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -3055,11 +3041,9 @@
         <v>-6907293.580643506</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>56.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -3094,11 +3078,9 @@
         <v>-6891435.830009703</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>56.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -3133,11 +3115,9 @@
         <v>-6918699.2245759</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>56.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3172,11 +3152,9 @@
         <v>-5866918.014515337</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>56.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3509,11 +3487,9 @@
         <v>-5771080.839948148</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>57.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3548,11 +3524,9 @@
         <v>-5822025.188748147</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>57.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -3587,11 +3561,9 @@
         <v>-5828112.606748147</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>57.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -3626,11 +3598,9 @@
         <v>-5828112.606748147</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>57.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
@@ -3665,11 +3635,9 @@
         <v>-5828112.606748147</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>57.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
@@ -3704,11 +3672,9 @@
         <v>12174249.12885185</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>57.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
@@ -3743,11 +3709,9 @@
         <v>12174249.12885185</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>57.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
@@ -4189,18 +4153,16 @@
         <v>65139429.70966502</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
@@ -4226,15 +4188,11 @@
         <v>65007953.10276502</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4263,15 +4221,11 @@
         <v>65063116.96706502</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4300,15 +4254,11 @@
         <v>65144290.94326502</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4337,15 +4287,11 @@
         <v>65257550.91526502</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4378,11 +4324,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4415,11 +4357,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4452,11 +4390,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4489,11 +4423,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4526,11 +4456,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4563,11 +4489,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4600,11 +4522,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4633,15 +4551,11 @@
         <v>66190393.00317512</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4670,15 +4584,11 @@
         <v>66117389.30497511</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4707,15 +4617,11 @@
         <v>65977908.20477431</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4744,15 +4650,11 @@
         <v>65902643.70497431</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4781,15 +4683,11 @@
         <v>65994434.09537431</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4818,15 +4716,11 @@
         <v>65994434.09537431</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4855,15 +4749,11 @@
         <v>66022425.1389856</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4892,15 +4782,11 @@
         <v>65896335.2926856</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4929,15 +4815,11 @@
         <v>65744455.73791904</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4966,15 +4848,11 @@
         <v>65529270.12870797</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5003,15 +4881,11 @@
         <v>65327138.52181204</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5040,15 +4914,11 @@
         <v>65276467.12171204</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5077,15 +4947,11 @@
         <v>65355031.24021204</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5118,11 +4984,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5155,11 +5017,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5192,11 +5050,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5229,11 +5083,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5266,11 +5116,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5303,11 +5149,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5340,11 +5182,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5377,11 +5215,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5414,11 +5248,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5451,11 +5281,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5488,11 +5314,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5525,11 +5347,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5562,11 +5380,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5599,11 +5413,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5636,11 +5446,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5673,11 +5479,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5710,11 +5512,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5743,16 +5541,14 @@
         <v>65099993.12546924</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
       <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
@@ -5778,7 +5574,7 @@
         <v>64972650.38776924</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5811,7 +5607,7 @@
         <v>64976235.88946924</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5844,7 +5640,7 @@
         <v>65035443.76696923</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5877,7 +5673,7 @@
         <v>65055615.69898184</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5910,7 +5706,7 @@
         <v>65097978.55568185</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5943,7 +5739,7 @@
         <v>65091413.38138185</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5976,7 +5772,7 @@
         <v>65034032.14468185</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6009,7 +5805,7 @@
         <v>64946668.96818185</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6042,7 +5838,7 @@
         <v>64944879.42768185</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6075,7 +5871,7 @@
         <v>64946430.04002675</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6108,7 +5904,7 @@
         <v>64946366.62112675</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6141,7 +5937,7 @@
         <v>64977945.67034627</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6174,7 +5970,7 @@
         <v>64977895.67034627</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6207,7 +6003,7 @@
         <v>64977895.67034627</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6240,7 +6036,7 @@
         <v>64961003.58604628</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6273,7 +6069,7 @@
         <v>64961003.58604628</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6306,7 +6102,7 @@
         <v>65003362.96244628</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6339,7 +6135,7 @@
         <v>65048455.81834628</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6372,7 +6168,7 @@
         <v>65124600.49424627</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6405,7 +6201,7 @@
         <v>65124600.49424627</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6438,7 +6234,7 @@
         <v>65237452.40174627</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6471,7 +6267,7 @@
         <v>65404319.34709283</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6504,7 +6300,7 @@
         <v>65386628.70929283</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6537,7 +6333,7 @@
         <v>65341337.38999283</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6570,7 +6366,7 @@
         <v>65213886.81339283</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6603,7 +6399,7 @@
         <v>65336132.67319283</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6636,7 +6432,7 @@
         <v>65272392.60479283</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6669,7 +6465,7 @@
         <v>65272392.60479283</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6702,7 +6498,7 @@
         <v>65187796.45569283</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6735,7 +6531,7 @@
         <v>65133664.85709283</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6768,7 +6564,7 @@
         <v>65195712.92089283</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6801,7 +6597,7 @@
         <v>65202926.80559283</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6834,7 +6630,7 @@
         <v>65238923.34139283</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6867,7 +6663,7 @@
         <v>65208640.53979283</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6900,7 +6696,7 @@
         <v>65242872.97289283</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6933,7 +6729,7 @@
         <v>65242872.97289283</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6966,7 +6762,7 @@
         <v>65166531.88099283</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6999,7 +6795,7 @@
         <v>65034220.85809283</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7032,7 +6828,7 @@
         <v>65034726.77734915</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7065,7 +6861,7 @@
         <v>65034051.95623799</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7098,7 +6894,7 @@
         <v>65014944.65864574</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7131,7 +6927,7 @@
         <v>65035488.71444574</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7164,7 +6960,7 @@
         <v>65035488.71444574</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7197,7 +6993,7 @@
         <v>65035488.71444574</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7230,7 +7026,7 @@
         <v>64968802.81972526</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7263,7 +7059,7 @@
         <v>64952745.54342526</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7296,7 +7092,7 @@
         <v>64955598.26982526</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7329,7 +7125,7 @@
         <v>64925171.98042527</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7362,7 +7158,7 @@
         <v>64925171.98042527</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7395,7 +7191,7 @@
         <v>64975204.89502527</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7428,7 +7224,7 @@
         <v>65122797.32680479</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7461,7 +7257,7 @@
         <v>65129940.92594262</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7494,7 +7290,7 @@
         <v>65129940.92594262</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7527,7 +7323,7 @@
         <v>65117149.96704262</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7560,7 +7356,7 @@
         <v>65159472.46466635</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7593,7 +7389,7 @@
         <v>65018805.09466635</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7626,7 +7422,7 @@
         <v>65012733.30346636</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7659,7 +7455,7 @@
         <v>65023062.01536636</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7692,7 +7488,7 @@
         <v>65022324.81616636</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7725,7 +7521,7 @@
         <v>65007240.12046637</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7758,7 +7554,7 @@
         <v>64965500.46176637</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7791,7 +7587,7 @@
         <v>64965500.46176637</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7824,7 +7620,7 @@
         <v>65057917.99266637</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7857,7 +7653,7 @@
         <v>65017285.87502556</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7890,7 +7686,7 @@
         <v>65008822.46382556</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7923,7 +7719,7 @@
         <v>64989131.29112556</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7956,7 +7752,7 @@
         <v>65012883.88062556</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7989,7 +7785,7 @@
         <v>65033131.43252556</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8022,7 +7818,7 @@
         <v>65033131.43252556</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8055,7 +7851,7 @@
         <v>65032955.43252556</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8088,7 +7884,7 @@
         <v>65032955.43252556</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8121,7 +7917,7 @@
         <v>65042283.07302556</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8154,7 +7950,7 @@
         <v>65042273.07302556</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8187,7 +7983,7 @@
         <v>65075388.43332556</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8220,7 +8016,7 @@
         <v>65104314.02852556</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8253,7 +8049,7 @@
         <v>65120345.34452556</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8286,7 +8082,7 @@
         <v>65114313.39542556</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8319,7 +8115,7 @@
         <v>65114303.39542556</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8352,7 +8148,7 @@
         <v>65108584.18392556</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8385,7 +8181,7 @@
         <v>65108584.18392556</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8418,7 +8214,7 @@
         <v>65075653.38762556</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8451,7 +8247,7 @@
         <v>65127818.19842556</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8484,7 +8280,7 @@
         <v>65145543.88372556</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8517,7 +8313,7 @@
         <v>64983341.46762556</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8550,7 +8346,7 @@
         <v>64934306.87402556</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8583,7 +8379,7 @@
         <v>65058558.97152556</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8616,7 +8412,7 @@
         <v>65068488.97152556</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8649,7 +8445,7 @@
         <v>65039997.56642555</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8682,7 +8478,7 @@
         <v>64865427.81382556</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9551,6 +9347,6 @@
       <c r="M261" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest TRV.xlsx
+++ b/BackTest/2019-10-29 BackTest TRV.xlsx
@@ -484,7 +484,7 @@
         <v>-3968438.944970295</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-4163784.563870295</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-4284644.513970295</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-4705638.797270295</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-4631034.863670295</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-4664883.729670295</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-4557746.973770295</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-4503418.500070295</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-4405389.614970296</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-4054989.998484134</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-4054989.998484134</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-4266697.539884134</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-4312739.195884135</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-4481333.642984135</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-4481333.642984135</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-4438279.775784135</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-4577207.479484135</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-4661776.032384135</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-4768287.431978232</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1606,17 +1606,11 @@
         <v>-6502780.937400048</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1645,17 +1639,11 @@
         <v>-7977167.642200047</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>56.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1684,17 +1672,11 @@
         <v>-8055132.06295719</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1723,17 +1705,11 @@
         <v>-7991582.697484654</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>55.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1770,7 +1746,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -1957,11 +1933,9 @@
         <v>-7564793.287095902</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -1996,11 +1970,9 @@
         <v>-7616143.480695902</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>57.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2035,11 +2007,9 @@
         <v>-7669400.092795902</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>57.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2074,11 +2044,9 @@
         <v>-7823184.531309136</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>57.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2113,11 +2081,9 @@
         <v>-7871743.583509136</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>56.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2659,9 +2625,11 @@
         <v>-7113890.318790592</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>57.3</v>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2887,11 +2855,9 @@
         <v>-6831955.673375219</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>57.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
@@ -2926,11 +2892,9 @@
         <v>-6846954.582677309</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>57.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -3041,9 +3005,11 @@
         <v>-6907293.580643506</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>56.8</v>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -3078,9 +3044,11 @@
         <v>-6891435.830009703</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>56.7</v>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -3115,9 +3083,11 @@
         <v>-6918699.2245759</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>56.8</v>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3152,9 +3122,11 @@
         <v>-5866918.014515337</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>56.6</v>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3302,18 +3274,16 @@
         <v>-5866918.014515337</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
@@ -3343,11 +3313,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3380,11 +3346,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3417,11 +3379,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3412,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3491,11 +3445,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3528,11 +3478,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3565,11 +3511,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3602,11 +3544,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3639,11 +3577,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3676,11 +3610,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3713,11 +3643,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3750,11 +3676,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3787,11 +3709,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3824,11 +3742,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3861,11 +3775,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3898,11 +3808,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3935,11 +3841,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3972,11 +3874,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4009,11 +3907,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4046,11 +3940,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4083,11 +3973,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4120,11 +4006,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4153,16 +4035,14 @@
         <v>65139429.70966502</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
       <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
@@ -4188,7 +4068,7 @@
         <v>65007953.10276502</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4221,7 +4101,7 @@
         <v>65063116.96706502</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4254,7 +4134,7 @@
         <v>65144290.94326502</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4287,7 +4167,7 @@
         <v>65257550.91526502</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4551,7 +4431,7 @@
         <v>66190393.00317512</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4584,7 +4464,7 @@
         <v>66117389.30497511</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4617,7 +4497,7 @@
         <v>65977908.20477431</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4650,7 +4530,7 @@
         <v>65902643.70497431</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4683,7 +4563,7 @@
         <v>65994434.09537431</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4716,7 +4596,7 @@
         <v>65994434.09537431</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4749,7 +4629,7 @@
         <v>66022425.1389856</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4782,7 +4662,7 @@
         <v>65896335.2926856</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4815,7 +4695,7 @@
         <v>65744455.73791904</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4848,7 +4728,7 @@
         <v>65529270.12870797</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4881,7 +4761,7 @@
         <v>65327138.52181204</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4914,7 +4794,7 @@
         <v>65276467.12171204</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4947,7 +4827,7 @@
         <v>65355031.24021204</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>

--- a/BackTest/2019-10-29 BackTest TRV.xlsx
+++ b/BackTest/2019-10-29 BackTest TRV.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M261"/>
+  <dimension ref="A1:L261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>184649.4942</v>
       </c>
       <c r="G2" t="n">
-        <v>-3920996.528470295</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>47442.4165</v>
       </c>
       <c r="G3" t="n">
-        <v>-3968438.944970295</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>195345.6189</v>
       </c>
       <c r="G4" t="n">
-        <v>-4163784.563870295</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>120859.9501</v>
       </c>
       <c r="G5" t="n">
-        <v>-4284644.513970295</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>420994.2833</v>
       </c>
       <c r="G6" t="n">
-        <v>-4705638.797270295</v>
-      </c>
-      <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>74603.9336</v>
       </c>
       <c r="G7" t="n">
-        <v>-4631034.863670295</v>
-      </c>
-      <c r="H7" t="n">
         <v>2</v>
       </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>66421.7227</v>
       </c>
       <c r="G8" t="n">
-        <v>-4564613.140970295</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>100270.5887</v>
       </c>
       <c r="G9" t="n">
-        <v>-4664883.729670295</v>
-      </c>
-      <c r="H9" t="n">
         <v>2</v>
       </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>75050</v>
       </c>
       <c r="G10" t="n">
-        <v>-4664883.729670295</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>107136.7559</v>
       </c>
       <c r="G11" t="n">
-        <v>-4557746.973770295</v>
-      </c>
-      <c r="H11" t="n">
         <v>2</v>
       </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>54328.4737</v>
       </c>
       <c r="G12" t="n">
-        <v>-4503418.500070295</v>
-      </c>
-      <c r="H12" t="n">
         <v>2</v>
       </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>98028.8851</v>
       </c>
       <c r="G13" t="n">
-        <v>-4405389.614970296</v>
-      </c>
-      <c r="H13" t="n">
         <v>2</v>
       </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>350399.6164861614</v>
       </c>
       <c r="G14" t="n">
-        <v>-4054989.998484134</v>
-      </c>
-      <c r="H14" t="n">
         <v>2</v>
       </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>79891.86948924256</v>
       </c>
       <c r="G15" t="n">
-        <v>-4054989.998484134</v>
-      </c>
-      <c r="H15" t="n">
         <v>2</v>
       </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>211707.5414</v>
       </c>
       <c r="G16" t="n">
-        <v>-4266697.539884134</v>
-      </c>
-      <c r="H16" t="n">
         <v>2</v>
       </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>46041.656</v>
       </c>
       <c r="G17" t="n">
-        <v>-4312739.195884135</v>
-      </c>
-      <c r="H17" t="n">
         <v>2</v>
       </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>168594.4471</v>
       </c>
       <c r="G18" t="n">
-        <v>-4481333.642984135</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>343991.1273</v>
       </c>
       <c r="G19" t="n">
-        <v>-4481333.642984135</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>43053.8672</v>
       </c>
       <c r="G20" t="n">
-        <v>-4438279.775784135</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>138927.7037</v>
       </c>
       <c r="G21" t="n">
-        <v>-4577207.479484135</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>84568.5529</v>
       </c>
       <c r="G22" t="n">
-        <v>-4661776.032384135</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>106511.3995940978</v>
       </c>
       <c r="G23" t="n">
-        <v>-4768287.431978232</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>291352.4785322609</v>
       </c>
       <c r="G24" t="n">
-        <v>-5059639.910510493</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>188480.39076927</v>
       </c>
       <c r="G25" t="n">
-        <v>-5248120.301279764</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>154174.6993156197</v>
       </c>
       <c r="G26" t="n">
-        <v>-5093945.601964144</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>216923.9186038436</v>
       </c>
       <c r="G27" t="n">
-        <v>-4877021.6833603</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>67754.23021814054</v>
       </c>
       <c r="G28" t="n">
-        <v>-4944775.91357844</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>396142.5330368376</v>
       </c>
       <c r="G29" t="n">
-        <v>-5340918.446615278</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>74693.72289999999</v>
       </c>
       <c r="G30" t="n">
-        <v>-5415612.169515278</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>99843.05258364249</v>
       </c>
       <c r="G31" t="n">
-        <v>-5315769.116931636</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>382.6035</v>
       </c>
       <c r="G32" t="n">
-        <v>-5316151.720431636</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>447577.4517</v>
       </c>
       <c r="G33" t="n">
-        <v>-5763729.172131636</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>353424.8378592242</v>
       </c>
       <c r="G34" t="n">
-        <v>-6117154.009990861</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>117393.9206</v>
       </c>
       <c r="G35" t="n">
-        <v>-6234547.930590861</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>566950.1347091873</v>
       </c>
       <c r="G36" t="n">
-        <v>-6801498.065300047</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>298717.1279</v>
       </c>
       <c r="G37" t="n">
-        <v>-6502780.937400048</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>1474386.7048</v>
       </c>
       <c r="G38" t="n">
-        <v>-7977167.642200047</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>77964.42075714286</v>
       </c>
       <c r="G39" t="n">
-        <v>-8055132.06295719</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>63549.36547253521</v>
       </c>
       <c r="G40" t="n">
-        <v>-7991582.697484654</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,2678 +1613,2475 @@
         <v>101301.1630890721</v>
       </c>
       <c r="G41" t="n">
-        <v>-7890281.534395582</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>56.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="C42" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="D42" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="E42" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="F42" t="n">
+        <v>124519.1393521923</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="C43" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="D43" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="E43" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="F43" t="n">
+        <v>142012.4341</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="C44" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="D44" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="E44" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="F44" t="n">
+        <v>101970.9242</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="C45" t="n">
+        <v>58</v>
+      </c>
+      <c r="D45" t="n">
+        <v>58</v>
+      </c>
+      <c r="E45" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="F45" t="n">
+        <v>7425.6724</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="C46" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="D46" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="E46" t="n">
+        <v>57</v>
+      </c>
+      <c r="F46" t="n">
+        <v>50439.922752513</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="C47" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="D47" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="E47" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="F47" t="n">
+        <v>51350.1936</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="C48" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="E48" t="n">
+        <v>57</v>
+      </c>
+      <c r="F48" t="n">
+        <v>53256.6121</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>57</v>
+      </c>
+      <c r="C49" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="D49" t="n">
+        <v>57</v>
+      </c>
+      <c r="E49" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="F49" t="n">
+        <v>153784.4385132343</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="C50" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="E50" t="n">
+        <v>56</v>
+      </c>
+      <c r="F50" t="n">
+        <v>48559.0522</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="D51" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="E51" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>136828.9766784452</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="C52" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="D52" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="E52" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="F52" t="n">
+        <v>29599.891</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="C53" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="D53" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="E53" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="F53" t="n">
+        <v>24600.4041</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="C54" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="E54" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="F54" t="n">
+        <v>18282.0511</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>56</v>
+      </c>
+      <c r="D55" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="E55" t="n">
+        <v>56</v>
+      </c>
+      <c r="F55" t="n">
+        <v>55704.6252</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>56</v>
+      </c>
+      <c r="C56" t="n">
+        <v>56</v>
+      </c>
+      <c r="D56" t="n">
+        <v>56</v>
+      </c>
+      <c r="E56" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="F56" t="n">
+        <v>52066.1977</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>56</v>
+      </c>
+      <c r="C57" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="D57" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="E57" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="F57" t="n">
+        <v>52173.896</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="D58" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="E58" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>192225.5661910583</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="C59" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="D59" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="E59" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="F59" t="n">
+        <v>279065.0619</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="C60" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="D60" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="E60" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="F60" t="n">
+        <v>204193.3515</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="C42" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="D42" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="E42" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="F42" t="n">
-        <v>124519.1393521923</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-7765762.39504339</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="C61" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="D61" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="E61" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="F61" t="n">
+        <v>38665.15849808363</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="C43" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="D43" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="E43" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="F43" t="n">
-        <v>142012.4341</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-7623749.96094339</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="E62" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="F62" t="n">
+        <v>35310.5146</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="C44" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="D44" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="E44" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="F44" t="n">
-        <v>101970.9242</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-7521779.036743389</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="D63" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="E63" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2663.60334904014</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="C45" t="n">
-        <v>58</v>
-      </c>
-      <c r="D45" t="n">
-        <v>58</v>
-      </c>
-      <c r="E45" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="F45" t="n">
-        <v>7425.6724</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-7514353.36434339</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="C64" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="D64" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="E64" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>62545.3669</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="C46" t="n">
-        <v>57.6</v>
-      </c>
-      <c r="D46" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="E46" t="n">
-        <v>57</v>
-      </c>
-      <c r="F46" t="n">
-        <v>50439.922752513</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-7564793.287095902</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="C65" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="D65" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="E65" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="F65" t="n">
+        <v>49721.0296</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>57.6</v>
-      </c>
-      <c r="C47" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="D47" t="n">
-        <v>57.6</v>
-      </c>
-      <c r="E47" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="F47" t="n">
-        <v>51350.1936</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-7616143.480695902</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="C66" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="D66" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="E66" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="F66" t="n">
+        <v>96549.00395095986</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="C48" t="n">
-        <v>57.2</v>
-      </c>
-      <c r="D48" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="E48" t="n">
-        <v>57</v>
-      </c>
-      <c r="F48" t="n">
-        <v>53256.6121</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-7669400.092795902</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="C67" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="D67" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="E67" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="F67" t="n">
+        <v>81194.02100191638</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>57</v>
-      </c>
-      <c r="C49" t="n">
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="C68" t="n">
         <v>56.4</v>
       </c>
-      <c r="D49" t="n">
-        <v>57</v>
-      </c>
-      <c r="E49" t="n">
+      <c r="D68" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="E68" t="n">
         <v>56.4</v>
       </c>
-      <c r="F49" t="n">
-        <v>153784.4385132343</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-7823184.531309136</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
+      <c r="F68" t="n">
+        <v>41782.5085354121</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="C50" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="D50" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="E50" t="n">
-        <v>56</v>
-      </c>
-      <c r="F50" t="n">
-        <v>48559.0522</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-7871743.583509136</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="C69" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="D69" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="E69" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="F69" t="n">
+        <v>78669.1645</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="C51" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="D51" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="E51" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="F51" t="n">
-        <v>136828.9766784452</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-7734914.606830691</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="C70" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="D70" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="E70" t="n">
+        <v>57</v>
+      </c>
+      <c r="F70" t="n">
+        <v>67304.9644979094</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="C52" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="D52" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="E52" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="F52" t="n">
-        <v>29599.891</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-7734914.606830691</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="C71" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="D71" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="E71" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="F71" t="n">
+        <v>14998.90930209059</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="C53" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="D53" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="E53" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="F53" t="n">
-        <v>24600.4041</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-7734914.606830691</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="C72" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="D72" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="E72" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="F72" t="n">
+        <v>26490.2349</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="C54" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="D54" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="E54" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="F54" t="n">
-        <v>18282.0511</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-7753196.657930691</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="C73" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="D73" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="E73" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="F73" t="n">
+        <v>40499.4065</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="C55" t="n">
-        <v>56</v>
-      </c>
-      <c r="D55" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="E55" t="n">
-        <v>56</v>
-      </c>
-      <c r="F55" t="n">
-        <v>55704.6252</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-7808901.28313069</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="C74" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="D74" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="E74" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="F74" t="n">
+        <v>33848.76306619719</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>56</v>
-      </c>
-      <c r="C56" t="n">
-        <v>56</v>
-      </c>
-      <c r="D56" t="n">
-        <v>56</v>
-      </c>
-      <c r="E56" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="F56" t="n">
-        <v>52066.1977</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-7808901.28313069</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>56</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="C75" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="D75" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="E75" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F75" t="n">
+        <v>15857.75063380282</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>56</v>
-      </c>
-      <c r="C57" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="D57" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="E57" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="F57" t="n">
-        <v>52173.896</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-7756727.387130691</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>56</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="C76" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="D76" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="E76" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="F76" t="n">
+        <v>27263.39456619718</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="C77" t="n">
+        <v>57</v>
+      </c>
+      <c r="D77" t="n">
+        <v>57</v>
+      </c>
+      <c r="E77" t="n">
         <v>56.4</v>
       </c>
-      <c r="C58" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="D58" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="E58" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="F58" t="n">
-        <v>192225.5661910583</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-7564501.820939632</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
+      <c r="F77" t="n">
+        <v>1051781.210060563</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="C59" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="D59" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="E59" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="F59" t="n">
-        <v>279065.0619</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-7285436.759039632</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
+      <c r="C78" t="n">
+        <v>57</v>
+      </c>
+      <c r="D78" t="n">
+        <v>57</v>
+      </c>
+      <c r="E78" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="F78" t="n">
+        <v>71002062.3602</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="C60" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="D60" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="E60" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="F60" t="n">
-        <v>204193.3515</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-7081243.407539632</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>57</v>
+      </c>
+      <c r="C79" t="n">
+        <v>57</v>
+      </c>
+      <c r="D79" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="E79" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F79" t="n">
+        <v>127050494.0849</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="C61" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="D61" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="E61" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="F61" t="n">
-        <v>38665.15849808363</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-7081243.407539632</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>57</v>
+      </c>
+      <c r="C80" t="n">
+        <v>57</v>
+      </c>
+      <c r="D80" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="E80" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F80" t="n">
+        <v>136117335.1924093</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="C62" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="D62" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="E62" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="F62" t="n">
-        <v>35310.5146</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-7116553.922139633</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>57</v>
+      </c>
+      <c r="C81" t="n">
+        <v>57</v>
+      </c>
+      <c r="D81" t="n">
+        <v>57</v>
+      </c>
+      <c r="E81" t="n">
+        <v>57</v>
+      </c>
+      <c r="F81" t="n">
+        <v>77357334.207</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>57</v>
+      </c>
+      <c r="C82" t="n">
+        <v>57</v>
+      </c>
+      <c r="D82" t="n">
         <v>57.1</v>
       </c>
-      <c r="C63" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="D63" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="E63" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2663.60334904014</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-7113890.318790592</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
+      <c r="E82" t="n">
+        <v>57</v>
+      </c>
+      <c r="F82" t="n">
+        <v>31027540.44512807</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="C64" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="D64" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="E64" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="F64" t="n">
-        <v>62545.3669</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-7113890.318790592</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="C83" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="D83" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="E83" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="F83" t="n">
+        <v>14836.3921</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="C65" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="D65" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="E65" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="F65" t="n">
-        <v>49721.0296</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-7113890.318790592</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="C84" t="n">
+        <v>57</v>
+      </c>
+      <c r="D84" t="n">
+        <v>57</v>
+      </c>
+      <c r="E84" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="F84" t="n">
+        <v>12940.1231</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="C66" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="D66" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="E66" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="F66" t="n">
-        <v>96549.00395095986</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-7017341.314839632</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>57</v>
+      </c>
+      <c r="C85" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="D85" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="E85" t="n">
+        <v>57</v>
+      </c>
+      <c r="F85" t="n">
+        <v>102060.1217671886</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="C67" t="n">
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
         <v>57.7</v>
       </c>
-      <c r="D67" t="n">
+      <c r="C86" t="n">
         <v>57.7</v>
       </c>
-      <c r="E67" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="F67" t="n">
-        <v>81194.02100191638</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-6936147.293837716</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
+      <c r="D86" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="E86" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="F86" t="n">
+        <v>4326.6782</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="C87" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="D87" t="n">
         <v>57.7</v>
       </c>
-      <c r="C68" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="D68" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="E68" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="F68" t="n">
-        <v>41782.5085354121</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-6977929.802373128</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
+      <c r="E87" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="F87" t="n">
+        <v>50944.3488</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="C69" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="D69" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="E69" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="F69" t="n">
-        <v>78669.1645</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-6899260.637873128</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="C88" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="D88" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="E88" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="F88" t="n">
+        <v>6087.418</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="C70" t="n">
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
         <v>57.4</v>
       </c>
-      <c r="D70" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="E70" t="n">
-        <v>57</v>
-      </c>
-      <c r="F70" t="n">
-        <v>67304.9644979094</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-6831955.673375219</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
+      <c r="C89" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="D89" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="E89" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1715.5805</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
         <v>57.4</v>
       </c>
-      <c r="C71" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="D71" t="n">
+      <c r="C90" t="n">
         <v>57.4</v>
       </c>
-      <c r="E71" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="F71" t="n">
-        <v>14998.90930209059</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-6846954.582677309</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
+      <c r="D90" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="E90" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1717.4446</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="C72" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="D72" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="E72" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="F72" t="n">
-        <v>26490.2349</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-6873444.817577309</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="C91" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="D91" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="E91" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="F91" t="n">
+        <v>18002361.7356</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="C73" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="D73" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="E73" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="F73" t="n">
-        <v>40499.4065</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-6873444.817577309</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="C92" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="D92" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="E92" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="F92" t="n">
+        <v>134038003.0213991</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="C74" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="D74" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="E74" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="F74" t="n">
-        <v>33848.76306619719</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-6907293.580643506</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="C93" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="D93" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="E93" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="F93" t="n">
+        <v>28013085.02010879</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="C75" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="D75" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="E75" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="F75" t="n">
-        <v>15857.75063380282</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-6891435.830009703</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="C94" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="D94" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="E94" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="F94" t="n">
+        <v>9639.098599999999</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="C76" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="D76" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="E76" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="F76" t="n">
-        <v>27263.39456619718</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-6918699.2245759</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="C95" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="D95" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="E95" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2041913.5914</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="C77" t="n">
-        <v>57</v>
-      </c>
-      <c r="D77" t="n">
-        <v>57</v>
-      </c>
-      <c r="E77" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="F77" t="n">
-        <v>1051781.210060563</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-5866918.014515337</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="C96" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="D96" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="E96" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="F96" t="n">
+        <v>139292804.9656</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>57</v>
-      </c>
-      <c r="C78" t="n">
-        <v>57</v>
-      </c>
-      <c r="D78" t="n">
-        <v>57</v>
-      </c>
-      <c r="E78" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="F78" t="n">
-        <v>71002062.3602</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-5866918.014515337</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>57</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="C97" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="D97" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="E97" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="F97" t="n">
+        <v>25886103.0504</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>57</v>
-      </c>
-      <c r="C79" t="n">
-        <v>57</v>
-      </c>
-      <c r="D79" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="E79" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="F79" t="n">
-        <v>127050494.0849</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-5866918.014515337</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="C98" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="D98" t="n">
+        <v>59.2</v>
+      </c>
+      <c r="E98" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="F98" t="n">
+        <v>38158.7024945946</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>57</v>
-      </c>
-      <c r="C80" t="n">
-        <v>57</v>
-      </c>
-      <c r="D80" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="E80" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="F80" t="n">
-        <v>136117335.1924093</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-5866918.014515337</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>59.2</v>
+      </c>
+      <c r="E99" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="F99" t="n">
+        <v>26139.2919</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>57</v>
-      </c>
-      <c r="C81" t="n">
-        <v>57</v>
-      </c>
-      <c r="D81" t="n">
-        <v>57</v>
-      </c>
-      <c r="E81" t="n">
-        <v>57</v>
-      </c>
-      <c r="F81" t="n">
-        <v>77357334.207</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-5866918.014515337</v>
-      </c>
-      <c r="H81" t="n">
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="C100" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="D100" t="n">
+        <v>59.4</v>
+      </c>
+      <c r="E100" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="F100" t="n">
+        <v>158594.1741054054</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="C101" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="E101" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="F101" t="n">
+        <v>211032.6491282303</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="C102" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="D102" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="E102" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="F102" t="n">
+        <v>306391.6086703151</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="C103" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="D103" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="E103" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="F103" t="n">
+        <v>685300.04550584</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="C104" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D104" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="E104" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="F104" t="n">
+        <v>317710.3701</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>61</v>
+      </c>
+      <c r="C105" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="D105" t="n">
+        <v>61</v>
+      </c>
+      <c r="E105" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="F105" t="n">
+        <v>131476.6069</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="C106" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="D106" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="E106" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="F106" t="n">
+        <v>55163.8643</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="C107" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="D107" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="E107" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="F107" t="n">
+        <v>81173.9762</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="C108" t="n">
+        <v>61</v>
+      </c>
+      <c r="D108" t="n">
+        <v>61</v>
+      </c>
+      <c r="E108" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="F108" t="n">
+        <v>113259.972</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="C109" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="D109" t="n">
+        <v>61</v>
+      </c>
+      <c r="E109" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="F109" t="n">
+        <v>68975.50900000001</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="C110" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="D110" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="E110" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="F110" t="n">
+        <v>264527.4579</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="C111" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D111" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="E111" t="n">
+        <v>61</v>
+      </c>
+      <c r="F111" t="n">
+        <v>68331.64030718955</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="C112" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="D112" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="E112" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="F112" t="n">
+        <v>90782.07819281046</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="C113" t="n">
+        <v>61.7</v>
+      </c>
+      <c r="D113" t="n">
+        <v>61.7</v>
+      </c>
+      <c r="E113" t="n">
+        <v>61</v>
+      </c>
+      <c r="F113" t="n">
+        <v>306944.7903</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="C114" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="D114" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="E114" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="F114" t="n">
+        <v>533645.6855100961</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>61.7</v>
+      </c>
+      <c r="D115" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="E115" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="F115" t="n">
+        <v>262414.0553</v>
+      </c>
+      <c r="G115" t="n">
         <v>2</v>
       </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>57</v>
-      </c>
-      <c r="C82" t="n">
-        <v>57</v>
-      </c>
-      <c r="D82" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="E82" t="n">
-        <v>57</v>
-      </c>
-      <c r="F82" t="n">
-        <v>31027540.44512807</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-5866918.014515337</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="C83" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="D83" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="E83" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="F83" t="n">
-        <v>14836.3921</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-5881754.406615336</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="C84" t="n">
-        <v>57</v>
-      </c>
-      <c r="D84" t="n">
-        <v>57</v>
-      </c>
-      <c r="E84" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="F84" t="n">
-        <v>12940.1231</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-5868814.283515336</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>57</v>
-      </c>
-      <c r="C85" t="n">
-        <v>57.8</v>
-      </c>
-      <c r="D85" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="E85" t="n">
-        <v>57</v>
-      </c>
-      <c r="F85" t="n">
-        <v>102060.1217671886</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-5766754.161748148</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="C86" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="D86" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="E86" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="F86" t="n">
-        <v>4326.6782</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-5771080.839948148</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>57.6</v>
-      </c>
-      <c r="C87" t="n">
-        <v>57.6</v>
-      </c>
-      <c r="D87" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="E87" t="n">
-        <v>57.6</v>
-      </c>
-      <c r="F87" t="n">
-        <v>50944.3488</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-5822025.188748147</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>57.6</v>
-      </c>
-      <c r="C88" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="D88" t="n">
-        <v>57.6</v>
-      </c>
-      <c r="E88" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="F88" t="n">
-        <v>6087.418</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-5828112.606748147</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="C89" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="D89" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="E89" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="F89" t="n">
-        <v>1715.5805</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-5828112.606748147</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="C90" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="D90" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="E90" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="F90" t="n">
-        <v>1717.4446</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-5828112.606748147</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="C91" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="D91" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="E91" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="F91" t="n">
-        <v>18002361.7356</v>
-      </c>
-      <c r="G91" t="n">
-        <v>12174249.12885185</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="C92" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="D92" t="n">
-        <v>57.8</v>
-      </c>
-      <c r="E92" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="F92" t="n">
-        <v>134038003.0213991</v>
-      </c>
-      <c r="G92" t="n">
-        <v>12174249.12885185</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="C93" t="n">
-        <v>58.8</v>
-      </c>
-      <c r="D93" t="n">
-        <v>58.8</v>
-      </c>
-      <c r="E93" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="F93" t="n">
-        <v>28013085.02010879</v>
-      </c>
-      <c r="G93" t="n">
-        <v>40187334.14896064</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>58.5</v>
-      </c>
-      <c r="C94" t="n">
-        <v>58.8</v>
-      </c>
-      <c r="D94" t="n">
-        <v>58.8</v>
-      </c>
-      <c r="E94" t="n">
-        <v>58.5</v>
-      </c>
-      <c r="F94" t="n">
-        <v>9639.098599999999</v>
-      </c>
-      <c r="G94" t="n">
-        <v>40187334.14896064</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>58.8</v>
-      </c>
-      <c r="C95" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="D95" t="n">
-        <v>58.8</v>
-      </c>
-      <c r="E95" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="F95" t="n">
-        <v>2041913.5914</v>
-      </c>
-      <c r="G95" t="n">
-        <v>38145420.55756065</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="C96" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="D96" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="E96" t="n">
-        <v>58.2</v>
-      </c>
-      <c r="F96" t="n">
-        <v>139292804.9656</v>
-      </c>
-      <c r="G96" t="n">
-        <v>38145420.55756065</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="C97" t="n">
-        <v>58.7</v>
-      </c>
-      <c r="D97" t="n">
-        <v>58.7</v>
-      </c>
-      <c r="E97" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="F97" t="n">
-        <v>25886103.0504</v>
-      </c>
-      <c r="G97" t="n">
-        <v>64031523.60796064</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>58.7</v>
-      </c>
-      <c r="C98" t="n">
-        <v>58.8</v>
-      </c>
-      <c r="D98" t="n">
-        <v>59.2</v>
-      </c>
-      <c r="E98" t="n">
-        <v>58.7</v>
-      </c>
-      <c r="F98" t="n">
-        <v>38158.7024945946</v>
-      </c>
-      <c r="G98" t="n">
-        <v>64069682.31045523</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>59.1</v>
-      </c>
-      <c r="C99" t="n">
-        <v>59.1</v>
-      </c>
-      <c r="D99" t="n">
-        <v>59.2</v>
-      </c>
-      <c r="E99" t="n">
-        <v>59.1</v>
-      </c>
-      <c r="F99" t="n">
-        <v>26139.2919</v>
-      </c>
-      <c r="G99" t="n">
-        <v>64095821.60235523</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="C100" t="n">
-        <v>59.3</v>
-      </c>
-      <c r="D100" t="n">
-        <v>59.4</v>
-      </c>
-      <c r="E100" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="F100" t="n">
-        <v>158594.1741054054</v>
-      </c>
-      <c r="G100" t="n">
-        <v>64254415.77646064</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>59.5</v>
-      </c>
-      <c r="C101" t="n">
-        <v>60.1</v>
-      </c>
-      <c r="D101" t="n">
-        <v>60.1</v>
-      </c>
-      <c r="E101" t="n">
-        <v>59.5</v>
-      </c>
-      <c r="F101" t="n">
-        <v>211032.6491282303</v>
-      </c>
-      <c r="G101" t="n">
-        <v>64465448.42558887</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>60.1</v>
-      </c>
-      <c r="C102" t="n">
-        <v>60.2</v>
-      </c>
-      <c r="D102" t="n">
-        <v>60.3</v>
-      </c>
-      <c r="E102" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="F102" t="n">
-        <v>306391.6086703151</v>
-      </c>
-      <c r="G102" t="n">
-        <v>64771840.03425919</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>60.2</v>
-      </c>
-      <c r="C103" t="n">
-        <v>61.3</v>
-      </c>
-      <c r="D103" t="n">
-        <v>61.3</v>
-      </c>
-      <c r="E103" t="n">
-        <v>60.2</v>
-      </c>
-      <c r="F103" t="n">
-        <v>685300.04550584</v>
-      </c>
-      <c r="G103" t="n">
-        <v>65457140.07976502</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>61.2</v>
-      </c>
-      <c r="C104" t="n">
-        <v>61.2</v>
-      </c>
-      <c r="D104" t="n">
-        <v>61.6</v>
-      </c>
-      <c r="E104" t="n">
-        <v>61.2</v>
-      </c>
-      <c r="F104" t="n">
-        <v>317710.3701</v>
-      </c>
-      <c r="G104" t="n">
-        <v>65139429.70966502</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>61</v>
-      </c>
-      <c r="C105" t="n">
-        <v>60.1</v>
-      </c>
-      <c r="D105" t="n">
-        <v>61</v>
-      </c>
-      <c r="E105" t="n">
-        <v>60.1</v>
-      </c>
-      <c r="F105" t="n">
-        <v>131476.6069</v>
-      </c>
-      <c r="G105" t="n">
-        <v>65007953.10276502</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>60.2</v>
-      </c>
-      <c r="C106" t="n">
-        <v>60.2</v>
-      </c>
-      <c r="D106" t="n">
-        <v>60.9</v>
-      </c>
-      <c r="E106" t="n">
-        <v>60.2</v>
-      </c>
-      <c r="F106" t="n">
-        <v>55163.8643</v>
-      </c>
-      <c r="G106" t="n">
-        <v>65063116.96706502</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>60.2</v>
-      </c>
-      <c r="C107" t="n">
-        <v>60.5</v>
-      </c>
-      <c r="D107" t="n">
-        <v>60.5</v>
-      </c>
-      <c r="E107" t="n">
-        <v>60.2</v>
-      </c>
-      <c r="F107" t="n">
-        <v>81173.9762</v>
-      </c>
-      <c r="G107" t="n">
-        <v>65144290.94326502</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>60.9</v>
-      </c>
-      <c r="C108" t="n">
-        <v>61</v>
-      </c>
-      <c r="D108" t="n">
-        <v>61</v>
-      </c>
-      <c r="E108" t="n">
-        <v>60.5</v>
-      </c>
-      <c r="F108" t="n">
-        <v>113259.972</v>
-      </c>
-      <c r="G108" t="n">
-        <v>65257550.91526502</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>60.9</v>
-      </c>
-      <c r="C109" t="n">
-        <v>60.6</v>
-      </c>
-      <c r="D109" t="n">
-        <v>61</v>
-      </c>
-      <c r="E109" t="n">
-        <v>60.6</v>
-      </c>
-      <c r="F109" t="n">
-        <v>68975.50900000001</v>
-      </c>
-      <c r="G109" t="n">
-        <v>65188575.40626502</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>60.9</v>
-      </c>
-      <c r="C110" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="D110" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="E110" t="n">
-        <v>60.9</v>
-      </c>
-      <c r="F110" t="n">
-        <v>264527.4579</v>
-      </c>
-      <c r="G110" t="n">
-        <v>65453102.86416502</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>61.2</v>
-      </c>
-      <c r="C111" t="n">
-        <v>61.2</v>
-      </c>
-      <c r="D111" t="n">
-        <v>61.2</v>
-      </c>
-      <c r="E111" t="n">
-        <v>61</v>
-      </c>
-      <c r="F111" t="n">
-        <v>68331.64030718955</v>
-      </c>
-      <c r="G111" t="n">
-        <v>65521434.50447221</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>61.2</v>
-      </c>
-      <c r="C112" t="n">
-        <v>61.3</v>
-      </c>
-      <c r="D112" t="n">
-        <v>61.4</v>
-      </c>
-      <c r="E112" t="n">
-        <v>61.2</v>
-      </c>
-      <c r="F112" t="n">
-        <v>90782.07819281046</v>
-      </c>
-      <c r="G112" t="n">
-        <v>65612216.58266502</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>61.3</v>
-      </c>
-      <c r="C113" t="n">
-        <v>61.7</v>
-      </c>
-      <c r="D113" t="n">
-        <v>61.7</v>
-      </c>
-      <c r="E113" t="n">
-        <v>61</v>
-      </c>
-      <c r="F113" t="n">
-        <v>306944.7903</v>
-      </c>
-      <c r="G113" t="n">
-        <v>65919161.37296502</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>61.8</v>
-      </c>
-      <c r="C114" t="n">
-        <v>61.8</v>
-      </c>
-      <c r="D114" t="n">
-        <v>62.4</v>
-      </c>
-      <c r="E114" t="n">
-        <v>61.8</v>
-      </c>
-      <c r="F114" t="n">
-        <v>533645.6855100961</v>
-      </c>
-      <c r="G114" t="n">
-        <v>66452807.05847511</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>62.1</v>
-      </c>
-      <c r="C115" t="n">
-        <v>61.7</v>
-      </c>
-      <c r="D115" t="n">
-        <v>62.1</v>
-      </c>
-      <c r="E115" t="n">
-        <v>61.2</v>
-      </c>
-      <c r="F115" t="n">
-        <v>262414.0553</v>
-      </c>
-      <c r="G115" t="n">
-        <v>66190393.00317512</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4428,18 +4103,15 @@
         <v>28493.5016</v>
       </c>
       <c r="G116" t="n">
-        <v>66190393.00317512</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4461,18 +4133,15 @@
         <v>73003.6982</v>
       </c>
       <c r="G117" t="n">
-        <v>66117389.30497511</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4494,18 +4163,15 @@
         <v>139481.100200813</v>
       </c>
       <c r="G118" t="n">
-        <v>65977908.20477431</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4527,18 +4193,15 @@
         <v>75264.49980000001</v>
       </c>
       <c r="G119" t="n">
-        <v>65902643.70497431</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4560,18 +4223,15 @@
         <v>91790.3904</v>
       </c>
       <c r="G120" t="n">
-        <v>65994434.09537431</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4593,18 +4253,15 @@
         <v>250318.2907887097</v>
       </c>
       <c r="G121" t="n">
-        <v>65994434.09537431</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4626,18 +4283,15 @@
         <v>27991.04361129032</v>
       </c>
       <c r="G122" t="n">
-        <v>66022425.1389856</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4659,18 +4313,15 @@
         <v>126089.8463</v>
       </c>
       <c r="G123" t="n">
-        <v>65896335.2926856</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4692,18 +4343,15 @@
         <v>151879.5547665595</v>
       </c>
       <c r="G124" t="n">
-        <v>65744455.73791904</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4725,18 +4373,15 @@
         <v>215185.6092110754</v>
       </c>
       <c r="G125" t="n">
-        <v>65529270.12870797</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4758,18 +4403,15 @@
         <v>202131.6068959283</v>
       </c>
       <c r="G126" t="n">
-        <v>65327138.52181204</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4791,18 +4433,15 @@
         <v>50671.4001</v>
       </c>
       <c r="G127" t="n">
-        <v>65276467.12171204</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4824,18 +4463,15 @@
         <v>78564.1185</v>
       </c>
       <c r="G128" t="n">
-        <v>65355031.24021204</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4857,18 +4493,15 @@
         <v>116139.4281</v>
       </c>
       <c r="G129" t="n">
-        <v>65238891.81211204</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4890,18 +4523,15 @@
         <v>89447.45590718955</v>
       </c>
       <c r="G130" t="n">
-        <v>65238891.81211204</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4923,18 +4553,15 @@
         <v>54673.07648330605</v>
       </c>
       <c r="G131" t="n">
-        <v>65184218.73562873</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4956,18 +4583,15 @@
         <v>104233.1754</v>
       </c>
       <c r="G132" t="n">
-        <v>65288451.91102873</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4989,18 +4613,15 @@
         <v>93689.6326</v>
       </c>
       <c r="G133" t="n">
-        <v>65194762.27842873</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5022,18 +4643,15 @@
         <v>128052.9376</v>
       </c>
       <c r="G134" t="n">
-        <v>65066709.34082872</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5055,18 +4673,15 @@
         <v>227863.3954</v>
       </c>
       <c r="G135" t="n">
-        <v>64838845.94542872</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5088,18 +4703,15 @@
         <v>233605.6099</v>
       </c>
       <c r="G136" t="n">
-        <v>64605240.33552872</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5121,18 +4733,15 @@
         <v>74836.10060000001</v>
       </c>
       <c r="G137" t="n">
-        <v>64530404.23492873</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5154,18 +4763,15 @@
         <v>410988.2761</v>
       </c>
       <c r="G138" t="n">
-        <v>64941392.51102873</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5187,18 +4793,15 @@
         <v>128482.5190752137</v>
       </c>
       <c r="G139" t="n">
-        <v>65069875.03010394</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5220,18 +4823,15 @@
         <v>86465.8149</v>
       </c>
       <c r="G140" t="n">
-        <v>65156340.84500395</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5253,18 +4853,15 @@
         <v>8779.681</v>
       </c>
       <c r="G141" t="n">
-        <v>65147561.16400395</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5286,18 +4883,15 @@
         <v>41955.12093129252</v>
       </c>
       <c r="G142" t="n">
-        <v>65105606.04307266</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5319,18 +4913,15 @@
         <v>96036.55662658662</v>
       </c>
       <c r="G143" t="n">
-        <v>65105606.04307266</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5352,18 +4943,15 @@
         <v>55078.1228034188</v>
       </c>
       <c r="G144" t="n">
-        <v>65050527.92026924</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5385,18 +4973,15 @@
         <v>5112.5979</v>
       </c>
       <c r="G145" t="n">
-        <v>65055640.51816924</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5418,18 +5003,15 @@
         <v>44352.6073</v>
       </c>
       <c r="G146" t="n">
-        <v>65099993.12546924</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5451,18 +5033,15 @@
         <v>127342.7377</v>
       </c>
       <c r="G147" t="n">
-        <v>64972650.38776924</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5484,18 +5063,15 @@
         <v>3585.5017</v>
       </c>
       <c r="G148" t="n">
-        <v>64976235.88946924</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5517,18 +5093,15 @@
         <v>59207.8775</v>
       </c>
       <c r="G149" t="n">
-        <v>65035443.76696923</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5550,18 +5123,15 @@
         <v>20171.93201260647</v>
       </c>
       <c r="G150" t="n">
-        <v>65055615.69898184</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5583,18 +5153,15 @@
         <v>42362.8567</v>
       </c>
       <c r="G151" t="n">
-        <v>65097978.55568185</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5616,18 +5183,15 @@
         <v>6565.1743</v>
       </c>
       <c r="G152" t="n">
-        <v>65091413.38138185</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5649,18 +5213,15 @@
         <v>57381.2367</v>
       </c>
       <c r="G153" t="n">
-        <v>65034032.14468185</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5682,18 +5243,15 @@
         <v>87363.1765</v>
       </c>
       <c r="G154" t="n">
-        <v>64946668.96818185</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5715,18 +5273,15 @@
         <v>1789.5405</v>
       </c>
       <c r="G155" t="n">
-        <v>64944879.42768185</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5748,18 +5303,15 @@
         <v>1550.612344897959</v>
       </c>
       <c r="G156" t="n">
-        <v>64946430.04002675</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5781,18 +5333,15 @@
         <v>63.4189</v>
       </c>
       <c r="G157" t="n">
-        <v>64946366.62112675</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5814,18 +5363,15 @@
         <v>31579.04921952462</v>
       </c>
       <c r="G158" t="n">
-        <v>64977945.67034627</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5847,18 +5393,15 @@
         <v>50</v>
       </c>
       <c r="G159" t="n">
-        <v>64977895.67034627</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5880,18 +5423,15 @@
         <v>771.908</v>
       </c>
       <c r="G160" t="n">
-        <v>64977895.67034627</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5913,18 +5453,15 @@
         <v>16892.0843</v>
       </c>
       <c r="G161" t="n">
-        <v>64961003.58604628</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5946,18 +5483,15 @@
         <v>7857.6867</v>
       </c>
       <c r="G162" t="n">
-        <v>64961003.58604628</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5979,18 +5513,15 @@
         <v>42359.3764</v>
       </c>
       <c r="G163" t="n">
-        <v>65003362.96244628</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6012,18 +5543,15 @@
         <v>45092.8559</v>
       </c>
       <c r="G164" t="n">
-        <v>65048455.81834628</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6045,18 +5573,15 @@
         <v>76144.6759</v>
       </c>
       <c r="G165" t="n">
-        <v>65124600.49424627</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6078,18 +5603,15 @@
         <v>86497.166</v>
       </c>
       <c r="G166" t="n">
-        <v>65124600.49424627</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6111,18 +5633,15 @@
         <v>112851.9075</v>
       </c>
       <c r="G167" t="n">
-        <v>65237452.40174627</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6144,18 +5663,15 @@
         <v>166866.9453465574</v>
       </c>
       <c r="G168" t="n">
-        <v>65404319.34709283</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6177,18 +5693,15 @@
         <v>17690.6378</v>
       </c>
       <c r="G169" t="n">
-        <v>65386628.70929283</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6210,18 +5723,15 @@
         <v>45291.3193</v>
       </c>
       <c r="G170" t="n">
-        <v>65341337.38999283</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6243,18 +5753,15 @@
         <v>127450.5766</v>
       </c>
       <c r="G171" t="n">
-        <v>65213886.81339283</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6276,18 +5783,15 @@
         <v>122245.8598</v>
       </c>
       <c r="G172" t="n">
-        <v>65336132.67319283</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6309,18 +5813,15 @@
         <v>63740.0684</v>
       </c>
       <c r="G173" t="n">
-        <v>65272392.60479283</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6342,18 +5843,15 @@
         <v>75741.3897</v>
       </c>
       <c r="G174" t="n">
-        <v>65272392.60479283</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6375,18 +5873,15 @@
         <v>84596.1491</v>
       </c>
       <c r="G175" t="n">
-        <v>65187796.45569283</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6408,18 +5903,15 @@
         <v>54131.5986</v>
       </c>
       <c r="G176" t="n">
-        <v>65133664.85709283</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6441,18 +5933,15 @@
         <v>62048.0638</v>
       </c>
       <c r="G177" t="n">
-        <v>65195712.92089283</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6474,18 +5963,15 @@
         <v>7213.8847</v>
       </c>
       <c r="G178" t="n">
-        <v>65202926.80559283</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6507,18 +5993,15 @@
         <v>35996.5358</v>
       </c>
       <c r="G179" t="n">
-        <v>65238923.34139283</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6540,18 +6023,15 @@
         <v>30282.8016</v>
       </c>
       <c r="G180" t="n">
-        <v>65208640.53979283</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6573,18 +6053,15 @@
         <v>34232.4331</v>
       </c>
       <c r="G181" t="n">
-        <v>65242872.97289283</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6606,18 +6083,15 @@
         <v>10</v>
       </c>
       <c r="G182" t="n">
-        <v>65242872.97289283</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6639,18 +6113,15 @@
         <v>76341.0919</v>
       </c>
       <c r="G183" t="n">
-        <v>65166531.88099283</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6672,18 +6143,15 @@
         <v>132311.0229</v>
       </c>
       <c r="G184" t="n">
-        <v>65034220.85809283</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6705,18 +6173,15 @@
         <v>505.9192563237774</v>
       </c>
       <c r="G185" t="n">
-        <v>65034726.77734915</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6738,18 +6203,15 @@
         <v>674.821111161752</v>
       </c>
       <c r="G186" t="n">
-        <v>65034051.95623799</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6771,18 +6233,15 @@
         <v>19107.29759224283</v>
       </c>
       <c r="G187" t="n">
-        <v>65014944.65864574</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6804,18 +6263,15 @@
         <v>20544.0558</v>
       </c>
       <c r="G188" t="n">
-        <v>65035488.71444574</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6837,18 +6293,15 @@
         <v>2346.3055</v>
       </c>
       <c r="G189" t="n">
-        <v>65035488.71444574</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6870,18 +6323,15 @@
         <v>174.6010186757215</v>
       </c>
       <c r="G190" t="n">
-        <v>65035488.71444574</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6903,18 +6353,15 @@
         <v>66685.89472047781</v>
       </c>
       <c r="G191" t="n">
-        <v>64968802.81972526</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6936,18 +6383,15 @@
         <v>16057.2763</v>
       </c>
       <c r="G192" t="n">
-        <v>64952745.54342526</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6969,18 +6413,15 @@
         <v>2852.7264</v>
       </c>
       <c r="G193" t="n">
-        <v>64955598.26982526</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7002,18 +6443,15 @@
         <v>30426.2894</v>
       </c>
       <c r="G194" t="n">
-        <v>64925171.98042527</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7035,18 +6473,15 @@
         <v>17700.0992</v>
       </c>
       <c r="G195" t="n">
-        <v>64925171.98042527</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7068,18 +6503,15 @@
         <v>50032.9146</v>
       </c>
       <c r="G196" t="n">
-        <v>64975204.89502527</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7101,18 +6533,15 @@
         <v>147592.4317795222</v>
       </c>
       <c r="G197" t="n">
-        <v>65122797.32680479</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7134,18 +6563,15 @@
         <v>7143.599137837838</v>
       </c>
       <c r="G198" t="n">
-        <v>65129940.92594262</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7167,18 +6593,15 @@
         <v>22910.1178</v>
       </c>
       <c r="G199" t="n">
-        <v>65129940.92594262</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7200,18 +6623,15 @@
         <v>12790.9589</v>
       </c>
       <c r="G200" t="n">
-        <v>65117149.96704262</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7233,18 +6653,15 @@
         <v>42322.49762372881</v>
       </c>
       <c r="G201" t="n">
-        <v>65159472.46466635</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7266,18 +6683,15 @@
         <v>140667.37</v>
       </c>
       <c r="G202" t="n">
-        <v>65018805.09466635</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7299,18 +6713,15 @@
         <v>6071.7912</v>
       </c>
       <c r="G203" t="n">
-        <v>65012733.30346636</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7332,18 +6743,15 @@
         <v>10328.7119</v>
       </c>
       <c r="G204" t="n">
-        <v>65023062.01536636</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7365,18 +6773,15 @@
         <v>737.1992</v>
       </c>
       <c r="G205" t="n">
-        <v>65022324.81616636</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7398,18 +6803,15 @@
         <v>15084.6957</v>
       </c>
       <c r="G206" t="n">
-        <v>65007240.12046637</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7431,18 +6833,15 @@
         <v>41739.6587</v>
       </c>
       <c r="G207" t="n">
-        <v>64965500.46176637</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7464,18 +6863,15 @@
         <v>39034.7911</v>
       </c>
       <c r="G208" t="n">
-        <v>64965500.46176637</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7497,18 +6893,15 @@
         <v>92417.5309</v>
       </c>
       <c r="G209" t="n">
-        <v>65057917.99266637</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7530,18 +6923,15 @@
         <v>40632.11764080945</v>
       </c>
       <c r="G210" t="n">
-        <v>65017285.87502556</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7563,18 +6953,15 @@
         <v>8463.4112</v>
       </c>
       <c r="G211" t="n">
-        <v>65008822.46382556</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7596,18 +6983,15 @@
         <v>19691.1727</v>
       </c>
       <c r="G212" t="n">
-        <v>64989131.29112556</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7629,18 +7013,15 @@
         <v>23752.5895</v>
       </c>
       <c r="G213" t="n">
-        <v>65012883.88062556</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7662,18 +7043,15 @@
         <v>20247.5519</v>
       </c>
       <c r="G214" t="n">
-        <v>65033131.43252556</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7695,18 +7073,15 @@
         <v>48180.9645</v>
       </c>
       <c r="G215" t="n">
-        <v>65033131.43252556</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7728,18 +7103,15 @@
         <v>176</v>
       </c>
       <c r="G216" t="n">
-        <v>65032955.43252556</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7761,18 +7133,15 @@
         <v>29091.0562</v>
       </c>
       <c r="G217" t="n">
-        <v>65032955.43252556</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7794,18 +7163,15 @@
         <v>9327.6405</v>
       </c>
       <c r="G218" t="n">
-        <v>65042283.07302556</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7827,18 +7193,15 @@
         <v>10</v>
       </c>
       <c r="G219" t="n">
-        <v>65042273.07302556</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7860,18 +7223,15 @@
         <v>33115.3603</v>
       </c>
       <c r="G220" t="n">
-        <v>65075388.43332556</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7893,18 +7253,15 @@
         <v>28925.5952</v>
       </c>
       <c r="G221" t="n">
-        <v>65104314.02852556</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7926,18 +7283,15 @@
         <v>16031.316</v>
       </c>
       <c r="G222" t="n">
-        <v>65120345.34452556</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7959,18 +7313,15 @@
         <v>6031.9491</v>
       </c>
       <c r="G223" t="n">
-        <v>65114313.39542556</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7992,18 +7343,15 @@
         <v>10</v>
       </c>
       <c r="G224" t="n">
-        <v>65114303.39542556</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8025,18 +7373,15 @@
         <v>5719.2115</v>
       </c>
       <c r="G225" t="n">
-        <v>65108584.18392556</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8058,18 +7403,15 @@
         <v>680.1357</v>
       </c>
       <c r="G226" t="n">
-        <v>65108584.18392556</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8091,18 +7433,15 @@
         <v>32930.7963</v>
       </c>
       <c r="G227" t="n">
-        <v>65075653.38762556</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8124,18 +7463,15 @@
         <v>52164.8108</v>
       </c>
       <c r="G228" t="n">
-        <v>65127818.19842556</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8157,18 +7493,15 @@
         <v>17725.6853</v>
       </c>
       <c r="G229" t="n">
-        <v>65145543.88372556</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8190,18 +7523,15 @@
         <v>162202.4161</v>
       </c>
       <c r="G230" t="n">
-        <v>64983341.46762556</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8223,18 +7553,15 @@
         <v>49034.5936</v>
       </c>
       <c r="G231" t="n">
-        <v>64934306.87402556</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8256,18 +7583,15 @@
         <v>124252.0975</v>
       </c>
       <c r="G232" t="n">
-        <v>65058558.97152556</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8289,18 +7613,15 @@
         <v>9930</v>
       </c>
       <c r="G233" t="n">
-        <v>65068488.97152556</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8322,18 +7643,15 @@
         <v>28491.4051</v>
       </c>
       <c r="G234" t="n">
-        <v>65039997.56642555</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8355,18 +7673,15 @@
         <v>174569.7526</v>
       </c>
       <c r="G235" t="n">
-        <v>64865427.81382556</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8388,18 +7703,15 @@
         <v>47770.4521</v>
       </c>
       <c r="G236" t="n">
-        <v>64817657.36172555</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8421,18 +7733,15 @@
         <v>48743.4991</v>
       </c>
       <c r="G237" t="n">
-        <v>64866400.86082555</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8454,18 +7763,15 @@
         <v>63188.3149</v>
       </c>
       <c r="G238" t="n">
-        <v>64929589.17572556</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8487,18 +7793,15 @@
         <v>48238.2601</v>
       </c>
       <c r="G239" t="n">
-        <v>64977827.43582556</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8520,18 +7823,15 @@
         <v>70972</v>
       </c>
       <c r="G240" t="n">
-        <v>64906855.43582556</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8553,18 +7853,15 @@
         <v>44787.1855</v>
       </c>
       <c r="G241" t="n">
-        <v>64906855.43582556</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8586,18 +7883,15 @@
         <v>45836.1674</v>
       </c>
       <c r="G242" t="n">
-        <v>64906855.43582556</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8619,18 +7913,15 @@
         <v>97868.3855</v>
       </c>
       <c r="G243" t="n">
-        <v>64808987.05032556</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8652,18 +7943,15 @@
         <v>38043.0902</v>
       </c>
       <c r="G244" t="n">
-        <v>64847030.14052556</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8685,18 +7973,15 @@
         <v>32722.653</v>
       </c>
       <c r="G245" t="n">
-        <v>64814307.48752556</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8718,18 +8003,15 @@
         <v>572.9535</v>
       </c>
       <c r="G246" t="n">
-        <v>64814307.48752556</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8751,18 +8033,15 @@
         <v>1080</v>
       </c>
       <c r="G247" t="n">
-        <v>64814307.48752556</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8784,18 +8063,15 @@
         <v>10620.688</v>
       </c>
       <c r="G248" t="n">
-        <v>64803686.79952556</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8817,18 +8093,15 @@
         <v>121435.8214</v>
       </c>
       <c r="G249" t="n">
-        <v>64682250.97812556</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8850,18 +8123,15 @@
         <v>20170</v>
       </c>
       <c r="G250" t="n">
-        <v>64702420.97812556</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8883,18 +8153,15 @@
         <v>46603.59226020942</v>
       </c>
       <c r="G251" t="n">
-        <v>64655817.38586535</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8916,18 +8183,15 @@
         <v>55</v>
       </c>
       <c r="G252" t="n">
-        <v>64655872.38586535</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8949,18 +8213,15 @@
         <v>39284.9676</v>
       </c>
       <c r="G253" t="n">
-        <v>64695157.35346535</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8982,18 +8243,15 @@
         <v>5155</v>
       </c>
       <c r="G254" t="n">
-        <v>64690002.35346535</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9015,18 +8273,15 @@
         <v>130</v>
       </c>
       <c r="G255" t="n">
-        <v>64690002.35346535</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9048,18 +8303,15 @@
         <v>17118.90426956522</v>
       </c>
       <c r="G256" t="n">
-        <v>64672883.44919578</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9081,18 +8333,15 @@
         <v>37298.3751</v>
       </c>
       <c r="G257" t="n">
-        <v>64710181.82429578</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9114,18 +8363,15 @@
         <v>3647.7821</v>
       </c>
       <c r="G258" t="n">
-        <v>64706534.04219578</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9147,18 +8393,15 @@
         <v>620</v>
       </c>
       <c r="G259" t="n">
-        <v>64707154.04219578</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9180,18 +8423,15 @@
         <v>141804.7276</v>
       </c>
       <c r="G260" t="n">
-        <v>64565349.31459578</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9213,18 +8453,15 @@
         <v>26984.8951</v>
       </c>
       <c r="G261" t="n">
-        <v>64565349.31459578</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
